--- a/mode8.xlsx
+++ b/mode8.xlsx
@@ -10,6 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="mode_8" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="mode_8_2025-06-07_17-12" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="mode_8_2025-06-18_18-34" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="mode_8_2025-06-22_20-46" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -3049,4 +3050,1310 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:G51"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>rank</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>lv</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>exp</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>acc</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>combo</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>pc</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>YA_GAMMER</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>35</v>
+      </c>
+      <c r="D2" t="n">
+        <v>158175</v>
+      </c>
+      <c r="E2" t="n">
+        <v>97.08</v>
+      </c>
+      <c r="F2" t="n">
+        <v>1123</v>
+      </c>
+      <c r="G2" t="n">
+        <v>868</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>KrisTheHumanFall</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>33</v>
+      </c>
+      <c r="D3" t="n">
+        <v>128588</v>
+      </c>
+      <c r="E3" t="n">
+        <v>96.02</v>
+      </c>
+      <c r="F3" t="n">
+        <v>1141</v>
+      </c>
+      <c r="G3" t="n">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Excited_Naive</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>32</v>
+      </c>
+      <c r="D4" t="n">
+        <v>108816</v>
+      </c>
+      <c r="E4" t="n">
+        <v>97.81</v>
+      </c>
+      <c r="F4" t="n">
+        <v>1374</v>
+      </c>
+      <c r="G4" t="n">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>-Koyuki-</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>27</v>
+      </c>
+      <c r="D5" t="n">
+        <v>56822</v>
+      </c>
+      <c r="E5" t="n">
+        <v>96.73999999999999</v>
+      </c>
+      <c r="F5" t="n">
+        <v>1130</v>
+      </c>
+      <c r="G5" t="n">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>F0rge</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>21</v>
+      </c>
+      <c r="D6" t="n">
+        <v>25705</v>
+      </c>
+      <c r="E6" t="n">
+        <v>97.77</v>
+      </c>
+      <c r="F6" t="n">
+        <v>1100</v>
+      </c>
+      <c r="G6" t="n">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Merak</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>18</v>
+      </c>
+      <c r="D7" t="n">
+        <v>16294</v>
+      </c>
+      <c r="E7" t="n">
+        <v>94.20999999999999</v>
+      </c>
+      <c r="F7" t="n">
+        <v>819</v>
+      </c>
+      <c r="G7" t="n">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Physic_est</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>18</v>
+      </c>
+      <c r="D8" t="n">
+        <v>15982</v>
+      </c>
+      <c r="E8" t="n">
+        <v>96.97</v>
+      </c>
+      <c r="F8" t="n">
+        <v>586</v>
+      </c>
+      <c r="G8" t="n">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>8</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>RedCatz</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>18</v>
+      </c>
+      <c r="D9" t="n">
+        <v>14867</v>
+      </c>
+      <c r="E9" t="n">
+        <v>97.40000000000001</v>
+      </c>
+      <c r="F9" t="n">
+        <v>1026</v>
+      </c>
+      <c r="G9" t="n">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>9</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>ReLWZJ_X</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>16</v>
+      </c>
+      <c r="D10" t="n">
+        <v>11553</v>
+      </c>
+      <c r="E10" t="n">
+        <v>98.44</v>
+      </c>
+      <c r="F10" t="n">
+        <v>896</v>
+      </c>
+      <c r="G10" t="n">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>10</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>NamelessBeing</t>
+        </is>
+      </c>
+      <c r="C11" t="n">
+        <v>16</v>
+      </c>
+      <c r="D11" t="n">
+        <v>11349</v>
+      </c>
+      <c r="E11" t="n">
+        <v>93.84</v>
+      </c>
+      <c r="F11" t="n">
+        <v>908</v>
+      </c>
+      <c r="G11" t="n">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>11</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>GongErguang</t>
+        </is>
+      </c>
+      <c r="C12" t="n">
+        <v>15</v>
+      </c>
+      <c r="D12" t="n">
+        <v>10191</v>
+      </c>
+      <c r="E12" t="n">
+        <v>95.92</v>
+      </c>
+      <c r="F12" t="n">
+        <v>1107</v>
+      </c>
+      <c r="G12" t="n">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>12</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>hazeiro</t>
+        </is>
+      </c>
+      <c r="C13" t="n">
+        <v>14</v>
+      </c>
+      <c r="D13" t="n">
+        <v>8912</v>
+      </c>
+      <c r="E13" t="n">
+        <v>94.86</v>
+      </c>
+      <c r="F13" t="n">
+        <v>1304</v>
+      </c>
+      <c r="G13" t="n">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>13</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>fffjssgd</t>
+        </is>
+      </c>
+      <c r="C14" t="n">
+        <v>14</v>
+      </c>
+      <c r="D14" t="n">
+        <v>8009</v>
+      </c>
+      <c r="E14" t="n">
+        <v>89.84</v>
+      </c>
+      <c r="F14" t="n">
+        <v>294</v>
+      </c>
+      <c r="G14" t="n">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>14</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Hetatis</t>
+        </is>
+      </c>
+      <c r="C15" t="n">
+        <v>13</v>
+      </c>
+      <c r="D15" t="n">
+        <v>7601</v>
+      </c>
+      <c r="E15" t="n">
+        <v>97.42</v>
+      </c>
+      <c r="F15" t="n">
+        <v>1132</v>
+      </c>
+      <c r="G15" t="n">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>15</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Alisabe</t>
+        </is>
+      </c>
+      <c r="C16" t="n">
+        <v>12</v>
+      </c>
+      <c r="D16" t="n">
+        <v>6641</v>
+      </c>
+      <c r="E16" t="n">
+        <v>90.68000000000001</v>
+      </c>
+      <c r="F16" t="n">
+        <v>909</v>
+      </c>
+      <c r="G16" t="n">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>16</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Laddie_Amoyensis</t>
+        </is>
+      </c>
+      <c r="C17" t="n">
+        <v>12</v>
+      </c>
+      <c r="D17" t="n">
+        <v>6311</v>
+      </c>
+      <c r="E17" t="n">
+        <v>99.59999999999999</v>
+      </c>
+      <c r="F17" t="n">
+        <v>1361</v>
+      </c>
+      <c r="G17" t="n">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>17</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>reonalll</t>
+        </is>
+      </c>
+      <c r="C18" t="n">
+        <v>12</v>
+      </c>
+      <c r="D18" t="n">
+        <v>5838</v>
+      </c>
+      <c r="E18" t="n">
+        <v>97.33</v>
+      </c>
+      <c r="F18" t="n">
+        <v>713</v>
+      </c>
+      <c r="G18" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>18</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>asarin</t>
+        </is>
+      </c>
+      <c r="C19" t="n">
+        <v>11</v>
+      </c>
+      <c r="D19" t="n">
+        <v>5487</v>
+      </c>
+      <c r="E19" t="n">
+        <v>83.7</v>
+      </c>
+      <c r="F19" t="n">
+        <v>542</v>
+      </c>
+      <c r="G19" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>19</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Lolimlive</t>
+        </is>
+      </c>
+      <c r="C20" t="n">
+        <v>11</v>
+      </c>
+      <c r="D20" t="n">
+        <v>5389</v>
+      </c>
+      <c r="E20" t="n">
+        <v>90.81999999999999</v>
+      </c>
+      <c r="F20" t="n">
+        <v>555</v>
+      </c>
+      <c r="G20" t="n">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>20</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Koishi_Komeiji</t>
+        </is>
+      </c>
+      <c r="C21" t="n">
+        <v>11</v>
+      </c>
+      <c r="D21" t="n">
+        <v>5153</v>
+      </c>
+      <c r="E21" t="n">
+        <v>96.56</v>
+      </c>
+      <c r="F21" t="n">
+        <v>1115</v>
+      </c>
+      <c r="G21" t="n">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>21</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Yasashima</t>
+        </is>
+      </c>
+      <c r="C22" t="n">
+        <v>11</v>
+      </c>
+      <c r="D22" t="n">
+        <v>4823</v>
+      </c>
+      <c r="E22" t="n">
+        <v>93.98</v>
+      </c>
+      <c r="F22" t="n">
+        <v>1050</v>
+      </c>
+      <c r="G22" t="n">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>22</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Yama0113</t>
+        </is>
+      </c>
+      <c r="C23" t="n">
+        <v>10</v>
+      </c>
+      <c r="D23" t="n">
+        <v>4779</v>
+      </c>
+      <c r="E23" t="n">
+        <v>92.44</v>
+      </c>
+      <c r="F23" t="n">
+        <v>905</v>
+      </c>
+      <c r="G23" t="n">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>23</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>abbbs-asc</t>
+        </is>
+      </c>
+      <c r="C24" t="n">
+        <v>10</v>
+      </c>
+      <c r="D24" t="n">
+        <v>4664</v>
+      </c>
+      <c r="E24" t="n">
+        <v>90.95</v>
+      </c>
+      <c r="F24" t="n">
+        <v>615</v>
+      </c>
+      <c r="G24" t="n">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>24</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>333XD</t>
+        </is>
+      </c>
+      <c r="C25" t="n">
+        <v>10</v>
+      </c>
+      <c r="D25" t="n">
+        <v>4262</v>
+      </c>
+      <c r="E25" t="n">
+        <v>88.31</v>
+      </c>
+      <c r="F25" t="n">
+        <v>693</v>
+      </c>
+      <c r="G25" t="n">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>25</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>0PoppinParty0</t>
+        </is>
+      </c>
+      <c r="C26" t="n">
+        <v>10</v>
+      </c>
+      <c r="D26" t="n">
+        <v>4162</v>
+      </c>
+      <c r="E26" t="n">
+        <v>96.09999999999999</v>
+      </c>
+      <c r="F26" t="n">
+        <v>908</v>
+      </c>
+      <c r="G26" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>26</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>4keyishard</t>
+        </is>
+      </c>
+      <c r="C27" t="n">
+        <v>10</v>
+      </c>
+      <c r="D27" t="n">
+        <v>4069</v>
+      </c>
+      <c r="E27" t="n">
+        <v>96.98</v>
+      </c>
+      <c r="F27" t="n">
+        <v>1396</v>
+      </c>
+      <c r="G27" t="n">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>27</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>RenAhah</t>
+        </is>
+      </c>
+      <c r="C28" t="n">
+        <v>9</v>
+      </c>
+      <c r="D28" t="n">
+        <v>3959</v>
+      </c>
+      <c r="E28" t="n">
+        <v>88.7</v>
+      </c>
+      <c r="F28" t="n">
+        <v>849</v>
+      </c>
+      <c r="G28" t="n">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>28</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>Zyt1yt</t>
+        </is>
+      </c>
+      <c r="C29" t="n">
+        <v>9</v>
+      </c>
+      <c r="D29" t="n">
+        <v>3908</v>
+      </c>
+      <c r="E29" t="n">
+        <v>92.3</v>
+      </c>
+      <c r="F29" t="n">
+        <v>905</v>
+      </c>
+      <c r="G29" t="n">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>29</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>Pop_Slime</t>
+        </is>
+      </c>
+      <c r="C30" t="n">
+        <v>9</v>
+      </c>
+      <c r="D30" t="n">
+        <v>3904</v>
+      </c>
+      <c r="E30" t="n">
+        <v>94.84</v>
+      </c>
+      <c r="F30" t="n">
+        <v>736</v>
+      </c>
+      <c r="G30" t="n">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>30</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>KangBasoTikus</t>
+        </is>
+      </c>
+      <c r="C31" t="n">
+        <v>9</v>
+      </c>
+      <c r="D31" t="n">
+        <v>3867</v>
+      </c>
+      <c r="E31" t="n">
+        <v>93.45</v>
+      </c>
+      <c r="F31" t="n">
+        <v>651</v>
+      </c>
+      <c r="G31" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>31</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>aaaa123</t>
+        </is>
+      </c>
+      <c r="C32" t="n">
+        <v>9</v>
+      </c>
+      <c r="D32" t="n">
+        <v>3559</v>
+      </c>
+      <c r="E32" t="n">
+        <v>96.17</v>
+      </c>
+      <c r="F32" t="n">
+        <v>1112</v>
+      </c>
+      <c r="G32" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>32</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>Lixinyan</t>
+        </is>
+      </c>
+      <c r="C33" t="n">
+        <v>9</v>
+      </c>
+      <c r="D33" t="n">
+        <v>3543</v>
+      </c>
+      <c r="E33" t="n">
+        <v>79.59</v>
+      </c>
+      <c r="F33" t="n">
+        <v>246</v>
+      </c>
+      <c r="G33" t="n">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>33</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>jyx042223</t>
+        </is>
+      </c>
+      <c r="C34" t="n">
+        <v>9</v>
+      </c>
+      <c r="D34" t="n">
+        <v>3446</v>
+      </c>
+      <c r="E34" t="n">
+        <v>91.58</v>
+      </c>
+      <c r="F34" t="n">
+        <v>780</v>
+      </c>
+      <c r="G34" t="n">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>34</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>forcal</t>
+        </is>
+      </c>
+      <c r="C35" t="n">
+        <v>8</v>
+      </c>
+      <c r="D35" t="n">
+        <v>3161</v>
+      </c>
+      <c r="E35" t="n">
+        <v>96.90000000000001</v>
+      </c>
+      <c r="F35" t="n">
+        <v>591</v>
+      </c>
+      <c r="G35" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>35</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>nekomyudon</t>
+        </is>
+      </c>
+      <c r="C36" t="n">
+        <v>8</v>
+      </c>
+      <c r="D36" t="n">
+        <v>2940</v>
+      </c>
+      <c r="E36" t="n">
+        <v>91.95</v>
+      </c>
+      <c r="F36" t="n">
+        <v>474</v>
+      </c>
+      <c r="G36" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>36</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>xiyan2002</t>
+        </is>
+      </c>
+      <c r="C37" t="n">
+        <v>8</v>
+      </c>
+      <c r="D37" t="n">
+        <v>2833</v>
+      </c>
+      <c r="E37" t="n">
+        <v>77.47</v>
+      </c>
+      <c r="F37" t="n">
+        <v>626</v>
+      </c>
+      <c r="G37" t="n">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>37</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>[Origami]</t>
+        </is>
+      </c>
+      <c r="C38" t="n">
+        <v>8</v>
+      </c>
+      <c r="D38" t="n">
+        <v>2733</v>
+      </c>
+      <c r="E38" t="n">
+        <v>92.81</v>
+      </c>
+      <c r="F38" t="n">
+        <v>879</v>
+      </c>
+      <c r="G38" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>38</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>myhome</t>
+        </is>
+      </c>
+      <c r="C39" t="n">
+        <v>7</v>
+      </c>
+      <c r="D39" t="n">
+        <v>2662</v>
+      </c>
+      <c r="E39" t="n">
+        <v>89.73999999999999</v>
+      </c>
+      <c r="F39" t="n">
+        <v>1131</v>
+      </c>
+      <c r="G39" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>39</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>niniin</t>
+        </is>
+      </c>
+      <c r="C40" t="n">
+        <v>7</v>
+      </c>
+      <c r="D40" t="n">
+        <v>2617</v>
+      </c>
+      <c r="E40" t="n">
+        <v>89.29000000000001</v>
+      </c>
+      <c r="F40" t="n">
+        <v>612</v>
+      </c>
+      <c r="G40" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>40</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>-Kori</t>
+        </is>
+      </c>
+      <c r="C41" t="n">
+        <v>7</v>
+      </c>
+      <c r="D41" t="n">
+        <v>2523</v>
+      </c>
+      <c r="E41" t="n">
+        <v>94.86</v>
+      </c>
+      <c r="F41" t="n">
+        <v>1115</v>
+      </c>
+      <c r="G41" t="n">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>41</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>AloneHitoriV</t>
+        </is>
+      </c>
+      <c r="C42" t="n">
+        <v>7</v>
+      </c>
+      <c r="D42" t="n">
+        <v>2431</v>
+      </c>
+      <c r="E42" t="n">
+        <v>91.25</v>
+      </c>
+      <c r="F42" t="n">
+        <v>595</v>
+      </c>
+      <c r="G42" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>42</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>fkruby</t>
+        </is>
+      </c>
+      <c r="C43" t="n">
+        <v>7</v>
+      </c>
+      <c r="D43" t="n">
+        <v>2280</v>
+      </c>
+      <c r="E43" t="n">
+        <v>93.04000000000001</v>
+      </c>
+      <c r="F43" t="n">
+        <v>705</v>
+      </c>
+      <c r="G43" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>43</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>feat_Konoka</t>
+        </is>
+      </c>
+      <c r="C44" t="n">
+        <v>7</v>
+      </c>
+      <c r="D44" t="n">
+        <v>2272</v>
+      </c>
+      <c r="E44" t="n">
+        <v>97.06</v>
+      </c>
+      <c r="F44" t="n">
+        <v>642</v>
+      </c>
+      <c r="G44" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>44</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>Kurenia</t>
+        </is>
+      </c>
+      <c r="C45" t="n">
+        <v>6</v>
+      </c>
+      <c r="D45" t="n">
+        <v>2152</v>
+      </c>
+      <c r="E45" t="n">
+        <v>94.42</v>
+      </c>
+      <c r="F45" t="n">
+        <v>379</v>
+      </c>
+      <c r="G45" t="n">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>45</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>JisusMP</t>
+        </is>
+      </c>
+      <c r="C46" t="n">
+        <v>6</v>
+      </c>
+      <c r="D46" t="n">
+        <v>2146</v>
+      </c>
+      <c r="E46" t="n">
+        <v>96.61</v>
+      </c>
+      <c r="F46" t="n">
+        <v>908</v>
+      </c>
+      <c r="G46" t="n">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>46</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>Qningshow</t>
+        </is>
+      </c>
+      <c r="C47" t="n">
+        <v>6</v>
+      </c>
+      <c r="D47" t="n">
+        <v>2115</v>
+      </c>
+      <c r="E47" t="n">
+        <v>93.73999999999999</v>
+      </c>
+      <c r="F47" t="n">
+        <v>534</v>
+      </c>
+      <c r="G47" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>47</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>cheesewtf</t>
+        </is>
+      </c>
+      <c r="C48" t="n">
+        <v>6</v>
+      </c>
+      <c r="D48" t="n">
+        <v>2033</v>
+      </c>
+      <c r="E48" t="n">
+        <v>86.90000000000001</v>
+      </c>
+      <c r="F48" t="n">
+        <v>698</v>
+      </c>
+      <c r="G48" t="n">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>48</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>LYX8002domino</t>
+        </is>
+      </c>
+      <c r="C49" t="n">
+        <v>6</v>
+      </c>
+      <c r="D49" t="n">
+        <v>1974</v>
+      </c>
+      <c r="E49" t="n">
+        <v>91.93000000000001</v>
+      </c>
+      <c r="F49" t="n">
+        <v>474</v>
+      </c>
+      <c r="G49" t="n">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>49</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>ImSayk</t>
+        </is>
+      </c>
+      <c r="C50" t="n">
+        <v>6</v>
+      </c>
+      <c r="D50" t="n">
+        <v>1940</v>
+      </c>
+      <c r="E50" t="n">
+        <v>90.44</v>
+      </c>
+      <c r="F50" t="n">
+        <v>551</v>
+      </c>
+      <c r="G50" t="n">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>50</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>pentaborda45</t>
+        </is>
+      </c>
+      <c r="C51" t="n">
+        <v>6</v>
+      </c>
+      <c r="D51" t="n">
+        <v>1893</v>
+      </c>
+      <c r="E51" t="n">
+        <v>95.94</v>
+      </c>
+      <c r="F51" t="n">
+        <v>757</v>
+      </c>
+      <c r="G51" t="n">
+        <v>39</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/mode8.xlsx
+++ b/mode8.xlsx
@@ -7,10 +7,10 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="mode_8" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="mode_8_2025-06-07_17-12" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="mode_8_2025-06-18_18-34" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="mode_8_2025-06-22_20-46" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="mode_8_2025-06-05_00-14" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="mode_8_2025-06-18_18-34" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="mode_8_2025-06-22_20-46" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="mode_8_2025-07-09_00-36" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -428,14 +428,1302 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A1"/>
+  <dimension ref="A1:G51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>rank</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>lv</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>exp</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>acc</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>combo</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>pc</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>YA_GAMMER</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>35</v>
+      </c>
+      <c r="D2" t="n">
+        <v>158175</v>
+      </c>
+      <c r="E2" t="n">
+        <v>97.08</v>
+      </c>
+      <c r="F2" t="n">
+        <v>1123</v>
+      </c>
+      <c r="G2" t="n">
+        <v>868</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>KrisTheHumanFall</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>33</v>
+      </c>
+      <c r="D3" t="n">
+        <v>128588</v>
+      </c>
+      <c r="E3" t="n">
+        <v>96.02</v>
+      </c>
+      <c r="F3" t="n">
+        <v>1141</v>
+      </c>
+      <c r="G3" t="n">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Excited_Naive</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>32</v>
+      </c>
+      <c r="D4" t="n">
+        <v>108816</v>
+      </c>
+      <c r="E4" t="n">
+        <v>97.81</v>
+      </c>
+      <c r="F4" t="n">
+        <v>1374</v>
+      </c>
+      <c r="G4" t="n">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>-Koyuki-</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>27</v>
+      </c>
+      <c r="D5" t="n">
+        <v>56822</v>
+      </c>
+      <c r="E5" t="n">
+        <v>96.73999999999999</v>
+      </c>
+      <c r="F5" t="n">
+        <v>1130</v>
+      </c>
+      <c r="G5" t="n">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>F0rge</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>21</v>
+      </c>
+      <c r="D6" t="n">
+        <v>25705</v>
+      </c>
+      <c r="E6" t="n">
+        <v>97.77</v>
+      </c>
+      <c r="F6" t="n">
+        <v>1100</v>
+      </c>
+      <c r="G6" t="n">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Merak</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>18</v>
+      </c>
+      <c r="D7" t="n">
+        <v>16294</v>
+      </c>
+      <c r="E7" t="n">
+        <v>94.20999999999999</v>
+      </c>
+      <c r="F7" t="n">
+        <v>819</v>
+      </c>
+      <c r="G7" t="n">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Physic_est</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>18</v>
+      </c>
+      <c r="D8" t="n">
+        <v>15982</v>
+      </c>
+      <c r="E8" t="n">
+        <v>96.97</v>
+      </c>
+      <c r="F8" t="n">
+        <v>586</v>
+      </c>
+      <c r="G8" t="n">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>8</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>RedCatz</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>18</v>
+      </c>
+      <c r="D9" t="n">
+        <v>14867</v>
+      </c>
+      <c r="E9" t="n">
+        <v>97.40000000000001</v>
+      </c>
+      <c r="F9" t="n">
+        <v>1026</v>
+      </c>
+      <c r="G9" t="n">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>9</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>ReLWZJ_X</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>16</v>
+      </c>
+      <c r="D10" t="n">
+        <v>11553</v>
+      </c>
+      <c r="E10" t="n">
+        <v>98.44</v>
+      </c>
+      <c r="F10" t="n">
+        <v>896</v>
+      </c>
+      <c r="G10" t="n">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>10</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>NamelessBeing</t>
+        </is>
+      </c>
+      <c r="C11" t="n">
+        <v>16</v>
+      </c>
+      <c r="D11" t="n">
+        <v>11349</v>
+      </c>
+      <c r="E11" t="n">
+        <v>93.84</v>
+      </c>
+      <c r="F11" t="n">
+        <v>908</v>
+      </c>
+      <c r="G11" t="n">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>11</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>GongErguang</t>
+        </is>
+      </c>
+      <c r="C12" t="n">
+        <v>15</v>
+      </c>
+      <c r="D12" t="n">
+        <v>10191</v>
+      </c>
+      <c r="E12" t="n">
+        <v>95.92</v>
+      </c>
+      <c r="F12" t="n">
+        <v>1107</v>
+      </c>
+      <c r="G12" t="n">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>12</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>hazeiro</t>
+        </is>
+      </c>
+      <c r="C13" t="n">
+        <v>14</v>
+      </c>
+      <c r="D13" t="n">
+        <v>8912</v>
+      </c>
+      <c r="E13" t="n">
+        <v>94.86</v>
+      </c>
+      <c r="F13" t="n">
+        <v>1304</v>
+      </c>
+      <c r="G13" t="n">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>13</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>fffjssgd</t>
+        </is>
+      </c>
+      <c r="C14" t="n">
+        <v>14</v>
+      </c>
+      <c r="D14" t="n">
+        <v>8009</v>
+      </c>
+      <c r="E14" t="n">
+        <v>89.84</v>
+      </c>
+      <c r="F14" t="n">
+        <v>294</v>
+      </c>
+      <c r="G14" t="n">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>14</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Hetatis</t>
+        </is>
+      </c>
+      <c r="C15" t="n">
+        <v>13</v>
+      </c>
+      <c r="D15" t="n">
+        <v>7601</v>
+      </c>
+      <c r="E15" t="n">
+        <v>97.42</v>
+      </c>
+      <c r="F15" t="n">
+        <v>1132</v>
+      </c>
+      <c r="G15" t="n">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>15</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Alisabe</t>
+        </is>
+      </c>
+      <c r="C16" t="n">
+        <v>12</v>
+      </c>
+      <c r="D16" t="n">
+        <v>6641</v>
+      </c>
+      <c r="E16" t="n">
+        <v>90.68000000000001</v>
+      </c>
+      <c r="F16" t="n">
+        <v>909</v>
+      </c>
+      <c r="G16" t="n">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>16</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Laddie_Amoyensis</t>
+        </is>
+      </c>
+      <c r="C17" t="n">
+        <v>12</v>
+      </c>
+      <c r="D17" t="n">
+        <v>6311</v>
+      </c>
+      <c r="E17" t="n">
+        <v>99.59999999999999</v>
+      </c>
+      <c r="F17" t="n">
+        <v>1361</v>
+      </c>
+      <c r="G17" t="n">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>17</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>reonalll</t>
+        </is>
+      </c>
+      <c r="C18" t="n">
+        <v>12</v>
+      </c>
+      <c r="D18" t="n">
+        <v>5838</v>
+      </c>
+      <c r="E18" t="n">
+        <v>97.33</v>
+      </c>
+      <c r="F18" t="n">
+        <v>713</v>
+      </c>
+      <c r="G18" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>18</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>asarin</t>
+        </is>
+      </c>
+      <c r="C19" t="n">
+        <v>11</v>
+      </c>
+      <c r="D19" t="n">
+        <v>5487</v>
+      </c>
+      <c r="E19" t="n">
+        <v>83.7</v>
+      </c>
+      <c r="F19" t="n">
+        <v>542</v>
+      </c>
+      <c r="G19" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>19</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Lolimlive</t>
+        </is>
+      </c>
+      <c r="C20" t="n">
+        <v>11</v>
+      </c>
+      <c r="D20" t="n">
+        <v>5389</v>
+      </c>
+      <c r="E20" t="n">
+        <v>90.81999999999999</v>
+      </c>
+      <c r="F20" t="n">
+        <v>555</v>
+      </c>
+      <c r="G20" t="n">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>20</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Koishi_Komeiji</t>
+        </is>
+      </c>
+      <c r="C21" t="n">
+        <v>11</v>
+      </c>
+      <c r="D21" t="n">
+        <v>5153</v>
+      </c>
+      <c r="E21" t="n">
+        <v>96.56</v>
+      </c>
+      <c r="F21" t="n">
+        <v>1115</v>
+      </c>
+      <c r="G21" t="n">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>21</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Yasashima</t>
+        </is>
+      </c>
+      <c r="C22" t="n">
+        <v>11</v>
+      </c>
+      <c r="D22" t="n">
+        <v>4823</v>
+      </c>
+      <c r="E22" t="n">
+        <v>93.98</v>
+      </c>
+      <c r="F22" t="n">
+        <v>1050</v>
+      </c>
+      <c r="G22" t="n">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>22</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Yama0113</t>
+        </is>
+      </c>
+      <c r="C23" t="n">
+        <v>10</v>
+      </c>
+      <c r="D23" t="n">
+        <v>4779</v>
+      </c>
+      <c r="E23" t="n">
+        <v>92.44</v>
+      </c>
+      <c r="F23" t="n">
+        <v>905</v>
+      </c>
+      <c r="G23" t="n">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>23</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>abbbs-asc</t>
+        </is>
+      </c>
+      <c r="C24" t="n">
+        <v>10</v>
+      </c>
+      <c r="D24" t="n">
+        <v>4664</v>
+      </c>
+      <c r="E24" t="n">
+        <v>90.95</v>
+      </c>
+      <c r="F24" t="n">
+        <v>615</v>
+      </c>
+      <c r="G24" t="n">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>24</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>333XD</t>
+        </is>
+      </c>
+      <c r="C25" t="n">
+        <v>10</v>
+      </c>
+      <c r="D25" t="n">
+        <v>4262</v>
+      </c>
+      <c r="E25" t="n">
+        <v>88.31</v>
+      </c>
+      <c r="F25" t="n">
+        <v>693</v>
+      </c>
+      <c r="G25" t="n">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>25</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>0PoppinParty0</t>
+        </is>
+      </c>
+      <c r="C26" t="n">
+        <v>10</v>
+      </c>
+      <c r="D26" t="n">
+        <v>4162</v>
+      </c>
+      <c r="E26" t="n">
+        <v>96.09999999999999</v>
+      </c>
+      <c r="F26" t="n">
+        <v>908</v>
+      </c>
+      <c r="G26" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>26</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>4keyishard</t>
+        </is>
+      </c>
+      <c r="C27" t="n">
+        <v>10</v>
+      </c>
+      <c r="D27" t="n">
+        <v>4069</v>
+      </c>
+      <c r="E27" t="n">
+        <v>96.98</v>
+      </c>
+      <c r="F27" t="n">
+        <v>1396</v>
+      </c>
+      <c r="G27" t="n">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>27</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>RenAhah</t>
+        </is>
+      </c>
+      <c r="C28" t="n">
+        <v>9</v>
+      </c>
+      <c r="D28" t="n">
+        <v>3959</v>
+      </c>
+      <c r="E28" t="n">
+        <v>88.7</v>
+      </c>
+      <c r="F28" t="n">
+        <v>849</v>
+      </c>
+      <c r="G28" t="n">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>28</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>Zyt1yt</t>
+        </is>
+      </c>
+      <c r="C29" t="n">
+        <v>9</v>
+      </c>
+      <c r="D29" t="n">
+        <v>3908</v>
+      </c>
+      <c r="E29" t="n">
+        <v>92.3</v>
+      </c>
+      <c r="F29" t="n">
+        <v>905</v>
+      </c>
+      <c r="G29" t="n">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>29</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>Pop_Slime</t>
+        </is>
+      </c>
+      <c r="C30" t="n">
+        <v>9</v>
+      </c>
+      <c r="D30" t="n">
+        <v>3904</v>
+      </c>
+      <c r="E30" t="n">
+        <v>94.84</v>
+      </c>
+      <c r="F30" t="n">
+        <v>736</v>
+      </c>
+      <c r="G30" t="n">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>30</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>KangBasoTikus</t>
+        </is>
+      </c>
+      <c r="C31" t="n">
+        <v>9</v>
+      </c>
+      <c r="D31" t="n">
+        <v>3867</v>
+      </c>
+      <c r="E31" t="n">
+        <v>93.45</v>
+      </c>
+      <c r="F31" t="n">
+        <v>651</v>
+      </c>
+      <c r="G31" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>31</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>aaaa123</t>
+        </is>
+      </c>
+      <c r="C32" t="n">
+        <v>9</v>
+      </c>
+      <c r="D32" t="n">
+        <v>3559</v>
+      </c>
+      <c r="E32" t="n">
+        <v>96.17</v>
+      </c>
+      <c r="F32" t="n">
+        <v>1112</v>
+      </c>
+      <c r="G32" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>32</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>Lixinyan</t>
+        </is>
+      </c>
+      <c r="C33" t="n">
+        <v>9</v>
+      </c>
+      <c r="D33" t="n">
+        <v>3543</v>
+      </c>
+      <c r="E33" t="n">
+        <v>79.59</v>
+      </c>
+      <c r="F33" t="n">
+        <v>246</v>
+      </c>
+      <c r="G33" t="n">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>33</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>jyx042223</t>
+        </is>
+      </c>
+      <c r="C34" t="n">
+        <v>9</v>
+      </c>
+      <c r="D34" t="n">
+        <v>3446</v>
+      </c>
+      <c r="E34" t="n">
+        <v>91.58</v>
+      </c>
+      <c r="F34" t="n">
+        <v>780</v>
+      </c>
+      <c r="G34" t="n">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>34</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>forcal</t>
+        </is>
+      </c>
+      <c r="C35" t="n">
+        <v>8</v>
+      </c>
+      <c r="D35" t="n">
+        <v>3161</v>
+      </c>
+      <c r="E35" t="n">
+        <v>96.90000000000001</v>
+      </c>
+      <c r="F35" t="n">
+        <v>591</v>
+      </c>
+      <c r="G35" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>35</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>nekomyudon</t>
+        </is>
+      </c>
+      <c r="C36" t="n">
+        <v>8</v>
+      </c>
+      <c r="D36" t="n">
+        <v>2940</v>
+      </c>
+      <c r="E36" t="n">
+        <v>91.95</v>
+      </c>
+      <c r="F36" t="n">
+        <v>474</v>
+      </c>
+      <c r="G36" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>36</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>xiyan2002</t>
+        </is>
+      </c>
+      <c r="C37" t="n">
+        <v>8</v>
+      </c>
+      <c r="D37" t="n">
+        <v>2833</v>
+      </c>
+      <c r="E37" t="n">
+        <v>77.47</v>
+      </c>
+      <c r="F37" t="n">
+        <v>626</v>
+      </c>
+      <c r="G37" t="n">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>37</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>[Origami]</t>
+        </is>
+      </c>
+      <c r="C38" t="n">
+        <v>8</v>
+      </c>
+      <c r="D38" t="n">
+        <v>2733</v>
+      </c>
+      <c r="E38" t="n">
+        <v>92.81</v>
+      </c>
+      <c r="F38" t="n">
+        <v>879</v>
+      </c>
+      <c r="G38" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>38</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>myhome</t>
+        </is>
+      </c>
+      <c r="C39" t="n">
+        <v>7</v>
+      </c>
+      <c r="D39" t="n">
+        <v>2662</v>
+      </c>
+      <c r="E39" t="n">
+        <v>89.73999999999999</v>
+      </c>
+      <c r="F39" t="n">
+        <v>1131</v>
+      </c>
+      <c r="G39" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>39</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>niniin</t>
+        </is>
+      </c>
+      <c r="C40" t="n">
+        <v>7</v>
+      </c>
+      <c r="D40" t="n">
+        <v>2617</v>
+      </c>
+      <c r="E40" t="n">
+        <v>89.29000000000001</v>
+      </c>
+      <c r="F40" t="n">
+        <v>612</v>
+      </c>
+      <c r="G40" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>40</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>-Kori</t>
+        </is>
+      </c>
+      <c r="C41" t="n">
+        <v>7</v>
+      </c>
+      <c r="D41" t="n">
+        <v>2523</v>
+      </c>
+      <c r="E41" t="n">
+        <v>94.86</v>
+      </c>
+      <c r="F41" t="n">
+        <v>1115</v>
+      </c>
+      <c r="G41" t="n">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>41</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>AloneHitoriV</t>
+        </is>
+      </c>
+      <c r="C42" t="n">
+        <v>7</v>
+      </c>
+      <c r="D42" t="n">
+        <v>2431</v>
+      </c>
+      <c r="E42" t="n">
+        <v>91.25</v>
+      </c>
+      <c r="F42" t="n">
+        <v>595</v>
+      </c>
+      <c r="G42" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>42</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>fkruby</t>
+        </is>
+      </c>
+      <c r="C43" t="n">
+        <v>7</v>
+      </c>
+      <c r="D43" t="n">
+        <v>2280</v>
+      </c>
+      <c r="E43" t="n">
+        <v>93.04000000000001</v>
+      </c>
+      <c r="F43" t="n">
+        <v>705</v>
+      </c>
+      <c r="G43" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>43</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>feat_Konoka</t>
+        </is>
+      </c>
+      <c r="C44" t="n">
+        <v>7</v>
+      </c>
+      <c r="D44" t="n">
+        <v>2272</v>
+      </c>
+      <c r="E44" t="n">
+        <v>97.06</v>
+      </c>
+      <c r="F44" t="n">
+        <v>642</v>
+      </c>
+      <c r="G44" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>44</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>Kurenia</t>
+        </is>
+      </c>
+      <c r="C45" t="n">
+        <v>6</v>
+      </c>
+      <c r="D45" t="n">
+        <v>2152</v>
+      </c>
+      <c r="E45" t="n">
+        <v>94.42</v>
+      </c>
+      <c r="F45" t="n">
+        <v>379</v>
+      </c>
+      <c r="G45" t="n">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>45</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>JisusMP</t>
+        </is>
+      </c>
+      <c r="C46" t="n">
+        <v>6</v>
+      </c>
+      <c r="D46" t="n">
+        <v>2146</v>
+      </c>
+      <c r="E46" t="n">
+        <v>96.61</v>
+      </c>
+      <c r="F46" t="n">
+        <v>908</v>
+      </c>
+      <c r="G46" t="n">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>46</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>Qningshow</t>
+        </is>
+      </c>
+      <c r="C47" t="n">
+        <v>6</v>
+      </c>
+      <c r="D47" t="n">
+        <v>2115</v>
+      </c>
+      <c r="E47" t="n">
+        <v>93.73999999999999</v>
+      </c>
+      <c r="F47" t="n">
+        <v>534</v>
+      </c>
+      <c r="G47" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>47</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>cheesewtf</t>
+        </is>
+      </c>
+      <c r="C48" t="n">
+        <v>6</v>
+      </c>
+      <c r="D48" t="n">
+        <v>2033</v>
+      </c>
+      <c r="E48" t="n">
+        <v>86.90000000000001</v>
+      </c>
+      <c r="F48" t="n">
+        <v>698</v>
+      </c>
+      <c r="G48" t="n">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>48</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>ImSayk</t>
+        </is>
+      </c>
+      <c r="C49" t="n">
+        <v>6</v>
+      </c>
+      <c r="D49" t="n">
+        <v>1940</v>
+      </c>
+      <c r="E49" t="n">
+        <v>90.44</v>
+      </c>
+      <c r="F49" t="n">
+        <v>551</v>
+      </c>
+      <c r="G49" t="n">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>49</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>pentaborda45</t>
+        </is>
+      </c>
+      <c r="C50" t="n">
+        <v>6</v>
+      </c>
+      <c r="D50" t="n">
+        <v>1893</v>
+      </c>
+      <c r="E50" t="n">
+        <v>95.94</v>
+      </c>
+      <c r="F50" t="n">
+        <v>757</v>
+      </c>
+      <c r="G50" t="n">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>50</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>BenLee1999</t>
+        </is>
+      </c>
+      <c r="C51" t="n">
+        <v>6</v>
+      </c>
+      <c r="D51" t="n">
+        <v>1886</v>
+      </c>
+      <c r="E51" t="n">
+        <v>91.93000000000001</v>
+      </c>
+      <c r="F51" t="n">
+        <v>453</v>
+      </c>
+      <c r="G51" t="n">
+        <v>11</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
@@ -1672,23 +2960,23 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>ImSayk</t>
+          <t>LYX8002domino</t>
         </is>
       </c>
       <c r="C49" t="n">
         <v>6</v>
       </c>
       <c r="D49" t="n">
-        <v>1940</v>
+        <v>1974</v>
       </c>
       <c r="E49" t="n">
-        <v>90.44</v>
+        <v>90.01000000000001</v>
       </c>
       <c r="F49" t="n">
-        <v>551</v>
+        <v>474</v>
       </c>
       <c r="G49" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="50">
@@ -1697,23 +2985,23 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>pentaborda45</t>
+          <t>ImSayk</t>
         </is>
       </c>
       <c r="C50" t="n">
         <v>6</v>
       </c>
       <c r="D50" t="n">
-        <v>1893</v>
+        <v>1940</v>
       </c>
       <c r="E50" t="n">
-        <v>95.94</v>
+        <v>90.44</v>
       </c>
       <c r="F50" t="n">
-        <v>757</v>
+        <v>551</v>
       </c>
       <c r="G50" t="n">
-        <v>39</v>
+        <v>26</v>
       </c>
     </row>
     <row r="51">
@@ -1722,23 +3010,23 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>BenLee1999</t>
+          <t>pentaborda45</t>
         </is>
       </c>
       <c r="C51" t="n">
         <v>6</v>
       </c>
       <c r="D51" t="n">
-        <v>1886</v>
+        <v>1893</v>
       </c>
       <c r="E51" t="n">
-        <v>91.93000000000001</v>
+        <v>95.94</v>
       </c>
       <c r="F51" t="n">
-        <v>453</v>
+        <v>757</v>
       </c>
       <c r="G51" t="n">
-        <v>11</v>
+        <v>39</v>
       </c>
     </row>
   </sheetData>
@@ -2988,7 +4276,7 @@
         <v>1974</v>
       </c>
       <c r="E49" t="n">
-        <v>90.01000000000001</v>
+        <v>91.93000000000001</v>
       </c>
       <c r="F49" t="n">
         <v>474</v>
@@ -3834,23 +5122,23 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>KangBasoTikus</t>
+          <t>aaaa123</t>
         </is>
       </c>
       <c r="C31" t="n">
         <v>9</v>
       </c>
       <c r="D31" t="n">
-        <v>3867</v>
+        <v>3876</v>
       </c>
       <c r="E31" t="n">
-        <v>93.45</v>
+        <v>96.17</v>
       </c>
       <c r="F31" t="n">
-        <v>651</v>
+        <v>1112</v>
       </c>
       <c r="G31" t="n">
-        <v>30</v>
+        <v>21</v>
       </c>
     </row>
     <row r="32">
@@ -3859,23 +5147,23 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>aaaa123</t>
+          <t>KangBasoTikus</t>
         </is>
       </c>
       <c r="C32" t="n">
         <v>9</v>
       </c>
       <c r="D32" t="n">
-        <v>3559</v>
+        <v>3867</v>
       </c>
       <c r="E32" t="n">
-        <v>96.17</v>
+        <v>93.45</v>
       </c>
       <c r="F32" t="n">
-        <v>1112</v>
+        <v>651</v>
       </c>
       <c r="G32" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
     </row>
     <row r="33">

--- a/mode8.xlsx
+++ b/mode8.xlsx
@@ -11,6 +11,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="mode_8_2025-06-18_18-34" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="mode_8_2025-06-22_20-46" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="mode_8_2025-07-09_00-36" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="mode_8" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -5644,4 +5645,22 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/mode8.xlsx
+++ b/mode8.xlsx
@@ -12,6 +12,9 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="mode_8_2025-06-22_20-46" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="mode_8_2025-07-09_00-36" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="mode_8" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="mode_8_2025-08-13_18-47" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="mode_8_2025-08-14_13-27" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="mode_8_2025-08-16_15-26" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -5663,4 +5666,3922 @@
   <sheetData/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:G51"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>rank</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>lv</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>exp</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>acc</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>combo</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>pc</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>YA_GAMMER</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>35</v>
+      </c>
+      <c r="D2" t="n">
+        <v>158175</v>
+      </c>
+      <c r="E2" t="n">
+        <v>97.08</v>
+      </c>
+      <c r="F2" t="n">
+        <v>1123</v>
+      </c>
+      <c r="G2" t="n">
+        <v>868</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>KrisTheHumanFall</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>33</v>
+      </c>
+      <c r="D3" t="n">
+        <v>128588</v>
+      </c>
+      <c r="E3" t="n">
+        <v>96.02</v>
+      </c>
+      <c r="F3" t="n">
+        <v>1141</v>
+      </c>
+      <c r="G3" t="n">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Excited_Naive</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>32</v>
+      </c>
+      <c r="D4" t="n">
+        <v>108816</v>
+      </c>
+      <c r="E4" t="n">
+        <v>97.81</v>
+      </c>
+      <c r="F4" t="n">
+        <v>1374</v>
+      </c>
+      <c r="G4" t="n">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>-Koyuki-</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>27</v>
+      </c>
+      <c r="D5" t="n">
+        <v>56822</v>
+      </c>
+      <c r="E5" t="n">
+        <v>96.73999999999999</v>
+      </c>
+      <c r="F5" t="n">
+        <v>1130</v>
+      </c>
+      <c r="G5" t="n">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>F0rge</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>21</v>
+      </c>
+      <c r="D6" t="n">
+        <v>25705</v>
+      </c>
+      <c r="E6" t="n">
+        <v>97.77</v>
+      </c>
+      <c r="F6" t="n">
+        <v>1100</v>
+      </c>
+      <c r="G6" t="n">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Merak</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>18</v>
+      </c>
+      <c r="D7" t="n">
+        <v>16294</v>
+      </c>
+      <c r="E7" t="n">
+        <v>94.20999999999999</v>
+      </c>
+      <c r="F7" t="n">
+        <v>819</v>
+      </c>
+      <c r="G7" t="n">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Physic_est</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>18</v>
+      </c>
+      <c r="D8" t="n">
+        <v>15982</v>
+      </c>
+      <c r="E8" t="n">
+        <v>96.97</v>
+      </c>
+      <c r="F8" t="n">
+        <v>586</v>
+      </c>
+      <c r="G8" t="n">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>8</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>RedCatz</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>18</v>
+      </c>
+      <c r="D9" t="n">
+        <v>14867</v>
+      </c>
+      <c r="E9" t="n">
+        <v>97.40000000000001</v>
+      </c>
+      <c r="F9" t="n">
+        <v>1026</v>
+      </c>
+      <c r="G9" t="n">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>9</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>ReLWZJ_X</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>16</v>
+      </c>
+      <c r="D10" t="n">
+        <v>11553</v>
+      </c>
+      <c r="E10" t="n">
+        <v>98.44</v>
+      </c>
+      <c r="F10" t="n">
+        <v>896</v>
+      </c>
+      <c r="G10" t="n">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>10</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>NamelessBeing</t>
+        </is>
+      </c>
+      <c r="C11" t="n">
+        <v>16</v>
+      </c>
+      <c r="D11" t="n">
+        <v>11349</v>
+      </c>
+      <c r="E11" t="n">
+        <v>93.84</v>
+      </c>
+      <c r="F11" t="n">
+        <v>908</v>
+      </c>
+      <c r="G11" t="n">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>11</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>GongErguang</t>
+        </is>
+      </c>
+      <c r="C12" t="n">
+        <v>15</v>
+      </c>
+      <c r="D12" t="n">
+        <v>10191</v>
+      </c>
+      <c r="E12" t="n">
+        <v>95.92</v>
+      </c>
+      <c r="F12" t="n">
+        <v>1107</v>
+      </c>
+      <c r="G12" t="n">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>12</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>hazeiro</t>
+        </is>
+      </c>
+      <c r="C13" t="n">
+        <v>14</v>
+      </c>
+      <c r="D13" t="n">
+        <v>8912</v>
+      </c>
+      <c r="E13" t="n">
+        <v>94.86</v>
+      </c>
+      <c r="F13" t="n">
+        <v>1304</v>
+      </c>
+      <c r="G13" t="n">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>13</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>fffjssgd</t>
+        </is>
+      </c>
+      <c r="C14" t="n">
+        <v>14</v>
+      </c>
+      <c r="D14" t="n">
+        <v>8009</v>
+      </c>
+      <c r="E14" t="n">
+        <v>89.84</v>
+      </c>
+      <c r="F14" t="n">
+        <v>294</v>
+      </c>
+      <c r="G14" t="n">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>14</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Hetatis</t>
+        </is>
+      </c>
+      <c r="C15" t="n">
+        <v>13</v>
+      </c>
+      <c r="D15" t="n">
+        <v>7601</v>
+      </c>
+      <c r="E15" t="n">
+        <v>97.42</v>
+      </c>
+      <c r="F15" t="n">
+        <v>1132</v>
+      </c>
+      <c r="G15" t="n">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>15</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Alisabe</t>
+        </is>
+      </c>
+      <c r="C16" t="n">
+        <v>12</v>
+      </c>
+      <c r="D16" t="n">
+        <v>6641</v>
+      </c>
+      <c r="E16" t="n">
+        <v>90.68000000000001</v>
+      </c>
+      <c r="F16" t="n">
+        <v>909</v>
+      </c>
+      <c r="G16" t="n">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>16</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Laddie_Amoyensis</t>
+        </is>
+      </c>
+      <c r="C17" t="n">
+        <v>12</v>
+      </c>
+      <c r="D17" t="n">
+        <v>6311</v>
+      </c>
+      <c r="E17" t="n">
+        <v>99.59999999999999</v>
+      </c>
+      <c r="F17" t="n">
+        <v>1361</v>
+      </c>
+      <c r="G17" t="n">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>17</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>reonalll</t>
+        </is>
+      </c>
+      <c r="C18" t="n">
+        <v>12</v>
+      </c>
+      <c r="D18" t="n">
+        <v>5838</v>
+      </c>
+      <c r="E18" t="n">
+        <v>97.33</v>
+      </c>
+      <c r="F18" t="n">
+        <v>713</v>
+      </c>
+      <c r="G18" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>18</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>asarin</t>
+        </is>
+      </c>
+      <c r="C19" t="n">
+        <v>11</v>
+      </c>
+      <c r="D19" t="n">
+        <v>5487</v>
+      </c>
+      <c r="E19" t="n">
+        <v>83.7</v>
+      </c>
+      <c r="F19" t="n">
+        <v>542</v>
+      </c>
+      <c r="G19" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>19</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Lolimlive</t>
+        </is>
+      </c>
+      <c r="C20" t="n">
+        <v>11</v>
+      </c>
+      <c r="D20" t="n">
+        <v>5389</v>
+      </c>
+      <c r="E20" t="n">
+        <v>90.81999999999999</v>
+      </c>
+      <c r="F20" t="n">
+        <v>555</v>
+      </c>
+      <c r="G20" t="n">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>20</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Koishi_Komeiji</t>
+        </is>
+      </c>
+      <c r="C21" t="n">
+        <v>11</v>
+      </c>
+      <c r="D21" t="n">
+        <v>5153</v>
+      </c>
+      <c r="E21" t="n">
+        <v>96.56</v>
+      </c>
+      <c r="F21" t="n">
+        <v>1115</v>
+      </c>
+      <c r="G21" t="n">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>21</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Yasashima</t>
+        </is>
+      </c>
+      <c r="C22" t="n">
+        <v>11</v>
+      </c>
+      <c r="D22" t="n">
+        <v>4823</v>
+      </c>
+      <c r="E22" t="n">
+        <v>93.98</v>
+      </c>
+      <c r="F22" t="n">
+        <v>1050</v>
+      </c>
+      <c r="G22" t="n">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>22</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Yama0113</t>
+        </is>
+      </c>
+      <c r="C23" t="n">
+        <v>10</v>
+      </c>
+      <c r="D23" t="n">
+        <v>4779</v>
+      </c>
+      <c r="E23" t="n">
+        <v>92.44</v>
+      </c>
+      <c r="F23" t="n">
+        <v>905</v>
+      </c>
+      <c r="G23" t="n">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>23</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>abbbs-asc</t>
+        </is>
+      </c>
+      <c r="C24" t="n">
+        <v>10</v>
+      </c>
+      <c r="D24" t="n">
+        <v>4664</v>
+      </c>
+      <c r="E24" t="n">
+        <v>90.95</v>
+      </c>
+      <c r="F24" t="n">
+        <v>615</v>
+      </c>
+      <c r="G24" t="n">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>24</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>333XD</t>
+        </is>
+      </c>
+      <c r="C25" t="n">
+        <v>10</v>
+      </c>
+      <c r="D25" t="n">
+        <v>4262</v>
+      </c>
+      <c r="E25" t="n">
+        <v>88.31</v>
+      </c>
+      <c r="F25" t="n">
+        <v>693</v>
+      </c>
+      <c r="G25" t="n">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>25</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>0PoppinParty0</t>
+        </is>
+      </c>
+      <c r="C26" t="n">
+        <v>10</v>
+      </c>
+      <c r="D26" t="n">
+        <v>4162</v>
+      </c>
+      <c r="E26" t="n">
+        <v>96.09999999999999</v>
+      </c>
+      <c r="F26" t="n">
+        <v>908</v>
+      </c>
+      <c r="G26" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>26</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>4keyishard</t>
+        </is>
+      </c>
+      <c r="C27" t="n">
+        <v>10</v>
+      </c>
+      <c r="D27" t="n">
+        <v>4069</v>
+      </c>
+      <c r="E27" t="n">
+        <v>96.98</v>
+      </c>
+      <c r="F27" t="n">
+        <v>1396</v>
+      </c>
+      <c r="G27" t="n">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>27</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>RenAhah</t>
+        </is>
+      </c>
+      <c r="C28" t="n">
+        <v>9</v>
+      </c>
+      <c r="D28" t="n">
+        <v>3959</v>
+      </c>
+      <c r="E28" t="n">
+        <v>88.7</v>
+      </c>
+      <c r="F28" t="n">
+        <v>849</v>
+      </c>
+      <c r="G28" t="n">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>28</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>Zyt1yt</t>
+        </is>
+      </c>
+      <c r="C29" t="n">
+        <v>9</v>
+      </c>
+      <c r="D29" t="n">
+        <v>3908</v>
+      </c>
+      <c r="E29" t="n">
+        <v>92.3</v>
+      </c>
+      <c r="F29" t="n">
+        <v>905</v>
+      </c>
+      <c r="G29" t="n">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>29</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>Pop_Slime</t>
+        </is>
+      </c>
+      <c r="C30" t="n">
+        <v>9</v>
+      </c>
+      <c r="D30" t="n">
+        <v>3904</v>
+      </c>
+      <c r="E30" t="n">
+        <v>94.84</v>
+      </c>
+      <c r="F30" t="n">
+        <v>736</v>
+      </c>
+      <c r="G30" t="n">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>30</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>aaaa123</t>
+        </is>
+      </c>
+      <c r="C31" t="n">
+        <v>9</v>
+      </c>
+      <c r="D31" t="n">
+        <v>3876</v>
+      </c>
+      <c r="E31" t="n">
+        <v>96.17</v>
+      </c>
+      <c r="F31" t="n">
+        <v>1112</v>
+      </c>
+      <c r="G31" t="n">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>31</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>KangBasoTikus</t>
+        </is>
+      </c>
+      <c r="C32" t="n">
+        <v>9</v>
+      </c>
+      <c r="D32" t="n">
+        <v>3867</v>
+      </c>
+      <c r="E32" t="n">
+        <v>93.45</v>
+      </c>
+      <c r="F32" t="n">
+        <v>651</v>
+      </c>
+      <c r="G32" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>32</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>Lixinyan</t>
+        </is>
+      </c>
+      <c r="C33" t="n">
+        <v>9</v>
+      </c>
+      <c r="D33" t="n">
+        <v>3543</v>
+      </c>
+      <c r="E33" t="n">
+        <v>79.59</v>
+      </c>
+      <c r="F33" t="n">
+        <v>246</v>
+      </c>
+      <c r="G33" t="n">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>33</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>jyx042223</t>
+        </is>
+      </c>
+      <c r="C34" t="n">
+        <v>9</v>
+      </c>
+      <c r="D34" t="n">
+        <v>3446</v>
+      </c>
+      <c r="E34" t="n">
+        <v>91.58</v>
+      </c>
+      <c r="F34" t="n">
+        <v>780</v>
+      </c>
+      <c r="G34" t="n">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>34</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>forcal</t>
+        </is>
+      </c>
+      <c r="C35" t="n">
+        <v>8</v>
+      </c>
+      <c r="D35" t="n">
+        <v>3161</v>
+      </c>
+      <c r="E35" t="n">
+        <v>96.90000000000001</v>
+      </c>
+      <c r="F35" t="n">
+        <v>591</v>
+      </c>
+      <c r="G35" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>35</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>nekomyudon</t>
+        </is>
+      </c>
+      <c r="C36" t="n">
+        <v>8</v>
+      </c>
+      <c r="D36" t="n">
+        <v>2940</v>
+      </c>
+      <c r="E36" t="n">
+        <v>91.95</v>
+      </c>
+      <c r="F36" t="n">
+        <v>474</v>
+      </c>
+      <c r="G36" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>36</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>xiyan2002</t>
+        </is>
+      </c>
+      <c r="C37" t="n">
+        <v>8</v>
+      </c>
+      <c r="D37" t="n">
+        <v>2833</v>
+      </c>
+      <c r="E37" t="n">
+        <v>77.47</v>
+      </c>
+      <c r="F37" t="n">
+        <v>626</v>
+      </c>
+      <c r="G37" t="n">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>37</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>[Origami]</t>
+        </is>
+      </c>
+      <c r="C38" t="n">
+        <v>8</v>
+      </c>
+      <c r="D38" t="n">
+        <v>2733</v>
+      </c>
+      <c r="E38" t="n">
+        <v>92.81</v>
+      </c>
+      <c r="F38" t="n">
+        <v>879</v>
+      </c>
+      <c r="G38" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>38</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>myhome</t>
+        </is>
+      </c>
+      <c r="C39" t="n">
+        <v>7</v>
+      </c>
+      <c r="D39" t="n">
+        <v>2662</v>
+      </c>
+      <c r="E39" t="n">
+        <v>89.73999999999999</v>
+      </c>
+      <c r="F39" t="n">
+        <v>1131</v>
+      </c>
+      <c r="G39" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>39</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>niniin</t>
+        </is>
+      </c>
+      <c r="C40" t="n">
+        <v>7</v>
+      </c>
+      <c r="D40" t="n">
+        <v>2617</v>
+      </c>
+      <c r="E40" t="n">
+        <v>89.29000000000001</v>
+      </c>
+      <c r="F40" t="n">
+        <v>612</v>
+      </c>
+      <c r="G40" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>40</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>-Kori</t>
+        </is>
+      </c>
+      <c r="C41" t="n">
+        <v>7</v>
+      </c>
+      <c r="D41" t="n">
+        <v>2523</v>
+      </c>
+      <c r="E41" t="n">
+        <v>94.86</v>
+      </c>
+      <c r="F41" t="n">
+        <v>1115</v>
+      </c>
+      <c r="G41" t="n">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>41</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>AloneHitoriV</t>
+        </is>
+      </c>
+      <c r="C42" t="n">
+        <v>7</v>
+      </c>
+      <c r="D42" t="n">
+        <v>2431</v>
+      </c>
+      <c r="E42" t="n">
+        <v>91.25</v>
+      </c>
+      <c r="F42" t="n">
+        <v>595</v>
+      </c>
+      <c r="G42" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>42</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>fkruby</t>
+        </is>
+      </c>
+      <c r="C43" t="n">
+        <v>7</v>
+      </c>
+      <c r="D43" t="n">
+        <v>2280</v>
+      </c>
+      <c r="E43" t="n">
+        <v>93.04000000000001</v>
+      </c>
+      <c r="F43" t="n">
+        <v>705</v>
+      </c>
+      <c r="G43" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>43</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>feat_Konoka</t>
+        </is>
+      </c>
+      <c r="C44" t="n">
+        <v>7</v>
+      </c>
+      <c r="D44" t="n">
+        <v>2272</v>
+      </c>
+      <c r="E44" t="n">
+        <v>97.06</v>
+      </c>
+      <c r="F44" t="n">
+        <v>642</v>
+      </c>
+      <c r="G44" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>44</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>Kurenia</t>
+        </is>
+      </c>
+      <c r="C45" t="n">
+        <v>6</v>
+      </c>
+      <c r="D45" t="n">
+        <v>2152</v>
+      </c>
+      <c r="E45" t="n">
+        <v>94.42</v>
+      </c>
+      <c r="F45" t="n">
+        <v>379</v>
+      </c>
+      <c r="G45" t="n">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>45</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>vr_xuni</t>
+        </is>
+      </c>
+      <c r="C46" t="n">
+        <v>6</v>
+      </c>
+      <c r="D46" t="n">
+        <v>2151</v>
+      </c>
+      <c r="E46" t="n">
+        <v>97.47</v>
+      </c>
+      <c r="F46" t="n">
+        <v>550</v>
+      </c>
+      <c r="G46" t="n">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>46</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>JisusMP</t>
+        </is>
+      </c>
+      <c r="C47" t="n">
+        <v>6</v>
+      </c>
+      <c r="D47" t="n">
+        <v>2146</v>
+      </c>
+      <c r="E47" t="n">
+        <v>96.61</v>
+      </c>
+      <c r="F47" t="n">
+        <v>908</v>
+      </c>
+      <c r="G47" t="n">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>47</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>Qningshow</t>
+        </is>
+      </c>
+      <c r="C48" t="n">
+        <v>6</v>
+      </c>
+      <c r="D48" t="n">
+        <v>2115</v>
+      </c>
+      <c r="E48" t="n">
+        <v>93.73999999999999</v>
+      </c>
+      <c r="F48" t="n">
+        <v>534</v>
+      </c>
+      <c r="G48" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>48</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>cheesewtf</t>
+        </is>
+      </c>
+      <c r="C49" t="n">
+        <v>6</v>
+      </c>
+      <c r="D49" t="n">
+        <v>2033</v>
+      </c>
+      <c r="E49" t="n">
+        <v>86.90000000000001</v>
+      </c>
+      <c r="F49" t="n">
+        <v>698</v>
+      </c>
+      <c r="G49" t="n">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>49</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>LYX8002domino</t>
+        </is>
+      </c>
+      <c r="C50" t="n">
+        <v>6</v>
+      </c>
+      <c r="D50" t="n">
+        <v>1974</v>
+      </c>
+      <c r="E50" t="n">
+        <v>91.93000000000001</v>
+      </c>
+      <c r="F50" t="n">
+        <v>474</v>
+      </c>
+      <c r="G50" t="n">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>50</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>ImSayk</t>
+        </is>
+      </c>
+      <c r="C51" t="n">
+        <v>6</v>
+      </c>
+      <c r="D51" t="n">
+        <v>1940</v>
+      </c>
+      <c r="E51" t="n">
+        <v>90.44</v>
+      </c>
+      <c r="F51" t="n">
+        <v>551</v>
+      </c>
+      <c r="G51" t="n">
+        <v>26</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:G51"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>rank</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>lv</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>exp</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>acc</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>combo</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>pc</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>YA_GAMMER</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>35</v>
+      </c>
+      <c r="D2" t="n">
+        <v>158175</v>
+      </c>
+      <c r="E2" t="n">
+        <v>97.08</v>
+      </c>
+      <c r="F2" t="n">
+        <v>1123</v>
+      </c>
+      <c r="G2" t="n">
+        <v>868</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>KrisTheHumanFall</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>33</v>
+      </c>
+      <c r="D3" t="n">
+        <v>128588</v>
+      </c>
+      <c r="E3" t="n">
+        <v>96.02</v>
+      </c>
+      <c r="F3" t="n">
+        <v>1141</v>
+      </c>
+      <c r="G3" t="n">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Excited_Naive</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>32</v>
+      </c>
+      <c r="D4" t="n">
+        <v>108816</v>
+      </c>
+      <c r="E4" t="n">
+        <v>97.81</v>
+      </c>
+      <c r="F4" t="n">
+        <v>1374</v>
+      </c>
+      <c r="G4" t="n">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>-Koyuki-</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>27</v>
+      </c>
+      <c r="D5" t="n">
+        <v>56822</v>
+      </c>
+      <c r="E5" t="n">
+        <v>96.73999999999999</v>
+      </c>
+      <c r="F5" t="n">
+        <v>1130</v>
+      </c>
+      <c r="G5" t="n">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>F0rge</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>21</v>
+      </c>
+      <c r="D6" t="n">
+        <v>25705</v>
+      </c>
+      <c r="E6" t="n">
+        <v>97.77</v>
+      </c>
+      <c r="F6" t="n">
+        <v>1100</v>
+      </c>
+      <c r="G6" t="n">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Merak</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>18</v>
+      </c>
+      <c r="D7" t="n">
+        <v>16294</v>
+      </c>
+      <c r="E7" t="n">
+        <v>94.20999999999999</v>
+      </c>
+      <c r="F7" t="n">
+        <v>819</v>
+      </c>
+      <c r="G7" t="n">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Physic_est</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>18</v>
+      </c>
+      <c r="D8" t="n">
+        <v>15982</v>
+      </c>
+      <c r="E8" t="n">
+        <v>96.97</v>
+      </c>
+      <c r="F8" t="n">
+        <v>586</v>
+      </c>
+      <c r="G8" t="n">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>8</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>RedCatz</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>18</v>
+      </c>
+      <c r="D9" t="n">
+        <v>14867</v>
+      </c>
+      <c r="E9" t="n">
+        <v>97.40000000000001</v>
+      </c>
+      <c r="F9" t="n">
+        <v>1026</v>
+      </c>
+      <c r="G9" t="n">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>9</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>ReLWZJ_X</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>16</v>
+      </c>
+      <c r="D10" t="n">
+        <v>11553</v>
+      </c>
+      <c r="E10" t="n">
+        <v>98.44</v>
+      </c>
+      <c r="F10" t="n">
+        <v>896</v>
+      </c>
+      <c r="G10" t="n">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>10</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>NamelessBeing</t>
+        </is>
+      </c>
+      <c r="C11" t="n">
+        <v>16</v>
+      </c>
+      <c r="D11" t="n">
+        <v>11349</v>
+      </c>
+      <c r="E11" t="n">
+        <v>93.84</v>
+      </c>
+      <c r="F11" t="n">
+        <v>908</v>
+      </c>
+      <c r="G11" t="n">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>11</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>GongErguang</t>
+        </is>
+      </c>
+      <c r="C12" t="n">
+        <v>15</v>
+      </c>
+      <c r="D12" t="n">
+        <v>10191</v>
+      </c>
+      <c r="E12" t="n">
+        <v>95.92</v>
+      </c>
+      <c r="F12" t="n">
+        <v>1107</v>
+      </c>
+      <c r="G12" t="n">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>12</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>hazeiro</t>
+        </is>
+      </c>
+      <c r="C13" t="n">
+        <v>14</v>
+      </c>
+      <c r="D13" t="n">
+        <v>8912</v>
+      </c>
+      <c r="E13" t="n">
+        <v>94.86</v>
+      </c>
+      <c r="F13" t="n">
+        <v>1304</v>
+      </c>
+      <c r="G13" t="n">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>13</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>fffjssgd</t>
+        </is>
+      </c>
+      <c r="C14" t="n">
+        <v>14</v>
+      </c>
+      <c r="D14" t="n">
+        <v>8009</v>
+      </c>
+      <c r="E14" t="n">
+        <v>89.84</v>
+      </c>
+      <c r="F14" t="n">
+        <v>294</v>
+      </c>
+      <c r="G14" t="n">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>14</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Hetatis</t>
+        </is>
+      </c>
+      <c r="C15" t="n">
+        <v>13</v>
+      </c>
+      <c r="D15" t="n">
+        <v>7601</v>
+      </c>
+      <c r="E15" t="n">
+        <v>97.42</v>
+      </c>
+      <c r="F15" t="n">
+        <v>1132</v>
+      </c>
+      <c r="G15" t="n">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>15</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Alisabe</t>
+        </is>
+      </c>
+      <c r="C16" t="n">
+        <v>12</v>
+      </c>
+      <c r="D16" t="n">
+        <v>6641</v>
+      </c>
+      <c r="E16" t="n">
+        <v>90.68000000000001</v>
+      </c>
+      <c r="F16" t="n">
+        <v>909</v>
+      </c>
+      <c r="G16" t="n">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>16</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Laddie_Amoyensis</t>
+        </is>
+      </c>
+      <c r="C17" t="n">
+        <v>12</v>
+      </c>
+      <c r="D17" t="n">
+        <v>6311</v>
+      </c>
+      <c r="E17" t="n">
+        <v>99.59999999999999</v>
+      </c>
+      <c r="F17" t="n">
+        <v>1361</v>
+      </c>
+      <c r="G17" t="n">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>17</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>reonalll</t>
+        </is>
+      </c>
+      <c r="C18" t="n">
+        <v>12</v>
+      </c>
+      <c r="D18" t="n">
+        <v>5838</v>
+      </c>
+      <c r="E18" t="n">
+        <v>97.33</v>
+      </c>
+      <c r="F18" t="n">
+        <v>713</v>
+      </c>
+      <c r="G18" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>18</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>asarin</t>
+        </is>
+      </c>
+      <c r="C19" t="n">
+        <v>11</v>
+      </c>
+      <c r="D19" t="n">
+        <v>5487</v>
+      </c>
+      <c r="E19" t="n">
+        <v>83.7</v>
+      </c>
+      <c r="F19" t="n">
+        <v>542</v>
+      </c>
+      <c r="G19" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>19</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Lolimlive</t>
+        </is>
+      </c>
+      <c r="C20" t="n">
+        <v>11</v>
+      </c>
+      <c r="D20" t="n">
+        <v>5389</v>
+      </c>
+      <c r="E20" t="n">
+        <v>90.81999999999999</v>
+      </c>
+      <c r="F20" t="n">
+        <v>555</v>
+      </c>
+      <c r="G20" t="n">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>20</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Koishi_Komeiji</t>
+        </is>
+      </c>
+      <c r="C21" t="n">
+        <v>11</v>
+      </c>
+      <c r="D21" t="n">
+        <v>5153</v>
+      </c>
+      <c r="E21" t="n">
+        <v>96.56</v>
+      </c>
+      <c r="F21" t="n">
+        <v>1115</v>
+      </c>
+      <c r="G21" t="n">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>21</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Yasashima</t>
+        </is>
+      </c>
+      <c r="C22" t="n">
+        <v>11</v>
+      </c>
+      <c r="D22" t="n">
+        <v>4823</v>
+      </c>
+      <c r="E22" t="n">
+        <v>93.98</v>
+      </c>
+      <c r="F22" t="n">
+        <v>1050</v>
+      </c>
+      <c r="G22" t="n">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>22</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Yama0113</t>
+        </is>
+      </c>
+      <c r="C23" t="n">
+        <v>10</v>
+      </c>
+      <c r="D23" t="n">
+        <v>4779</v>
+      </c>
+      <c r="E23" t="n">
+        <v>92.44</v>
+      </c>
+      <c r="F23" t="n">
+        <v>905</v>
+      </c>
+      <c r="G23" t="n">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>23</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>abbbs-asc</t>
+        </is>
+      </c>
+      <c r="C24" t="n">
+        <v>10</v>
+      </c>
+      <c r="D24" t="n">
+        <v>4664</v>
+      </c>
+      <c r="E24" t="n">
+        <v>90.95</v>
+      </c>
+      <c r="F24" t="n">
+        <v>615</v>
+      </c>
+      <c r="G24" t="n">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>24</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>333XD</t>
+        </is>
+      </c>
+      <c r="C25" t="n">
+        <v>10</v>
+      </c>
+      <c r="D25" t="n">
+        <v>4262</v>
+      </c>
+      <c r="E25" t="n">
+        <v>88.31</v>
+      </c>
+      <c r="F25" t="n">
+        <v>693</v>
+      </c>
+      <c r="G25" t="n">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>25</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>0PoppinParty0</t>
+        </is>
+      </c>
+      <c r="C26" t="n">
+        <v>10</v>
+      </c>
+      <c r="D26" t="n">
+        <v>4162</v>
+      </c>
+      <c r="E26" t="n">
+        <v>96.09999999999999</v>
+      </c>
+      <c r="F26" t="n">
+        <v>908</v>
+      </c>
+      <c r="G26" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>26</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>4keyishard</t>
+        </is>
+      </c>
+      <c r="C27" t="n">
+        <v>10</v>
+      </c>
+      <c r="D27" t="n">
+        <v>4069</v>
+      </c>
+      <c r="E27" t="n">
+        <v>96.98</v>
+      </c>
+      <c r="F27" t="n">
+        <v>1396</v>
+      </c>
+      <c r="G27" t="n">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>27</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>RenAhah</t>
+        </is>
+      </c>
+      <c r="C28" t="n">
+        <v>9</v>
+      </c>
+      <c r="D28" t="n">
+        <v>3959</v>
+      </c>
+      <c r="E28" t="n">
+        <v>88.7</v>
+      </c>
+      <c r="F28" t="n">
+        <v>849</v>
+      </c>
+      <c r="G28" t="n">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>28</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>Zyt1yt</t>
+        </is>
+      </c>
+      <c r="C29" t="n">
+        <v>9</v>
+      </c>
+      <c r="D29" t="n">
+        <v>3908</v>
+      </c>
+      <c r="E29" t="n">
+        <v>92.3</v>
+      </c>
+      <c r="F29" t="n">
+        <v>905</v>
+      </c>
+      <c r="G29" t="n">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>29</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>Pop_Slime</t>
+        </is>
+      </c>
+      <c r="C30" t="n">
+        <v>9</v>
+      </c>
+      <c r="D30" t="n">
+        <v>3904</v>
+      </c>
+      <c r="E30" t="n">
+        <v>94.84</v>
+      </c>
+      <c r="F30" t="n">
+        <v>736</v>
+      </c>
+      <c r="G30" t="n">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>30</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>aaaa123</t>
+        </is>
+      </c>
+      <c r="C31" t="n">
+        <v>9</v>
+      </c>
+      <c r="D31" t="n">
+        <v>3876</v>
+      </c>
+      <c r="E31" t="n">
+        <v>96.17</v>
+      </c>
+      <c r="F31" t="n">
+        <v>1112</v>
+      </c>
+      <c r="G31" t="n">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>31</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>KangBasoTikus</t>
+        </is>
+      </c>
+      <c r="C32" t="n">
+        <v>9</v>
+      </c>
+      <c r="D32" t="n">
+        <v>3867</v>
+      </c>
+      <c r="E32" t="n">
+        <v>93.45</v>
+      </c>
+      <c r="F32" t="n">
+        <v>651</v>
+      </c>
+      <c r="G32" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>32</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>Lixinyan</t>
+        </is>
+      </c>
+      <c r="C33" t="n">
+        <v>9</v>
+      </c>
+      <c r="D33" t="n">
+        <v>3543</v>
+      </c>
+      <c r="E33" t="n">
+        <v>79.59</v>
+      </c>
+      <c r="F33" t="n">
+        <v>246</v>
+      </c>
+      <c r="G33" t="n">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>33</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>jyx042223</t>
+        </is>
+      </c>
+      <c r="C34" t="n">
+        <v>9</v>
+      </c>
+      <c r="D34" t="n">
+        <v>3446</v>
+      </c>
+      <c r="E34" t="n">
+        <v>91.58</v>
+      </c>
+      <c r="F34" t="n">
+        <v>780</v>
+      </c>
+      <c r="G34" t="n">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>34</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>forcal</t>
+        </is>
+      </c>
+      <c r="C35" t="n">
+        <v>8</v>
+      </c>
+      <c r="D35" t="n">
+        <v>3161</v>
+      </c>
+      <c r="E35" t="n">
+        <v>96.90000000000001</v>
+      </c>
+      <c r="F35" t="n">
+        <v>591</v>
+      </c>
+      <c r="G35" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>35</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>nekomyudon</t>
+        </is>
+      </c>
+      <c r="C36" t="n">
+        <v>8</v>
+      </c>
+      <c r="D36" t="n">
+        <v>2940</v>
+      </c>
+      <c r="E36" t="n">
+        <v>91.95</v>
+      </c>
+      <c r="F36" t="n">
+        <v>474</v>
+      </c>
+      <c r="G36" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>36</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>xiyan2002</t>
+        </is>
+      </c>
+      <c r="C37" t="n">
+        <v>8</v>
+      </c>
+      <c r="D37" t="n">
+        <v>2833</v>
+      </c>
+      <c r="E37" t="n">
+        <v>77.47</v>
+      </c>
+      <c r="F37" t="n">
+        <v>626</v>
+      </c>
+      <c r="G37" t="n">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>37</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>[Origami]</t>
+        </is>
+      </c>
+      <c r="C38" t="n">
+        <v>8</v>
+      </c>
+      <c r="D38" t="n">
+        <v>2733</v>
+      </c>
+      <c r="E38" t="n">
+        <v>92.81</v>
+      </c>
+      <c r="F38" t="n">
+        <v>879</v>
+      </c>
+      <c r="G38" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>38</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>myhome</t>
+        </is>
+      </c>
+      <c r="C39" t="n">
+        <v>7</v>
+      </c>
+      <c r="D39" t="n">
+        <v>2662</v>
+      </c>
+      <c r="E39" t="n">
+        <v>89.73999999999999</v>
+      </c>
+      <c r="F39" t="n">
+        <v>1131</v>
+      </c>
+      <c r="G39" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>39</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>niniin</t>
+        </is>
+      </c>
+      <c r="C40" t="n">
+        <v>7</v>
+      </c>
+      <c r="D40" t="n">
+        <v>2617</v>
+      </c>
+      <c r="E40" t="n">
+        <v>89.29000000000001</v>
+      </c>
+      <c r="F40" t="n">
+        <v>612</v>
+      </c>
+      <c r="G40" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>40</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>-Kori</t>
+        </is>
+      </c>
+      <c r="C41" t="n">
+        <v>7</v>
+      </c>
+      <c r="D41" t="n">
+        <v>2523</v>
+      </c>
+      <c r="E41" t="n">
+        <v>94.86</v>
+      </c>
+      <c r="F41" t="n">
+        <v>1115</v>
+      </c>
+      <c r="G41" t="n">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>41</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>AloneHitoriV</t>
+        </is>
+      </c>
+      <c r="C42" t="n">
+        <v>7</v>
+      </c>
+      <c r="D42" t="n">
+        <v>2431</v>
+      </c>
+      <c r="E42" t="n">
+        <v>91.25</v>
+      </c>
+      <c r="F42" t="n">
+        <v>595</v>
+      </c>
+      <c r="G42" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>42</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>fkruby</t>
+        </is>
+      </c>
+      <c r="C43" t="n">
+        <v>7</v>
+      </c>
+      <c r="D43" t="n">
+        <v>2280</v>
+      </c>
+      <c r="E43" t="n">
+        <v>93.04000000000001</v>
+      </c>
+      <c r="F43" t="n">
+        <v>705</v>
+      </c>
+      <c r="G43" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>43</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>feat_Konoka</t>
+        </is>
+      </c>
+      <c r="C44" t="n">
+        <v>7</v>
+      </c>
+      <c r="D44" t="n">
+        <v>2272</v>
+      </c>
+      <c r="E44" t="n">
+        <v>97.06</v>
+      </c>
+      <c r="F44" t="n">
+        <v>642</v>
+      </c>
+      <c r="G44" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>44</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>Kurenia</t>
+        </is>
+      </c>
+      <c r="C45" t="n">
+        <v>6</v>
+      </c>
+      <c r="D45" t="n">
+        <v>2152</v>
+      </c>
+      <c r="E45" t="n">
+        <v>94.42</v>
+      </c>
+      <c r="F45" t="n">
+        <v>379</v>
+      </c>
+      <c r="G45" t="n">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>45</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>vr_xuni</t>
+        </is>
+      </c>
+      <c r="C46" t="n">
+        <v>6</v>
+      </c>
+      <c r="D46" t="n">
+        <v>2151</v>
+      </c>
+      <c r="E46" t="n">
+        <v>96.87</v>
+      </c>
+      <c r="F46" t="n">
+        <v>550</v>
+      </c>
+      <c r="G46" t="n">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>46</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>JisusMP</t>
+        </is>
+      </c>
+      <c r="C47" t="n">
+        <v>6</v>
+      </c>
+      <c r="D47" t="n">
+        <v>2146</v>
+      </c>
+      <c r="E47" t="n">
+        <v>96.61</v>
+      </c>
+      <c r="F47" t="n">
+        <v>908</v>
+      </c>
+      <c r="G47" t="n">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>47</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>Qningshow</t>
+        </is>
+      </c>
+      <c r="C48" t="n">
+        <v>6</v>
+      </c>
+      <c r="D48" t="n">
+        <v>2115</v>
+      </c>
+      <c r="E48" t="n">
+        <v>93.73999999999999</v>
+      </c>
+      <c r="F48" t="n">
+        <v>534</v>
+      </c>
+      <c r="G48" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>48</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>cheesewtf</t>
+        </is>
+      </c>
+      <c r="C49" t="n">
+        <v>6</v>
+      </c>
+      <c r="D49" t="n">
+        <v>2033</v>
+      </c>
+      <c r="E49" t="n">
+        <v>86.90000000000001</v>
+      </c>
+      <c r="F49" t="n">
+        <v>698</v>
+      </c>
+      <c r="G49" t="n">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>49</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>LYX8002domino</t>
+        </is>
+      </c>
+      <c r="C50" t="n">
+        <v>6</v>
+      </c>
+      <c r="D50" t="n">
+        <v>1974</v>
+      </c>
+      <c r="E50" t="n">
+        <v>91.93000000000001</v>
+      </c>
+      <c r="F50" t="n">
+        <v>474</v>
+      </c>
+      <c r="G50" t="n">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>50</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>ImSayk</t>
+        </is>
+      </c>
+      <c r="C51" t="n">
+        <v>6</v>
+      </c>
+      <c r="D51" t="n">
+        <v>1940</v>
+      </c>
+      <c r="E51" t="n">
+        <v>90.44</v>
+      </c>
+      <c r="F51" t="n">
+        <v>551</v>
+      </c>
+      <c r="G51" t="n">
+        <v>26</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:G51"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>rank</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>lv</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>exp</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>acc</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>combo</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>pc</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>YA_GAMMER</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>35</v>
+      </c>
+      <c r="D2" t="n">
+        <v>158175</v>
+      </c>
+      <c r="E2" t="n">
+        <v>97.08</v>
+      </c>
+      <c r="F2" t="n">
+        <v>1123</v>
+      </c>
+      <c r="G2" t="n">
+        <v>868</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>KrisTheHumanFall</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>33</v>
+      </c>
+      <c r="D3" t="n">
+        <v>128588</v>
+      </c>
+      <c r="E3" t="n">
+        <v>96.02</v>
+      </c>
+      <c r="F3" t="n">
+        <v>1141</v>
+      </c>
+      <c r="G3" t="n">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Excited_Naive</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>32</v>
+      </c>
+      <c r="D4" t="n">
+        <v>108816</v>
+      </c>
+      <c r="E4" t="n">
+        <v>97.81</v>
+      </c>
+      <c r="F4" t="n">
+        <v>1374</v>
+      </c>
+      <c r="G4" t="n">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>-Koyuki-</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>27</v>
+      </c>
+      <c r="D5" t="n">
+        <v>56822</v>
+      </c>
+      <c r="E5" t="n">
+        <v>96.73999999999999</v>
+      </c>
+      <c r="F5" t="n">
+        <v>1130</v>
+      </c>
+      <c r="G5" t="n">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>F0rge</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>21</v>
+      </c>
+      <c r="D6" t="n">
+        <v>25705</v>
+      </c>
+      <c r="E6" t="n">
+        <v>97.77</v>
+      </c>
+      <c r="F6" t="n">
+        <v>1100</v>
+      </c>
+      <c r="G6" t="n">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Merak</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>18</v>
+      </c>
+      <c r="D7" t="n">
+        <v>16294</v>
+      </c>
+      <c r="E7" t="n">
+        <v>94.20999999999999</v>
+      </c>
+      <c r="F7" t="n">
+        <v>819</v>
+      </c>
+      <c r="G7" t="n">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Physic_est</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>18</v>
+      </c>
+      <c r="D8" t="n">
+        <v>15982</v>
+      </c>
+      <c r="E8" t="n">
+        <v>96.97</v>
+      </c>
+      <c r="F8" t="n">
+        <v>586</v>
+      </c>
+      <c r="G8" t="n">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>8</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>RedCatz</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>18</v>
+      </c>
+      <c r="D9" t="n">
+        <v>14867</v>
+      </c>
+      <c r="E9" t="n">
+        <v>97.40000000000001</v>
+      </c>
+      <c r="F9" t="n">
+        <v>1026</v>
+      </c>
+      <c r="G9" t="n">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>9</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>ReLWZJ_X</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>16</v>
+      </c>
+      <c r="D10" t="n">
+        <v>11553</v>
+      </c>
+      <c r="E10" t="n">
+        <v>98.44</v>
+      </c>
+      <c r="F10" t="n">
+        <v>896</v>
+      </c>
+      <c r="G10" t="n">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>10</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>NamelessBeing</t>
+        </is>
+      </c>
+      <c r="C11" t="n">
+        <v>16</v>
+      </c>
+      <c r="D11" t="n">
+        <v>11349</v>
+      </c>
+      <c r="E11" t="n">
+        <v>93.84</v>
+      </c>
+      <c r="F11" t="n">
+        <v>908</v>
+      </c>
+      <c r="G11" t="n">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>11</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>GongErguang</t>
+        </is>
+      </c>
+      <c r="C12" t="n">
+        <v>15</v>
+      </c>
+      <c r="D12" t="n">
+        <v>10191</v>
+      </c>
+      <c r="E12" t="n">
+        <v>95.92</v>
+      </c>
+      <c r="F12" t="n">
+        <v>1107</v>
+      </c>
+      <c r="G12" t="n">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>12</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>hazeiro</t>
+        </is>
+      </c>
+      <c r="C13" t="n">
+        <v>14</v>
+      </c>
+      <c r="D13" t="n">
+        <v>8912</v>
+      </c>
+      <c r="E13" t="n">
+        <v>94.86</v>
+      </c>
+      <c r="F13" t="n">
+        <v>1304</v>
+      </c>
+      <c r="G13" t="n">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>13</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>fffjssgd</t>
+        </is>
+      </c>
+      <c r="C14" t="n">
+        <v>14</v>
+      </c>
+      <c r="D14" t="n">
+        <v>8009</v>
+      </c>
+      <c r="E14" t="n">
+        <v>89.84</v>
+      </c>
+      <c r="F14" t="n">
+        <v>294</v>
+      </c>
+      <c r="G14" t="n">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>14</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Hetatis</t>
+        </is>
+      </c>
+      <c r="C15" t="n">
+        <v>13</v>
+      </c>
+      <c r="D15" t="n">
+        <v>7601</v>
+      </c>
+      <c r="E15" t="n">
+        <v>97.42</v>
+      </c>
+      <c r="F15" t="n">
+        <v>1132</v>
+      </c>
+      <c r="G15" t="n">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>15</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Alisabe</t>
+        </is>
+      </c>
+      <c r="C16" t="n">
+        <v>12</v>
+      </c>
+      <c r="D16" t="n">
+        <v>6641</v>
+      </c>
+      <c r="E16" t="n">
+        <v>90.68000000000001</v>
+      </c>
+      <c r="F16" t="n">
+        <v>909</v>
+      </c>
+      <c r="G16" t="n">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>16</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Laddie_Amoyensis</t>
+        </is>
+      </c>
+      <c r="C17" t="n">
+        <v>12</v>
+      </c>
+      <c r="D17" t="n">
+        <v>6311</v>
+      </c>
+      <c r="E17" t="n">
+        <v>99.59999999999999</v>
+      </c>
+      <c r="F17" t="n">
+        <v>1361</v>
+      </c>
+      <c r="G17" t="n">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>17</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>reonalll</t>
+        </is>
+      </c>
+      <c r="C18" t="n">
+        <v>12</v>
+      </c>
+      <c r="D18" t="n">
+        <v>5838</v>
+      </c>
+      <c r="E18" t="n">
+        <v>97.33</v>
+      </c>
+      <c r="F18" t="n">
+        <v>713</v>
+      </c>
+      <c r="G18" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>18</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>asarin</t>
+        </is>
+      </c>
+      <c r="C19" t="n">
+        <v>11</v>
+      </c>
+      <c r="D19" t="n">
+        <v>5487</v>
+      </c>
+      <c r="E19" t="n">
+        <v>83.7</v>
+      </c>
+      <c r="F19" t="n">
+        <v>542</v>
+      </c>
+      <c r="G19" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>19</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Lolimlive</t>
+        </is>
+      </c>
+      <c r="C20" t="n">
+        <v>11</v>
+      </c>
+      <c r="D20" t="n">
+        <v>5389</v>
+      </c>
+      <c r="E20" t="n">
+        <v>90.81999999999999</v>
+      </c>
+      <c r="F20" t="n">
+        <v>555</v>
+      </c>
+      <c r="G20" t="n">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>20</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Koishi_Komeiji</t>
+        </is>
+      </c>
+      <c r="C21" t="n">
+        <v>11</v>
+      </c>
+      <c r="D21" t="n">
+        <v>5153</v>
+      </c>
+      <c r="E21" t="n">
+        <v>96.56</v>
+      </c>
+      <c r="F21" t="n">
+        <v>1115</v>
+      </c>
+      <c r="G21" t="n">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>21</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Yasashima</t>
+        </is>
+      </c>
+      <c r="C22" t="n">
+        <v>11</v>
+      </c>
+      <c r="D22" t="n">
+        <v>4823</v>
+      </c>
+      <c r="E22" t="n">
+        <v>93.98</v>
+      </c>
+      <c r="F22" t="n">
+        <v>1050</v>
+      </c>
+      <c r="G22" t="n">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>22</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Yama0113</t>
+        </is>
+      </c>
+      <c r="C23" t="n">
+        <v>10</v>
+      </c>
+      <c r="D23" t="n">
+        <v>4779</v>
+      </c>
+      <c r="E23" t="n">
+        <v>92.44</v>
+      </c>
+      <c r="F23" t="n">
+        <v>905</v>
+      </c>
+      <c r="G23" t="n">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>23</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>abbbs-asc</t>
+        </is>
+      </c>
+      <c r="C24" t="n">
+        <v>10</v>
+      </c>
+      <c r="D24" t="n">
+        <v>4664</v>
+      </c>
+      <c r="E24" t="n">
+        <v>90.95</v>
+      </c>
+      <c r="F24" t="n">
+        <v>615</v>
+      </c>
+      <c r="G24" t="n">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>24</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>333XD</t>
+        </is>
+      </c>
+      <c r="C25" t="n">
+        <v>10</v>
+      </c>
+      <c r="D25" t="n">
+        <v>4262</v>
+      </c>
+      <c r="E25" t="n">
+        <v>88.31</v>
+      </c>
+      <c r="F25" t="n">
+        <v>693</v>
+      </c>
+      <c r="G25" t="n">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>25</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>0PoppinParty0</t>
+        </is>
+      </c>
+      <c r="C26" t="n">
+        <v>10</v>
+      </c>
+      <c r="D26" t="n">
+        <v>4162</v>
+      </c>
+      <c r="E26" t="n">
+        <v>96.09999999999999</v>
+      </c>
+      <c r="F26" t="n">
+        <v>908</v>
+      </c>
+      <c r="G26" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>26</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>4keyishard</t>
+        </is>
+      </c>
+      <c r="C27" t="n">
+        <v>10</v>
+      </c>
+      <c r="D27" t="n">
+        <v>4069</v>
+      </c>
+      <c r="E27" t="n">
+        <v>96.98</v>
+      </c>
+      <c r="F27" t="n">
+        <v>1396</v>
+      </c>
+      <c r="G27" t="n">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>27</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>RenAhah</t>
+        </is>
+      </c>
+      <c r="C28" t="n">
+        <v>9</v>
+      </c>
+      <c r="D28" t="n">
+        <v>3959</v>
+      </c>
+      <c r="E28" t="n">
+        <v>88.7</v>
+      </c>
+      <c r="F28" t="n">
+        <v>849</v>
+      </c>
+      <c r="G28" t="n">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>28</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>Zyt1yt</t>
+        </is>
+      </c>
+      <c r="C29" t="n">
+        <v>9</v>
+      </c>
+      <c r="D29" t="n">
+        <v>3908</v>
+      </c>
+      <c r="E29" t="n">
+        <v>92.3</v>
+      </c>
+      <c r="F29" t="n">
+        <v>905</v>
+      </c>
+      <c r="G29" t="n">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>29</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>Pop_Slime</t>
+        </is>
+      </c>
+      <c r="C30" t="n">
+        <v>9</v>
+      </c>
+      <c r="D30" t="n">
+        <v>3904</v>
+      </c>
+      <c r="E30" t="n">
+        <v>94.84</v>
+      </c>
+      <c r="F30" t="n">
+        <v>736</v>
+      </c>
+      <c r="G30" t="n">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>30</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>aaaa123</t>
+        </is>
+      </c>
+      <c r="C31" t="n">
+        <v>9</v>
+      </c>
+      <c r="D31" t="n">
+        <v>3876</v>
+      </c>
+      <c r="E31" t="n">
+        <v>96.17</v>
+      </c>
+      <c r="F31" t="n">
+        <v>1112</v>
+      </c>
+      <c r="G31" t="n">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>31</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>KangBasoTikus</t>
+        </is>
+      </c>
+      <c r="C32" t="n">
+        <v>9</v>
+      </c>
+      <c r="D32" t="n">
+        <v>3867</v>
+      </c>
+      <c r="E32" t="n">
+        <v>93.45</v>
+      </c>
+      <c r="F32" t="n">
+        <v>651</v>
+      </c>
+      <c r="G32" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>32</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>Lixinyan</t>
+        </is>
+      </c>
+      <c r="C33" t="n">
+        <v>9</v>
+      </c>
+      <c r="D33" t="n">
+        <v>3543</v>
+      </c>
+      <c r="E33" t="n">
+        <v>79.59</v>
+      </c>
+      <c r="F33" t="n">
+        <v>246</v>
+      </c>
+      <c r="G33" t="n">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>33</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>jyx042223</t>
+        </is>
+      </c>
+      <c r="C34" t="n">
+        <v>9</v>
+      </c>
+      <c r="D34" t="n">
+        <v>3446</v>
+      </c>
+      <c r="E34" t="n">
+        <v>91.58</v>
+      </c>
+      <c r="F34" t="n">
+        <v>780</v>
+      </c>
+      <c r="G34" t="n">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>34</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>forcal</t>
+        </is>
+      </c>
+      <c r="C35" t="n">
+        <v>8</v>
+      </c>
+      <c r="D35" t="n">
+        <v>3161</v>
+      </c>
+      <c r="E35" t="n">
+        <v>96.90000000000001</v>
+      </c>
+      <c r="F35" t="n">
+        <v>591</v>
+      </c>
+      <c r="G35" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>35</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>nekomyudon</t>
+        </is>
+      </c>
+      <c r="C36" t="n">
+        <v>8</v>
+      </c>
+      <c r="D36" t="n">
+        <v>2940</v>
+      </c>
+      <c r="E36" t="n">
+        <v>91.95</v>
+      </c>
+      <c r="F36" t="n">
+        <v>474</v>
+      </c>
+      <c r="G36" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>36</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>xiyan2002</t>
+        </is>
+      </c>
+      <c r="C37" t="n">
+        <v>8</v>
+      </c>
+      <c r="D37" t="n">
+        <v>2833</v>
+      </c>
+      <c r="E37" t="n">
+        <v>77.47</v>
+      </c>
+      <c r="F37" t="n">
+        <v>626</v>
+      </c>
+      <c r="G37" t="n">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>37</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>[Origami]</t>
+        </is>
+      </c>
+      <c r="C38" t="n">
+        <v>8</v>
+      </c>
+      <c r="D38" t="n">
+        <v>2733</v>
+      </c>
+      <c r="E38" t="n">
+        <v>92.81</v>
+      </c>
+      <c r="F38" t="n">
+        <v>879</v>
+      </c>
+      <c r="G38" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>38</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>myhome</t>
+        </is>
+      </c>
+      <c r="C39" t="n">
+        <v>7</v>
+      </c>
+      <c r="D39" t="n">
+        <v>2662</v>
+      </c>
+      <c r="E39" t="n">
+        <v>89.73999999999999</v>
+      </c>
+      <c r="F39" t="n">
+        <v>1131</v>
+      </c>
+      <c r="G39" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>39</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>niniin</t>
+        </is>
+      </c>
+      <c r="C40" t="n">
+        <v>7</v>
+      </c>
+      <c r="D40" t="n">
+        <v>2617</v>
+      </c>
+      <c r="E40" t="n">
+        <v>89.29000000000001</v>
+      </c>
+      <c r="F40" t="n">
+        <v>612</v>
+      </c>
+      <c r="G40" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>40</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>-Kori</t>
+        </is>
+      </c>
+      <c r="C41" t="n">
+        <v>7</v>
+      </c>
+      <c r="D41" t="n">
+        <v>2523</v>
+      </c>
+      <c r="E41" t="n">
+        <v>94.86</v>
+      </c>
+      <c r="F41" t="n">
+        <v>1115</v>
+      </c>
+      <c r="G41" t="n">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>41</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>AloneHitoriV</t>
+        </is>
+      </c>
+      <c r="C42" t="n">
+        <v>7</v>
+      </c>
+      <c r="D42" t="n">
+        <v>2431</v>
+      </c>
+      <c r="E42" t="n">
+        <v>91.25</v>
+      </c>
+      <c r="F42" t="n">
+        <v>595</v>
+      </c>
+      <c r="G42" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>42</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>fkruby</t>
+        </is>
+      </c>
+      <c r="C43" t="n">
+        <v>7</v>
+      </c>
+      <c r="D43" t="n">
+        <v>2280</v>
+      </c>
+      <c r="E43" t="n">
+        <v>93.04000000000001</v>
+      </c>
+      <c r="F43" t="n">
+        <v>705</v>
+      </c>
+      <c r="G43" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>43</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>feat_Konoka</t>
+        </is>
+      </c>
+      <c r="C44" t="n">
+        <v>7</v>
+      </c>
+      <c r="D44" t="n">
+        <v>2272</v>
+      </c>
+      <c r="E44" t="n">
+        <v>97.06</v>
+      </c>
+      <c r="F44" t="n">
+        <v>642</v>
+      </c>
+      <c r="G44" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>44</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>Kurenia</t>
+        </is>
+      </c>
+      <c r="C45" t="n">
+        <v>6</v>
+      </c>
+      <c r="D45" t="n">
+        <v>2152</v>
+      </c>
+      <c r="E45" t="n">
+        <v>94.42</v>
+      </c>
+      <c r="F45" t="n">
+        <v>379</v>
+      </c>
+      <c r="G45" t="n">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>45</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>vr_xuni</t>
+        </is>
+      </c>
+      <c r="C46" t="n">
+        <v>6</v>
+      </c>
+      <c r="D46" t="n">
+        <v>2151</v>
+      </c>
+      <c r="E46" t="n">
+        <v>96.87</v>
+      </c>
+      <c r="F46" t="n">
+        <v>550</v>
+      </c>
+      <c r="G46" t="n">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>46</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>JisusMP</t>
+        </is>
+      </c>
+      <c r="C47" t="n">
+        <v>6</v>
+      </c>
+      <c r="D47" t="n">
+        <v>2146</v>
+      </c>
+      <c r="E47" t="n">
+        <v>96.61</v>
+      </c>
+      <c r="F47" t="n">
+        <v>908</v>
+      </c>
+      <c r="G47" t="n">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>47</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>Qningshow</t>
+        </is>
+      </c>
+      <c r="C48" t="n">
+        <v>6</v>
+      </c>
+      <c r="D48" t="n">
+        <v>2115</v>
+      </c>
+      <c r="E48" t="n">
+        <v>93.73999999999999</v>
+      </c>
+      <c r="F48" t="n">
+        <v>534</v>
+      </c>
+      <c r="G48" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>48</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>cheesewtf</t>
+        </is>
+      </c>
+      <c r="C49" t="n">
+        <v>6</v>
+      </c>
+      <c r="D49" t="n">
+        <v>2033</v>
+      </c>
+      <c r="E49" t="n">
+        <v>86.90000000000001</v>
+      </c>
+      <c r="F49" t="n">
+        <v>698</v>
+      </c>
+      <c r="G49" t="n">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>49</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>ruirongrong</t>
+        </is>
+      </c>
+      <c r="C50" t="n">
+        <v>6</v>
+      </c>
+      <c r="D50" t="n">
+        <v>2021</v>
+      </c>
+      <c r="E50" t="n">
+        <v>79.87</v>
+      </c>
+      <c r="F50" t="n">
+        <v>282</v>
+      </c>
+      <c r="G50" t="n">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>50</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>LYX8002domino</t>
+        </is>
+      </c>
+      <c r="C51" t="n">
+        <v>6</v>
+      </c>
+      <c r="D51" t="n">
+        <v>1974</v>
+      </c>
+      <c r="E51" t="n">
+        <v>91.93000000000001</v>
+      </c>
+      <c r="F51" t="n">
+        <v>474</v>
+      </c>
+      <c r="G51" t="n">
+        <v>23</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/mode8.xlsx
+++ b/mode8.xlsx
@@ -15,6 +15,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="mode_8_2025-08-13_18-47" sheetId="6" state="visible" r:id="rId6"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="mode_8_2025-08-14_13-27" sheetId="7" state="visible" r:id="rId7"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="mode_8_2025-08-16_15-26" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="mode_8_2025-09-06_10-52" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="mode_8_2025-09-14_00-00" sheetId="10" state="visible" r:id="rId10"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1732,6 +1734,1312 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:G51"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>rank</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>lv</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>exp</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>acc</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>combo</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>pc</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>YA_GAMMER</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>35</v>
+      </c>
+      <c r="D2" t="n">
+        <v>158175</v>
+      </c>
+      <c r="E2" t="n">
+        <v>97.08</v>
+      </c>
+      <c r="F2" t="n">
+        <v>1123</v>
+      </c>
+      <c r="G2" t="n">
+        <v>868</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>KrisTheHumanFall</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>33</v>
+      </c>
+      <c r="D3" t="n">
+        <v>128588</v>
+      </c>
+      <c r="E3" t="n">
+        <v>96.02</v>
+      </c>
+      <c r="F3" t="n">
+        <v>1141</v>
+      </c>
+      <c r="G3" t="n">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Excited_Naive</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>32</v>
+      </c>
+      <c r="D4" t="n">
+        <v>108816</v>
+      </c>
+      <c r="E4" t="n">
+        <v>97.81</v>
+      </c>
+      <c r="F4" t="n">
+        <v>1374</v>
+      </c>
+      <c r="G4" t="n">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>-Koyuki-</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>27</v>
+      </c>
+      <c r="D5" t="n">
+        <v>56822</v>
+      </c>
+      <c r="E5" t="n">
+        <v>96.73999999999999</v>
+      </c>
+      <c r="F5" t="n">
+        <v>1130</v>
+      </c>
+      <c r="G5" t="n">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>F0rge</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>21</v>
+      </c>
+      <c r="D6" t="n">
+        <v>25705</v>
+      </c>
+      <c r="E6" t="n">
+        <v>97.77</v>
+      </c>
+      <c r="F6" t="n">
+        <v>1100</v>
+      </c>
+      <c r="G6" t="n">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Merak</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>18</v>
+      </c>
+      <c r="D7" t="n">
+        <v>16294</v>
+      </c>
+      <c r="E7" t="n">
+        <v>94.20999999999999</v>
+      </c>
+      <c r="F7" t="n">
+        <v>819</v>
+      </c>
+      <c r="G7" t="n">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Physic_est</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>18</v>
+      </c>
+      <c r="D8" t="n">
+        <v>15982</v>
+      </c>
+      <c r="E8" t="n">
+        <v>96.97</v>
+      </c>
+      <c r="F8" t="n">
+        <v>586</v>
+      </c>
+      <c r="G8" t="n">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>8</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>RedCatz</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>18</v>
+      </c>
+      <c r="D9" t="n">
+        <v>14867</v>
+      </c>
+      <c r="E9" t="n">
+        <v>97.40000000000001</v>
+      </c>
+      <c r="F9" t="n">
+        <v>1026</v>
+      </c>
+      <c r="G9" t="n">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>9</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>ReLWZJ_X</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>16</v>
+      </c>
+      <c r="D10" t="n">
+        <v>11553</v>
+      </c>
+      <c r="E10" t="n">
+        <v>98.44</v>
+      </c>
+      <c r="F10" t="n">
+        <v>896</v>
+      </c>
+      <c r="G10" t="n">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>10</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>NamelessBeing</t>
+        </is>
+      </c>
+      <c r="C11" t="n">
+        <v>16</v>
+      </c>
+      <c r="D11" t="n">
+        <v>11349</v>
+      </c>
+      <c r="E11" t="n">
+        <v>93.84</v>
+      </c>
+      <c r="F11" t="n">
+        <v>908</v>
+      </c>
+      <c r="G11" t="n">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>11</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>GongErguang</t>
+        </is>
+      </c>
+      <c r="C12" t="n">
+        <v>15</v>
+      </c>
+      <c r="D12" t="n">
+        <v>10191</v>
+      </c>
+      <c r="E12" t="n">
+        <v>95.92</v>
+      </c>
+      <c r="F12" t="n">
+        <v>1107</v>
+      </c>
+      <c r="G12" t="n">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>12</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>hazeiro</t>
+        </is>
+      </c>
+      <c r="C13" t="n">
+        <v>14</v>
+      </c>
+      <c r="D13" t="n">
+        <v>8912</v>
+      </c>
+      <c r="E13" t="n">
+        <v>94.86</v>
+      </c>
+      <c r="F13" t="n">
+        <v>1304</v>
+      </c>
+      <c r="G13" t="n">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>13</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>fffjssgd</t>
+        </is>
+      </c>
+      <c r="C14" t="n">
+        <v>14</v>
+      </c>
+      <c r="D14" t="n">
+        <v>8009</v>
+      </c>
+      <c r="E14" t="n">
+        <v>89.84</v>
+      </c>
+      <c r="F14" t="n">
+        <v>294</v>
+      </c>
+      <c r="G14" t="n">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>14</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Hetatis</t>
+        </is>
+      </c>
+      <c r="C15" t="n">
+        <v>13</v>
+      </c>
+      <c r="D15" t="n">
+        <v>7601</v>
+      </c>
+      <c r="E15" t="n">
+        <v>97.42</v>
+      </c>
+      <c r="F15" t="n">
+        <v>1132</v>
+      </c>
+      <c r="G15" t="n">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>15</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Alisabe</t>
+        </is>
+      </c>
+      <c r="C16" t="n">
+        <v>12</v>
+      </c>
+      <c r="D16" t="n">
+        <v>6641</v>
+      </c>
+      <c r="E16" t="n">
+        <v>90.68000000000001</v>
+      </c>
+      <c r="F16" t="n">
+        <v>909</v>
+      </c>
+      <c r="G16" t="n">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>16</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>4keyishard</t>
+        </is>
+      </c>
+      <c r="C17" t="n">
+        <v>12</v>
+      </c>
+      <c r="D17" t="n">
+        <v>6588</v>
+      </c>
+      <c r="E17" t="n">
+        <v>96.56</v>
+      </c>
+      <c r="F17" t="n">
+        <v>1396</v>
+      </c>
+      <c r="G17" t="n">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>17</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Laddie_Amoyensis</t>
+        </is>
+      </c>
+      <c r="C18" t="n">
+        <v>12</v>
+      </c>
+      <c r="D18" t="n">
+        <v>6311</v>
+      </c>
+      <c r="E18" t="n">
+        <v>99.59999999999999</v>
+      </c>
+      <c r="F18" t="n">
+        <v>1361</v>
+      </c>
+      <c r="G18" t="n">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>18</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>reonalll</t>
+        </is>
+      </c>
+      <c r="C19" t="n">
+        <v>12</v>
+      </c>
+      <c r="D19" t="n">
+        <v>5838</v>
+      </c>
+      <c r="E19" t="n">
+        <v>97.33</v>
+      </c>
+      <c r="F19" t="n">
+        <v>713</v>
+      </c>
+      <c r="G19" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>19</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>asarin</t>
+        </is>
+      </c>
+      <c r="C20" t="n">
+        <v>11</v>
+      </c>
+      <c r="D20" t="n">
+        <v>5487</v>
+      </c>
+      <c r="E20" t="n">
+        <v>83.7</v>
+      </c>
+      <c r="F20" t="n">
+        <v>542</v>
+      </c>
+      <c r="G20" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>20</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Lolimlive</t>
+        </is>
+      </c>
+      <c r="C21" t="n">
+        <v>11</v>
+      </c>
+      <c r="D21" t="n">
+        <v>5389</v>
+      </c>
+      <c r="E21" t="n">
+        <v>90.81999999999999</v>
+      </c>
+      <c r="F21" t="n">
+        <v>555</v>
+      </c>
+      <c r="G21" t="n">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>21</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Koishi_Komeiji</t>
+        </is>
+      </c>
+      <c r="C22" t="n">
+        <v>11</v>
+      </c>
+      <c r="D22" t="n">
+        <v>5153</v>
+      </c>
+      <c r="E22" t="n">
+        <v>96.56</v>
+      </c>
+      <c r="F22" t="n">
+        <v>1115</v>
+      </c>
+      <c r="G22" t="n">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>22</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Yasashima</t>
+        </is>
+      </c>
+      <c r="C23" t="n">
+        <v>11</v>
+      </c>
+      <c r="D23" t="n">
+        <v>4823</v>
+      </c>
+      <c r="E23" t="n">
+        <v>93.98</v>
+      </c>
+      <c r="F23" t="n">
+        <v>1050</v>
+      </c>
+      <c r="G23" t="n">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>23</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Yama0113</t>
+        </is>
+      </c>
+      <c r="C24" t="n">
+        <v>10</v>
+      </c>
+      <c r="D24" t="n">
+        <v>4779</v>
+      </c>
+      <c r="E24" t="n">
+        <v>92.44</v>
+      </c>
+      <c r="F24" t="n">
+        <v>905</v>
+      </c>
+      <c r="G24" t="n">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>24</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>abbbs-asc</t>
+        </is>
+      </c>
+      <c r="C25" t="n">
+        <v>10</v>
+      </c>
+      <c r="D25" t="n">
+        <v>4664</v>
+      </c>
+      <c r="E25" t="n">
+        <v>90.95</v>
+      </c>
+      <c r="F25" t="n">
+        <v>615</v>
+      </c>
+      <c r="G25" t="n">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>25</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>333XD</t>
+        </is>
+      </c>
+      <c r="C26" t="n">
+        <v>10</v>
+      </c>
+      <c r="D26" t="n">
+        <v>4262</v>
+      </c>
+      <c r="E26" t="n">
+        <v>88.31</v>
+      </c>
+      <c r="F26" t="n">
+        <v>693</v>
+      </c>
+      <c r="G26" t="n">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>26</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>0PoppinParty0</t>
+        </is>
+      </c>
+      <c r="C27" t="n">
+        <v>10</v>
+      </c>
+      <c r="D27" t="n">
+        <v>4162</v>
+      </c>
+      <c r="E27" t="n">
+        <v>96.09999999999999</v>
+      </c>
+      <c r="F27" t="n">
+        <v>908</v>
+      </c>
+      <c r="G27" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>27</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>RenAhah</t>
+        </is>
+      </c>
+      <c r="C28" t="n">
+        <v>9</v>
+      </c>
+      <c r="D28" t="n">
+        <v>3959</v>
+      </c>
+      <c r="E28" t="n">
+        <v>88.7</v>
+      </c>
+      <c r="F28" t="n">
+        <v>849</v>
+      </c>
+      <c r="G28" t="n">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>28</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>Zyt1yt</t>
+        </is>
+      </c>
+      <c r="C29" t="n">
+        <v>9</v>
+      </c>
+      <c r="D29" t="n">
+        <v>3908</v>
+      </c>
+      <c r="E29" t="n">
+        <v>92.3</v>
+      </c>
+      <c r="F29" t="n">
+        <v>905</v>
+      </c>
+      <c r="G29" t="n">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>29</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>Pop_Slime</t>
+        </is>
+      </c>
+      <c r="C30" t="n">
+        <v>9</v>
+      </c>
+      <c r="D30" t="n">
+        <v>3904</v>
+      </c>
+      <c r="E30" t="n">
+        <v>94.84</v>
+      </c>
+      <c r="F30" t="n">
+        <v>736</v>
+      </c>
+      <c r="G30" t="n">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>30</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>aaaa123</t>
+        </is>
+      </c>
+      <c r="C31" t="n">
+        <v>9</v>
+      </c>
+      <c r="D31" t="n">
+        <v>3876</v>
+      </c>
+      <c r="E31" t="n">
+        <v>96.17</v>
+      </c>
+      <c r="F31" t="n">
+        <v>1112</v>
+      </c>
+      <c r="G31" t="n">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>31</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>KangBasoTikus</t>
+        </is>
+      </c>
+      <c r="C32" t="n">
+        <v>9</v>
+      </c>
+      <c r="D32" t="n">
+        <v>3867</v>
+      </c>
+      <c r="E32" t="n">
+        <v>93.45</v>
+      </c>
+      <c r="F32" t="n">
+        <v>651</v>
+      </c>
+      <c r="G32" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>32</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>Lixinyan</t>
+        </is>
+      </c>
+      <c r="C33" t="n">
+        <v>9</v>
+      </c>
+      <c r="D33" t="n">
+        <v>3543</v>
+      </c>
+      <c r="E33" t="n">
+        <v>79.59</v>
+      </c>
+      <c r="F33" t="n">
+        <v>246</v>
+      </c>
+      <c r="G33" t="n">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>33</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>jyx042223</t>
+        </is>
+      </c>
+      <c r="C34" t="n">
+        <v>9</v>
+      </c>
+      <c r="D34" t="n">
+        <v>3446</v>
+      </c>
+      <c r="E34" t="n">
+        <v>91.58</v>
+      </c>
+      <c r="F34" t="n">
+        <v>780</v>
+      </c>
+      <c r="G34" t="n">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>34</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>forcal</t>
+        </is>
+      </c>
+      <c r="C35" t="n">
+        <v>8</v>
+      </c>
+      <c r="D35" t="n">
+        <v>3161</v>
+      </c>
+      <c r="E35" t="n">
+        <v>96.90000000000001</v>
+      </c>
+      <c r="F35" t="n">
+        <v>591</v>
+      </c>
+      <c r="G35" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>35</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>nekomyudon</t>
+        </is>
+      </c>
+      <c r="C36" t="n">
+        <v>8</v>
+      </c>
+      <c r="D36" t="n">
+        <v>2940</v>
+      </c>
+      <c r="E36" t="n">
+        <v>91.95</v>
+      </c>
+      <c r="F36" t="n">
+        <v>474</v>
+      </c>
+      <c r="G36" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>36</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>ruirongrong</t>
+        </is>
+      </c>
+      <c r="C37" t="n">
+        <v>8</v>
+      </c>
+      <c r="D37" t="n">
+        <v>2930</v>
+      </c>
+      <c r="E37" t="n">
+        <v>87.76000000000001</v>
+      </c>
+      <c r="F37" t="n">
+        <v>282</v>
+      </c>
+      <c r="G37" t="n">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>37</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>xiyan2002</t>
+        </is>
+      </c>
+      <c r="C38" t="n">
+        <v>8</v>
+      </c>
+      <c r="D38" t="n">
+        <v>2833</v>
+      </c>
+      <c r="E38" t="n">
+        <v>77.47</v>
+      </c>
+      <c r="F38" t="n">
+        <v>626</v>
+      </c>
+      <c r="G38" t="n">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>38</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>[Origami]</t>
+        </is>
+      </c>
+      <c r="C39" t="n">
+        <v>8</v>
+      </c>
+      <c r="D39" t="n">
+        <v>2733</v>
+      </c>
+      <c r="E39" t="n">
+        <v>92.81</v>
+      </c>
+      <c r="F39" t="n">
+        <v>879</v>
+      </c>
+      <c r="G39" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>39</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>myhome</t>
+        </is>
+      </c>
+      <c r="C40" t="n">
+        <v>7</v>
+      </c>
+      <c r="D40" t="n">
+        <v>2662</v>
+      </c>
+      <c r="E40" t="n">
+        <v>89.73999999999999</v>
+      </c>
+      <c r="F40" t="n">
+        <v>1131</v>
+      </c>
+      <c r="G40" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>40</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>niniin</t>
+        </is>
+      </c>
+      <c r="C41" t="n">
+        <v>7</v>
+      </c>
+      <c r="D41" t="n">
+        <v>2617</v>
+      </c>
+      <c r="E41" t="n">
+        <v>89.29000000000001</v>
+      </c>
+      <c r="F41" t="n">
+        <v>612</v>
+      </c>
+      <c r="G41" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>41</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>-Kori</t>
+        </is>
+      </c>
+      <c r="C42" t="n">
+        <v>7</v>
+      </c>
+      <c r="D42" t="n">
+        <v>2523</v>
+      </c>
+      <c r="E42" t="n">
+        <v>94.86</v>
+      </c>
+      <c r="F42" t="n">
+        <v>1115</v>
+      </c>
+      <c r="G42" t="n">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>42</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>AloneHitoriV</t>
+        </is>
+      </c>
+      <c r="C43" t="n">
+        <v>7</v>
+      </c>
+      <c r="D43" t="n">
+        <v>2431</v>
+      </c>
+      <c r="E43" t="n">
+        <v>91.25</v>
+      </c>
+      <c r="F43" t="n">
+        <v>595</v>
+      </c>
+      <c r="G43" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>43</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>fkruby</t>
+        </is>
+      </c>
+      <c r="C44" t="n">
+        <v>7</v>
+      </c>
+      <c r="D44" t="n">
+        <v>2280</v>
+      </c>
+      <c r="E44" t="n">
+        <v>93.04000000000001</v>
+      </c>
+      <c r="F44" t="n">
+        <v>705</v>
+      </c>
+      <c r="G44" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>44</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>feat_Konoka</t>
+        </is>
+      </c>
+      <c r="C45" t="n">
+        <v>7</v>
+      </c>
+      <c r="D45" t="n">
+        <v>2272</v>
+      </c>
+      <c r="E45" t="n">
+        <v>97.06</v>
+      </c>
+      <c r="F45" t="n">
+        <v>642</v>
+      </c>
+      <c r="G45" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>45</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>Kurenia</t>
+        </is>
+      </c>
+      <c r="C46" t="n">
+        <v>6</v>
+      </c>
+      <c r="D46" t="n">
+        <v>2152</v>
+      </c>
+      <c r="E46" t="n">
+        <v>94.42</v>
+      </c>
+      <c r="F46" t="n">
+        <v>379</v>
+      </c>
+      <c r="G46" t="n">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>46</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>vr_xuni</t>
+        </is>
+      </c>
+      <c r="C47" t="n">
+        <v>6</v>
+      </c>
+      <c r="D47" t="n">
+        <v>2151</v>
+      </c>
+      <c r="E47" t="n">
+        <v>96.87</v>
+      </c>
+      <c r="F47" t="n">
+        <v>550</v>
+      </c>
+      <c r="G47" t="n">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>47</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>JisusMP</t>
+        </is>
+      </c>
+      <c r="C48" t="n">
+        <v>6</v>
+      </c>
+      <c r="D48" t="n">
+        <v>2146</v>
+      </c>
+      <c r="E48" t="n">
+        <v>96.61</v>
+      </c>
+      <c r="F48" t="n">
+        <v>908</v>
+      </c>
+      <c r="G48" t="n">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>48</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>Qningshow</t>
+        </is>
+      </c>
+      <c r="C49" t="n">
+        <v>6</v>
+      </c>
+      <c r="D49" t="n">
+        <v>2115</v>
+      </c>
+      <c r="E49" t="n">
+        <v>93.73999999999999</v>
+      </c>
+      <c r="F49" t="n">
+        <v>534</v>
+      </c>
+      <c r="G49" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>49</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>cheesewtf</t>
+        </is>
+      </c>
+      <c r="C50" t="n">
+        <v>6</v>
+      </c>
+      <c r="D50" t="n">
+        <v>2033</v>
+      </c>
+      <c r="E50" t="n">
+        <v>86.90000000000001</v>
+      </c>
+      <c r="F50" t="n">
+        <v>698</v>
+      </c>
+      <c r="G50" t="n">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>50</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>LYX8002domino</t>
+        </is>
+      </c>
+      <c r="C51" t="n">
+        <v>6</v>
+      </c>
+      <c r="D51" t="n">
+        <v>1974</v>
+      </c>
+      <c r="E51" t="n">
+        <v>91.93000000000001</v>
+      </c>
+      <c r="F51" t="n">
+        <v>474</v>
+      </c>
+      <c r="G51" t="n">
+        <v>23</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
@@ -9584,4 +10892,1310 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:G51"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>rank</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>lv</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>exp</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>acc</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>combo</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>pc</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>YA_GAMMER</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>35</v>
+      </c>
+      <c r="D2" t="n">
+        <v>158175</v>
+      </c>
+      <c r="E2" t="n">
+        <v>97.08</v>
+      </c>
+      <c r="F2" t="n">
+        <v>1123</v>
+      </c>
+      <c r="G2" t="n">
+        <v>868</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>KrisTheHumanFall</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>33</v>
+      </c>
+      <c r="D3" t="n">
+        <v>128588</v>
+      </c>
+      <c r="E3" t="n">
+        <v>96.02</v>
+      </c>
+      <c r="F3" t="n">
+        <v>1141</v>
+      </c>
+      <c r="G3" t="n">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Excited_Naive</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>32</v>
+      </c>
+      <c r="D4" t="n">
+        <v>108816</v>
+      </c>
+      <c r="E4" t="n">
+        <v>97.81</v>
+      </c>
+      <c r="F4" t="n">
+        <v>1374</v>
+      </c>
+      <c r="G4" t="n">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>-Koyuki-</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>27</v>
+      </c>
+      <c r="D5" t="n">
+        <v>56822</v>
+      </c>
+      <c r="E5" t="n">
+        <v>96.73999999999999</v>
+      </c>
+      <c r="F5" t="n">
+        <v>1130</v>
+      </c>
+      <c r="G5" t="n">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>F0rge</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>21</v>
+      </c>
+      <c r="D6" t="n">
+        <v>25705</v>
+      </c>
+      <c r="E6" t="n">
+        <v>97.77</v>
+      </c>
+      <c r="F6" t="n">
+        <v>1100</v>
+      </c>
+      <c r="G6" t="n">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Merak</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>18</v>
+      </c>
+      <c r="D7" t="n">
+        <v>16294</v>
+      </c>
+      <c r="E7" t="n">
+        <v>94.20999999999999</v>
+      </c>
+      <c r="F7" t="n">
+        <v>819</v>
+      </c>
+      <c r="G7" t="n">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Physic_est</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>18</v>
+      </c>
+      <c r="D8" t="n">
+        <v>15982</v>
+      </c>
+      <c r="E8" t="n">
+        <v>96.97</v>
+      </c>
+      <c r="F8" t="n">
+        <v>586</v>
+      </c>
+      <c r="G8" t="n">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>8</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>RedCatz</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>18</v>
+      </c>
+      <c r="D9" t="n">
+        <v>14867</v>
+      </c>
+      <c r="E9" t="n">
+        <v>97.40000000000001</v>
+      </c>
+      <c r="F9" t="n">
+        <v>1026</v>
+      </c>
+      <c r="G9" t="n">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>9</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>ReLWZJ_X</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>16</v>
+      </c>
+      <c r="D10" t="n">
+        <v>11553</v>
+      </c>
+      <c r="E10" t="n">
+        <v>98.44</v>
+      </c>
+      <c r="F10" t="n">
+        <v>896</v>
+      </c>
+      <c r="G10" t="n">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>10</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>NamelessBeing</t>
+        </is>
+      </c>
+      <c r="C11" t="n">
+        <v>16</v>
+      </c>
+      <c r="D11" t="n">
+        <v>11349</v>
+      </c>
+      <c r="E11" t="n">
+        <v>93.84</v>
+      </c>
+      <c r="F11" t="n">
+        <v>908</v>
+      </c>
+      <c r="G11" t="n">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>11</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>GongErguang</t>
+        </is>
+      </c>
+      <c r="C12" t="n">
+        <v>15</v>
+      </c>
+      <c r="D12" t="n">
+        <v>10191</v>
+      </c>
+      <c r="E12" t="n">
+        <v>95.92</v>
+      </c>
+      <c r="F12" t="n">
+        <v>1107</v>
+      </c>
+      <c r="G12" t="n">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>12</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>hazeiro</t>
+        </is>
+      </c>
+      <c r="C13" t="n">
+        <v>14</v>
+      </c>
+      <c r="D13" t="n">
+        <v>8912</v>
+      </c>
+      <c r="E13" t="n">
+        <v>94.86</v>
+      </c>
+      <c r="F13" t="n">
+        <v>1304</v>
+      </c>
+      <c r="G13" t="n">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>13</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>fffjssgd</t>
+        </is>
+      </c>
+      <c r="C14" t="n">
+        <v>14</v>
+      </c>
+      <c r="D14" t="n">
+        <v>8009</v>
+      </c>
+      <c r="E14" t="n">
+        <v>89.84</v>
+      </c>
+      <c r="F14" t="n">
+        <v>294</v>
+      </c>
+      <c r="G14" t="n">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>14</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Hetatis</t>
+        </is>
+      </c>
+      <c r="C15" t="n">
+        <v>13</v>
+      </c>
+      <c r="D15" t="n">
+        <v>7601</v>
+      </c>
+      <c r="E15" t="n">
+        <v>97.42</v>
+      </c>
+      <c r="F15" t="n">
+        <v>1132</v>
+      </c>
+      <c r="G15" t="n">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>15</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Alisabe</t>
+        </is>
+      </c>
+      <c r="C16" t="n">
+        <v>12</v>
+      </c>
+      <c r="D16" t="n">
+        <v>6641</v>
+      </c>
+      <c r="E16" t="n">
+        <v>90.68000000000001</v>
+      </c>
+      <c r="F16" t="n">
+        <v>909</v>
+      </c>
+      <c r="G16" t="n">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>16</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>4keyishard</t>
+        </is>
+      </c>
+      <c r="C17" t="n">
+        <v>12</v>
+      </c>
+      <c r="D17" t="n">
+        <v>6588</v>
+      </c>
+      <c r="E17" t="n">
+        <v>96.56</v>
+      </c>
+      <c r="F17" t="n">
+        <v>1396</v>
+      </c>
+      <c r="G17" t="n">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>17</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Laddie_Amoyensis</t>
+        </is>
+      </c>
+      <c r="C18" t="n">
+        <v>12</v>
+      </c>
+      <c r="D18" t="n">
+        <v>6311</v>
+      </c>
+      <c r="E18" t="n">
+        <v>99.59999999999999</v>
+      </c>
+      <c r="F18" t="n">
+        <v>1361</v>
+      </c>
+      <c r="G18" t="n">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>18</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>reonalll</t>
+        </is>
+      </c>
+      <c r="C19" t="n">
+        <v>12</v>
+      </c>
+      <c r="D19" t="n">
+        <v>5838</v>
+      </c>
+      <c r="E19" t="n">
+        <v>97.33</v>
+      </c>
+      <c r="F19" t="n">
+        <v>713</v>
+      </c>
+      <c r="G19" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>19</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>asarin</t>
+        </is>
+      </c>
+      <c r="C20" t="n">
+        <v>11</v>
+      </c>
+      <c r="D20" t="n">
+        <v>5487</v>
+      </c>
+      <c r="E20" t="n">
+        <v>83.7</v>
+      </c>
+      <c r="F20" t="n">
+        <v>542</v>
+      </c>
+      <c r="G20" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>20</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Lolimlive</t>
+        </is>
+      </c>
+      <c r="C21" t="n">
+        <v>11</v>
+      </c>
+      <c r="D21" t="n">
+        <v>5389</v>
+      </c>
+      <c r="E21" t="n">
+        <v>90.81999999999999</v>
+      </c>
+      <c r="F21" t="n">
+        <v>555</v>
+      </c>
+      <c r="G21" t="n">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>21</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Koishi_Komeiji</t>
+        </is>
+      </c>
+      <c r="C22" t="n">
+        <v>11</v>
+      </c>
+      <c r="D22" t="n">
+        <v>5153</v>
+      </c>
+      <c r="E22" t="n">
+        <v>96.56</v>
+      </c>
+      <c r="F22" t="n">
+        <v>1115</v>
+      </c>
+      <c r="G22" t="n">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>22</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Yasashima</t>
+        </is>
+      </c>
+      <c r="C23" t="n">
+        <v>11</v>
+      </c>
+      <c r="D23" t="n">
+        <v>4823</v>
+      </c>
+      <c r="E23" t="n">
+        <v>93.98</v>
+      </c>
+      <c r="F23" t="n">
+        <v>1050</v>
+      </c>
+      <c r="G23" t="n">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>23</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Yama0113</t>
+        </is>
+      </c>
+      <c r="C24" t="n">
+        <v>10</v>
+      </c>
+      <c r="D24" t="n">
+        <v>4779</v>
+      </c>
+      <c r="E24" t="n">
+        <v>92.44</v>
+      </c>
+      <c r="F24" t="n">
+        <v>905</v>
+      </c>
+      <c r="G24" t="n">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>24</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>abbbs-asc</t>
+        </is>
+      </c>
+      <c r="C25" t="n">
+        <v>10</v>
+      </c>
+      <c r="D25" t="n">
+        <v>4664</v>
+      </c>
+      <c r="E25" t="n">
+        <v>90.95</v>
+      </c>
+      <c r="F25" t="n">
+        <v>615</v>
+      </c>
+      <c r="G25" t="n">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>25</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>333XD</t>
+        </is>
+      </c>
+      <c r="C26" t="n">
+        <v>10</v>
+      </c>
+      <c r="D26" t="n">
+        <v>4262</v>
+      </c>
+      <c r="E26" t="n">
+        <v>88.31</v>
+      </c>
+      <c r="F26" t="n">
+        <v>693</v>
+      </c>
+      <c r="G26" t="n">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>26</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>0PoppinParty0</t>
+        </is>
+      </c>
+      <c r="C27" t="n">
+        <v>10</v>
+      </c>
+      <c r="D27" t="n">
+        <v>4162</v>
+      </c>
+      <c r="E27" t="n">
+        <v>96.09999999999999</v>
+      </c>
+      <c r="F27" t="n">
+        <v>908</v>
+      </c>
+      <c r="G27" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>27</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>RenAhah</t>
+        </is>
+      </c>
+      <c r="C28" t="n">
+        <v>9</v>
+      </c>
+      <c r="D28" t="n">
+        <v>3959</v>
+      </c>
+      <c r="E28" t="n">
+        <v>88.7</v>
+      </c>
+      <c r="F28" t="n">
+        <v>849</v>
+      </c>
+      <c r="G28" t="n">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>28</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>Zyt1yt</t>
+        </is>
+      </c>
+      <c r="C29" t="n">
+        <v>9</v>
+      </c>
+      <c r="D29" t="n">
+        <v>3908</v>
+      </c>
+      <c r="E29" t="n">
+        <v>92.3</v>
+      </c>
+      <c r="F29" t="n">
+        <v>905</v>
+      </c>
+      <c r="G29" t="n">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>29</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>Pop_Slime</t>
+        </is>
+      </c>
+      <c r="C30" t="n">
+        <v>9</v>
+      </c>
+      <c r="D30" t="n">
+        <v>3904</v>
+      </c>
+      <c r="E30" t="n">
+        <v>94.84</v>
+      </c>
+      <c r="F30" t="n">
+        <v>736</v>
+      </c>
+      <c r="G30" t="n">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>30</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>aaaa123</t>
+        </is>
+      </c>
+      <c r="C31" t="n">
+        <v>9</v>
+      </c>
+      <c r="D31" t="n">
+        <v>3876</v>
+      </c>
+      <c r="E31" t="n">
+        <v>96.17</v>
+      </c>
+      <c r="F31" t="n">
+        <v>1112</v>
+      </c>
+      <c r="G31" t="n">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>31</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>KangBasoTikus</t>
+        </is>
+      </c>
+      <c r="C32" t="n">
+        <v>9</v>
+      </c>
+      <c r="D32" t="n">
+        <v>3867</v>
+      </c>
+      <c r="E32" t="n">
+        <v>93.45</v>
+      </c>
+      <c r="F32" t="n">
+        <v>651</v>
+      </c>
+      <c r="G32" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>32</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>Lixinyan</t>
+        </is>
+      </c>
+      <c r="C33" t="n">
+        <v>9</v>
+      </c>
+      <c r="D33" t="n">
+        <v>3543</v>
+      </c>
+      <c r="E33" t="n">
+        <v>79.59</v>
+      </c>
+      <c r="F33" t="n">
+        <v>246</v>
+      </c>
+      <c r="G33" t="n">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>33</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>jyx042223</t>
+        </is>
+      </c>
+      <c r="C34" t="n">
+        <v>9</v>
+      </c>
+      <c r="D34" t="n">
+        <v>3446</v>
+      </c>
+      <c r="E34" t="n">
+        <v>91.58</v>
+      </c>
+      <c r="F34" t="n">
+        <v>780</v>
+      </c>
+      <c r="G34" t="n">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>34</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>forcal</t>
+        </is>
+      </c>
+      <c r="C35" t="n">
+        <v>8</v>
+      </c>
+      <c r="D35" t="n">
+        <v>3161</v>
+      </c>
+      <c r="E35" t="n">
+        <v>96.90000000000001</v>
+      </c>
+      <c r="F35" t="n">
+        <v>591</v>
+      </c>
+      <c r="G35" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>35</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>nekomyudon</t>
+        </is>
+      </c>
+      <c r="C36" t="n">
+        <v>8</v>
+      </c>
+      <c r="D36" t="n">
+        <v>2940</v>
+      </c>
+      <c r="E36" t="n">
+        <v>91.95</v>
+      </c>
+      <c r="F36" t="n">
+        <v>474</v>
+      </c>
+      <c r="G36" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>36</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>xiyan2002</t>
+        </is>
+      </c>
+      <c r="C37" t="n">
+        <v>8</v>
+      </c>
+      <c r="D37" t="n">
+        <v>2833</v>
+      </c>
+      <c r="E37" t="n">
+        <v>77.47</v>
+      </c>
+      <c r="F37" t="n">
+        <v>626</v>
+      </c>
+      <c r="G37" t="n">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>37</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>[Origami]</t>
+        </is>
+      </c>
+      <c r="C38" t="n">
+        <v>8</v>
+      </c>
+      <c r="D38" t="n">
+        <v>2733</v>
+      </c>
+      <c r="E38" t="n">
+        <v>92.81</v>
+      </c>
+      <c r="F38" t="n">
+        <v>879</v>
+      </c>
+      <c r="G38" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>38</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>myhome</t>
+        </is>
+      </c>
+      <c r="C39" t="n">
+        <v>7</v>
+      </c>
+      <c r="D39" t="n">
+        <v>2662</v>
+      </c>
+      <c r="E39" t="n">
+        <v>89.73999999999999</v>
+      </c>
+      <c r="F39" t="n">
+        <v>1131</v>
+      </c>
+      <c r="G39" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>39</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>niniin</t>
+        </is>
+      </c>
+      <c r="C40" t="n">
+        <v>7</v>
+      </c>
+      <c r="D40" t="n">
+        <v>2617</v>
+      </c>
+      <c r="E40" t="n">
+        <v>89.29000000000001</v>
+      </c>
+      <c r="F40" t="n">
+        <v>612</v>
+      </c>
+      <c r="G40" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>40</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>-Kori</t>
+        </is>
+      </c>
+      <c r="C41" t="n">
+        <v>7</v>
+      </c>
+      <c r="D41" t="n">
+        <v>2523</v>
+      </c>
+      <c r="E41" t="n">
+        <v>94.86</v>
+      </c>
+      <c r="F41" t="n">
+        <v>1115</v>
+      </c>
+      <c r="G41" t="n">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>41</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>AloneHitoriV</t>
+        </is>
+      </c>
+      <c r="C42" t="n">
+        <v>7</v>
+      </c>
+      <c r="D42" t="n">
+        <v>2431</v>
+      </c>
+      <c r="E42" t="n">
+        <v>91.25</v>
+      </c>
+      <c r="F42" t="n">
+        <v>595</v>
+      </c>
+      <c r="G42" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>42</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>fkruby</t>
+        </is>
+      </c>
+      <c r="C43" t="n">
+        <v>7</v>
+      </c>
+      <c r="D43" t="n">
+        <v>2280</v>
+      </c>
+      <c r="E43" t="n">
+        <v>93.04000000000001</v>
+      </c>
+      <c r="F43" t="n">
+        <v>705</v>
+      </c>
+      <c r="G43" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>43</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>feat_Konoka</t>
+        </is>
+      </c>
+      <c r="C44" t="n">
+        <v>7</v>
+      </c>
+      <c r="D44" t="n">
+        <v>2272</v>
+      </c>
+      <c r="E44" t="n">
+        <v>97.06</v>
+      </c>
+      <c r="F44" t="n">
+        <v>642</v>
+      </c>
+      <c r="G44" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>44</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>Kurenia</t>
+        </is>
+      </c>
+      <c r="C45" t="n">
+        <v>6</v>
+      </c>
+      <c r="D45" t="n">
+        <v>2152</v>
+      </c>
+      <c r="E45" t="n">
+        <v>94.42</v>
+      </c>
+      <c r="F45" t="n">
+        <v>379</v>
+      </c>
+      <c r="G45" t="n">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>45</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>vr_xuni</t>
+        </is>
+      </c>
+      <c r="C46" t="n">
+        <v>6</v>
+      </c>
+      <c r="D46" t="n">
+        <v>2151</v>
+      </c>
+      <c r="E46" t="n">
+        <v>96.87</v>
+      </c>
+      <c r="F46" t="n">
+        <v>550</v>
+      </c>
+      <c r="G46" t="n">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>46</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>JisusMP</t>
+        </is>
+      </c>
+      <c r="C47" t="n">
+        <v>6</v>
+      </c>
+      <c r="D47" t="n">
+        <v>2146</v>
+      </c>
+      <c r="E47" t="n">
+        <v>96.61</v>
+      </c>
+      <c r="F47" t="n">
+        <v>908</v>
+      </c>
+      <c r="G47" t="n">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>47</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>Qningshow</t>
+        </is>
+      </c>
+      <c r="C48" t="n">
+        <v>6</v>
+      </c>
+      <c r="D48" t="n">
+        <v>2115</v>
+      </c>
+      <c r="E48" t="n">
+        <v>93.73999999999999</v>
+      </c>
+      <c r="F48" t="n">
+        <v>534</v>
+      </c>
+      <c r="G48" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>48</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>cheesewtf</t>
+        </is>
+      </c>
+      <c r="C49" t="n">
+        <v>6</v>
+      </c>
+      <c r="D49" t="n">
+        <v>2033</v>
+      </c>
+      <c r="E49" t="n">
+        <v>86.90000000000001</v>
+      </c>
+      <c r="F49" t="n">
+        <v>698</v>
+      </c>
+      <c r="G49" t="n">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>49</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>ruirongrong</t>
+        </is>
+      </c>
+      <c r="C50" t="n">
+        <v>6</v>
+      </c>
+      <c r="D50" t="n">
+        <v>2021</v>
+      </c>
+      <c r="E50" t="n">
+        <v>79.87</v>
+      </c>
+      <c r="F50" t="n">
+        <v>282</v>
+      </c>
+      <c r="G50" t="n">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>50</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>LYX8002domino</t>
+        </is>
+      </c>
+      <c r="C51" t="n">
+        <v>6</v>
+      </c>
+      <c r="D51" t="n">
+        <v>1974</v>
+      </c>
+      <c r="E51" t="n">
+        <v>91.93000000000001</v>
+      </c>
+      <c r="F51" t="n">
+        <v>474</v>
+      </c>
+      <c r="G51" t="n">
+        <v>23</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/mode8.xlsx
+++ b/mode8.xlsx
@@ -17,6 +17,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="mode_8_2025-08-16_15-26" sheetId="8" state="visible" r:id="rId8"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="mode_8_2025-09-06_10-52" sheetId="9" state="visible" r:id="rId9"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="mode_8_2025-09-14_00-00" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="mode_8_2025-09-26_17-18" sheetId="11" state="visible" r:id="rId11"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -3040,6 +3041,1312 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:G51"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>rank</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>lv</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>exp</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>acc</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>combo</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>pc</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>YA_GAMMER</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>35</v>
+      </c>
+      <c r="D2" t="n">
+        <v>158175</v>
+      </c>
+      <c r="E2" t="n">
+        <v>97.08</v>
+      </c>
+      <c r="F2" t="n">
+        <v>1123</v>
+      </c>
+      <c r="G2" t="n">
+        <v>868</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>KrisTheHumanFall</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>33</v>
+      </c>
+      <c r="D3" t="n">
+        <v>128588</v>
+      </c>
+      <c r="E3" t="n">
+        <v>96.02</v>
+      </c>
+      <c r="F3" t="n">
+        <v>1141</v>
+      </c>
+      <c r="G3" t="n">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Excited_Naive</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>32</v>
+      </c>
+      <c r="D4" t="n">
+        <v>108816</v>
+      </c>
+      <c r="E4" t="n">
+        <v>97.81</v>
+      </c>
+      <c r="F4" t="n">
+        <v>1374</v>
+      </c>
+      <c r="G4" t="n">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>-Koyuki-</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>27</v>
+      </c>
+      <c r="D5" t="n">
+        <v>56822</v>
+      </c>
+      <c r="E5" t="n">
+        <v>96.73999999999999</v>
+      </c>
+      <c r="F5" t="n">
+        <v>1130</v>
+      </c>
+      <c r="G5" t="n">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>F0rge</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>21</v>
+      </c>
+      <c r="D6" t="n">
+        <v>25705</v>
+      </c>
+      <c r="E6" t="n">
+        <v>97.77</v>
+      </c>
+      <c r="F6" t="n">
+        <v>1100</v>
+      </c>
+      <c r="G6" t="n">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Merak</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>18</v>
+      </c>
+      <c r="D7" t="n">
+        <v>16294</v>
+      </c>
+      <c r="E7" t="n">
+        <v>94.20999999999999</v>
+      </c>
+      <c r="F7" t="n">
+        <v>819</v>
+      </c>
+      <c r="G7" t="n">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Physic_est</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>18</v>
+      </c>
+      <c r="D8" t="n">
+        <v>15982</v>
+      </c>
+      <c r="E8" t="n">
+        <v>96.97</v>
+      </c>
+      <c r="F8" t="n">
+        <v>586</v>
+      </c>
+      <c r="G8" t="n">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>8</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>RedCatz</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>18</v>
+      </c>
+      <c r="D9" t="n">
+        <v>14867</v>
+      </c>
+      <c r="E9" t="n">
+        <v>97.40000000000001</v>
+      </c>
+      <c r="F9" t="n">
+        <v>1026</v>
+      </c>
+      <c r="G9" t="n">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>9</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>ReLWZJ_X</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>16</v>
+      </c>
+      <c r="D10" t="n">
+        <v>11553</v>
+      </c>
+      <c r="E10" t="n">
+        <v>98.44</v>
+      </c>
+      <c r="F10" t="n">
+        <v>896</v>
+      </c>
+      <c r="G10" t="n">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>10</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>NamelessBeing</t>
+        </is>
+      </c>
+      <c r="C11" t="n">
+        <v>16</v>
+      </c>
+      <c r="D11" t="n">
+        <v>11349</v>
+      </c>
+      <c r="E11" t="n">
+        <v>93.84</v>
+      </c>
+      <c r="F11" t="n">
+        <v>908</v>
+      </c>
+      <c r="G11" t="n">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>11</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>GongErguang</t>
+        </is>
+      </c>
+      <c r="C12" t="n">
+        <v>15</v>
+      </c>
+      <c r="D12" t="n">
+        <v>10191</v>
+      </c>
+      <c r="E12" t="n">
+        <v>95.92</v>
+      </c>
+      <c r="F12" t="n">
+        <v>1107</v>
+      </c>
+      <c r="G12" t="n">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>12</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>hazeiro</t>
+        </is>
+      </c>
+      <c r="C13" t="n">
+        <v>14</v>
+      </c>
+      <c r="D13" t="n">
+        <v>8912</v>
+      </c>
+      <c r="E13" t="n">
+        <v>94.86</v>
+      </c>
+      <c r="F13" t="n">
+        <v>1304</v>
+      </c>
+      <c r="G13" t="n">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>13</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>fffjssgd</t>
+        </is>
+      </c>
+      <c r="C14" t="n">
+        <v>14</v>
+      </c>
+      <c r="D14" t="n">
+        <v>8009</v>
+      </c>
+      <c r="E14" t="n">
+        <v>89.84</v>
+      </c>
+      <c r="F14" t="n">
+        <v>294</v>
+      </c>
+      <c r="G14" t="n">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>14</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Hetatis</t>
+        </is>
+      </c>
+      <c r="C15" t="n">
+        <v>13</v>
+      </c>
+      <c r="D15" t="n">
+        <v>7601</v>
+      </c>
+      <c r="E15" t="n">
+        <v>97.42</v>
+      </c>
+      <c r="F15" t="n">
+        <v>1132</v>
+      </c>
+      <c r="G15" t="n">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>15</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Alisabe</t>
+        </is>
+      </c>
+      <c r="C16" t="n">
+        <v>12</v>
+      </c>
+      <c r="D16" t="n">
+        <v>6641</v>
+      </c>
+      <c r="E16" t="n">
+        <v>90.68000000000001</v>
+      </c>
+      <c r="F16" t="n">
+        <v>909</v>
+      </c>
+      <c r="G16" t="n">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>16</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>4keyishard</t>
+        </is>
+      </c>
+      <c r="C17" t="n">
+        <v>12</v>
+      </c>
+      <c r="D17" t="n">
+        <v>6588</v>
+      </c>
+      <c r="E17" t="n">
+        <v>96.56</v>
+      </c>
+      <c r="F17" t="n">
+        <v>1396</v>
+      </c>
+      <c r="G17" t="n">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>17</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Laddie_Amoyensis</t>
+        </is>
+      </c>
+      <c r="C18" t="n">
+        <v>12</v>
+      </c>
+      <c r="D18" t="n">
+        <v>6311</v>
+      </c>
+      <c r="E18" t="n">
+        <v>99.59999999999999</v>
+      </c>
+      <c r="F18" t="n">
+        <v>1361</v>
+      </c>
+      <c r="G18" t="n">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>18</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>reonalll</t>
+        </is>
+      </c>
+      <c r="C19" t="n">
+        <v>12</v>
+      </c>
+      <c r="D19" t="n">
+        <v>5838</v>
+      </c>
+      <c r="E19" t="n">
+        <v>97.33</v>
+      </c>
+      <c r="F19" t="n">
+        <v>713</v>
+      </c>
+      <c r="G19" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>19</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>asarin</t>
+        </is>
+      </c>
+      <c r="C20" t="n">
+        <v>11</v>
+      </c>
+      <c r="D20" t="n">
+        <v>5487</v>
+      </c>
+      <c r="E20" t="n">
+        <v>83.7</v>
+      </c>
+      <c r="F20" t="n">
+        <v>542</v>
+      </c>
+      <c r="G20" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>20</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Lolimlive</t>
+        </is>
+      </c>
+      <c r="C21" t="n">
+        <v>11</v>
+      </c>
+      <c r="D21" t="n">
+        <v>5389</v>
+      </c>
+      <c r="E21" t="n">
+        <v>90.81999999999999</v>
+      </c>
+      <c r="F21" t="n">
+        <v>555</v>
+      </c>
+      <c r="G21" t="n">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>21</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Koishi_Komeiji</t>
+        </is>
+      </c>
+      <c r="C22" t="n">
+        <v>11</v>
+      </c>
+      <c r="D22" t="n">
+        <v>5153</v>
+      </c>
+      <c r="E22" t="n">
+        <v>96.56</v>
+      </c>
+      <c r="F22" t="n">
+        <v>1115</v>
+      </c>
+      <c r="G22" t="n">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>22</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>lal_33</t>
+        </is>
+      </c>
+      <c r="C23" t="n">
+        <v>11</v>
+      </c>
+      <c r="D23" t="n">
+        <v>5104</v>
+      </c>
+      <c r="E23" t="n">
+        <v>0</v>
+      </c>
+      <c r="F23" t="n">
+        <v>229</v>
+      </c>
+      <c r="G23" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>23</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Yasashima</t>
+        </is>
+      </c>
+      <c r="C24" t="n">
+        <v>11</v>
+      </c>
+      <c r="D24" t="n">
+        <v>4823</v>
+      </c>
+      <c r="E24" t="n">
+        <v>93.98</v>
+      </c>
+      <c r="F24" t="n">
+        <v>1050</v>
+      </c>
+      <c r="G24" t="n">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>24</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Yama0113</t>
+        </is>
+      </c>
+      <c r="C25" t="n">
+        <v>10</v>
+      </c>
+      <c r="D25" t="n">
+        <v>4779</v>
+      </c>
+      <c r="E25" t="n">
+        <v>92.44</v>
+      </c>
+      <c r="F25" t="n">
+        <v>905</v>
+      </c>
+      <c r="G25" t="n">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>25</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>abbbs-asc</t>
+        </is>
+      </c>
+      <c r="C26" t="n">
+        <v>10</v>
+      </c>
+      <c r="D26" t="n">
+        <v>4664</v>
+      </c>
+      <c r="E26" t="n">
+        <v>90.95</v>
+      </c>
+      <c r="F26" t="n">
+        <v>615</v>
+      </c>
+      <c r="G26" t="n">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>26</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>333XD</t>
+        </is>
+      </c>
+      <c r="C27" t="n">
+        <v>10</v>
+      </c>
+      <c r="D27" t="n">
+        <v>4262</v>
+      </c>
+      <c r="E27" t="n">
+        <v>88.31</v>
+      </c>
+      <c r="F27" t="n">
+        <v>693</v>
+      </c>
+      <c r="G27" t="n">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>27</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>0PoppinParty0</t>
+        </is>
+      </c>
+      <c r="C28" t="n">
+        <v>10</v>
+      </c>
+      <c r="D28" t="n">
+        <v>4162</v>
+      </c>
+      <c r="E28" t="n">
+        <v>96.09999999999999</v>
+      </c>
+      <c r="F28" t="n">
+        <v>908</v>
+      </c>
+      <c r="G28" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>28</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>RenAhah</t>
+        </is>
+      </c>
+      <c r="C29" t="n">
+        <v>9</v>
+      </c>
+      <c r="D29" t="n">
+        <v>3959</v>
+      </c>
+      <c r="E29" t="n">
+        <v>88.7</v>
+      </c>
+      <c r="F29" t="n">
+        <v>849</v>
+      </c>
+      <c r="G29" t="n">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>29</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>Zyt1yt</t>
+        </is>
+      </c>
+      <c r="C30" t="n">
+        <v>9</v>
+      </c>
+      <c r="D30" t="n">
+        <v>3908</v>
+      </c>
+      <c r="E30" t="n">
+        <v>92.3</v>
+      </c>
+      <c r="F30" t="n">
+        <v>905</v>
+      </c>
+      <c r="G30" t="n">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>30</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>Pop_Slime</t>
+        </is>
+      </c>
+      <c r="C31" t="n">
+        <v>9</v>
+      </c>
+      <c r="D31" t="n">
+        <v>3904</v>
+      </c>
+      <c r="E31" t="n">
+        <v>94.84</v>
+      </c>
+      <c r="F31" t="n">
+        <v>736</v>
+      </c>
+      <c r="G31" t="n">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>31</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>aaaa123</t>
+        </is>
+      </c>
+      <c r="C32" t="n">
+        <v>9</v>
+      </c>
+      <c r="D32" t="n">
+        <v>3876</v>
+      </c>
+      <c r="E32" t="n">
+        <v>96.17</v>
+      </c>
+      <c r="F32" t="n">
+        <v>1112</v>
+      </c>
+      <c r="G32" t="n">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>32</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>KangBasoTikus</t>
+        </is>
+      </c>
+      <c r="C33" t="n">
+        <v>9</v>
+      </c>
+      <c r="D33" t="n">
+        <v>3867</v>
+      </c>
+      <c r="E33" t="n">
+        <v>93.45</v>
+      </c>
+      <c r="F33" t="n">
+        <v>651</v>
+      </c>
+      <c r="G33" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>33</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>Lixinyan</t>
+        </is>
+      </c>
+      <c r="C34" t="n">
+        <v>9</v>
+      </c>
+      <c r="D34" t="n">
+        <v>3543</v>
+      </c>
+      <c r="E34" t="n">
+        <v>79.59</v>
+      </c>
+      <c r="F34" t="n">
+        <v>246</v>
+      </c>
+      <c r="G34" t="n">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>34</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>jyx042223</t>
+        </is>
+      </c>
+      <c r="C35" t="n">
+        <v>9</v>
+      </c>
+      <c r="D35" t="n">
+        <v>3446</v>
+      </c>
+      <c r="E35" t="n">
+        <v>91.58</v>
+      </c>
+      <c r="F35" t="n">
+        <v>780</v>
+      </c>
+      <c r="G35" t="n">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>35</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>forcal</t>
+        </is>
+      </c>
+      <c r="C36" t="n">
+        <v>8</v>
+      </c>
+      <c r="D36" t="n">
+        <v>3161</v>
+      </c>
+      <c r="E36" t="n">
+        <v>96.90000000000001</v>
+      </c>
+      <c r="F36" t="n">
+        <v>591</v>
+      </c>
+      <c r="G36" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>36</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>nekomyudon</t>
+        </is>
+      </c>
+      <c r="C37" t="n">
+        <v>8</v>
+      </c>
+      <c r="D37" t="n">
+        <v>2940</v>
+      </c>
+      <c r="E37" t="n">
+        <v>91.95</v>
+      </c>
+      <c r="F37" t="n">
+        <v>474</v>
+      </c>
+      <c r="G37" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>37</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>ruirongrong</t>
+        </is>
+      </c>
+      <c r="C38" t="n">
+        <v>8</v>
+      </c>
+      <c r="D38" t="n">
+        <v>2930</v>
+      </c>
+      <c r="E38" t="n">
+        <v>87.76000000000001</v>
+      </c>
+      <c r="F38" t="n">
+        <v>282</v>
+      </c>
+      <c r="G38" t="n">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>38</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>xiyan2002</t>
+        </is>
+      </c>
+      <c r="C39" t="n">
+        <v>8</v>
+      </c>
+      <c r="D39" t="n">
+        <v>2833</v>
+      </c>
+      <c r="E39" t="n">
+        <v>77.47</v>
+      </c>
+      <c r="F39" t="n">
+        <v>626</v>
+      </c>
+      <c r="G39" t="n">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>39</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>[Origami]</t>
+        </is>
+      </c>
+      <c r="C40" t="n">
+        <v>8</v>
+      </c>
+      <c r="D40" t="n">
+        <v>2733</v>
+      </c>
+      <c r="E40" t="n">
+        <v>92.81</v>
+      </c>
+      <c r="F40" t="n">
+        <v>879</v>
+      </c>
+      <c r="G40" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>40</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>myhome</t>
+        </is>
+      </c>
+      <c r="C41" t="n">
+        <v>7</v>
+      </c>
+      <c r="D41" t="n">
+        <v>2662</v>
+      </c>
+      <c r="E41" t="n">
+        <v>89.73999999999999</v>
+      </c>
+      <c r="F41" t="n">
+        <v>1131</v>
+      </c>
+      <c r="G41" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>41</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>niniin</t>
+        </is>
+      </c>
+      <c r="C42" t="n">
+        <v>7</v>
+      </c>
+      <c r="D42" t="n">
+        <v>2617</v>
+      </c>
+      <c r="E42" t="n">
+        <v>89.29000000000001</v>
+      </c>
+      <c r="F42" t="n">
+        <v>612</v>
+      </c>
+      <c r="G42" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>42</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>-Kori</t>
+        </is>
+      </c>
+      <c r="C43" t="n">
+        <v>7</v>
+      </c>
+      <c r="D43" t="n">
+        <v>2523</v>
+      </c>
+      <c r="E43" t="n">
+        <v>94.86</v>
+      </c>
+      <c r="F43" t="n">
+        <v>1115</v>
+      </c>
+      <c r="G43" t="n">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>43</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>AloneHitoriV</t>
+        </is>
+      </c>
+      <c r="C44" t="n">
+        <v>7</v>
+      </c>
+      <c r="D44" t="n">
+        <v>2431</v>
+      </c>
+      <c r="E44" t="n">
+        <v>91.25</v>
+      </c>
+      <c r="F44" t="n">
+        <v>595</v>
+      </c>
+      <c r="G44" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>44</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>fkruby</t>
+        </is>
+      </c>
+      <c r="C45" t="n">
+        <v>7</v>
+      </c>
+      <c r="D45" t="n">
+        <v>2280</v>
+      </c>
+      <c r="E45" t="n">
+        <v>93.04000000000001</v>
+      </c>
+      <c r="F45" t="n">
+        <v>705</v>
+      </c>
+      <c r="G45" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>45</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>feat_Konoka</t>
+        </is>
+      </c>
+      <c r="C46" t="n">
+        <v>7</v>
+      </c>
+      <c r="D46" t="n">
+        <v>2272</v>
+      </c>
+      <c r="E46" t="n">
+        <v>97.06</v>
+      </c>
+      <c r="F46" t="n">
+        <v>642</v>
+      </c>
+      <c r="G46" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>46</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>Kurenia</t>
+        </is>
+      </c>
+      <c r="C47" t="n">
+        <v>6</v>
+      </c>
+      <c r="D47" t="n">
+        <v>2152</v>
+      </c>
+      <c r="E47" t="n">
+        <v>94.42</v>
+      </c>
+      <c r="F47" t="n">
+        <v>379</v>
+      </c>
+      <c r="G47" t="n">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>47</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>vr_xuni</t>
+        </is>
+      </c>
+      <c r="C48" t="n">
+        <v>6</v>
+      </c>
+      <c r="D48" t="n">
+        <v>2151</v>
+      </c>
+      <c r="E48" t="n">
+        <v>96.87</v>
+      </c>
+      <c r="F48" t="n">
+        <v>550</v>
+      </c>
+      <c r="G48" t="n">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>48</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>JisusMP</t>
+        </is>
+      </c>
+      <c r="C49" t="n">
+        <v>6</v>
+      </c>
+      <c r="D49" t="n">
+        <v>2146</v>
+      </c>
+      <c r="E49" t="n">
+        <v>96.61</v>
+      </c>
+      <c r="F49" t="n">
+        <v>908</v>
+      </c>
+      <c r="G49" t="n">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>49</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>Qningshow</t>
+        </is>
+      </c>
+      <c r="C50" t="n">
+        <v>6</v>
+      </c>
+      <c r="D50" t="n">
+        <v>2115</v>
+      </c>
+      <c r="E50" t="n">
+        <v>93.73999999999999</v>
+      </c>
+      <c r="F50" t="n">
+        <v>534</v>
+      </c>
+      <c r="G50" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>50</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>cheesewtf</t>
+        </is>
+      </c>
+      <c r="C51" t="n">
+        <v>6</v>
+      </c>
+      <c r="D51" t="n">
+        <v>2033</v>
+      </c>
+      <c r="E51" t="n">
+        <v>86.90000000000001</v>
+      </c>
+      <c r="F51" t="n">
+        <v>698</v>
+      </c>
+      <c r="G51" t="n">
+        <v>26</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>

--- a/mode8.xlsx
+++ b/mode8.xlsx
@@ -17,7 +17,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="mode_8_2025-08-16_15-26" sheetId="8" state="visible" r:id="rId8"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="mode_8_2025-09-06_10-52" sheetId="9" state="visible" r:id="rId9"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="mode_8_2025-09-14_00-00" sheetId="10" state="visible" r:id="rId10"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="mode_8_2025-09-26_17-18" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="mode_8_2025-09-26_17-50" sheetId="11" state="visible" r:id="rId11"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>

--- a/mode8.xlsx
+++ b/mode8.xlsx
@@ -1,24 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="mode_8_2025-06-05_00-14" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="mode_8_2025-06-18_18-34" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="mode_8_2025-06-22_20-46" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="mode_8_2025-07-09_00-36" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="mode_8" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="mode_8_2025-08-13_18-47" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet name="mode_8_2025-08-14_13-27" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet name="mode_8_2025-08-16_15-26" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet name="mode_8_2025-09-06_10-52" sheetId="9" state="visible" r:id="rId9"/>
-    <sheet name="mode_8_2025-09-14_00-00" sheetId="10" state="visible" r:id="rId10"/>
-    <sheet name="mode_8_2025-09-26_17-50" sheetId="11" state="visible" r:id="rId11"/>
-    <sheet name="mode_8_2025-10-06_14-54" sheetId="12" state="visible" r:id="rId12"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="mode_8_2025-06-05_00-14" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="mode_8_2025-06-18_18-34" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="mode_8_2025-06-22_20-46" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="mode_8_2025-07-09_00-36" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="mode_8" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="mode_8_2025-08-13_18-47" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="mode_8_2025-08-14_13-27" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="mode_8_2025-08-16_15-26" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="mode_8_2025-09-06_10-52" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="mode_8_2025-09-14_00-00" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="mode_8_2025-09-26_17-50" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="mode_8_2025-10-06_14-54" sheetId="12" state="visible" r:id="rId12"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="mode_8_2025-10-08_13-41" sheetId="13" state="visible" r:id="rId13"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -5654,6 +5655,1567 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H51"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>rank</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>player_id</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>lv</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>exp</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>acc</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>combo</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>pc</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>YA_GAMMER</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>549520</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>35</v>
+      </c>
+      <c r="E2" t="n">
+        <v>158175</v>
+      </c>
+      <c r="F2" t="n">
+        <v>97.08</v>
+      </c>
+      <c r="G2" t="n">
+        <v>1123</v>
+      </c>
+      <c r="H2" t="n">
+        <v>868</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>KrisTheHumanFall</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>473602</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>33</v>
+      </c>
+      <c r="E3" t="n">
+        <v>128588</v>
+      </c>
+      <c r="F3" t="n">
+        <v>96.02</v>
+      </c>
+      <c r="G3" t="n">
+        <v>1141</v>
+      </c>
+      <c r="H3" t="n">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Excited_Naive</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>368505</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>32</v>
+      </c>
+      <c r="E4" t="n">
+        <v>108816</v>
+      </c>
+      <c r="F4" t="n">
+        <v>97.81</v>
+      </c>
+      <c r="G4" t="n">
+        <v>1374</v>
+      </c>
+      <c r="H4" t="n">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>-Koyuki-</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>499151</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>27</v>
+      </c>
+      <c r="E5" t="n">
+        <v>56822</v>
+      </c>
+      <c r="F5" t="n">
+        <v>96.73999999999999</v>
+      </c>
+      <c r="G5" t="n">
+        <v>1130</v>
+      </c>
+      <c r="H5" t="n">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>F0rge</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>1049018</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>21</v>
+      </c>
+      <c r="E6" t="n">
+        <v>25705</v>
+      </c>
+      <c r="F6" t="n">
+        <v>97.77</v>
+      </c>
+      <c r="G6" t="n">
+        <v>1100</v>
+      </c>
+      <c r="H6" t="n">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Merak</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>66313</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>18</v>
+      </c>
+      <c r="E7" t="n">
+        <v>16294</v>
+      </c>
+      <c r="F7" t="n">
+        <v>94.20999999999999</v>
+      </c>
+      <c r="G7" t="n">
+        <v>819</v>
+      </c>
+      <c r="H7" t="n">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Physic_est</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>193938</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>18</v>
+      </c>
+      <c r="E8" t="n">
+        <v>15982</v>
+      </c>
+      <c r="F8" t="n">
+        <v>96.97</v>
+      </c>
+      <c r="G8" t="n">
+        <v>586</v>
+      </c>
+      <c r="H8" t="n">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>8</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>RedCatz</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>587619</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>18</v>
+      </c>
+      <c r="E9" t="n">
+        <v>14867</v>
+      </c>
+      <c r="F9" t="n">
+        <v>97.40000000000001</v>
+      </c>
+      <c r="G9" t="n">
+        <v>1026</v>
+      </c>
+      <c r="H9" t="n">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>9</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>ReLWZJ_X</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>308775</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>16</v>
+      </c>
+      <c r="E10" t="n">
+        <v>11553</v>
+      </c>
+      <c r="F10" t="n">
+        <v>98.44</v>
+      </c>
+      <c r="G10" t="n">
+        <v>896</v>
+      </c>
+      <c r="H10" t="n">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>10</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>NamelessBeing</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>438452</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>16</v>
+      </c>
+      <c r="E11" t="n">
+        <v>11349</v>
+      </c>
+      <c r="F11" t="n">
+        <v>93.84</v>
+      </c>
+      <c r="G11" t="n">
+        <v>908</v>
+      </c>
+      <c r="H11" t="n">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>11</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>GongErguang</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>602541</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>15</v>
+      </c>
+      <c r="E12" t="n">
+        <v>10191</v>
+      </c>
+      <c r="F12" t="n">
+        <v>95.92</v>
+      </c>
+      <c r="G12" t="n">
+        <v>1107</v>
+      </c>
+      <c r="H12" t="n">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>12</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>hazeiro</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>273807</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>14</v>
+      </c>
+      <c r="E13" t="n">
+        <v>8912</v>
+      </c>
+      <c r="F13" t="n">
+        <v>94.86</v>
+      </c>
+      <c r="G13" t="n">
+        <v>1304</v>
+      </c>
+      <c r="H13" t="n">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>13</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>fffjssgd</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>1286293</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>14</v>
+      </c>
+      <c r="E14" t="n">
+        <v>8009</v>
+      </c>
+      <c r="F14" t="n">
+        <v>89.84</v>
+      </c>
+      <c r="G14" t="n">
+        <v>294</v>
+      </c>
+      <c r="H14" t="n">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>14</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Hetatis</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>12369</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>13</v>
+      </c>
+      <c r="E15" t="n">
+        <v>7601</v>
+      </c>
+      <c r="F15" t="n">
+        <v>97.42</v>
+      </c>
+      <c r="G15" t="n">
+        <v>1132</v>
+      </c>
+      <c r="H15" t="n">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>15</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Alisabe</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>1027052</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>12</v>
+      </c>
+      <c r="E16" t="n">
+        <v>6641</v>
+      </c>
+      <c r="F16" t="n">
+        <v>90.68000000000001</v>
+      </c>
+      <c r="G16" t="n">
+        <v>909</v>
+      </c>
+      <c r="H16" t="n">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>16</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>4keyishard</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>1355966</t>
+        </is>
+      </c>
+      <c r="D17" t="n">
+        <v>12</v>
+      </c>
+      <c r="E17" t="n">
+        <v>6588</v>
+      </c>
+      <c r="F17" t="n">
+        <v>96.56</v>
+      </c>
+      <c r="G17" t="n">
+        <v>1396</v>
+      </c>
+      <c r="H17" t="n">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>17</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Laddie_Amoyensis</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>14851</t>
+        </is>
+      </c>
+      <c r="D18" t="n">
+        <v>12</v>
+      </c>
+      <c r="E18" t="n">
+        <v>6311</v>
+      </c>
+      <c r="F18" t="n">
+        <v>99.59999999999999</v>
+      </c>
+      <c r="G18" t="n">
+        <v>1361</v>
+      </c>
+      <c r="H18" t="n">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>18</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>reonalll</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>201861</t>
+        </is>
+      </c>
+      <c r="D19" t="n">
+        <v>12</v>
+      </c>
+      <c r="E19" t="n">
+        <v>5838</v>
+      </c>
+      <c r="F19" t="n">
+        <v>97.33</v>
+      </c>
+      <c r="G19" t="n">
+        <v>713</v>
+      </c>
+      <c r="H19" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>19</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>asarin</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>1299266</t>
+        </is>
+      </c>
+      <c r="D20" t="n">
+        <v>11</v>
+      </c>
+      <c r="E20" t="n">
+        <v>5487</v>
+      </c>
+      <c r="F20" t="n">
+        <v>83.7</v>
+      </c>
+      <c r="G20" t="n">
+        <v>542</v>
+      </c>
+      <c r="H20" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>20</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Lolimlive</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>545626</t>
+        </is>
+      </c>
+      <c r="D21" t="n">
+        <v>11</v>
+      </c>
+      <c r="E21" t="n">
+        <v>5389</v>
+      </c>
+      <c r="F21" t="n">
+        <v>90.81999999999999</v>
+      </c>
+      <c r="G21" t="n">
+        <v>555</v>
+      </c>
+      <c r="H21" t="n">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>21</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Koishi_Komeiji</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>891658</t>
+        </is>
+      </c>
+      <c r="D22" t="n">
+        <v>11</v>
+      </c>
+      <c r="E22" t="n">
+        <v>5153</v>
+      </c>
+      <c r="F22" t="n">
+        <v>96.56</v>
+      </c>
+      <c r="G22" t="n">
+        <v>1115</v>
+      </c>
+      <c r="H22" t="n">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>22</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>lal_33</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>1725074</t>
+        </is>
+      </c>
+      <c r="D23" t="n">
+        <v>11</v>
+      </c>
+      <c r="E23" t="n">
+        <v>5104</v>
+      </c>
+      <c r="F23" t="n">
+        <v>77.38</v>
+      </c>
+      <c r="G23" t="n">
+        <v>229</v>
+      </c>
+      <c r="H23" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>23</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Yasashima</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>458753</t>
+        </is>
+      </c>
+      <c r="D24" t="n">
+        <v>11</v>
+      </c>
+      <c r="E24" t="n">
+        <v>4823</v>
+      </c>
+      <c r="F24" t="n">
+        <v>93.98</v>
+      </c>
+      <c r="G24" t="n">
+        <v>1050</v>
+      </c>
+      <c r="H24" t="n">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>24</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Yama0113</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>1316662</t>
+        </is>
+      </c>
+      <c r="D25" t="n">
+        <v>10</v>
+      </c>
+      <c r="E25" t="n">
+        <v>4779</v>
+      </c>
+      <c r="F25" t="n">
+        <v>92.44</v>
+      </c>
+      <c r="G25" t="n">
+        <v>905</v>
+      </c>
+      <c r="H25" t="n">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>25</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>abbbs-asc</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>1324121</t>
+        </is>
+      </c>
+      <c r="D26" t="n">
+        <v>10</v>
+      </c>
+      <c r="E26" t="n">
+        <v>4664</v>
+      </c>
+      <c r="F26" t="n">
+        <v>90.95</v>
+      </c>
+      <c r="G26" t="n">
+        <v>615</v>
+      </c>
+      <c r="H26" t="n">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>26</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>333XD</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>400053</t>
+        </is>
+      </c>
+      <c r="D27" t="n">
+        <v>10</v>
+      </c>
+      <c r="E27" t="n">
+        <v>4262</v>
+      </c>
+      <c r="F27" t="n">
+        <v>88.31</v>
+      </c>
+      <c r="G27" t="n">
+        <v>693</v>
+      </c>
+      <c r="H27" t="n">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>27</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>0PoppinParty0</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>398494</t>
+        </is>
+      </c>
+      <c r="D28" t="n">
+        <v>10</v>
+      </c>
+      <c r="E28" t="n">
+        <v>4162</v>
+      </c>
+      <c r="F28" t="n">
+        <v>96.09999999999999</v>
+      </c>
+      <c r="G28" t="n">
+        <v>908</v>
+      </c>
+      <c r="H28" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>28</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>RenAhah</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>324301</t>
+        </is>
+      </c>
+      <c r="D29" t="n">
+        <v>9</v>
+      </c>
+      <c r="E29" t="n">
+        <v>3959</v>
+      </c>
+      <c r="F29" t="n">
+        <v>88.7</v>
+      </c>
+      <c r="G29" t="n">
+        <v>849</v>
+      </c>
+      <c r="H29" t="n">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>29</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>Zyt1yt</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>841200</t>
+        </is>
+      </c>
+      <c r="D30" t="n">
+        <v>9</v>
+      </c>
+      <c r="E30" t="n">
+        <v>3908</v>
+      </c>
+      <c r="F30" t="n">
+        <v>92.3</v>
+      </c>
+      <c r="G30" t="n">
+        <v>905</v>
+      </c>
+      <c r="H30" t="n">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>30</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>Pop_Slime</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>270248</t>
+        </is>
+      </c>
+      <c r="D31" t="n">
+        <v>9</v>
+      </c>
+      <c r="E31" t="n">
+        <v>3904</v>
+      </c>
+      <c r="F31" t="n">
+        <v>94.84</v>
+      </c>
+      <c r="G31" t="n">
+        <v>736</v>
+      </c>
+      <c r="H31" t="n">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>31</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>aaaa123</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>340859</t>
+        </is>
+      </c>
+      <c r="D32" t="n">
+        <v>9</v>
+      </c>
+      <c r="E32" t="n">
+        <v>3876</v>
+      </c>
+      <c r="F32" t="n">
+        <v>96.17</v>
+      </c>
+      <c r="G32" t="n">
+        <v>1112</v>
+      </c>
+      <c r="H32" t="n">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>32</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>KangBasoTikus</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>486647</t>
+        </is>
+      </c>
+      <c r="D33" t="n">
+        <v>9</v>
+      </c>
+      <c r="E33" t="n">
+        <v>3867</v>
+      </c>
+      <c r="F33" t="n">
+        <v>93.45</v>
+      </c>
+      <c r="G33" t="n">
+        <v>651</v>
+      </c>
+      <c r="H33" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>33</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>Lixinyan</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>1468090</t>
+        </is>
+      </c>
+      <c r="D34" t="n">
+        <v>9</v>
+      </c>
+      <c r="E34" t="n">
+        <v>3543</v>
+      </c>
+      <c r="F34" t="n">
+        <v>79.59</v>
+      </c>
+      <c r="G34" t="n">
+        <v>246</v>
+      </c>
+      <c r="H34" t="n">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>34</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>jyx042223</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>709614</t>
+        </is>
+      </c>
+      <c r="D35" t="n">
+        <v>9</v>
+      </c>
+      <c r="E35" t="n">
+        <v>3446</v>
+      </c>
+      <c r="F35" t="n">
+        <v>91.58</v>
+      </c>
+      <c r="G35" t="n">
+        <v>780</v>
+      </c>
+      <c r="H35" t="n">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>35</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>forcal</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>882296</t>
+        </is>
+      </c>
+      <c r="D36" t="n">
+        <v>8</v>
+      </c>
+      <c r="E36" t="n">
+        <v>3161</v>
+      </c>
+      <c r="F36" t="n">
+        <v>96.90000000000001</v>
+      </c>
+      <c r="G36" t="n">
+        <v>591</v>
+      </c>
+      <c r="H36" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>36</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>nekomyudon</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>835096</t>
+        </is>
+      </c>
+      <c r="D37" t="n">
+        <v>8</v>
+      </c>
+      <c r="E37" t="n">
+        <v>2940</v>
+      </c>
+      <c r="F37" t="n">
+        <v>91.95</v>
+      </c>
+      <c r="G37" t="n">
+        <v>474</v>
+      </c>
+      <c r="H37" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>37</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>ruirongrong</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>1701116</t>
+        </is>
+      </c>
+      <c r="D38" t="n">
+        <v>8</v>
+      </c>
+      <c r="E38" t="n">
+        <v>2930</v>
+      </c>
+      <c r="F38" t="n">
+        <v>87.76000000000001</v>
+      </c>
+      <c r="G38" t="n">
+        <v>282</v>
+      </c>
+      <c r="H38" t="n">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>38</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>xiyan2002</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>1397671</t>
+        </is>
+      </c>
+      <c r="D39" t="n">
+        <v>8</v>
+      </c>
+      <c r="E39" t="n">
+        <v>2833</v>
+      </c>
+      <c r="F39" t="n">
+        <v>77.47</v>
+      </c>
+      <c r="G39" t="n">
+        <v>626</v>
+      </c>
+      <c r="H39" t="n">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>39</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>[Origami]</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>103320</t>
+        </is>
+      </c>
+      <c r="D40" t="n">
+        <v>8</v>
+      </c>
+      <c r="E40" t="n">
+        <v>2733</v>
+      </c>
+      <c r="F40" t="n">
+        <v>92.81</v>
+      </c>
+      <c r="G40" t="n">
+        <v>879</v>
+      </c>
+      <c r="H40" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>40</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>myhome</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>111787</t>
+        </is>
+      </c>
+      <c r="D41" t="n">
+        <v>7</v>
+      </c>
+      <c r="E41" t="n">
+        <v>2662</v>
+      </c>
+      <c r="F41" t="n">
+        <v>89.73999999999999</v>
+      </c>
+      <c r="G41" t="n">
+        <v>1131</v>
+      </c>
+      <c r="H41" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>41</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>niniin</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>1583128</t>
+        </is>
+      </c>
+      <c r="D42" t="n">
+        <v>7</v>
+      </c>
+      <c r="E42" t="n">
+        <v>2617</v>
+      </c>
+      <c r="F42" t="n">
+        <v>89.29000000000001</v>
+      </c>
+      <c r="G42" t="n">
+        <v>612</v>
+      </c>
+      <c r="H42" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>42</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>-Kori</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>555736</t>
+        </is>
+      </c>
+      <c r="D43" t="n">
+        <v>7</v>
+      </c>
+      <c r="E43" t="n">
+        <v>2523</v>
+      </c>
+      <c r="F43" t="n">
+        <v>94.86</v>
+      </c>
+      <c r="G43" t="n">
+        <v>1115</v>
+      </c>
+      <c r="H43" t="n">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>43</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>AloneHitoriV</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>573162</t>
+        </is>
+      </c>
+      <c r="D44" t="n">
+        <v>7</v>
+      </c>
+      <c r="E44" t="n">
+        <v>2431</v>
+      </c>
+      <c r="F44" t="n">
+        <v>91.25</v>
+      </c>
+      <c r="G44" t="n">
+        <v>595</v>
+      </c>
+      <c r="H44" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>44</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>fkruby</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>1243818</t>
+        </is>
+      </c>
+      <c r="D45" t="n">
+        <v>7</v>
+      </c>
+      <c r="E45" t="n">
+        <v>2280</v>
+      </c>
+      <c r="F45" t="n">
+        <v>93.04000000000001</v>
+      </c>
+      <c r="G45" t="n">
+        <v>705</v>
+      </c>
+      <c r="H45" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>45</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>feat_Konoka</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>1114743</t>
+        </is>
+      </c>
+      <c r="D46" t="n">
+        <v>7</v>
+      </c>
+      <c r="E46" t="n">
+        <v>2272</v>
+      </c>
+      <c r="F46" t="n">
+        <v>97.06</v>
+      </c>
+      <c r="G46" t="n">
+        <v>642</v>
+      </c>
+      <c r="H46" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>46</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>Kurenia</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>90290</t>
+        </is>
+      </c>
+      <c r="D47" t="n">
+        <v>6</v>
+      </c>
+      <c r="E47" t="n">
+        <v>2152</v>
+      </c>
+      <c r="F47" t="n">
+        <v>94.42</v>
+      </c>
+      <c r="G47" t="n">
+        <v>379</v>
+      </c>
+      <c r="H47" t="n">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>47</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>vr_xuni</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>567091</t>
+        </is>
+      </c>
+      <c r="D48" t="n">
+        <v>6</v>
+      </c>
+      <c r="E48" t="n">
+        <v>2151</v>
+      </c>
+      <c r="F48" t="n">
+        <v>96.87</v>
+      </c>
+      <c r="G48" t="n">
+        <v>550</v>
+      </c>
+      <c r="H48" t="n">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>48</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>JisusMP</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>699439</t>
+        </is>
+      </c>
+      <c r="D49" t="n">
+        <v>6</v>
+      </c>
+      <c r="E49" t="n">
+        <v>2146</v>
+      </c>
+      <c r="F49" t="n">
+        <v>96.61</v>
+      </c>
+      <c r="G49" t="n">
+        <v>908</v>
+      </c>
+      <c r="H49" t="n">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>49</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>Qningshow</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>449071</t>
+        </is>
+      </c>
+      <c r="D50" t="n">
+        <v>6</v>
+      </c>
+      <c r="E50" t="n">
+        <v>2115</v>
+      </c>
+      <c r="F50" t="n">
+        <v>93.73999999999999</v>
+      </c>
+      <c r="G50" t="n">
+        <v>534</v>
+      </c>
+      <c r="H50" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>50</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>cheesewtf</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>466363</t>
+        </is>
+      </c>
+      <c r="D51" t="n">
+        <v>6</v>
+      </c>
+      <c r="E51" t="n">
+        <v>2033</v>
+      </c>
+      <c r="F51" t="n">
+        <v>86.90000000000001</v>
+      </c>
+      <c r="G51" t="n">
+        <v>698</v>
+      </c>
+      <c r="H51" t="n">
+        <v>26</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>

--- a/mode8.xlsx
+++ b/mode8.xlsx
@@ -1,23 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="mode_8_2025-06-05_00-14" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="mode_8_2025-06-18_18-34" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="mode_8_2025-06-22_20-46" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="mode_8_2025-07-09_00-36" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="mode_8" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="mode_8_2025-08-13_18-47" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="mode_8_2025-08-14_13-27" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="mode_8_2025-08-16_15-26" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="mode_8_2025-09-06_10-52" sheetId="9" state="visible" r:id="rId9"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="mode_8_2025-09-14_00-00" sheetId="10" state="visible" r:id="rId10"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="mode_8_2025-09-26_17-50" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet name="mode_8_2025-06-05_00-14" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="mode_8_2025-06-18_18-34" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="mode_8_2025-06-22_20-46" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="mode_8_2025-07-09_00-36" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="mode_8" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="mode_8_2025-08-13_18-47" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="mode_8_2025-08-14_13-27" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="mode_8_2025-08-16_15-26" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="mode_8_2025-09-06_10-52" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet name="mode_8_2025-09-14_00-00" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet name="mode_8_2025-09-26_17-50" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet name="mode_8_2025-10-06_14-54" sheetId="12" state="visible" r:id="rId12"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -4347,6 +4348,1312 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:G51"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>rank</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>lv</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>exp</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>acc</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>combo</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>pc</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>YA_GAMMER</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>35</v>
+      </c>
+      <c r="D2" t="n">
+        <v>158175</v>
+      </c>
+      <c r="E2" t="n">
+        <v>97.08</v>
+      </c>
+      <c r="F2" t="n">
+        <v>1123</v>
+      </c>
+      <c r="G2" t="n">
+        <v>868</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>KrisTheHumanFall</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>33</v>
+      </c>
+      <c r="D3" t="n">
+        <v>128588</v>
+      </c>
+      <c r="E3" t="n">
+        <v>96.02</v>
+      </c>
+      <c r="F3" t="n">
+        <v>1141</v>
+      </c>
+      <c r="G3" t="n">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Excited_Naive</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>32</v>
+      </c>
+      <c r="D4" t="n">
+        <v>108816</v>
+      </c>
+      <c r="E4" t="n">
+        <v>97.81</v>
+      </c>
+      <c r="F4" t="n">
+        <v>1374</v>
+      </c>
+      <c r="G4" t="n">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>-Koyuki-</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>27</v>
+      </c>
+      <c r="D5" t="n">
+        <v>56822</v>
+      </c>
+      <c r="E5" t="n">
+        <v>96.73999999999999</v>
+      </c>
+      <c r="F5" t="n">
+        <v>1130</v>
+      </c>
+      <c r="G5" t="n">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>F0rge</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>21</v>
+      </c>
+      <c r="D6" t="n">
+        <v>25705</v>
+      </c>
+      <c r="E6" t="n">
+        <v>97.77</v>
+      </c>
+      <c r="F6" t="n">
+        <v>1100</v>
+      </c>
+      <c r="G6" t="n">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Merak</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>18</v>
+      </c>
+      <c r="D7" t="n">
+        <v>16294</v>
+      </c>
+      <c r="E7" t="n">
+        <v>94.20999999999999</v>
+      </c>
+      <c r="F7" t="n">
+        <v>819</v>
+      </c>
+      <c r="G7" t="n">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Physic_est</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>18</v>
+      </c>
+      <c r="D8" t="n">
+        <v>15982</v>
+      </c>
+      <c r="E8" t="n">
+        <v>96.97</v>
+      </c>
+      <c r="F8" t="n">
+        <v>586</v>
+      </c>
+      <c r="G8" t="n">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>8</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>RedCatz</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>18</v>
+      </c>
+      <c r="D9" t="n">
+        <v>14867</v>
+      </c>
+      <c r="E9" t="n">
+        <v>97.40000000000001</v>
+      </c>
+      <c r="F9" t="n">
+        <v>1026</v>
+      </c>
+      <c r="G9" t="n">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>9</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>ReLWZJ_X</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>16</v>
+      </c>
+      <c r="D10" t="n">
+        <v>11553</v>
+      </c>
+      <c r="E10" t="n">
+        <v>98.44</v>
+      </c>
+      <c r="F10" t="n">
+        <v>896</v>
+      </c>
+      <c r="G10" t="n">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>10</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>NamelessBeing</t>
+        </is>
+      </c>
+      <c r="C11" t="n">
+        <v>16</v>
+      </c>
+      <c r="D11" t="n">
+        <v>11349</v>
+      </c>
+      <c r="E11" t="n">
+        <v>93.84</v>
+      </c>
+      <c r="F11" t="n">
+        <v>908</v>
+      </c>
+      <c r="G11" t="n">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>11</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>GongErguang</t>
+        </is>
+      </c>
+      <c r="C12" t="n">
+        <v>15</v>
+      </c>
+      <c r="D12" t="n">
+        <v>10191</v>
+      </c>
+      <c r="E12" t="n">
+        <v>95.92</v>
+      </c>
+      <c r="F12" t="n">
+        <v>1107</v>
+      </c>
+      <c r="G12" t="n">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>12</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>hazeiro</t>
+        </is>
+      </c>
+      <c r="C13" t="n">
+        <v>14</v>
+      </c>
+      <c r="D13" t="n">
+        <v>8912</v>
+      </c>
+      <c r="E13" t="n">
+        <v>94.86</v>
+      </c>
+      <c r="F13" t="n">
+        <v>1304</v>
+      </c>
+      <c r="G13" t="n">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>13</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>fffjssgd</t>
+        </is>
+      </c>
+      <c r="C14" t="n">
+        <v>14</v>
+      </c>
+      <c r="D14" t="n">
+        <v>8009</v>
+      </c>
+      <c r="E14" t="n">
+        <v>89.84</v>
+      </c>
+      <c r="F14" t="n">
+        <v>294</v>
+      </c>
+      <c r="G14" t="n">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>14</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Hetatis</t>
+        </is>
+      </c>
+      <c r="C15" t="n">
+        <v>13</v>
+      </c>
+      <c r="D15" t="n">
+        <v>7601</v>
+      </c>
+      <c r="E15" t="n">
+        <v>97.42</v>
+      </c>
+      <c r="F15" t="n">
+        <v>1132</v>
+      </c>
+      <c r="G15" t="n">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>15</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Alisabe</t>
+        </is>
+      </c>
+      <c r="C16" t="n">
+        <v>12</v>
+      </c>
+      <c r="D16" t="n">
+        <v>6641</v>
+      </c>
+      <c r="E16" t="n">
+        <v>90.68000000000001</v>
+      </c>
+      <c r="F16" t="n">
+        <v>909</v>
+      </c>
+      <c r="G16" t="n">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>16</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>4keyishard</t>
+        </is>
+      </c>
+      <c r="C17" t="n">
+        <v>12</v>
+      </c>
+      <c r="D17" t="n">
+        <v>6588</v>
+      </c>
+      <c r="E17" t="n">
+        <v>96.56</v>
+      </c>
+      <c r="F17" t="n">
+        <v>1396</v>
+      </c>
+      <c r="G17" t="n">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>17</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Laddie_Amoyensis</t>
+        </is>
+      </c>
+      <c r="C18" t="n">
+        <v>12</v>
+      </c>
+      <c r="D18" t="n">
+        <v>6311</v>
+      </c>
+      <c r="E18" t="n">
+        <v>99.59999999999999</v>
+      </c>
+      <c r="F18" t="n">
+        <v>1361</v>
+      </c>
+      <c r="G18" t="n">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>18</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>reonalll</t>
+        </is>
+      </c>
+      <c r="C19" t="n">
+        <v>12</v>
+      </c>
+      <c r="D19" t="n">
+        <v>5838</v>
+      </c>
+      <c r="E19" t="n">
+        <v>97.33</v>
+      </c>
+      <c r="F19" t="n">
+        <v>713</v>
+      </c>
+      <c r="G19" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>19</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>asarin</t>
+        </is>
+      </c>
+      <c r="C20" t="n">
+        <v>11</v>
+      </c>
+      <c r="D20" t="n">
+        <v>5487</v>
+      </c>
+      <c r="E20" t="n">
+        <v>83.7</v>
+      </c>
+      <c r="F20" t="n">
+        <v>542</v>
+      </c>
+      <c r="G20" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>20</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Lolimlive</t>
+        </is>
+      </c>
+      <c r="C21" t="n">
+        <v>11</v>
+      </c>
+      <c r="D21" t="n">
+        <v>5389</v>
+      </c>
+      <c r="E21" t="n">
+        <v>90.81999999999999</v>
+      </c>
+      <c r="F21" t="n">
+        <v>555</v>
+      </c>
+      <c r="G21" t="n">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>21</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Koishi_Komeiji</t>
+        </is>
+      </c>
+      <c r="C22" t="n">
+        <v>11</v>
+      </c>
+      <c r="D22" t="n">
+        <v>5153</v>
+      </c>
+      <c r="E22" t="n">
+        <v>96.56</v>
+      </c>
+      <c r="F22" t="n">
+        <v>1115</v>
+      </c>
+      <c r="G22" t="n">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>22</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>lal_33</t>
+        </is>
+      </c>
+      <c r="C23" t="n">
+        <v>11</v>
+      </c>
+      <c r="D23" t="n">
+        <v>5104</v>
+      </c>
+      <c r="E23" t="n">
+        <v>77.38</v>
+      </c>
+      <c r="F23" t="n">
+        <v>229</v>
+      </c>
+      <c r="G23" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>23</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Yasashima</t>
+        </is>
+      </c>
+      <c r="C24" t="n">
+        <v>11</v>
+      </c>
+      <c r="D24" t="n">
+        <v>4823</v>
+      </c>
+      <c r="E24" t="n">
+        <v>93.98</v>
+      </c>
+      <c r="F24" t="n">
+        <v>1050</v>
+      </c>
+      <c r="G24" t="n">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>24</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Yama0113</t>
+        </is>
+      </c>
+      <c r="C25" t="n">
+        <v>10</v>
+      </c>
+      <c r="D25" t="n">
+        <v>4779</v>
+      </c>
+      <c r="E25" t="n">
+        <v>92.44</v>
+      </c>
+      <c r="F25" t="n">
+        <v>905</v>
+      </c>
+      <c r="G25" t="n">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>25</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>abbbs-asc</t>
+        </is>
+      </c>
+      <c r="C26" t="n">
+        <v>10</v>
+      </c>
+      <c r="D26" t="n">
+        <v>4664</v>
+      </c>
+      <c r="E26" t="n">
+        <v>90.95</v>
+      </c>
+      <c r="F26" t="n">
+        <v>615</v>
+      </c>
+      <c r="G26" t="n">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>26</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>333XD</t>
+        </is>
+      </c>
+      <c r="C27" t="n">
+        <v>10</v>
+      </c>
+      <c r="D27" t="n">
+        <v>4262</v>
+      </c>
+      <c r="E27" t="n">
+        <v>88.31</v>
+      </c>
+      <c r="F27" t="n">
+        <v>693</v>
+      </c>
+      <c r="G27" t="n">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>27</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>0PoppinParty0</t>
+        </is>
+      </c>
+      <c r="C28" t="n">
+        <v>10</v>
+      </c>
+      <c r="D28" t="n">
+        <v>4162</v>
+      </c>
+      <c r="E28" t="n">
+        <v>96.09999999999999</v>
+      </c>
+      <c r="F28" t="n">
+        <v>908</v>
+      </c>
+      <c r="G28" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>28</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>RenAhah</t>
+        </is>
+      </c>
+      <c r="C29" t="n">
+        <v>9</v>
+      </c>
+      <c r="D29" t="n">
+        <v>3959</v>
+      </c>
+      <c r="E29" t="n">
+        <v>88.7</v>
+      </c>
+      <c r="F29" t="n">
+        <v>849</v>
+      </c>
+      <c r="G29" t="n">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>29</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>Zyt1yt</t>
+        </is>
+      </c>
+      <c r="C30" t="n">
+        <v>9</v>
+      </c>
+      <c r="D30" t="n">
+        <v>3908</v>
+      </c>
+      <c r="E30" t="n">
+        <v>92.3</v>
+      </c>
+      <c r="F30" t="n">
+        <v>905</v>
+      </c>
+      <c r="G30" t="n">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>30</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>Pop_Slime</t>
+        </is>
+      </c>
+      <c r="C31" t="n">
+        <v>9</v>
+      </c>
+      <c r="D31" t="n">
+        <v>3904</v>
+      </c>
+      <c r="E31" t="n">
+        <v>94.84</v>
+      </c>
+      <c r="F31" t="n">
+        <v>736</v>
+      </c>
+      <c r="G31" t="n">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>31</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>aaaa123</t>
+        </is>
+      </c>
+      <c r="C32" t="n">
+        <v>9</v>
+      </c>
+      <c r="D32" t="n">
+        <v>3876</v>
+      </c>
+      <c r="E32" t="n">
+        <v>96.17</v>
+      </c>
+      <c r="F32" t="n">
+        <v>1112</v>
+      </c>
+      <c r="G32" t="n">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>32</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>KangBasoTikus</t>
+        </is>
+      </c>
+      <c r="C33" t="n">
+        <v>9</v>
+      </c>
+      <c r="D33" t="n">
+        <v>3867</v>
+      </c>
+      <c r="E33" t="n">
+        <v>93.45</v>
+      </c>
+      <c r="F33" t="n">
+        <v>651</v>
+      </c>
+      <c r="G33" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>33</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>Lixinyan</t>
+        </is>
+      </c>
+      <c r="C34" t="n">
+        <v>9</v>
+      </c>
+      <c r="D34" t="n">
+        <v>3543</v>
+      </c>
+      <c r="E34" t="n">
+        <v>79.59</v>
+      </c>
+      <c r="F34" t="n">
+        <v>246</v>
+      </c>
+      <c r="G34" t="n">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>34</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>jyx042223</t>
+        </is>
+      </c>
+      <c r="C35" t="n">
+        <v>9</v>
+      </c>
+      <c r="D35" t="n">
+        <v>3446</v>
+      </c>
+      <c r="E35" t="n">
+        <v>91.58</v>
+      </c>
+      <c r="F35" t="n">
+        <v>780</v>
+      </c>
+      <c r="G35" t="n">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>35</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>forcal</t>
+        </is>
+      </c>
+      <c r="C36" t="n">
+        <v>8</v>
+      </c>
+      <c r="D36" t="n">
+        <v>3161</v>
+      </c>
+      <c r="E36" t="n">
+        <v>96.90000000000001</v>
+      </c>
+      <c r="F36" t="n">
+        <v>591</v>
+      </c>
+      <c r="G36" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>36</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>nekomyudon</t>
+        </is>
+      </c>
+      <c r="C37" t="n">
+        <v>8</v>
+      </c>
+      <c r="D37" t="n">
+        <v>2940</v>
+      </c>
+      <c r="E37" t="n">
+        <v>91.95</v>
+      </c>
+      <c r="F37" t="n">
+        <v>474</v>
+      </c>
+      <c r="G37" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>37</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>ruirongrong</t>
+        </is>
+      </c>
+      <c r="C38" t="n">
+        <v>8</v>
+      </c>
+      <c r="D38" t="n">
+        <v>2930</v>
+      </c>
+      <c r="E38" t="n">
+        <v>87.76000000000001</v>
+      </c>
+      <c r="F38" t="n">
+        <v>282</v>
+      </c>
+      <c r="G38" t="n">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>38</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>xiyan2002</t>
+        </is>
+      </c>
+      <c r="C39" t="n">
+        <v>8</v>
+      </c>
+      <c r="D39" t="n">
+        <v>2833</v>
+      </c>
+      <c r="E39" t="n">
+        <v>77.47</v>
+      </c>
+      <c r="F39" t="n">
+        <v>626</v>
+      </c>
+      <c r="G39" t="n">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>39</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>[Origami]</t>
+        </is>
+      </c>
+      <c r="C40" t="n">
+        <v>8</v>
+      </c>
+      <c r="D40" t="n">
+        <v>2733</v>
+      </c>
+      <c r="E40" t="n">
+        <v>92.81</v>
+      </c>
+      <c r="F40" t="n">
+        <v>879</v>
+      </c>
+      <c r="G40" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>40</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>myhome</t>
+        </is>
+      </c>
+      <c r="C41" t="n">
+        <v>7</v>
+      </c>
+      <c r="D41" t="n">
+        <v>2662</v>
+      </c>
+      <c r="E41" t="n">
+        <v>89.73999999999999</v>
+      </c>
+      <c r="F41" t="n">
+        <v>1131</v>
+      </c>
+      <c r="G41" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>41</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>niniin</t>
+        </is>
+      </c>
+      <c r="C42" t="n">
+        <v>7</v>
+      </c>
+      <c r="D42" t="n">
+        <v>2617</v>
+      </c>
+      <c r="E42" t="n">
+        <v>89.29000000000001</v>
+      </c>
+      <c r="F42" t="n">
+        <v>612</v>
+      </c>
+      <c r="G42" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>42</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>-Kori</t>
+        </is>
+      </c>
+      <c r="C43" t="n">
+        <v>7</v>
+      </c>
+      <c r="D43" t="n">
+        <v>2523</v>
+      </c>
+      <c r="E43" t="n">
+        <v>94.86</v>
+      </c>
+      <c r="F43" t="n">
+        <v>1115</v>
+      </c>
+      <c r="G43" t="n">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>43</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>AloneHitoriV</t>
+        </is>
+      </c>
+      <c r="C44" t="n">
+        <v>7</v>
+      </c>
+      <c r="D44" t="n">
+        <v>2431</v>
+      </c>
+      <c r="E44" t="n">
+        <v>91.25</v>
+      </c>
+      <c r="F44" t="n">
+        <v>595</v>
+      </c>
+      <c r="G44" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>44</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>fkruby</t>
+        </is>
+      </c>
+      <c r="C45" t="n">
+        <v>7</v>
+      </c>
+      <c r="D45" t="n">
+        <v>2280</v>
+      </c>
+      <c r="E45" t="n">
+        <v>93.04000000000001</v>
+      </c>
+      <c r="F45" t="n">
+        <v>705</v>
+      </c>
+      <c r="G45" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>45</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>feat_Konoka</t>
+        </is>
+      </c>
+      <c r="C46" t="n">
+        <v>7</v>
+      </c>
+      <c r="D46" t="n">
+        <v>2272</v>
+      </c>
+      <c r="E46" t="n">
+        <v>97.06</v>
+      </c>
+      <c r="F46" t="n">
+        <v>642</v>
+      </c>
+      <c r="G46" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>46</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>Kurenia</t>
+        </is>
+      </c>
+      <c r="C47" t="n">
+        <v>6</v>
+      </c>
+      <c r="D47" t="n">
+        <v>2152</v>
+      </c>
+      <c r="E47" t="n">
+        <v>94.42</v>
+      </c>
+      <c r="F47" t="n">
+        <v>379</v>
+      </c>
+      <c r="G47" t="n">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>47</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>vr_xuni</t>
+        </is>
+      </c>
+      <c r="C48" t="n">
+        <v>6</v>
+      </c>
+      <c r="D48" t="n">
+        <v>2151</v>
+      </c>
+      <c r="E48" t="n">
+        <v>96.87</v>
+      </c>
+      <c r="F48" t="n">
+        <v>550</v>
+      </c>
+      <c r="G48" t="n">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>48</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>JisusMP</t>
+        </is>
+      </c>
+      <c r="C49" t="n">
+        <v>6</v>
+      </c>
+      <c r="D49" t="n">
+        <v>2146</v>
+      </c>
+      <c r="E49" t="n">
+        <v>96.61</v>
+      </c>
+      <c r="F49" t="n">
+        <v>908</v>
+      </c>
+      <c r="G49" t="n">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>49</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>Qningshow</t>
+        </is>
+      </c>
+      <c r="C50" t="n">
+        <v>6</v>
+      </c>
+      <c r="D50" t="n">
+        <v>2115</v>
+      </c>
+      <c r="E50" t="n">
+        <v>93.73999999999999</v>
+      </c>
+      <c r="F50" t="n">
+        <v>534</v>
+      </c>
+      <c r="G50" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>50</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>cheesewtf</t>
+        </is>
+      </c>
+      <c r="C51" t="n">
+        <v>6</v>
+      </c>
+      <c r="D51" t="n">
+        <v>2033</v>
+      </c>
+      <c r="E51" t="n">
+        <v>86.90000000000001</v>
+      </c>
+      <c r="F51" t="n">
+        <v>698</v>
+      </c>
+      <c r="G51" t="n">
+        <v>26</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>

--- a/mode8.xlsx
+++ b/mode8.xlsx
@@ -20,6 +20,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="mode_8_2025-09-26_17-50" sheetId="11" state="visible" r:id="rId11"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="mode_8_2025-10-06_14-54" sheetId="12" state="visible" r:id="rId12"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="mode_8_2025-10-08_13-41" sheetId="13" state="visible" r:id="rId13"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="mode_8_2025-10-10_22-16" sheetId="14" state="visible" r:id="rId14"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -7216,6 +7217,1312 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:G51"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>rank</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>lv</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>exp</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>acc</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>combo</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>pc</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>YA_GAMMER</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>35</v>
+      </c>
+      <c r="D2" t="n">
+        <v>158175</v>
+      </c>
+      <c r="E2" t="n">
+        <v>97.08</v>
+      </c>
+      <c r="F2" t="n">
+        <v>1123</v>
+      </c>
+      <c r="G2" t="n">
+        <v>868</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>KrisTheHumanFall</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>33</v>
+      </c>
+      <c r="D3" t="n">
+        <v>128588</v>
+      </c>
+      <c r="E3" t="n">
+        <v>96.02</v>
+      </c>
+      <c r="F3" t="n">
+        <v>1141</v>
+      </c>
+      <c r="G3" t="n">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Excited_Naive</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>32</v>
+      </c>
+      <c r="D4" t="n">
+        <v>108816</v>
+      </c>
+      <c r="E4" t="n">
+        <v>97.81</v>
+      </c>
+      <c r="F4" t="n">
+        <v>1374</v>
+      </c>
+      <c r="G4" t="n">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>-Koyuki-</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>27</v>
+      </c>
+      <c r="D5" t="n">
+        <v>56822</v>
+      </c>
+      <c r="E5" t="n">
+        <v>96.73999999999999</v>
+      </c>
+      <c r="F5" t="n">
+        <v>1130</v>
+      </c>
+      <c r="G5" t="n">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>F0rge</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>21</v>
+      </c>
+      <c r="D6" t="n">
+        <v>25705</v>
+      </c>
+      <c r="E6" t="n">
+        <v>97.77</v>
+      </c>
+      <c r="F6" t="n">
+        <v>1100</v>
+      </c>
+      <c r="G6" t="n">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Merak</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>18</v>
+      </c>
+      <c r="D7" t="n">
+        <v>16294</v>
+      </c>
+      <c r="E7" t="n">
+        <v>94.20999999999999</v>
+      </c>
+      <c r="F7" t="n">
+        <v>819</v>
+      </c>
+      <c r="G7" t="n">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Physic_est</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>18</v>
+      </c>
+      <c r="D8" t="n">
+        <v>15982</v>
+      </c>
+      <c r="E8" t="n">
+        <v>96.97</v>
+      </c>
+      <c r="F8" t="n">
+        <v>586</v>
+      </c>
+      <c r="G8" t="n">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>8</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>RedCatz</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>18</v>
+      </c>
+      <c r="D9" t="n">
+        <v>14867</v>
+      </c>
+      <c r="E9" t="n">
+        <v>97.40000000000001</v>
+      </c>
+      <c r="F9" t="n">
+        <v>1026</v>
+      </c>
+      <c r="G9" t="n">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>9</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>ReLWZJ_X</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>16</v>
+      </c>
+      <c r="D10" t="n">
+        <v>11553</v>
+      </c>
+      <c r="E10" t="n">
+        <v>98.44</v>
+      </c>
+      <c r="F10" t="n">
+        <v>896</v>
+      </c>
+      <c r="G10" t="n">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>10</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>NamelessBeing</t>
+        </is>
+      </c>
+      <c r="C11" t="n">
+        <v>16</v>
+      </c>
+      <c r="D11" t="n">
+        <v>11349</v>
+      </c>
+      <c r="E11" t="n">
+        <v>93.84</v>
+      </c>
+      <c r="F11" t="n">
+        <v>908</v>
+      </c>
+      <c r="G11" t="n">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>11</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>GongErguang</t>
+        </is>
+      </c>
+      <c r="C12" t="n">
+        <v>15</v>
+      </c>
+      <c r="D12" t="n">
+        <v>10191</v>
+      </c>
+      <c r="E12" t="n">
+        <v>95.92</v>
+      </c>
+      <c r="F12" t="n">
+        <v>1107</v>
+      </c>
+      <c r="G12" t="n">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>12</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>hazeiro</t>
+        </is>
+      </c>
+      <c r="C13" t="n">
+        <v>14</v>
+      </c>
+      <c r="D13" t="n">
+        <v>8912</v>
+      </c>
+      <c r="E13" t="n">
+        <v>94.86</v>
+      </c>
+      <c r="F13" t="n">
+        <v>1304</v>
+      </c>
+      <c r="G13" t="n">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>13</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>fffjssgd</t>
+        </is>
+      </c>
+      <c r="C14" t="n">
+        <v>14</v>
+      </c>
+      <c r="D14" t="n">
+        <v>8009</v>
+      </c>
+      <c r="E14" t="n">
+        <v>89.84</v>
+      </c>
+      <c r="F14" t="n">
+        <v>294</v>
+      </c>
+      <c r="G14" t="n">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>14</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Hetatis</t>
+        </is>
+      </c>
+      <c r="C15" t="n">
+        <v>13</v>
+      </c>
+      <c r="D15" t="n">
+        <v>7601</v>
+      </c>
+      <c r="E15" t="n">
+        <v>97.42</v>
+      </c>
+      <c r="F15" t="n">
+        <v>1132</v>
+      </c>
+      <c r="G15" t="n">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>15</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Alisabe</t>
+        </is>
+      </c>
+      <c r="C16" t="n">
+        <v>12</v>
+      </c>
+      <c r="D16" t="n">
+        <v>6641</v>
+      </c>
+      <c r="E16" t="n">
+        <v>90.68000000000001</v>
+      </c>
+      <c r="F16" t="n">
+        <v>909</v>
+      </c>
+      <c r="G16" t="n">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>16</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>4keyishard</t>
+        </is>
+      </c>
+      <c r="C17" t="n">
+        <v>12</v>
+      </c>
+      <c r="D17" t="n">
+        <v>6588</v>
+      </c>
+      <c r="E17" t="n">
+        <v>96.56</v>
+      </c>
+      <c r="F17" t="n">
+        <v>1396</v>
+      </c>
+      <c r="G17" t="n">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>17</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Laddie_Amoyensis</t>
+        </is>
+      </c>
+      <c r="C18" t="n">
+        <v>12</v>
+      </c>
+      <c r="D18" t="n">
+        <v>6311</v>
+      </c>
+      <c r="E18" t="n">
+        <v>99.59999999999999</v>
+      </c>
+      <c r="F18" t="n">
+        <v>1361</v>
+      </c>
+      <c r="G18" t="n">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>18</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>reonalll</t>
+        </is>
+      </c>
+      <c r="C19" t="n">
+        <v>12</v>
+      </c>
+      <c r="D19" t="n">
+        <v>5838</v>
+      </c>
+      <c r="E19" t="n">
+        <v>97.33</v>
+      </c>
+      <c r="F19" t="n">
+        <v>713</v>
+      </c>
+      <c r="G19" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>19</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>asarin</t>
+        </is>
+      </c>
+      <c r="C20" t="n">
+        <v>11</v>
+      </c>
+      <c r="D20" t="n">
+        <v>5487</v>
+      </c>
+      <c r="E20" t="n">
+        <v>83.7</v>
+      </c>
+      <c r="F20" t="n">
+        <v>542</v>
+      </c>
+      <c r="G20" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>20</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Lolimlive</t>
+        </is>
+      </c>
+      <c r="C21" t="n">
+        <v>11</v>
+      </c>
+      <c r="D21" t="n">
+        <v>5389</v>
+      </c>
+      <c r="E21" t="n">
+        <v>90.81999999999999</v>
+      </c>
+      <c r="F21" t="n">
+        <v>555</v>
+      </c>
+      <c r="G21" t="n">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>21</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Koishi_Komeiji</t>
+        </is>
+      </c>
+      <c r="C22" t="n">
+        <v>11</v>
+      </c>
+      <c r="D22" t="n">
+        <v>5153</v>
+      </c>
+      <c r="E22" t="n">
+        <v>96.56</v>
+      </c>
+      <c r="F22" t="n">
+        <v>1115</v>
+      </c>
+      <c r="G22" t="n">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>22</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>lal_33</t>
+        </is>
+      </c>
+      <c r="C23" t="n">
+        <v>11</v>
+      </c>
+      <c r="D23" t="n">
+        <v>5104</v>
+      </c>
+      <c r="E23" t="n">
+        <v>77.38</v>
+      </c>
+      <c r="F23" t="n">
+        <v>229</v>
+      </c>
+      <c r="G23" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>23</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Yasashima</t>
+        </is>
+      </c>
+      <c r="C24" t="n">
+        <v>11</v>
+      </c>
+      <c r="D24" t="n">
+        <v>4823</v>
+      </c>
+      <c r="E24" t="n">
+        <v>93.98</v>
+      </c>
+      <c r="F24" t="n">
+        <v>1050</v>
+      </c>
+      <c r="G24" t="n">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>24</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Yama0113</t>
+        </is>
+      </c>
+      <c r="C25" t="n">
+        <v>10</v>
+      </c>
+      <c r="D25" t="n">
+        <v>4779</v>
+      </c>
+      <c r="E25" t="n">
+        <v>92.44</v>
+      </c>
+      <c r="F25" t="n">
+        <v>905</v>
+      </c>
+      <c r="G25" t="n">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>25</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>abbbs-asc</t>
+        </is>
+      </c>
+      <c r="C26" t="n">
+        <v>10</v>
+      </c>
+      <c r="D26" t="n">
+        <v>4664</v>
+      </c>
+      <c r="E26" t="n">
+        <v>90.95</v>
+      </c>
+      <c r="F26" t="n">
+        <v>615</v>
+      </c>
+      <c r="G26" t="n">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>26</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>333XD</t>
+        </is>
+      </c>
+      <c r="C27" t="n">
+        <v>10</v>
+      </c>
+      <c r="D27" t="n">
+        <v>4262</v>
+      </c>
+      <c r="E27" t="n">
+        <v>88.31</v>
+      </c>
+      <c r="F27" t="n">
+        <v>693</v>
+      </c>
+      <c r="G27" t="n">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>27</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>0PoppinParty0</t>
+        </is>
+      </c>
+      <c r="C28" t="n">
+        <v>10</v>
+      </c>
+      <c r="D28" t="n">
+        <v>4162</v>
+      </c>
+      <c r="E28" t="n">
+        <v>96.09999999999999</v>
+      </c>
+      <c r="F28" t="n">
+        <v>908</v>
+      </c>
+      <c r="G28" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>28</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>RenAhah</t>
+        </is>
+      </c>
+      <c r="C29" t="n">
+        <v>9</v>
+      </c>
+      <c r="D29" t="n">
+        <v>3959</v>
+      </c>
+      <c r="E29" t="n">
+        <v>88.7</v>
+      </c>
+      <c r="F29" t="n">
+        <v>849</v>
+      </c>
+      <c r="G29" t="n">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>29</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>Zyt1yt</t>
+        </is>
+      </c>
+      <c r="C30" t="n">
+        <v>9</v>
+      </c>
+      <c r="D30" t="n">
+        <v>3908</v>
+      </c>
+      <c r="E30" t="n">
+        <v>92.3</v>
+      </c>
+      <c r="F30" t="n">
+        <v>905</v>
+      </c>
+      <c r="G30" t="n">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>30</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>Pop_Slime</t>
+        </is>
+      </c>
+      <c r="C31" t="n">
+        <v>9</v>
+      </c>
+      <c r="D31" t="n">
+        <v>3904</v>
+      </c>
+      <c r="E31" t="n">
+        <v>94.84</v>
+      </c>
+      <c r="F31" t="n">
+        <v>736</v>
+      </c>
+      <c r="G31" t="n">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>31</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>aaaa123</t>
+        </is>
+      </c>
+      <c r="C32" t="n">
+        <v>9</v>
+      </c>
+      <c r="D32" t="n">
+        <v>3876</v>
+      </c>
+      <c r="E32" t="n">
+        <v>96.17</v>
+      </c>
+      <c r="F32" t="n">
+        <v>1112</v>
+      </c>
+      <c r="G32" t="n">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>32</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>KangBasoTikus</t>
+        </is>
+      </c>
+      <c r="C33" t="n">
+        <v>9</v>
+      </c>
+      <c r="D33" t="n">
+        <v>3867</v>
+      </c>
+      <c r="E33" t="n">
+        <v>93.45</v>
+      </c>
+      <c r="F33" t="n">
+        <v>651</v>
+      </c>
+      <c r="G33" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>33</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>Lixinyan</t>
+        </is>
+      </c>
+      <c r="C34" t="n">
+        <v>9</v>
+      </c>
+      <c r="D34" t="n">
+        <v>3543</v>
+      </c>
+      <c r="E34" t="n">
+        <v>79.59</v>
+      </c>
+      <c r="F34" t="n">
+        <v>246</v>
+      </c>
+      <c r="G34" t="n">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>34</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>jyx042223</t>
+        </is>
+      </c>
+      <c r="C35" t="n">
+        <v>9</v>
+      </c>
+      <c r="D35" t="n">
+        <v>3446</v>
+      </c>
+      <c r="E35" t="n">
+        <v>91.58</v>
+      </c>
+      <c r="F35" t="n">
+        <v>780</v>
+      </c>
+      <c r="G35" t="n">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>35</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>forcal</t>
+        </is>
+      </c>
+      <c r="C36" t="n">
+        <v>8</v>
+      </c>
+      <c r="D36" t="n">
+        <v>3161</v>
+      </c>
+      <c r="E36" t="n">
+        <v>96.90000000000001</v>
+      </c>
+      <c r="F36" t="n">
+        <v>591</v>
+      </c>
+      <c r="G36" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>36</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>nekomyudon</t>
+        </is>
+      </c>
+      <c r="C37" t="n">
+        <v>8</v>
+      </c>
+      <c r="D37" t="n">
+        <v>2940</v>
+      </c>
+      <c r="E37" t="n">
+        <v>91.95</v>
+      </c>
+      <c r="F37" t="n">
+        <v>474</v>
+      </c>
+      <c r="G37" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>37</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>ruirongrong</t>
+        </is>
+      </c>
+      <c r="C38" t="n">
+        <v>8</v>
+      </c>
+      <c r="D38" t="n">
+        <v>2930</v>
+      </c>
+      <c r="E38" t="n">
+        <v>87.76000000000001</v>
+      </c>
+      <c r="F38" t="n">
+        <v>282</v>
+      </c>
+      <c r="G38" t="n">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>38</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>xiyan2002</t>
+        </is>
+      </c>
+      <c r="C39" t="n">
+        <v>8</v>
+      </c>
+      <c r="D39" t="n">
+        <v>2833</v>
+      </c>
+      <c r="E39" t="n">
+        <v>77.47</v>
+      </c>
+      <c r="F39" t="n">
+        <v>626</v>
+      </c>
+      <c r="G39" t="n">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>39</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>[Origami]</t>
+        </is>
+      </c>
+      <c r="C40" t="n">
+        <v>8</v>
+      </c>
+      <c r="D40" t="n">
+        <v>2733</v>
+      </c>
+      <c r="E40" t="n">
+        <v>92.81</v>
+      </c>
+      <c r="F40" t="n">
+        <v>879</v>
+      </c>
+      <c r="G40" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>40</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>myhome</t>
+        </is>
+      </c>
+      <c r="C41" t="n">
+        <v>7</v>
+      </c>
+      <c r="D41" t="n">
+        <v>2662</v>
+      </c>
+      <c r="E41" t="n">
+        <v>89.73999999999999</v>
+      </c>
+      <c r="F41" t="n">
+        <v>1131</v>
+      </c>
+      <c r="G41" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>41</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>niniin</t>
+        </is>
+      </c>
+      <c r="C42" t="n">
+        <v>7</v>
+      </c>
+      <c r="D42" t="n">
+        <v>2617</v>
+      </c>
+      <c r="E42" t="n">
+        <v>89.29000000000001</v>
+      </c>
+      <c r="F42" t="n">
+        <v>612</v>
+      </c>
+      <c r="G42" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>42</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>-Kori</t>
+        </is>
+      </c>
+      <c r="C43" t="n">
+        <v>7</v>
+      </c>
+      <c r="D43" t="n">
+        <v>2523</v>
+      </c>
+      <c r="E43" t="n">
+        <v>94.86</v>
+      </c>
+      <c r="F43" t="n">
+        <v>1115</v>
+      </c>
+      <c r="G43" t="n">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>43</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>AloneHitoriV</t>
+        </is>
+      </c>
+      <c r="C44" t="n">
+        <v>7</v>
+      </c>
+      <c r="D44" t="n">
+        <v>2431</v>
+      </c>
+      <c r="E44" t="n">
+        <v>91.25</v>
+      </c>
+      <c r="F44" t="n">
+        <v>595</v>
+      </c>
+      <c r="G44" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>44</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>fkruby</t>
+        </is>
+      </c>
+      <c r="C45" t="n">
+        <v>7</v>
+      </c>
+      <c r="D45" t="n">
+        <v>2280</v>
+      </c>
+      <c r="E45" t="n">
+        <v>93.04000000000001</v>
+      </c>
+      <c r="F45" t="n">
+        <v>705</v>
+      </c>
+      <c r="G45" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>45</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>feat_Konoka</t>
+        </is>
+      </c>
+      <c r="C46" t="n">
+        <v>7</v>
+      </c>
+      <c r="D46" t="n">
+        <v>2272</v>
+      </c>
+      <c r="E46" t="n">
+        <v>97.06</v>
+      </c>
+      <c r="F46" t="n">
+        <v>642</v>
+      </c>
+      <c r="G46" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>46</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>Kurenia</t>
+        </is>
+      </c>
+      <c r="C47" t="n">
+        <v>6</v>
+      </c>
+      <c r="D47" t="n">
+        <v>2152</v>
+      </c>
+      <c r="E47" t="n">
+        <v>94.42</v>
+      </c>
+      <c r="F47" t="n">
+        <v>379</v>
+      </c>
+      <c r="G47" t="n">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>47</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>vr_xuni</t>
+        </is>
+      </c>
+      <c r="C48" t="n">
+        <v>6</v>
+      </c>
+      <c r="D48" t="n">
+        <v>2151</v>
+      </c>
+      <c r="E48" t="n">
+        <v>96.87</v>
+      </c>
+      <c r="F48" t="n">
+        <v>550</v>
+      </c>
+      <c r="G48" t="n">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>48</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>JisusMP</t>
+        </is>
+      </c>
+      <c r="C49" t="n">
+        <v>6</v>
+      </c>
+      <c r="D49" t="n">
+        <v>2146</v>
+      </c>
+      <c r="E49" t="n">
+        <v>96.61</v>
+      </c>
+      <c r="F49" t="n">
+        <v>908</v>
+      </c>
+      <c r="G49" t="n">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>49</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>Qningshow</t>
+        </is>
+      </c>
+      <c r="C50" t="n">
+        <v>6</v>
+      </c>
+      <c r="D50" t="n">
+        <v>2115</v>
+      </c>
+      <c r="E50" t="n">
+        <v>93.73999999999999</v>
+      </c>
+      <c r="F50" t="n">
+        <v>534</v>
+      </c>
+      <c r="G50" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>50</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>cheesewtf</t>
+        </is>
+      </c>
+      <c r="C51" t="n">
+        <v>6</v>
+      </c>
+      <c r="D51" t="n">
+        <v>2033</v>
+      </c>
+      <c r="E51" t="n">
+        <v>86.90000000000001</v>
+      </c>
+      <c r="F51" t="n">
+        <v>698</v>
+      </c>
+      <c r="G51" t="n">
+        <v>26</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>

--- a/mode8.xlsx
+++ b/mode8.xlsx
@@ -21,6 +21,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="mode_8_2025-10-06_14-54" sheetId="12" state="visible" r:id="rId12"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="mode_8_2025-10-08_13-41" sheetId="13" state="visible" r:id="rId13"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="mode_8_2025-10-10_22-16" sheetId="14" state="visible" r:id="rId14"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="mode_8_2025-10-19_16-41" sheetId="15" state="visible" r:id="rId15"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -8523,6 +8524,1312 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:G51"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>rank</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>lv</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>exp</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>acc</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>combo</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>pc</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>YA_GAMMER</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>35</v>
+      </c>
+      <c r="D2" t="n">
+        <v>158175</v>
+      </c>
+      <c r="E2" t="n">
+        <v>97.08</v>
+      </c>
+      <c r="F2" t="n">
+        <v>1123</v>
+      </c>
+      <c r="G2" t="n">
+        <v>868</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>KrisTheHumanFall</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>33</v>
+      </c>
+      <c r="D3" t="n">
+        <v>128588</v>
+      </c>
+      <c r="E3" t="n">
+        <v>96.02</v>
+      </c>
+      <c r="F3" t="n">
+        <v>1141</v>
+      </c>
+      <c r="G3" t="n">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Excited_Naive</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>32</v>
+      </c>
+      <c r="D4" t="n">
+        <v>108816</v>
+      </c>
+      <c r="E4" t="n">
+        <v>97.81</v>
+      </c>
+      <c r="F4" t="n">
+        <v>1374</v>
+      </c>
+      <c r="G4" t="n">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>-Koyuki-</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>27</v>
+      </c>
+      <c r="D5" t="n">
+        <v>56822</v>
+      </c>
+      <c r="E5" t="n">
+        <v>96.73999999999999</v>
+      </c>
+      <c r="F5" t="n">
+        <v>1130</v>
+      </c>
+      <c r="G5" t="n">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>F0rge</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>21</v>
+      </c>
+      <c r="D6" t="n">
+        <v>25705</v>
+      </c>
+      <c r="E6" t="n">
+        <v>97.77</v>
+      </c>
+      <c r="F6" t="n">
+        <v>1100</v>
+      </c>
+      <c r="G6" t="n">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Merak</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>18</v>
+      </c>
+      <c r="D7" t="n">
+        <v>16294</v>
+      </c>
+      <c r="E7" t="n">
+        <v>94.20999999999999</v>
+      </c>
+      <c r="F7" t="n">
+        <v>819</v>
+      </c>
+      <c r="G7" t="n">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Physic_est</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>18</v>
+      </c>
+      <c r="D8" t="n">
+        <v>15982</v>
+      </c>
+      <c r="E8" t="n">
+        <v>96.97</v>
+      </c>
+      <c r="F8" t="n">
+        <v>586</v>
+      </c>
+      <c r="G8" t="n">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>8</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>RedCatz</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>18</v>
+      </c>
+      <c r="D9" t="n">
+        <v>14867</v>
+      </c>
+      <c r="E9" t="n">
+        <v>97.40000000000001</v>
+      </c>
+      <c r="F9" t="n">
+        <v>1026</v>
+      </c>
+      <c r="G9" t="n">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>9</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>ReLWZJ_X</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>16</v>
+      </c>
+      <c r="D10" t="n">
+        <v>11553</v>
+      </c>
+      <c r="E10" t="n">
+        <v>98.44</v>
+      </c>
+      <c r="F10" t="n">
+        <v>896</v>
+      </c>
+      <c r="G10" t="n">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>10</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>NamelessBeing</t>
+        </is>
+      </c>
+      <c r="C11" t="n">
+        <v>16</v>
+      </c>
+      <c r="D11" t="n">
+        <v>11349</v>
+      </c>
+      <c r="E11" t="n">
+        <v>93.84</v>
+      </c>
+      <c r="F11" t="n">
+        <v>908</v>
+      </c>
+      <c r="G11" t="n">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>11</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>GongErguang</t>
+        </is>
+      </c>
+      <c r="C12" t="n">
+        <v>15</v>
+      </c>
+      <c r="D12" t="n">
+        <v>10191</v>
+      </c>
+      <c r="E12" t="n">
+        <v>95.92</v>
+      </c>
+      <c r="F12" t="n">
+        <v>1107</v>
+      </c>
+      <c r="G12" t="n">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>12</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>hazeiro</t>
+        </is>
+      </c>
+      <c r="C13" t="n">
+        <v>14</v>
+      </c>
+      <c r="D13" t="n">
+        <v>8912</v>
+      </c>
+      <c r="E13" t="n">
+        <v>94.86</v>
+      </c>
+      <c r="F13" t="n">
+        <v>1304</v>
+      </c>
+      <c r="G13" t="n">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>13</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>fffjssgd</t>
+        </is>
+      </c>
+      <c r="C14" t="n">
+        <v>14</v>
+      </c>
+      <c r="D14" t="n">
+        <v>8009</v>
+      </c>
+      <c r="E14" t="n">
+        <v>89.84</v>
+      </c>
+      <c r="F14" t="n">
+        <v>294</v>
+      </c>
+      <c r="G14" t="n">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>14</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Hetatis</t>
+        </is>
+      </c>
+      <c r="C15" t="n">
+        <v>13</v>
+      </c>
+      <c r="D15" t="n">
+        <v>7601</v>
+      </c>
+      <c r="E15" t="n">
+        <v>97.42</v>
+      </c>
+      <c r="F15" t="n">
+        <v>1132</v>
+      </c>
+      <c r="G15" t="n">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>15</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Alisabe</t>
+        </is>
+      </c>
+      <c r="C16" t="n">
+        <v>12</v>
+      </c>
+      <c r="D16" t="n">
+        <v>6641</v>
+      </c>
+      <c r="E16" t="n">
+        <v>90.68000000000001</v>
+      </c>
+      <c r="F16" t="n">
+        <v>909</v>
+      </c>
+      <c r="G16" t="n">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>16</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>4keyishard</t>
+        </is>
+      </c>
+      <c r="C17" t="n">
+        <v>12</v>
+      </c>
+      <c r="D17" t="n">
+        <v>6588</v>
+      </c>
+      <c r="E17" t="n">
+        <v>96.56</v>
+      </c>
+      <c r="F17" t="n">
+        <v>1396</v>
+      </c>
+      <c r="G17" t="n">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>17</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Laddie_Amoyensis</t>
+        </is>
+      </c>
+      <c r="C18" t="n">
+        <v>12</v>
+      </c>
+      <c r="D18" t="n">
+        <v>6311</v>
+      </c>
+      <c r="E18" t="n">
+        <v>99.59999999999999</v>
+      </c>
+      <c r="F18" t="n">
+        <v>1361</v>
+      </c>
+      <c r="G18" t="n">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>18</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>reonalll</t>
+        </is>
+      </c>
+      <c r="C19" t="n">
+        <v>12</v>
+      </c>
+      <c r="D19" t="n">
+        <v>5838</v>
+      </c>
+      <c r="E19" t="n">
+        <v>97.33</v>
+      </c>
+      <c r="F19" t="n">
+        <v>713</v>
+      </c>
+      <c r="G19" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>19</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>asarin</t>
+        </is>
+      </c>
+      <c r="C20" t="n">
+        <v>11</v>
+      </c>
+      <c r="D20" t="n">
+        <v>5487</v>
+      </c>
+      <c r="E20" t="n">
+        <v>83.7</v>
+      </c>
+      <c r="F20" t="n">
+        <v>542</v>
+      </c>
+      <c r="G20" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>20</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Lolimlive</t>
+        </is>
+      </c>
+      <c r="C21" t="n">
+        <v>11</v>
+      </c>
+      <c r="D21" t="n">
+        <v>5389</v>
+      </c>
+      <c r="E21" t="n">
+        <v>90.81999999999999</v>
+      </c>
+      <c r="F21" t="n">
+        <v>555</v>
+      </c>
+      <c r="G21" t="n">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>21</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Koishi_Komeiji</t>
+        </is>
+      </c>
+      <c r="C22" t="n">
+        <v>11</v>
+      </c>
+      <c r="D22" t="n">
+        <v>5153</v>
+      </c>
+      <c r="E22" t="n">
+        <v>96.56</v>
+      </c>
+      <c r="F22" t="n">
+        <v>1115</v>
+      </c>
+      <c r="G22" t="n">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>22</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>lal_33</t>
+        </is>
+      </c>
+      <c r="C23" t="n">
+        <v>11</v>
+      </c>
+      <c r="D23" t="n">
+        <v>5104</v>
+      </c>
+      <c r="E23" t="n">
+        <v>77.38</v>
+      </c>
+      <c r="F23" t="n">
+        <v>229</v>
+      </c>
+      <c r="G23" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>23</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Yasashima</t>
+        </is>
+      </c>
+      <c r="C24" t="n">
+        <v>11</v>
+      </c>
+      <c r="D24" t="n">
+        <v>4823</v>
+      </c>
+      <c r="E24" t="n">
+        <v>93.98</v>
+      </c>
+      <c r="F24" t="n">
+        <v>1050</v>
+      </c>
+      <c r="G24" t="n">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>24</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Yama0113</t>
+        </is>
+      </c>
+      <c r="C25" t="n">
+        <v>10</v>
+      </c>
+      <c r="D25" t="n">
+        <v>4779</v>
+      </c>
+      <c r="E25" t="n">
+        <v>92.44</v>
+      </c>
+      <c r="F25" t="n">
+        <v>905</v>
+      </c>
+      <c r="G25" t="n">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>25</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>abbbs-asc</t>
+        </is>
+      </c>
+      <c r="C26" t="n">
+        <v>10</v>
+      </c>
+      <c r="D26" t="n">
+        <v>4664</v>
+      </c>
+      <c r="E26" t="n">
+        <v>90.95</v>
+      </c>
+      <c r="F26" t="n">
+        <v>615</v>
+      </c>
+      <c r="G26" t="n">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>26</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>333XD</t>
+        </is>
+      </c>
+      <c r="C27" t="n">
+        <v>10</v>
+      </c>
+      <c r="D27" t="n">
+        <v>4262</v>
+      </c>
+      <c r="E27" t="n">
+        <v>88.31</v>
+      </c>
+      <c r="F27" t="n">
+        <v>693</v>
+      </c>
+      <c r="G27" t="n">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>27</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>0PoppinParty0</t>
+        </is>
+      </c>
+      <c r="C28" t="n">
+        <v>10</v>
+      </c>
+      <c r="D28" t="n">
+        <v>4162</v>
+      </c>
+      <c r="E28" t="n">
+        <v>96.09999999999999</v>
+      </c>
+      <c r="F28" t="n">
+        <v>908</v>
+      </c>
+      <c r="G28" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>28</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>RenAhah</t>
+        </is>
+      </c>
+      <c r="C29" t="n">
+        <v>9</v>
+      </c>
+      <c r="D29" t="n">
+        <v>3959</v>
+      </c>
+      <c r="E29" t="n">
+        <v>88.7</v>
+      </c>
+      <c r="F29" t="n">
+        <v>849</v>
+      </c>
+      <c r="G29" t="n">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>29</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>Zyt1yt</t>
+        </is>
+      </c>
+      <c r="C30" t="n">
+        <v>9</v>
+      </c>
+      <c r="D30" t="n">
+        <v>3908</v>
+      </c>
+      <c r="E30" t="n">
+        <v>92.3</v>
+      </c>
+      <c r="F30" t="n">
+        <v>905</v>
+      </c>
+      <c r="G30" t="n">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>30</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>Pop_Slime</t>
+        </is>
+      </c>
+      <c r="C31" t="n">
+        <v>9</v>
+      </c>
+      <c r="D31" t="n">
+        <v>3904</v>
+      </c>
+      <c r="E31" t="n">
+        <v>94.84</v>
+      </c>
+      <c r="F31" t="n">
+        <v>736</v>
+      </c>
+      <c r="G31" t="n">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>31</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>aaaa123</t>
+        </is>
+      </c>
+      <c r="C32" t="n">
+        <v>9</v>
+      </c>
+      <c r="D32" t="n">
+        <v>3876</v>
+      </c>
+      <c r="E32" t="n">
+        <v>96.17</v>
+      </c>
+      <c r="F32" t="n">
+        <v>1112</v>
+      </c>
+      <c r="G32" t="n">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>32</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>KangBasoTikus</t>
+        </is>
+      </c>
+      <c r="C33" t="n">
+        <v>9</v>
+      </c>
+      <c r="D33" t="n">
+        <v>3867</v>
+      </c>
+      <c r="E33" t="n">
+        <v>93.45</v>
+      </c>
+      <c r="F33" t="n">
+        <v>651</v>
+      </c>
+      <c r="G33" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>33</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>Lixinyan</t>
+        </is>
+      </c>
+      <c r="C34" t="n">
+        <v>9</v>
+      </c>
+      <c r="D34" t="n">
+        <v>3543</v>
+      </c>
+      <c r="E34" t="n">
+        <v>79.59</v>
+      </c>
+      <c r="F34" t="n">
+        <v>246</v>
+      </c>
+      <c r="G34" t="n">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>34</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>jyx042223</t>
+        </is>
+      </c>
+      <c r="C35" t="n">
+        <v>9</v>
+      </c>
+      <c r="D35" t="n">
+        <v>3446</v>
+      </c>
+      <c r="E35" t="n">
+        <v>91.58</v>
+      </c>
+      <c r="F35" t="n">
+        <v>780</v>
+      </c>
+      <c r="G35" t="n">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>35</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>forcal</t>
+        </is>
+      </c>
+      <c r="C36" t="n">
+        <v>8</v>
+      </c>
+      <c r="D36" t="n">
+        <v>3161</v>
+      </c>
+      <c r="E36" t="n">
+        <v>96.90000000000001</v>
+      </c>
+      <c r="F36" t="n">
+        <v>591</v>
+      </c>
+      <c r="G36" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>36</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>nekomyudon</t>
+        </is>
+      </c>
+      <c r="C37" t="n">
+        <v>8</v>
+      </c>
+      <c r="D37" t="n">
+        <v>2940</v>
+      </c>
+      <c r="E37" t="n">
+        <v>91.95</v>
+      </c>
+      <c r="F37" t="n">
+        <v>474</v>
+      </c>
+      <c r="G37" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>37</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>ruirongrong</t>
+        </is>
+      </c>
+      <c r="C38" t="n">
+        <v>8</v>
+      </c>
+      <c r="D38" t="n">
+        <v>2930</v>
+      </c>
+      <c r="E38" t="n">
+        <v>87.76000000000001</v>
+      </c>
+      <c r="F38" t="n">
+        <v>282</v>
+      </c>
+      <c r="G38" t="n">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>38</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>xiyan2002</t>
+        </is>
+      </c>
+      <c r="C39" t="n">
+        <v>8</v>
+      </c>
+      <c r="D39" t="n">
+        <v>2833</v>
+      </c>
+      <c r="E39" t="n">
+        <v>77.47</v>
+      </c>
+      <c r="F39" t="n">
+        <v>626</v>
+      </c>
+      <c r="G39" t="n">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>39</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>[Origami]</t>
+        </is>
+      </c>
+      <c r="C40" t="n">
+        <v>8</v>
+      </c>
+      <c r="D40" t="n">
+        <v>2733</v>
+      </c>
+      <c r="E40" t="n">
+        <v>92.81</v>
+      </c>
+      <c r="F40" t="n">
+        <v>879</v>
+      </c>
+      <c r="G40" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>40</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>myhome</t>
+        </is>
+      </c>
+      <c r="C41" t="n">
+        <v>7</v>
+      </c>
+      <c r="D41" t="n">
+        <v>2662</v>
+      </c>
+      <c r="E41" t="n">
+        <v>89.73999999999999</v>
+      </c>
+      <c r="F41" t="n">
+        <v>1131</v>
+      </c>
+      <c r="G41" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>41</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>niniin</t>
+        </is>
+      </c>
+      <c r="C42" t="n">
+        <v>7</v>
+      </c>
+      <c r="D42" t="n">
+        <v>2617</v>
+      </c>
+      <c r="E42" t="n">
+        <v>89.29000000000001</v>
+      </c>
+      <c r="F42" t="n">
+        <v>612</v>
+      </c>
+      <c r="G42" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>42</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>-Kori</t>
+        </is>
+      </c>
+      <c r="C43" t="n">
+        <v>7</v>
+      </c>
+      <c r="D43" t="n">
+        <v>2523</v>
+      </c>
+      <c r="E43" t="n">
+        <v>94.86</v>
+      </c>
+      <c r="F43" t="n">
+        <v>1115</v>
+      </c>
+      <c r="G43" t="n">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>43</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>AloneHitoriV</t>
+        </is>
+      </c>
+      <c r="C44" t="n">
+        <v>7</v>
+      </c>
+      <c r="D44" t="n">
+        <v>2431</v>
+      </c>
+      <c r="E44" t="n">
+        <v>91.25</v>
+      </c>
+      <c r="F44" t="n">
+        <v>595</v>
+      </c>
+      <c r="G44" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>44</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>fkruby</t>
+        </is>
+      </c>
+      <c r="C45" t="n">
+        <v>7</v>
+      </c>
+      <c r="D45" t="n">
+        <v>2280</v>
+      </c>
+      <c r="E45" t="n">
+        <v>93.04000000000001</v>
+      </c>
+      <c r="F45" t="n">
+        <v>705</v>
+      </c>
+      <c r="G45" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>45</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>feat_Konoka</t>
+        </is>
+      </c>
+      <c r="C46" t="n">
+        <v>7</v>
+      </c>
+      <c r="D46" t="n">
+        <v>2272</v>
+      </c>
+      <c r="E46" t="n">
+        <v>97.06</v>
+      </c>
+      <c r="F46" t="n">
+        <v>642</v>
+      </c>
+      <c r="G46" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>46</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>Kurenia</t>
+        </is>
+      </c>
+      <c r="C47" t="n">
+        <v>6</v>
+      </c>
+      <c r="D47" t="n">
+        <v>2152</v>
+      </c>
+      <c r="E47" t="n">
+        <v>94.42</v>
+      </c>
+      <c r="F47" t="n">
+        <v>379</v>
+      </c>
+      <c r="G47" t="n">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>47</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>vr_xuni</t>
+        </is>
+      </c>
+      <c r="C48" t="n">
+        <v>6</v>
+      </c>
+      <c r="D48" t="n">
+        <v>2151</v>
+      </c>
+      <c r="E48" t="n">
+        <v>96.87</v>
+      </c>
+      <c r="F48" t="n">
+        <v>550</v>
+      </c>
+      <c r="G48" t="n">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>48</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>JisusMP</t>
+        </is>
+      </c>
+      <c r="C49" t="n">
+        <v>6</v>
+      </c>
+      <c r="D49" t="n">
+        <v>2146</v>
+      </c>
+      <c r="E49" t="n">
+        <v>96.61</v>
+      </c>
+      <c r="F49" t="n">
+        <v>908</v>
+      </c>
+      <c r="G49" t="n">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>49</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>Qningshow</t>
+        </is>
+      </c>
+      <c r="C50" t="n">
+        <v>6</v>
+      </c>
+      <c r="D50" t="n">
+        <v>2115</v>
+      </c>
+      <c r="E50" t="n">
+        <v>93.73999999999999</v>
+      </c>
+      <c r="F50" t="n">
+        <v>534</v>
+      </c>
+      <c r="G50" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>50</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>hussm</t>
+        </is>
+      </c>
+      <c r="C51" t="n">
+        <v>6</v>
+      </c>
+      <c r="D51" t="n">
+        <v>2091</v>
+      </c>
+      <c r="E51" t="n">
+        <v>88.40000000000001</v>
+      </c>
+      <c r="F51" t="n">
+        <v>333</v>
+      </c>
+      <c r="G51" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>

--- a/mode8.xlsx
+++ b/mode8.xlsx
@@ -22,6 +22,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="mode_8_2025-10-08_13-41" sheetId="13" state="visible" r:id="rId13"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="mode_8_2025-10-10_22-16" sheetId="14" state="visible" r:id="rId14"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="mode_8_2025-10-19_16-41" sheetId="15" state="visible" r:id="rId15"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="mode_8_2025-10-25_13-16" sheetId="16" state="visible" r:id="rId16"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -9830,6 +9831,1312 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:G51"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>rank</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>lv</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>exp</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>acc</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>combo</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>pc</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>YA_GAMMER</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>35</v>
+      </c>
+      <c r="D2" t="n">
+        <v>158175</v>
+      </c>
+      <c r="E2" t="n">
+        <v>97.08</v>
+      </c>
+      <c r="F2" t="n">
+        <v>1123</v>
+      </c>
+      <c r="G2" t="n">
+        <v>868</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>KrisTheHumanFall</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>33</v>
+      </c>
+      <c r="D3" t="n">
+        <v>128588</v>
+      </c>
+      <c r="E3" t="n">
+        <v>96.02</v>
+      </c>
+      <c r="F3" t="n">
+        <v>1141</v>
+      </c>
+      <c r="G3" t="n">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Excited_Naive</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>32</v>
+      </c>
+      <c r="D4" t="n">
+        <v>108816</v>
+      </c>
+      <c r="E4" t="n">
+        <v>97.81</v>
+      </c>
+      <c r="F4" t="n">
+        <v>1374</v>
+      </c>
+      <c r="G4" t="n">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>-Koyuki-</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>27</v>
+      </c>
+      <c r="D5" t="n">
+        <v>56822</v>
+      </c>
+      <c r="E5" t="n">
+        <v>96.73999999999999</v>
+      </c>
+      <c r="F5" t="n">
+        <v>1130</v>
+      </c>
+      <c r="G5" t="n">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>F0rge</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>21</v>
+      </c>
+      <c r="D6" t="n">
+        <v>25705</v>
+      </c>
+      <c r="E6" t="n">
+        <v>97.77</v>
+      </c>
+      <c r="F6" t="n">
+        <v>1100</v>
+      </c>
+      <c r="G6" t="n">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Merak</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>18</v>
+      </c>
+      <c r="D7" t="n">
+        <v>16294</v>
+      </c>
+      <c r="E7" t="n">
+        <v>94.20999999999999</v>
+      </c>
+      <c r="F7" t="n">
+        <v>819</v>
+      </c>
+      <c r="G7" t="n">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Physic_est</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>18</v>
+      </c>
+      <c r="D8" t="n">
+        <v>15982</v>
+      </c>
+      <c r="E8" t="n">
+        <v>96.97</v>
+      </c>
+      <c r="F8" t="n">
+        <v>586</v>
+      </c>
+      <c r="G8" t="n">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>8</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>RedCatz</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>18</v>
+      </c>
+      <c r="D9" t="n">
+        <v>14867</v>
+      </c>
+      <c r="E9" t="n">
+        <v>97.40000000000001</v>
+      </c>
+      <c r="F9" t="n">
+        <v>1026</v>
+      </c>
+      <c r="G9" t="n">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>9</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>ReLWZJ_X</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>16</v>
+      </c>
+      <c r="D10" t="n">
+        <v>11553</v>
+      </c>
+      <c r="E10" t="n">
+        <v>98.44</v>
+      </c>
+      <c r="F10" t="n">
+        <v>896</v>
+      </c>
+      <c r="G10" t="n">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>10</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>NamelessBeing</t>
+        </is>
+      </c>
+      <c r="C11" t="n">
+        <v>16</v>
+      </c>
+      <c r="D11" t="n">
+        <v>11349</v>
+      </c>
+      <c r="E11" t="n">
+        <v>93.84</v>
+      </c>
+      <c r="F11" t="n">
+        <v>908</v>
+      </c>
+      <c r="G11" t="n">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>11</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>GongErguang</t>
+        </is>
+      </c>
+      <c r="C12" t="n">
+        <v>15</v>
+      </c>
+      <c r="D12" t="n">
+        <v>10191</v>
+      </c>
+      <c r="E12" t="n">
+        <v>95.92</v>
+      </c>
+      <c r="F12" t="n">
+        <v>1107</v>
+      </c>
+      <c r="G12" t="n">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>12</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>hazeiro</t>
+        </is>
+      </c>
+      <c r="C13" t="n">
+        <v>14</v>
+      </c>
+      <c r="D13" t="n">
+        <v>8912</v>
+      </c>
+      <c r="E13" t="n">
+        <v>94.86</v>
+      </c>
+      <c r="F13" t="n">
+        <v>1304</v>
+      </c>
+      <c r="G13" t="n">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>13</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>fffjssgd</t>
+        </is>
+      </c>
+      <c r="C14" t="n">
+        <v>14</v>
+      </c>
+      <c r="D14" t="n">
+        <v>8009</v>
+      </c>
+      <c r="E14" t="n">
+        <v>89.84</v>
+      </c>
+      <c r="F14" t="n">
+        <v>294</v>
+      </c>
+      <c r="G14" t="n">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>14</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Hetatis</t>
+        </is>
+      </c>
+      <c r="C15" t="n">
+        <v>13</v>
+      </c>
+      <c r="D15" t="n">
+        <v>7601</v>
+      </c>
+      <c r="E15" t="n">
+        <v>97.42</v>
+      </c>
+      <c r="F15" t="n">
+        <v>1132</v>
+      </c>
+      <c r="G15" t="n">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>15</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Alisabe</t>
+        </is>
+      </c>
+      <c r="C16" t="n">
+        <v>12</v>
+      </c>
+      <c r="D16" t="n">
+        <v>6641</v>
+      </c>
+      <c r="E16" t="n">
+        <v>90.68000000000001</v>
+      </c>
+      <c r="F16" t="n">
+        <v>909</v>
+      </c>
+      <c r="G16" t="n">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>16</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>4keyishard</t>
+        </is>
+      </c>
+      <c r="C17" t="n">
+        <v>12</v>
+      </c>
+      <c r="D17" t="n">
+        <v>6588</v>
+      </c>
+      <c r="E17" t="n">
+        <v>96.56</v>
+      </c>
+      <c r="F17" t="n">
+        <v>1396</v>
+      </c>
+      <c r="G17" t="n">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>17</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Laddie_Amoyensis</t>
+        </is>
+      </c>
+      <c r="C18" t="n">
+        <v>12</v>
+      </c>
+      <c r="D18" t="n">
+        <v>6311</v>
+      </c>
+      <c r="E18" t="n">
+        <v>99.59999999999999</v>
+      </c>
+      <c r="F18" t="n">
+        <v>1361</v>
+      </c>
+      <c r="G18" t="n">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>18</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>reonalll</t>
+        </is>
+      </c>
+      <c r="C19" t="n">
+        <v>12</v>
+      </c>
+      <c r="D19" t="n">
+        <v>5838</v>
+      </c>
+      <c r="E19" t="n">
+        <v>97.33</v>
+      </c>
+      <c r="F19" t="n">
+        <v>713</v>
+      </c>
+      <c r="G19" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>19</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>asarin</t>
+        </is>
+      </c>
+      <c r="C20" t="n">
+        <v>11</v>
+      </c>
+      <c r="D20" t="n">
+        <v>5487</v>
+      </c>
+      <c r="E20" t="n">
+        <v>83.7</v>
+      </c>
+      <c r="F20" t="n">
+        <v>542</v>
+      </c>
+      <c r="G20" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>20</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Lolimlive</t>
+        </is>
+      </c>
+      <c r="C21" t="n">
+        <v>11</v>
+      </c>
+      <c r="D21" t="n">
+        <v>5389</v>
+      </c>
+      <c r="E21" t="n">
+        <v>90.81999999999999</v>
+      </c>
+      <c r="F21" t="n">
+        <v>555</v>
+      </c>
+      <c r="G21" t="n">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>21</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Koishi_Komeiji</t>
+        </is>
+      </c>
+      <c r="C22" t="n">
+        <v>11</v>
+      </c>
+      <c r="D22" t="n">
+        <v>5153</v>
+      </c>
+      <c r="E22" t="n">
+        <v>96.56</v>
+      </c>
+      <c r="F22" t="n">
+        <v>1115</v>
+      </c>
+      <c r="G22" t="n">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>22</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>lal_33</t>
+        </is>
+      </c>
+      <c r="C23" t="n">
+        <v>11</v>
+      </c>
+      <c r="D23" t="n">
+        <v>5104</v>
+      </c>
+      <c r="E23" t="n">
+        <v>77.38</v>
+      </c>
+      <c r="F23" t="n">
+        <v>229</v>
+      </c>
+      <c r="G23" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>23</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Yasashima</t>
+        </is>
+      </c>
+      <c r="C24" t="n">
+        <v>11</v>
+      </c>
+      <c r="D24" t="n">
+        <v>4823</v>
+      </c>
+      <c r="E24" t="n">
+        <v>93.98</v>
+      </c>
+      <c r="F24" t="n">
+        <v>1050</v>
+      </c>
+      <c r="G24" t="n">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>24</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Yama0113</t>
+        </is>
+      </c>
+      <c r="C25" t="n">
+        <v>10</v>
+      </c>
+      <c r="D25" t="n">
+        <v>4779</v>
+      </c>
+      <c r="E25" t="n">
+        <v>92.44</v>
+      </c>
+      <c r="F25" t="n">
+        <v>905</v>
+      </c>
+      <c r="G25" t="n">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>25</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>abbbs-asc</t>
+        </is>
+      </c>
+      <c r="C26" t="n">
+        <v>10</v>
+      </c>
+      <c r="D26" t="n">
+        <v>4664</v>
+      </c>
+      <c r="E26" t="n">
+        <v>90.95</v>
+      </c>
+      <c r="F26" t="n">
+        <v>615</v>
+      </c>
+      <c r="G26" t="n">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>26</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>333XD</t>
+        </is>
+      </c>
+      <c r="C27" t="n">
+        <v>10</v>
+      </c>
+      <c r="D27" t="n">
+        <v>4262</v>
+      </c>
+      <c r="E27" t="n">
+        <v>88.31</v>
+      </c>
+      <c r="F27" t="n">
+        <v>693</v>
+      </c>
+      <c r="G27" t="n">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>27</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>0PoppinParty0</t>
+        </is>
+      </c>
+      <c r="C28" t="n">
+        <v>10</v>
+      </c>
+      <c r="D28" t="n">
+        <v>4162</v>
+      </c>
+      <c r="E28" t="n">
+        <v>96.09999999999999</v>
+      </c>
+      <c r="F28" t="n">
+        <v>908</v>
+      </c>
+      <c r="G28" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>28</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>RenAhah</t>
+        </is>
+      </c>
+      <c r="C29" t="n">
+        <v>9</v>
+      </c>
+      <c r="D29" t="n">
+        <v>3959</v>
+      </c>
+      <c r="E29" t="n">
+        <v>88.7</v>
+      </c>
+      <c r="F29" t="n">
+        <v>849</v>
+      </c>
+      <c r="G29" t="n">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>29</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>Zyt1yt</t>
+        </is>
+      </c>
+      <c r="C30" t="n">
+        <v>9</v>
+      </c>
+      <c r="D30" t="n">
+        <v>3908</v>
+      </c>
+      <c r="E30" t="n">
+        <v>92.3</v>
+      </c>
+      <c r="F30" t="n">
+        <v>905</v>
+      </c>
+      <c r="G30" t="n">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>30</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>Pop_Slime</t>
+        </is>
+      </c>
+      <c r="C31" t="n">
+        <v>9</v>
+      </c>
+      <c r="D31" t="n">
+        <v>3904</v>
+      </c>
+      <c r="E31" t="n">
+        <v>94.84</v>
+      </c>
+      <c r="F31" t="n">
+        <v>736</v>
+      </c>
+      <c r="G31" t="n">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>31</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>aaaa123</t>
+        </is>
+      </c>
+      <c r="C32" t="n">
+        <v>9</v>
+      </c>
+      <c r="D32" t="n">
+        <v>3876</v>
+      </c>
+      <c r="E32" t="n">
+        <v>96.17</v>
+      </c>
+      <c r="F32" t="n">
+        <v>1112</v>
+      </c>
+      <c r="G32" t="n">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>32</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>KangBasoTikus</t>
+        </is>
+      </c>
+      <c r="C33" t="n">
+        <v>9</v>
+      </c>
+      <c r="D33" t="n">
+        <v>3867</v>
+      </c>
+      <c r="E33" t="n">
+        <v>93.45</v>
+      </c>
+      <c r="F33" t="n">
+        <v>651</v>
+      </c>
+      <c r="G33" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>33</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>Lixinyan</t>
+        </is>
+      </c>
+      <c r="C34" t="n">
+        <v>9</v>
+      </c>
+      <c r="D34" t="n">
+        <v>3543</v>
+      </c>
+      <c r="E34" t="n">
+        <v>79.59</v>
+      </c>
+      <c r="F34" t="n">
+        <v>246</v>
+      </c>
+      <c r="G34" t="n">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>34</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>jyx042223</t>
+        </is>
+      </c>
+      <c r="C35" t="n">
+        <v>9</v>
+      </c>
+      <c r="D35" t="n">
+        <v>3446</v>
+      </c>
+      <c r="E35" t="n">
+        <v>91.58</v>
+      </c>
+      <c r="F35" t="n">
+        <v>780</v>
+      </c>
+      <c r="G35" t="n">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>35</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>forcal</t>
+        </is>
+      </c>
+      <c r="C36" t="n">
+        <v>8</v>
+      </c>
+      <c r="D36" t="n">
+        <v>3161</v>
+      </c>
+      <c r="E36" t="n">
+        <v>96.90000000000001</v>
+      </c>
+      <c r="F36" t="n">
+        <v>591</v>
+      </c>
+      <c r="G36" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>36</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>hussm</t>
+        </is>
+      </c>
+      <c r="C37" t="n">
+        <v>8</v>
+      </c>
+      <c r="D37" t="n">
+        <v>2953</v>
+      </c>
+      <c r="E37" t="n">
+        <v>88.40000000000001</v>
+      </c>
+      <c r="F37" t="n">
+        <v>471</v>
+      </c>
+      <c r="G37" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>37</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>nekomyudon</t>
+        </is>
+      </c>
+      <c r="C38" t="n">
+        <v>8</v>
+      </c>
+      <c r="D38" t="n">
+        <v>2940</v>
+      </c>
+      <c r="E38" t="n">
+        <v>91.95</v>
+      </c>
+      <c r="F38" t="n">
+        <v>474</v>
+      </c>
+      <c r="G38" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>38</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>ruirongrong</t>
+        </is>
+      </c>
+      <c r="C39" t="n">
+        <v>8</v>
+      </c>
+      <c r="D39" t="n">
+        <v>2930</v>
+      </c>
+      <c r="E39" t="n">
+        <v>87.76000000000001</v>
+      </c>
+      <c r="F39" t="n">
+        <v>282</v>
+      </c>
+      <c r="G39" t="n">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>39</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>-Kori</t>
+        </is>
+      </c>
+      <c r="C40" t="n">
+        <v>8</v>
+      </c>
+      <c r="D40" t="n">
+        <v>2848</v>
+      </c>
+      <c r="E40" t="n">
+        <v>93.65000000000001</v>
+      </c>
+      <c r="F40" t="n">
+        <v>1115</v>
+      </c>
+      <c r="G40" t="n">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>40</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>xiyan2002</t>
+        </is>
+      </c>
+      <c r="C41" t="n">
+        <v>8</v>
+      </c>
+      <c r="D41" t="n">
+        <v>2833</v>
+      </c>
+      <c r="E41" t="n">
+        <v>77.47</v>
+      </c>
+      <c r="F41" t="n">
+        <v>626</v>
+      </c>
+      <c r="G41" t="n">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>41</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>[Origami]</t>
+        </is>
+      </c>
+      <c r="C42" t="n">
+        <v>8</v>
+      </c>
+      <c r="D42" t="n">
+        <v>2733</v>
+      </c>
+      <c r="E42" t="n">
+        <v>92.81</v>
+      </c>
+      <c r="F42" t="n">
+        <v>879</v>
+      </c>
+      <c r="G42" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>42</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>myhome</t>
+        </is>
+      </c>
+      <c r="C43" t="n">
+        <v>7</v>
+      </c>
+      <c r="D43" t="n">
+        <v>2662</v>
+      </c>
+      <c r="E43" t="n">
+        <v>89.73999999999999</v>
+      </c>
+      <c r="F43" t="n">
+        <v>1131</v>
+      </c>
+      <c r="G43" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>43</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>niniin</t>
+        </is>
+      </c>
+      <c r="C44" t="n">
+        <v>7</v>
+      </c>
+      <c r="D44" t="n">
+        <v>2617</v>
+      </c>
+      <c r="E44" t="n">
+        <v>89.29000000000001</v>
+      </c>
+      <c r="F44" t="n">
+        <v>612</v>
+      </c>
+      <c r="G44" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>44</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>AloneHitoriV</t>
+        </is>
+      </c>
+      <c r="C45" t="n">
+        <v>7</v>
+      </c>
+      <c r="D45" t="n">
+        <v>2431</v>
+      </c>
+      <c r="E45" t="n">
+        <v>91.25</v>
+      </c>
+      <c r="F45" t="n">
+        <v>595</v>
+      </c>
+      <c r="G45" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>45</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>fkruby</t>
+        </is>
+      </c>
+      <c r="C46" t="n">
+        <v>7</v>
+      </c>
+      <c r="D46" t="n">
+        <v>2280</v>
+      </c>
+      <c r="E46" t="n">
+        <v>93.04000000000001</v>
+      </c>
+      <c r="F46" t="n">
+        <v>705</v>
+      </c>
+      <c r="G46" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>46</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>feat_Konoka</t>
+        </is>
+      </c>
+      <c r="C47" t="n">
+        <v>7</v>
+      </c>
+      <c r="D47" t="n">
+        <v>2272</v>
+      </c>
+      <c r="E47" t="n">
+        <v>97.06</v>
+      </c>
+      <c r="F47" t="n">
+        <v>642</v>
+      </c>
+      <c r="G47" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>47</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>Kurenia</t>
+        </is>
+      </c>
+      <c r="C48" t="n">
+        <v>6</v>
+      </c>
+      <c r="D48" t="n">
+        <v>2152</v>
+      </c>
+      <c r="E48" t="n">
+        <v>94.42</v>
+      </c>
+      <c r="F48" t="n">
+        <v>379</v>
+      </c>
+      <c r="G48" t="n">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>48</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>vr_xuni</t>
+        </is>
+      </c>
+      <c r="C49" t="n">
+        <v>6</v>
+      </c>
+      <c r="D49" t="n">
+        <v>2151</v>
+      </c>
+      <c r="E49" t="n">
+        <v>96.87</v>
+      </c>
+      <c r="F49" t="n">
+        <v>550</v>
+      </c>
+      <c r="G49" t="n">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>49</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>JisusMP</t>
+        </is>
+      </c>
+      <c r="C50" t="n">
+        <v>6</v>
+      </c>
+      <c r="D50" t="n">
+        <v>2146</v>
+      </c>
+      <c r="E50" t="n">
+        <v>96.61</v>
+      </c>
+      <c r="F50" t="n">
+        <v>908</v>
+      </c>
+      <c r="G50" t="n">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>50</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>Qningshow</t>
+        </is>
+      </c>
+      <c r="C51" t="n">
+        <v>6</v>
+      </c>
+      <c r="D51" t="n">
+        <v>2115</v>
+      </c>
+      <c r="E51" t="n">
+        <v>93.73999999999999</v>
+      </c>
+      <c r="F51" t="n">
+        <v>534</v>
+      </c>
+      <c r="G51" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>

--- a/mode8.xlsx
+++ b/mode8.xlsx
@@ -23,6 +23,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="mode_8_2025-10-10_22-16" sheetId="14" state="visible" r:id="rId14"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="mode_8_2025-10-19_16-41" sheetId="15" state="visible" r:id="rId15"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="mode_8_2025-10-25_13-16" sheetId="16" state="visible" r:id="rId16"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="mode_8_2025-10-26_23-14" sheetId="17" state="visible" r:id="rId17"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -11137,6 +11138,1567 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H51"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>rank</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>player_id</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>lv</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>exp</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>acc</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>combo</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>pc</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>YA_GAMMER</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>549520</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>35</v>
+      </c>
+      <c r="E2" t="n">
+        <v>158175</v>
+      </c>
+      <c r="F2" t="n">
+        <v>97.08</v>
+      </c>
+      <c r="G2" t="n">
+        <v>1123</v>
+      </c>
+      <c r="H2" t="n">
+        <v>868</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>KrisTheHumanFall</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>473602</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>33</v>
+      </c>
+      <c r="E3" t="n">
+        <v>128588</v>
+      </c>
+      <c r="F3" t="n">
+        <v>96.02</v>
+      </c>
+      <c r="G3" t="n">
+        <v>1141</v>
+      </c>
+      <c r="H3" t="n">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Excited_Naive</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>368505</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>32</v>
+      </c>
+      <c r="E4" t="n">
+        <v>108816</v>
+      </c>
+      <c r="F4" t="n">
+        <v>97.81</v>
+      </c>
+      <c r="G4" t="n">
+        <v>1374</v>
+      </c>
+      <c r="H4" t="n">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>-Koyuki-</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>499151</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>27</v>
+      </c>
+      <c r="E5" t="n">
+        <v>56822</v>
+      </c>
+      <c r="F5" t="n">
+        <v>96.73999999999999</v>
+      </c>
+      <c r="G5" t="n">
+        <v>1130</v>
+      </c>
+      <c r="H5" t="n">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>F0rge</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>1049018</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>21</v>
+      </c>
+      <c r="E6" t="n">
+        <v>25705</v>
+      </c>
+      <c r="F6" t="n">
+        <v>97.77</v>
+      </c>
+      <c r="G6" t="n">
+        <v>1100</v>
+      </c>
+      <c r="H6" t="n">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Merak</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>66313</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>18</v>
+      </c>
+      <c r="E7" t="n">
+        <v>16294</v>
+      </c>
+      <c r="F7" t="n">
+        <v>94.20999999999999</v>
+      </c>
+      <c r="G7" t="n">
+        <v>819</v>
+      </c>
+      <c r="H7" t="n">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Physic_est</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>193938</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>18</v>
+      </c>
+      <c r="E8" t="n">
+        <v>15982</v>
+      </c>
+      <c r="F8" t="n">
+        <v>96.97</v>
+      </c>
+      <c r="G8" t="n">
+        <v>586</v>
+      </c>
+      <c r="H8" t="n">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>8</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>RedCatz</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>587619</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>18</v>
+      </c>
+      <c r="E9" t="n">
+        <v>14867</v>
+      </c>
+      <c r="F9" t="n">
+        <v>97.40000000000001</v>
+      </c>
+      <c r="G9" t="n">
+        <v>1026</v>
+      </c>
+      <c r="H9" t="n">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>9</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>ReLWZJ_X</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>308775</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>16</v>
+      </c>
+      <c r="E10" t="n">
+        <v>11553</v>
+      </c>
+      <c r="F10" t="n">
+        <v>98.44</v>
+      </c>
+      <c r="G10" t="n">
+        <v>896</v>
+      </c>
+      <c r="H10" t="n">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>10</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>NamelessBeing</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>438452</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>16</v>
+      </c>
+      <c r="E11" t="n">
+        <v>11349</v>
+      </c>
+      <c r="F11" t="n">
+        <v>93.84</v>
+      </c>
+      <c r="G11" t="n">
+        <v>908</v>
+      </c>
+      <c r="H11" t="n">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>11</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>GongErguang</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>602541</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>15</v>
+      </c>
+      <c r="E12" t="n">
+        <v>10191</v>
+      </c>
+      <c r="F12" t="n">
+        <v>95.92</v>
+      </c>
+      <c r="G12" t="n">
+        <v>1107</v>
+      </c>
+      <c r="H12" t="n">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>12</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>hazeiro</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>273807</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>14</v>
+      </c>
+      <c r="E13" t="n">
+        <v>8912</v>
+      </c>
+      <c r="F13" t="n">
+        <v>94.86</v>
+      </c>
+      <c r="G13" t="n">
+        <v>1304</v>
+      </c>
+      <c r="H13" t="n">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>13</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>fffjssgd</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>1286293</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>14</v>
+      </c>
+      <c r="E14" t="n">
+        <v>8009</v>
+      </c>
+      <c r="F14" t="n">
+        <v>89.84</v>
+      </c>
+      <c r="G14" t="n">
+        <v>294</v>
+      </c>
+      <c r="H14" t="n">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>14</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Hetatis</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>12369</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>13</v>
+      </c>
+      <c r="E15" t="n">
+        <v>7601</v>
+      </c>
+      <c r="F15" t="n">
+        <v>97.42</v>
+      </c>
+      <c r="G15" t="n">
+        <v>1132</v>
+      </c>
+      <c r="H15" t="n">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>15</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Alisabe</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>1027052</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>12</v>
+      </c>
+      <c r="E16" t="n">
+        <v>6641</v>
+      </c>
+      <c r="F16" t="n">
+        <v>90.68000000000001</v>
+      </c>
+      <c r="G16" t="n">
+        <v>909</v>
+      </c>
+      <c r="H16" t="n">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>16</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>4keyishard</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>1355966</t>
+        </is>
+      </c>
+      <c r="D17" t="n">
+        <v>12</v>
+      </c>
+      <c r="E17" t="n">
+        <v>6588</v>
+      </c>
+      <c r="F17" t="n">
+        <v>96.56</v>
+      </c>
+      <c r="G17" t="n">
+        <v>1396</v>
+      </c>
+      <c r="H17" t="n">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>17</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Laddie_Amoyensis</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>14851</t>
+        </is>
+      </c>
+      <c r="D18" t="n">
+        <v>12</v>
+      </c>
+      <c r="E18" t="n">
+        <v>6311</v>
+      </c>
+      <c r="F18" t="n">
+        <v>99.59999999999999</v>
+      </c>
+      <c r="G18" t="n">
+        <v>1361</v>
+      </c>
+      <c r="H18" t="n">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>18</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>reonalll</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>201861</t>
+        </is>
+      </c>
+      <c r="D19" t="n">
+        <v>12</v>
+      </c>
+      <c r="E19" t="n">
+        <v>5838</v>
+      </c>
+      <c r="F19" t="n">
+        <v>97.33</v>
+      </c>
+      <c r="G19" t="n">
+        <v>713</v>
+      </c>
+      <c r="H19" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>19</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>asarin</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>1299266</t>
+        </is>
+      </c>
+      <c r="D20" t="n">
+        <v>11</v>
+      </c>
+      <c r="E20" t="n">
+        <v>5487</v>
+      </c>
+      <c r="F20" t="n">
+        <v>83.7</v>
+      </c>
+      <c r="G20" t="n">
+        <v>542</v>
+      </c>
+      <c r="H20" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>20</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Lolimlive</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>545626</t>
+        </is>
+      </c>
+      <c r="D21" t="n">
+        <v>11</v>
+      </c>
+      <c r="E21" t="n">
+        <v>5389</v>
+      </c>
+      <c r="F21" t="n">
+        <v>90.81999999999999</v>
+      </c>
+      <c r="G21" t="n">
+        <v>555</v>
+      </c>
+      <c r="H21" t="n">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>21</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Koishi_Komeiji</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>891658</t>
+        </is>
+      </c>
+      <c r="D22" t="n">
+        <v>11</v>
+      </c>
+      <c r="E22" t="n">
+        <v>5153</v>
+      </c>
+      <c r="F22" t="n">
+        <v>96.56</v>
+      </c>
+      <c r="G22" t="n">
+        <v>1115</v>
+      </c>
+      <c r="H22" t="n">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>22</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>lal_33</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>1725074</t>
+        </is>
+      </c>
+      <c r="D23" t="n">
+        <v>11</v>
+      </c>
+      <c r="E23" t="n">
+        <v>5104</v>
+      </c>
+      <c r="F23" t="n">
+        <v>77.38</v>
+      </c>
+      <c r="G23" t="n">
+        <v>229</v>
+      </c>
+      <c r="H23" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>23</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Yasashima</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>458753</t>
+        </is>
+      </c>
+      <c r="D24" t="n">
+        <v>11</v>
+      </c>
+      <c r="E24" t="n">
+        <v>4823</v>
+      </c>
+      <c r="F24" t="n">
+        <v>93.98</v>
+      </c>
+      <c r="G24" t="n">
+        <v>1050</v>
+      </c>
+      <c r="H24" t="n">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>24</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Yama0113</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>1316662</t>
+        </is>
+      </c>
+      <c r="D25" t="n">
+        <v>10</v>
+      </c>
+      <c r="E25" t="n">
+        <v>4779</v>
+      </c>
+      <c r="F25" t="n">
+        <v>92.44</v>
+      </c>
+      <c r="G25" t="n">
+        <v>905</v>
+      </c>
+      <c r="H25" t="n">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>25</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>abbbs-asc</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>1324121</t>
+        </is>
+      </c>
+      <c r="D26" t="n">
+        <v>10</v>
+      </c>
+      <c r="E26" t="n">
+        <v>4664</v>
+      </c>
+      <c r="F26" t="n">
+        <v>90.95</v>
+      </c>
+      <c r="G26" t="n">
+        <v>615</v>
+      </c>
+      <c r="H26" t="n">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>26</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>333XD</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>400053</t>
+        </is>
+      </c>
+      <c r="D27" t="n">
+        <v>10</v>
+      </c>
+      <c r="E27" t="n">
+        <v>4262</v>
+      </c>
+      <c r="F27" t="n">
+        <v>88.31</v>
+      </c>
+      <c r="G27" t="n">
+        <v>693</v>
+      </c>
+      <c r="H27" t="n">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>27</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>0PoppinParty0</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>398494</t>
+        </is>
+      </c>
+      <c r="D28" t="n">
+        <v>10</v>
+      </c>
+      <c r="E28" t="n">
+        <v>4162</v>
+      </c>
+      <c r="F28" t="n">
+        <v>96.09999999999999</v>
+      </c>
+      <c r="G28" t="n">
+        <v>908</v>
+      </c>
+      <c r="H28" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>28</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>hussm</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>304690</t>
+        </is>
+      </c>
+      <c r="D29" t="n">
+        <v>10</v>
+      </c>
+      <c r="E29" t="n">
+        <v>4042</v>
+      </c>
+      <c r="F29" t="n">
+        <v>92.77</v>
+      </c>
+      <c r="G29" t="n">
+        <v>1121</v>
+      </c>
+      <c r="H29" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>29</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>RenAhah</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>324301</t>
+        </is>
+      </c>
+      <c r="D30" t="n">
+        <v>9</v>
+      </c>
+      <c r="E30" t="n">
+        <v>3959</v>
+      </c>
+      <c r="F30" t="n">
+        <v>88.7</v>
+      </c>
+      <c r="G30" t="n">
+        <v>849</v>
+      </c>
+      <c r="H30" t="n">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>30</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>Zyt1yt</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>841200</t>
+        </is>
+      </c>
+      <c r="D31" t="n">
+        <v>9</v>
+      </c>
+      <c r="E31" t="n">
+        <v>3908</v>
+      </c>
+      <c r="F31" t="n">
+        <v>92.3</v>
+      </c>
+      <c r="G31" t="n">
+        <v>905</v>
+      </c>
+      <c r="H31" t="n">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>31</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>Pop_Slime</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>270248</t>
+        </is>
+      </c>
+      <c r="D32" t="n">
+        <v>9</v>
+      </c>
+      <c r="E32" t="n">
+        <v>3904</v>
+      </c>
+      <c r="F32" t="n">
+        <v>94.84</v>
+      </c>
+      <c r="G32" t="n">
+        <v>736</v>
+      </c>
+      <c r="H32" t="n">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>32</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>aaaa123</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>340859</t>
+        </is>
+      </c>
+      <c r="D33" t="n">
+        <v>9</v>
+      </c>
+      <c r="E33" t="n">
+        <v>3876</v>
+      </c>
+      <c r="F33" t="n">
+        <v>96.17</v>
+      </c>
+      <c r="G33" t="n">
+        <v>1112</v>
+      </c>
+      <c r="H33" t="n">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>33</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>KangBasoTikus</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>486647</t>
+        </is>
+      </c>
+      <c r="D34" t="n">
+        <v>9</v>
+      </c>
+      <c r="E34" t="n">
+        <v>3867</v>
+      </c>
+      <c r="F34" t="n">
+        <v>93.45</v>
+      </c>
+      <c r="G34" t="n">
+        <v>651</v>
+      </c>
+      <c r="H34" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>34</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>Lixinyan</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>1468090</t>
+        </is>
+      </c>
+      <c r="D35" t="n">
+        <v>9</v>
+      </c>
+      <c r="E35" t="n">
+        <v>3543</v>
+      </c>
+      <c r="F35" t="n">
+        <v>79.59</v>
+      </c>
+      <c r="G35" t="n">
+        <v>246</v>
+      </c>
+      <c r="H35" t="n">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>35</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>jyx042223</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>709614</t>
+        </is>
+      </c>
+      <c r="D36" t="n">
+        <v>9</v>
+      </c>
+      <c r="E36" t="n">
+        <v>3446</v>
+      </c>
+      <c r="F36" t="n">
+        <v>91.58</v>
+      </c>
+      <c r="G36" t="n">
+        <v>780</v>
+      </c>
+      <c r="H36" t="n">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>36</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>forcal</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>882296</t>
+        </is>
+      </c>
+      <c r="D37" t="n">
+        <v>8</v>
+      </c>
+      <c r="E37" t="n">
+        <v>3161</v>
+      </c>
+      <c r="F37" t="n">
+        <v>96.90000000000001</v>
+      </c>
+      <c r="G37" t="n">
+        <v>591</v>
+      </c>
+      <c r="H37" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>37</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>nekomyudon</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>835096</t>
+        </is>
+      </c>
+      <c r="D38" t="n">
+        <v>8</v>
+      </c>
+      <c r="E38" t="n">
+        <v>2940</v>
+      </c>
+      <c r="F38" t="n">
+        <v>91.95</v>
+      </c>
+      <c r="G38" t="n">
+        <v>474</v>
+      </c>
+      <c r="H38" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>38</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>ruirongrong</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>1701116</t>
+        </is>
+      </c>
+      <c r="D39" t="n">
+        <v>8</v>
+      </c>
+      <c r="E39" t="n">
+        <v>2930</v>
+      </c>
+      <c r="F39" t="n">
+        <v>87.76000000000001</v>
+      </c>
+      <c r="G39" t="n">
+        <v>282</v>
+      </c>
+      <c r="H39" t="n">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>39</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>-Kori</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>555736</t>
+        </is>
+      </c>
+      <c r="D40" t="n">
+        <v>8</v>
+      </c>
+      <c r="E40" t="n">
+        <v>2848</v>
+      </c>
+      <c r="F40" t="n">
+        <v>93.65000000000001</v>
+      </c>
+      <c r="G40" t="n">
+        <v>1115</v>
+      </c>
+      <c r="H40" t="n">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>40</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>xiyan2002</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>1397671</t>
+        </is>
+      </c>
+      <c r="D41" t="n">
+        <v>8</v>
+      </c>
+      <c r="E41" t="n">
+        <v>2833</v>
+      </c>
+      <c r="F41" t="n">
+        <v>77.47</v>
+      </c>
+      <c r="G41" t="n">
+        <v>626</v>
+      </c>
+      <c r="H41" t="n">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>41</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>[Origami]</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>103320</t>
+        </is>
+      </c>
+      <c r="D42" t="n">
+        <v>8</v>
+      </c>
+      <c r="E42" t="n">
+        <v>2733</v>
+      </c>
+      <c r="F42" t="n">
+        <v>92.81</v>
+      </c>
+      <c r="G42" t="n">
+        <v>879</v>
+      </c>
+      <c r="H42" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>42</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>myhome</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>111787</t>
+        </is>
+      </c>
+      <c r="D43" t="n">
+        <v>7</v>
+      </c>
+      <c r="E43" t="n">
+        <v>2662</v>
+      </c>
+      <c r="F43" t="n">
+        <v>89.73999999999999</v>
+      </c>
+      <c r="G43" t="n">
+        <v>1131</v>
+      </c>
+      <c r="H43" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>43</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>niniin</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>1583128</t>
+        </is>
+      </c>
+      <c r="D44" t="n">
+        <v>7</v>
+      </c>
+      <c r="E44" t="n">
+        <v>2617</v>
+      </c>
+      <c r="F44" t="n">
+        <v>89.29000000000001</v>
+      </c>
+      <c r="G44" t="n">
+        <v>612</v>
+      </c>
+      <c r="H44" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>44</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>AloneHitoriV</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>573162</t>
+        </is>
+      </c>
+      <c r="D45" t="n">
+        <v>7</v>
+      </c>
+      <c r="E45" t="n">
+        <v>2431</v>
+      </c>
+      <c r="F45" t="n">
+        <v>91.25</v>
+      </c>
+      <c r="G45" t="n">
+        <v>595</v>
+      </c>
+      <c r="H45" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>45</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>fkruby</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>1243818</t>
+        </is>
+      </c>
+      <c r="D46" t="n">
+        <v>7</v>
+      </c>
+      <c r="E46" t="n">
+        <v>2280</v>
+      </c>
+      <c r="F46" t="n">
+        <v>93.04000000000001</v>
+      </c>
+      <c r="G46" t="n">
+        <v>705</v>
+      </c>
+      <c r="H46" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>46</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>feat_Konoka</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>1114743</t>
+        </is>
+      </c>
+      <c r="D47" t="n">
+        <v>7</v>
+      </c>
+      <c r="E47" t="n">
+        <v>2272</v>
+      </c>
+      <c r="F47" t="n">
+        <v>97.06</v>
+      </c>
+      <c r="G47" t="n">
+        <v>642</v>
+      </c>
+      <c r="H47" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>47</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>Kurenia</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>90290</t>
+        </is>
+      </c>
+      <c r="D48" t="n">
+        <v>6</v>
+      </c>
+      <c r="E48" t="n">
+        <v>2152</v>
+      </c>
+      <c r="F48" t="n">
+        <v>94.42</v>
+      </c>
+      <c r="G48" t="n">
+        <v>379</v>
+      </c>
+      <c r="H48" t="n">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>48</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>vr_xuni</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>567091</t>
+        </is>
+      </c>
+      <c r="D49" t="n">
+        <v>6</v>
+      </c>
+      <c r="E49" t="n">
+        <v>2151</v>
+      </c>
+      <c r="F49" t="n">
+        <v>96.87</v>
+      </c>
+      <c r="G49" t="n">
+        <v>550</v>
+      </c>
+      <c r="H49" t="n">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>49</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>JisusMP</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>699439</t>
+        </is>
+      </c>
+      <c r="D50" t="n">
+        <v>6</v>
+      </c>
+      <c r="E50" t="n">
+        <v>2146</v>
+      </c>
+      <c r="F50" t="n">
+        <v>96.61</v>
+      </c>
+      <c r="G50" t="n">
+        <v>908</v>
+      </c>
+      <c r="H50" t="n">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>50</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>Qningshow</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>449071</t>
+        </is>
+      </c>
+      <c r="D51" t="n">
+        <v>6</v>
+      </c>
+      <c r="E51" t="n">
+        <v>2115</v>
+      </c>
+      <c r="F51" t="n">
+        <v>93.73999999999999</v>
+      </c>
+      <c r="G51" t="n">
+        <v>534</v>
+      </c>
+      <c r="H51" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>

--- a/mode8.xlsx
+++ b/mode8.xlsx
@@ -1,29 +1,30 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="mode_8_2025-06-05_00-14" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="mode_8_2025-06-18_18-34" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="mode_8_2025-06-22_20-46" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="mode_8_2025-07-09_00-36" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="mode_8" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="mode_8_2025-08-13_18-47" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="mode_8_2025-08-14_13-27" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="mode_8_2025-08-16_15-26" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="mode_8_2025-09-06_10-52" sheetId="9" state="visible" r:id="rId9"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="mode_8_2025-09-14_00-00" sheetId="10" state="visible" r:id="rId10"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="mode_8_2025-09-26_17-50" sheetId="11" state="visible" r:id="rId11"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="mode_8_2025-10-06_14-54" sheetId="12" state="visible" r:id="rId12"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="mode_8_2025-10-08_13-41" sheetId="13" state="visible" r:id="rId13"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="mode_8_2025-10-10_22-16" sheetId="14" state="visible" r:id="rId14"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="mode_8_2025-10-19_16-41" sheetId="15" state="visible" r:id="rId15"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="mode_8_2025-10-25_13-16" sheetId="16" state="visible" r:id="rId16"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="mode_8_2025-10-26_23-14" sheetId="17" state="visible" r:id="rId17"/>
+    <sheet name="mode_8_2025-06-05_00-14" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="mode_8_2025-06-18_18-34" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="mode_8_2025-06-22_20-46" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="mode_8_2025-07-09_00-36" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="mode_8" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="mode_8_2025-08-13_18-47" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="mode_8_2025-08-14_13-27" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="mode_8_2025-08-16_15-26" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="mode_8_2025-09-06_10-52" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet name="mode_8_2025-09-14_00-00" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet name="mode_8_2025-09-26_17-50" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet name="mode_8_2025-10-06_14-54" sheetId="12" state="visible" r:id="rId12"/>
+    <sheet name="mode_8_2025-10-08_13-41" sheetId="13" state="visible" r:id="rId13"/>
+    <sheet name="mode_8_2025-10-10_22-16" sheetId="14" state="visible" r:id="rId14"/>
+    <sheet name="mode_8_2025-10-19_16-41" sheetId="15" state="visible" r:id="rId15"/>
+    <sheet name="mode_8_2025-10-25_13-16" sheetId="16" state="visible" r:id="rId16"/>
+    <sheet name="mode_8_2025-10-26_23-14" sheetId="17" state="visible" r:id="rId17"/>
+    <sheet name="mode_8_2025-10-28_19-03" sheetId="18" state="visible" r:id="rId18"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -12699,6 +12700,1567 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H51"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>rank</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>player_id</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>lv</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>exp</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>acc</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>combo</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>pc</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>YA_GAMMER</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>549520</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>35</v>
+      </c>
+      <c r="E2" t="n">
+        <v>158175</v>
+      </c>
+      <c r="F2" t="n">
+        <v>97.08</v>
+      </c>
+      <c r="G2" t="n">
+        <v>1123</v>
+      </c>
+      <c r="H2" t="n">
+        <v>868</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>KrisTheHumanFall</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>473602</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>33</v>
+      </c>
+      <c r="E3" t="n">
+        <v>128588</v>
+      </c>
+      <c r="F3" t="n">
+        <v>96.02</v>
+      </c>
+      <c r="G3" t="n">
+        <v>1141</v>
+      </c>
+      <c r="H3" t="n">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Excited_Naive</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>368505</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>32</v>
+      </c>
+      <c r="E4" t="n">
+        <v>108816</v>
+      </c>
+      <c r="F4" t="n">
+        <v>97.81</v>
+      </c>
+      <c r="G4" t="n">
+        <v>1374</v>
+      </c>
+      <c r="H4" t="n">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>-Koyuki-</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>499151</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>27</v>
+      </c>
+      <c r="E5" t="n">
+        <v>56822</v>
+      </c>
+      <c r="F5" t="n">
+        <v>96.73999999999999</v>
+      </c>
+      <c r="G5" t="n">
+        <v>1130</v>
+      </c>
+      <c r="H5" t="n">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>F0rge</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>1049018</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>21</v>
+      </c>
+      <c r="E6" t="n">
+        <v>25705</v>
+      </c>
+      <c r="F6" t="n">
+        <v>97.77</v>
+      </c>
+      <c r="G6" t="n">
+        <v>1100</v>
+      </c>
+      <c r="H6" t="n">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Merak</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>66313</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>18</v>
+      </c>
+      <c r="E7" t="n">
+        <v>16294</v>
+      </c>
+      <c r="F7" t="n">
+        <v>94.20999999999999</v>
+      </c>
+      <c r="G7" t="n">
+        <v>819</v>
+      </c>
+      <c r="H7" t="n">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Physic_est</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>193938</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>18</v>
+      </c>
+      <c r="E8" t="n">
+        <v>15982</v>
+      </c>
+      <c r="F8" t="n">
+        <v>96.97</v>
+      </c>
+      <c r="G8" t="n">
+        <v>586</v>
+      </c>
+      <c r="H8" t="n">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>8</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>RedCatz</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>587619</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>18</v>
+      </c>
+      <c r="E9" t="n">
+        <v>14867</v>
+      </c>
+      <c r="F9" t="n">
+        <v>97.40000000000001</v>
+      </c>
+      <c r="G9" t="n">
+        <v>1026</v>
+      </c>
+      <c r="H9" t="n">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>9</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>ReLWZJ_X</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>308775</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>16</v>
+      </c>
+      <c r="E10" t="n">
+        <v>11553</v>
+      </c>
+      <c r="F10" t="n">
+        <v>98.44</v>
+      </c>
+      <c r="G10" t="n">
+        <v>896</v>
+      </c>
+      <c r="H10" t="n">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>10</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>NamelessBeing</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>438452</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>16</v>
+      </c>
+      <c r="E11" t="n">
+        <v>11349</v>
+      </c>
+      <c r="F11" t="n">
+        <v>93.84</v>
+      </c>
+      <c r="G11" t="n">
+        <v>908</v>
+      </c>
+      <c r="H11" t="n">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>11</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>GongErguang</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>602541</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>15</v>
+      </c>
+      <c r="E12" t="n">
+        <v>10191</v>
+      </c>
+      <c r="F12" t="n">
+        <v>95.92</v>
+      </c>
+      <c r="G12" t="n">
+        <v>1107</v>
+      </c>
+      <c r="H12" t="n">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>12</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>hazeiro</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>273807</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>14</v>
+      </c>
+      <c r="E13" t="n">
+        <v>8912</v>
+      </c>
+      <c r="F13" t="n">
+        <v>94.86</v>
+      </c>
+      <c r="G13" t="n">
+        <v>1304</v>
+      </c>
+      <c r="H13" t="n">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>13</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>fffjssgd</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>1286293</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>14</v>
+      </c>
+      <c r="E14" t="n">
+        <v>8009</v>
+      </c>
+      <c r="F14" t="n">
+        <v>89.84</v>
+      </c>
+      <c r="G14" t="n">
+        <v>294</v>
+      </c>
+      <c r="H14" t="n">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>14</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Hetatis</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>12369</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>13</v>
+      </c>
+      <c r="E15" t="n">
+        <v>7601</v>
+      </c>
+      <c r="F15" t="n">
+        <v>97.42</v>
+      </c>
+      <c r="G15" t="n">
+        <v>1132</v>
+      </c>
+      <c r="H15" t="n">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>15</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Alisabe</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>1027052</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>12</v>
+      </c>
+      <c r="E16" t="n">
+        <v>6641</v>
+      </c>
+      <c r="F16" t="n">
+        <v>90.68000000000001</v>
+      </c>
+      <c r="G16" t="n">
+        <v>909</v>
+      </c>
+      <c r="H16" t="n">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>16</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>4keyishard</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>1355966</t>
+        </is>
+      </c>
+      <c r="D17" t="n">
+        <v>12</v>
+      </c>
+      <c r="E17" t="n">
+        <v>6588</v>
+      </c>
+      <c r="F17" t="n">
+        <v>96.56</v>
+      </c>
+      <c r="G17" t="n">
+        <v>1396</v>
+      </c>
+      <c r="H17" t="n">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>17</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Laddie_Amoyensis</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>14851</t>
+        </is>
+      </c>
+      <c r="D18" t="n">
+        <v>12</v>
+      </c>
+      <c r="E18" t="n">
+        <v>6311</v>
+      </c>
+      <c r="F18" t="n">
+        <v>99.59999999999999</v>
+      </c>
+      <c r="G18" t="n">
+        <v>1361</v>
+      </c>
+      <c r="H18" t="n">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>18</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>reonalll</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>201861</t>
+        </is>
+      </c>
+      <c r="D19" t="n">
+        <v>12</v>
+      </c>
+      <c r="E19" t="n">
+        <v>5838</v>
+      </c>
+      <c r="F19" t="n">
+        <v>97.33</v>
+      </c>
+      <c r="G19" t="n">
+        <v>713</v>
+      </c>
+      <c r="H19" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>19</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>asarin</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>1299266</t>
+        </is>
+      </c>
+      <c r="D20" t="n">
+        <v>11</v>
+      </c>
+      <c r="E20" t="n">
+        <v>5487</v>
+      </c>
+      <c r="F20" t="n">
+        <v>83.7</v>
+      </c>
+      <c r="G20" t="n">
+        <v>542</v>
+      </c>
+      <c r="H20" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>20</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Lolimlive</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>545626</t>
+        </is>
+      </c>
+      <c r="D21" t="n">
+        <v>11</v>
+      </c>
+      <c r="E21" t="n">
+        <v>5389</v>
+      </c>
+      <c r="F21" t="n">
+        <v>90.81999999999999</v>
+      </c>
+      <c r="G21" t="n">
+        <v>555</v>
+      </c>
+      <c r="H21" t="n">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>21</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Koishi_Komeiji</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>891658</t>
+        </is>
+      </c>
+      <c r="D22" t="n">
+        <v>11</v>
+      </c>
+      <c r="E22" t="n">
+        <v>5153</v>
+      </c>
+      <c r="F22" t="n">
+        <v>96.56</v>
+      </c>
+      <c r="G22" t="n">
+        <v>1115</v>
+      </c>
+      <c r="H22" t="n">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>22</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>lal_33</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>1725074</t>
+        </is>
+      </c>
+      <c r="D23" t="n">
+        <v>11</v>
+      </c>
+      <c r="E23" t="n">
+        <v>5104</v>
+      </c>
+      <c r="F23" t="n">
+        <v>77.38</v>
+      </c>
+      <c r="G23" t="n">
+        <v>229</v>
+      </c>
+      <c r="H23" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>23</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Yasashima</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>458753</t>
+        </is>
+      </c>
+      <c r="D24" t="n">
+        <v>11</v>
+      </c>
+      <c r="E24" t="n">
+        <v>4823</v>
+      </c>
+      <c r="F24" t="n">
+        <v>93.98</v>
+      </c>
+      <c r="G24" t="n">
+        <v>1050</v>
+      </c>
+      <c r="H24" t="n">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>24</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Yama0113</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>1316662</t>
+        </is>
+      </c>
+      <c r="D25" t="n">
+        <v>10</v>
+      </c>
+      <c r="E25" t="n">
+        <v>4779</v>
+      </c>
+      <c r="F25" t="n">
+        <v>92.44</v>
+      </c>
+      <c r="G25" t="n">
+        <v>905</v>
+      </c>
+      <c r="H25" t="n">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>25</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>abbbs-asc</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>1324121</t>
+        </is>
+      </c>
+      <c r="D26" t="n">
+        <v>10</v>
+      </c>
+      <c r="E26" t="n">
+        <v>4664</v>
+      </c>
+      <c r="F26" t="n">
+        <v>90.95</v>
+      </c>
+      <c r="G26" t="n">
+        <v>615</v>
+      </c>
+      <c r="H26" t="n">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>26</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>333XD</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>400053</t>
+        </is>
+      </c>
+      <c r="D27" t="n">
+        <v>10</v>
+      </c>
+      <c r="E27" t="n">
+        <v>4262</v>
+      </c>
+      <c r="F27" t="n">
+        <v>88.31</v>
+      </c>
+      <c r="G27" t="n">
+        <v>693</v>
+      </c>
+      <c r="H27" t="n">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>27</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>0PoppinParty0</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>398494</t>
+        </is>
+      </c>
+      <c r="D28" t="n">
+        <v>10</v>
+      </c>
+      <c r="E28" t="n">
+        <v>4162</v>
+      </c>
+      <c r="F28" t="n">
+        <v>96.09999999999999</v>
+      </c>
+      <c r="G28" t="n">
+        <v>908</v>
+      </c>
+      <c r="H28" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>28</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>hussm</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>304690</t>
+        </is>
+      </c>
+      <c r="D29" t="n">
+        <v>10</v>
+      </c>
+      <c r="E29" t="n">
+        <v>4042</v>
+      </c>
+      <c r="F29" t="n">
+        <v>92.66</v>
+      </c>
+      <c r="G29" t="n">
+        <v>1121</v>
+      </c>
+      <c r="H29" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>29</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>RenAhah</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>324301</t>
+        </is>
+      </c>
+      <c r="D30" t="n">
+        <v>9</v>
+      </c>
+      <c r="E30" t="n">
+        <v>3959</v>
+      </c>
+      <c r="F30" t="n">
+        <v>88.7</v>
+      </c>
+      <c r="G30" t="n">
+        <v>849</v>
+      </c>
+      <c r="H30" t="n">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>30</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>Zyt1yt</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>841200</t>
+        </is>
+      </c>
+      <c r="D31" t="n">
+        <v>9</v>
+      </c>
+      <c r="E31" t="n">
+        <v>3908</v>
+      </c>
+      <c r="F31" t="n">
+        <v>92.3</v>
+      </c>
+      <c r="G31" t="n">
+        <v>905</v>
+      </c>
+      <c r="H31" t="n">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>31</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>Pop_Slime</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>270248</t>
+        </is>
+      </c>
+      <c r="D32" t="n">
+        <v>9</v>
+      </c>
+      <c r="E32" t="n">
+        <v>3904</v>
+      </c>
+      <c r="F32" t="n">
+        <v>94.84</v>
+      </c>
+      <c r="G32" t="n">
+        <v>736</v>
+      </c>
+      <c r="H32" t="n">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>32</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>aaaa123</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>340859</t>
+        </is>
+      </c>
+      <c r="D33" t="n">
+        <v>9</v>
+      </c>
+      <c r="E33" t="n">
+        <v>3876</v>
+      </c>
+      <c r="F33" t="n">
+        <v>96.17</v>
+      </c>
+      <c r="G33" t="n">
+        <v>1112</v>
+      </c>
+      <c r="H33" t="n">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>33</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>KangBasoTikus</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>486647</t>
+        </is>
+      </c>
+      <c r="D34" t="n">
+        <v>9</v>
+      </c>
+      <c r="E34" t="n">
+        <v>3867</v>
+      </c>
+      <c r="F34" t="n">
+        <v>93.45</v>
+      </c>
+      <c r="G34" t="n">
+        <v>651</v>
+      </c>
+      <c r="H34" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>34</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>Lixinyan</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>1468090</t>
+        </is>
+      </c>
+      <c r="D35" t="n">
+        <v>9</v>
+      </c>
+      <c r="E35" t="n">
+        <v>3543</v>
+      </c>
+      <c r="F35" t="n">
+        <v>79.59</v>
+      </c>
+      <c r="G35" t="n">
+        <v>246</v>
+      </c>
+      <c r="H35" t="n">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>35</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>jyx042223</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>709614</t>
+        </is>
+      </c>
+      <c r="D36" t="n">
+        <v>9</v>
+      </c>
+      <c r="E36" t="n">
+        <v>3446</v>
+      </c>
+      <c r="F36" t="n">
+        <v>91.58</v>
+      </c>
+      <c r="G36" t="n">
+        <v>780</v>
+      </c>
+      <c r="H36" t="n">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>36</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>forcal</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>882296</t>
+        </is>
+      </c>
+      <c r="D37" t="n">
+        <v>8</v>
+      </c>
+      <c r="E37" t="n">
+        <v>3161</v>
+      </c>
+      <c r="F37" t="n">
+        <v>96.90000000000001</v>
+      </c>
+      <c r="G37" t="n">
+        <v>591</v>
+      </c>
+      <c r="H37" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>37</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>nekomyudon</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>835096</t>
+        </is>
+      </c>
+      <c r="D38" t="n">
+        <v>8</v>
+      </c>
+      <c r="E38" t="n">
+        <v>2940</v>
+      </c>
+      <c r="F38" t="n">
+        <v>91.95</v>
+      </c>
+      <c r="G38" t="n">
+        <v>474</v>
+      </c>
+      <c r="H38" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>38</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>ruirongrong</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>1701116</t>
+        </is>
+      </c>
+      <c r="D39" t="n">
+        <v>8</v>
+      </c>
+      <c r="E39" t="n">
+        <v>2930</v>
+      </c>
+      <c r="F39" t="n">
+        <v>87.76000000000001</v>
+      </c>
+      <c r="G39" t="n">
+        <v>282</v>
+      </c>
+      <c r="H39" t="n">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>39</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>-Kori</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>555736</t>
+        </is>
+      </c>
+      <c r="D40" t="n">
+        <v>8</v>
+      </c>
+      <c r="E40" t="n">
+        <v>2848</v>
+      </c>
+      <c r="F40" t="n">
+        <v>93.65000000000001</v>
+      </c>
+      <c r="G40" t="n">
+        <v>1115</v>
+      </c>
+      <c r="H40" t="n">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>40</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>xiyan2002</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>1397671</t>
+        </is>
+      </c>
+      <c r="D41" t="n">
+        <v>8</v>
+      </c>
+      <c r="E41" t="n">
+        <v>2833</v>
+      </c>
+      <c r="F41" t="n">
+        <v>77.47</v>
+      </c>
+      <c r="G41" t="n">
+        <v>626</v>
+      </c>
+      <c r="H41" t="n">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>41</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>[Origami]</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>103320</t>
+        </is>
+      </c>
+      <c r="D42" t="n">
+        <v>8</v>
+      </c>
+      <c r="E42" t="n">
+        <v>2733</v>
+      </c>
+      <c r="F42" t="n">
+        <v>92.81</v>
+      </c>
+      <c r="G42" t="n">
+        <v>879</v>
+      </c>
+      <c r="H42" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>42</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>myhome</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>111787</t>
+        </is>
+      </c>
+      <c r="D43" t="n">
+        <v>7</v>
+      </c>
+      <c r="E43" t="n">
+        <v>2662</v>
+      </c>
+      <c r="F43" t="n">
+        <v>89.73999999999999</v>
+      </c>
+      <c r="G43" t="n">
+        <v>1131</v>
+      </c>
+      <c r="H43" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>43</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>niniin</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>1583128</t>
+        </is>
+      </c>
+      <c r="D44" t="n">
+        <v>7</v>
+      </c>
+      <c r="E44" t="n">
+        <v>2617</v>
+      </c>
+      <c r="F44" t="n">
+        <v>89.29000000000001</v>
+      </c>
+      <c r="G44" t="n">
+        <v>612</v>
+      </c>
+      <c r="H44" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>44</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>AloneHitoriV</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>573162</t>
+        </is>
+      </c>
+      <c r="D45" t="n">
+        <v>7</v>
+      </c>
+      <c r="E45" t="n">
+        <v>2431</v>
+      </c>
+      <c r="F45" t="n">
+        <v>91.25</v>
+      </c>
+      <c r="G45" t="n">
+        <v>595</v>
+      </c>
+      <c r="H45" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>45</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>fkruby</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>1243818</t>
+        </is>
+      </c>
+      <c r="D46" t="n">
+        <v>7</v>
+      </c>
+      <c r="E46" t="n">
+        <v>2280</v>
+      </c>
+      <c r="F46" t="n">
+        <v>93.04000000000001</v>
+      </c>
+      <c r="G46" t="n">
+        <v>705</v>
+      </c>
+      <c r="H46" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>46</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>feat_Konoka</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>1114743</t>
+        </is>
+      </c>
+      <c r="D47" t="n">
+        <v>7</v>
+      </c>
+      <c r="E47" t="n">
+        <v>2272</v>
+      </c>
+      <c r="F47" t="n">
+        <v>97.06</v>
+      </c>
+      <c r="G47" t="n">
+        <v>642</v>
+      </c>
+      <c r="H47" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>47</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>Kurenia</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>90290</t>
+        </is>
+      </c>
+      <c r="D48" t="n">
+        <v>6</v>
+      </c>
+      <c r="E48" t="n">
+        <v>2152</v>
+      </c>
+      <c r="F48" t="n">
+        <v>94.42</v>
+      </c>
+      <c r="G48" t="n">
+        <v>379</v>
+      </c>
+      <c r="H48" t="n">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>48</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>vr_xuni</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>567091</t>
+        </is>
+      </c>
+      <c r="D49" t="n">
+        <v>6</v>
+      </c>
+      <c r="E49" t="n">
+        <v>2151</v>
+      </c>
+      <c r="F49" t="n">
+        <v>96.87</v>
+      </c>
+      <c r="G49" t="n">
+        <v>550</v>
+      </c>
+      <c r="H49" t="n">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>49</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>JisusMP</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>699439</t>
+        </is>
+      </c>
+      <c r="D50" t="n">
+        <v>6</v>
+      </c>
+      <c r="E50" t="n">
+        <v>2146</v>
+      </c>
+      <c r="F50" t="n">
+        <v>96.61</v>
+      </c>
+      <c r="G50" t="n">
+        <v>908</v>
+      </c>
+      <c r="H50" t="n">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>50</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>Qningshow</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>449071</t>
+        </is>
+      </c>
+      <c r="D51" t="n">
+        <v>6</v>
+      </c>
+      <c r="E51" t="n">
+        <v>2115</v>
+      </c>
+      <c r="F51" t="n">
+        <v>93.73999999999999</v>
+      </c>
+      <c r="G51" t="n">
+        <v>534</v>
+      </c>
+      <c r="H51" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>

--- a/mode8.xlsx
+++ b/mode8.xlsx
@@ -25,6 +25,7 @@
     <sheet name="mode_8_2025-10-25_13-16" sheetId="16" state="visible" r:id="rId16"/>
     <sheet name="mode_8_2025-10-26_23-14" sheetId="17" state="visible" r:id="rId17"/>
     <sheet name="mode_8_2025-10-28_19-03" sheetId="18" state="visible" r:id="rId18"/>
+    <sheet name="mode_8_2025-10-29_20-42" sheetId="19" state="visible" r:id="rId19"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -14261,6 +14262,1567 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H51"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>rank</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>player_id</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>lv</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>exp</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>acc</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>combo</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>pc</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>YA_GAMMER</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>549520</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>35</v>
+      </c>
+      <c r="E2" t="n">
+        <v>158175</v>
+      </c>
+      <c r="F2" t="n">
+        <v>97.08</v>
+      </c>
+      <c r="G2" t="n">
+        <v>1123</v>
+      </c>
+      <c r="H2" t="n">
+        <v>868</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>KrisTheHumanFall</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>473602</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>33</v>
+      </c>
+      <c r="E3" t="n">
+        <v>128588</v>
+      </c>
+      <c r="F3" t="n">
+        <v>96.02</v>
+      </c>
+      <c r="G3" t="n">
+        <v>1141</v>
+      </c>
+      <c r="H3" t="n">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Excited_Naive</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>368505</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>32</v>
+      </c>
+      <c r="E4" t="n">
+        <v>108816</v>
+      </c>
+      <c r="F4" t="n">
+        <v>97.81</v>
+      </c>
+      <c r="G4" t="n">
+        <v>1374</v>
+      </c>
+      <c r="H4" t="n">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>-Koyuki-</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>499151</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>27</v>
+      </c>
+      <c r="E5" t="n">
+        <v>56822</v>
+      </c>
+      <c r="F5" t="n">
+        <v>96.73999999999999</v>
+      </c>
+      <c r="G5" t="n">
+        <v>1130</v>
+      </c>
+      <c r="H5" t="n">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>F0rge</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>1049018</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>21</v>
+      </c>
+      <c r="E6" t="n">
+        <v>25705</v>
+      </c>
+      <c r="F6" t="n">
+        <v>97.77</v>
+      </c>
+      <c r="G6" t="n">
+        <v>1100</v>
+      </c>
+      <c r="H6" t="n">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Merak</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>66313</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>18</v>
+      </c>
+      <c r="E7" t="n">
+        <v>16294</v>
+      </c>
+      <c r="F7" t="n">
+        <v>94.20999999999999</v>
+      </c>
+      <c r="G7" t="n">
+        <v>819</v>
+      </c>
+      <c r="H7" t="n">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Physic_est</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>193938</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>18</v>
+      </c>
+      <c r="E8" t="n">
+        <v>15982</v>
+      </c>
+      <c r="F8" t="n">
+        <v>96.97</v>
+      </c>
+      <c r="G8" t="n">
+        <v>586</v>
+      </c>
+      <c r="H8" t="n">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>8</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>RedCatz</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>587619</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>18</v>
+      </c>
+      <c r="E9" t="n">
+        <v>14867</v>
+      </c>
+      <c r="F9" t="n">
+        <v>97.40000000000001</v>
+      </c>
+      <c r="G9" t="n">
+        <v>1026</v>
+      </c>
+      <c r="H9" t="n">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>9</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>ReLWZJ_X</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>308775</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>16</v>
+      </c>
+      <c r="E10" t="n">
+        <v>11553</v>
+      </c>
+      <c r="F10" t="n">
+        <v>98.44</v>
+      </c>
+      <c r="G10" t="n">
+        <v>896</v>
+      </c>
+      <c r="H10" t="n">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>10</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>NamelessBeing</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>438452</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>16</v>
+      </c>
+      <c r="E11" t="n">
+        <v>11349</v>
+      </c>
+      <c r="F11" t="n">
+        <v>93.84</v>
+      </c>
+      <c r="G11" t="n">
+        <v>908</v>
+      </c>
+      <c r="H11" t="n">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>11</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>GongErguang</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>602541</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>15</v>
+      </c>
+      <c r="E12" t="n">
+        <v>10191</v>
+      </c>
+      <c r="F12" t="n">
+        <v>95.92</v>
+      </c>
+      <c r="G12" t="n">
+        <v>1107</v>
+      </c>
+      <c r="H12" t="n">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>12</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>hazeiro</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>273807</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>14</v>
+      </c>
+      <c r="E13" t="n">
+        <v>8912</v>
+      </c>
+      <c r="F13" t="n">
+        <v>94.86</v>
+      </c>
+      <c r="G13" t="n">
+        <v>1304</v>
+      </c>
+      <c r="H13" t="n">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>13</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>fffjssgd</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>1286293</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>14</v>
+      </c>
+      <c r="E14" t="n">
+        <v>8009</v>
+      </c>
+      <c r="F14" t="n">
+        <v>89.84</v>
+      </c>
+      <c r="G14" t="n">
+        <v>294</v>
+      </c>
+      <c r="H14" t="n">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>14</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Hetatis</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>12369</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>13</v>
+      </c>
+      <c r="E15" t="n">
+        <v>7601</v>
+      </c>
+      <c r="F15" t="n">
+        <v>97.42</v>
+      </c>
+      <c r="G15" t="n">
+        <v>1132</v>
+      </c>
+      <c r="H15" t="n">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>15</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Alisabe</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>1027052</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>12</v>
+      </c>
+      <c r="E16" t="n">
+        <v>6641</v>
+      </c>
+      <c r="F16" t="n">
+        <v>90.68000000000001</v>
+      </c>
+      <c r="G16" t="n">
+        <v>909</v>
+      </c>
+      <c r="H16" t="n">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>16</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>4keyishard</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>1355966</t>
+        </is>
+      </c>
+      <c r="D17" t="n">
+        <v>12</v>
+      </c>
+      <c r="E17" t="n">
+        <v>6588</v>
+      </c>
+      <c r="F17" t="n">
+        <v>96.56</v>
+      </c>
+      <c r="G17" t="n">
+        <v>1396</v>
+      </c>
+      <c r="H17" t="n">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>17</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Laddie_Amoyensis</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>14851</t>
+        </is>
+      </c>
+      <c r="D18" t="n">
+        <v>12</v>
+      </c>
+      <c r="E18" t="n">
+        <v>6311</v>
+      </c>
+      <c r="F18" t="n">
+        <v>99.59999999999999</v>
+      </c>
+      <c r="G18" t="n">
+        <v>1361</v>
+      </c>
+      <c r="H18" t="n">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>18</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>reonalll</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>201861</t>
+        </is>
+      </c>
+      <c r="D19" t="n">
+        <v>12</v>
+      </c>
+      <c r="E19" t="n">
+        <v>5838</v>
+      </c>
+      <c r="F19" t="n">
+        <v>97.33</v>
+      </c>
+      <c r="G19" t="n">
+        <v>713</v>
+      </c>
+      <c r="H19" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>19</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>asarin</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>1299266</t>
+        </is>
+      </c>
+      <c r="D20" t="n">
+        <v>11</v>
+      </c>
+      <c r="E20" t="n">
+        <v>5487</v>
+      </c>
+      <c r="F20" t="n">
+        <v>83.7</v>
+      </c>
+      <c r="G20" t="n">
+        <v>542</v>
+      </c>
+      <c r="H20" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>20</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Lolimlive</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>545626</t>
+        </is>
+      </c>
+      <c r="D21" t="n">
+        <v>11</v>
+      </c>
+      <c r="E21" t="n">
+        <v>5389</v>
+      </c>
+      <c r="F21" t="n">
+        <v>90.81999999999999</v>
+      </c>
+      <c r="G21" t="n">
+        <v>555</v>
+      </c>
+      <c r="H21" t="n">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>21</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Koishi_Komeiji</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>891658</t>
+        </is>
+      </c>
+      <c r="D22" t="n">
+        <v>11</v>
+      </c>
+      <c r="E22" t="n">
+        <v>5153</v>
+      </c>
+      <c r="F22" t="n">
+        <v>96.56</v>
+      </c>
+      <c r="G22" t="n">
+        <v>1115</v>
+      </c>
+      <c r="H22" t="n">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>22</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>lal_33</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>1725074</t>
+        </is>
+      </c>
+      <c r="D23" t="n">
+        <v>11</v>
+      </c>
+      <c r="E23" t="n">
+        <v>5104</v>
+      </c>
+      <c r="F23" t="n">
+        <v>77.38</v>
+      </c>
+      <c r="G23" t="n">
+        <v>229</v>
+      </c>
+      <c r="H23" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>23</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Yasashima</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>458753</t>
+        </is>
+      </c>
+      <c r="D24" t="n">
+        <v>11</v>
+      </c>
+      <c r="E24" t="n">
+        <v>4823</v>
+      </c>
+      <c r="F24" t="n">
+        <v>93.98</v>
+      </c>
+      <c r="G24" t="n">
+        <v>1050</v>
+      </c>
+      <c r="H24" t="n">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>24</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Yama0113</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>1316662</t>
+        </is>
+      </c>
+      <c r="D25" t="n">
+        <v>10</v>
+      </c>
+      <c r="E25" t="n">
+        <v>4779</v>
+      </c>
+      <c r="F25" t="n">
+        <v>92.44</v>
+      </c>
+      <c r="G25" t="n">
+        <v>905</v>
+      </c>
+      <c r="H25" t="n">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>25</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>abbbs-asc</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>1324121</t>
+        </is>
+      </c>
+      <c r="D26" t="n">
+        <v>10</v>
+      </c>
+      <c r="E26" t="n">
+        <v>4664</v>
+      </c>
+      <c r="F26" t="n">
+        <v>90.95</v>
+      </c>
+      <c r="G26" t="n">
+        <v>615</v>
+      </c>
+      <c r="H26" t="n">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>26</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>333XD</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>400053</t>
+        </is>
+      </c>
+      <c r="D27" t="n">
+        <v>10</v>
+      </c>
+      <c r="E27" t="n">
+        <v>4262</v>
+      </c>
+      <c r="F27" t="n">
+        <v>88.31</v>
+      </c>
+      <c r="G27" t="n">
+        <v>693</v>
+      </c>
+      <c r="H27" t="n">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>27</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>0PoppinParty0</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>398494</t>
+        </is>
+      </c>
+      <c r="D28" t="n">
+        <v>10</v>
+      </c>
+      <c r="E28" t="n">
+        <v>4162</v>
+      </c>
+      <c r="F28" t="n">
+        <v>96.09999999999999</v>
+      </c>
+      <c r="G28" t="n">
+        <v>908</v>
+      </c>
+      <c r="H28" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>28</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>hussm</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>304690</t>
+        </is>
+      </c>
+      <c r="D29" t="n">
+        <v>10</v>
+      </c>
+      <c r="E29" t="n">
+        <v>4042</v>
+      </c>
+      <c r="F29" t="n">
+        <v>92.66</v>
+      </c>
+      <c r="G29" t="n">
+        <v>1121</v>
+      </c>
+      <c r="H29" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>29</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>RenAhah</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>324301</t>
+        </is>
+      </c>
+      <c r="D30" t="n">
+        <v>9</v>
+      </c>
+      <c r="E30" t="n">
+        <v>3959</v>
+      </c>
+      <c r="F30" t="n">
+        <v>88.7</v>
+      </c>
+      <c r="G30" t="n">
+        <v>849</v>
+      </c>
+      <c r="H30" t="n">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>30</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>Zyt1yt</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>841200</t>
+        </is>
+      </c>
+      <c r="D31" t="n">
+        <v>9</v>
+      </c>
+      <c r="E31" t="n">
+        <v>3908</v>
+      </c>
+      <c r="F31" t="n">
+        <v>92.3</v>
+      </c>
+      <c r="G31" t="n">
+        <v>905</v>
+      </c>
+      <c r="H31" t="n">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>31</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>Pop_Slime</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>270248</t>
+        </is>
+      </c>
+      <c r="D32" t="n">
+        <v>9</v>
+      </c>
+      <c r="E32" t="n">
+        <v>3904</v>
+      </c>
+      <c r="F32" t="n">
+        <v>94.84</v>
+      </c>
+      <c r="G32" t="n">
+        <v>736</v>
+      </c>
+      <c r="H32" t="n">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>32</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>aaaa123</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>340859</t>
+        </is>
+      </c>
+      <c r="D33" t="n">
+        <v>9</v>
+      </c>
+      <c r="E33" t="n">
+        <v>3876</v>
+      </c>
+      <c r="F33" t="n">
+        <v>96.17</v>
+      </c>
+      <c r="G33" t="n">
+        <v>1112</v>
+      </c>
+      <c r="H33" t="n">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>33</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>KangBasoTikus</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>486647</t>
+        </is>
+      </c>
+      <c r="D34" t="n">
+        <v>9</v>
+      </c>
+      <c r="E34" t="n">
+        <v>3867</v>
+      </c>
+      <c r="F34" t="n">
+        <v>93.45</v>
+      </c>
+      <c r="G34" t="n">
+        <v>651</v>
+      </c>
+      <c r="H34" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>34</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>Lixinyan</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>1468090</t>
+        </is>
+      </c>
+      <c r="D35" t="n">
+        <v>9</v>
+      </c>
+      <c r="E35" t="n">
+        <v>3543</v>
+      </c>
+      <c r="F35" t="n">
+        <v>79.59</v>
+      </c>
+      <c r="G35" t="n">
+        <v>246</v>
+      </c>
+      <c r="H35" t="n">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>35</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>jyx042223</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>709614</t>
+        </is>
+      </c>
+      <c r="D36" t="n">
+        <v>9</v>
+      </c>
+      <c r="E36" t="n">
+        <v>3446</v>
+      </c>
+      <c r="F36" t="n">
+        <v>91.58</v>
+      </c>
+      <c r="G36" t="n">
+        <v>780</v>
+      </c>
+      <c r="H36" t="n">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>36</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>forcal</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>882296</t>
+        </is>
+      </c>
+      <c r="D37" t="n">
+        <v>8</v>
+      </c>
+      <c r="E37" t="n">
+        <v>3161</v>
+      </c>
+      <c r="F37" t="n">
+        <v>96.90000000000001</v>
+      </c>
+      <c r="G37" t="n">
+        <v>591</v>
+      </c>
+      <c r="H37" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>37</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>nekomyudon</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>835096</t>
+        </is>
+      </c>
+      <c r="D38" t="n">
+        <v>8</v>
+      </c>
+      <c r="E38" t="n">
+        <v>2940</v>
+      </c>
+      <c r="F38" t="n">
+        <v>91.95</v>
+      </c>
+      <c r="G38" t="n">
+        <v>474</v>
+      </c>
+      <c r="H38" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>38</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>ruirongrong</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>1701116</t>
+        </is>
+      </c>
+      <c r="D39" t="n">
+        <v>8</v>
+      </c>
+      <c r="E39" t="n">
+        <v>2930</v>
+      </c>
+      <c r="F39" t="n">
+        <v>87.76000000000001</v>
+      </c>
+      <c r="G39" t="n">
+        <v>282</v>
+      </c>
+      <c r="H39" t="n">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>39</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>-Kori</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>555736</t>
+        </is>
+      </c>
+      <c r="D40" t="n">
+        <v>8</v>
+      </c>
+      <c r="E40" t="n">
+        <v>2848</v>
+      </c>
+      <c r="F40" t="n">
+        <v>93.65000000000001</v>
+      </c>
+      <c r="G40" t="n">
+        <v>1115</v>
+      </c>
+      <c r="H40" t="n">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>40</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>xiyan2002</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>1397671</t>
+        </is>
+      </c>
+      <c r="D41" t="n">
+        <v>8</v>
+      </c>
+      <c r="E41" t="n">
+        <v>2833</v>
+      </c>
+      <c r="F41" t="n">
+        <v>77.47</v>
+      </c>
+      <c r="G41" t="n">
+        <v>626</v>
+      </c>
+      <c r="H41" t="n">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>41</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>[Origami]</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>103320</t>
+        </is>
+      </c>
+      <c r="D42" t="n">
+        <v>8</v>
+      </c>
+      <c r="E42" t="n">
+        <v>2733</v>
+      </c>
+      <c r="F42" t="n">
+        <v>92.81</v>
+      </c>
+      <c r="G42" t="n">
+        <v>879</v>
+      </c>
+      <c r="H42" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>42</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>myhome</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>111787</t>
+        </is>
+      </c>
+      <c r="D43" t="n">
+        <v>7</v>
+      </c>
+      <c r="E43" t="n">
+        <v>2662</v>
+      </c>
+      <c r="F43" t="n">
+        <v>89.73999999999999</v>
+      </c>
+      <c r="G43" t="n">
+        <v>1131</v>
+      </c>
+      <c r="H43" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>43</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>niniin</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>1583128</t>
+        </is>
+      </c>
+      <c r="D44" t="n">
+        <v>7</v>
+      </c>
+      <c r="E44" t="n">
+        <v>2617</v>
+      </c>
+      <c r="F44" t="n">
+        <v>89.29000000000001</v>
+      </c>
+      <c r="G44" t="n">
+        <v>612</v>
+      </c>
+      <c r="H44" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>44</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>AloneHitoriV</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>573162</t>
+        </is>
+      </c>
+      <c r="D45" t="n">
+        <v>7</v>
+      </c>
+      <c r="E45" t="n">
+        <v>2431</v>
+      </c>
+      <c r="F45" t="n">
+        <v>91.25</v>
+      </c>
+      <c r="G45" t="n">
+        <v>595</v>
+      </c>
+      <c r="H45" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>45</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>fkruby</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>1243818</t>
+        </is>
+      </c>
+      <c r="D46" t="n">
+        <v>7</v>
+      </c>
+      <c r="E46" t="n">
+        <v>2280</v>
+      </c>
+      <c r="F46" t="n">
+        <v>93.04000000000001</v>
+      </c>
+      <c r="G46" t="n">
+        <v>705</v>
+      </c>
+      <c r="H46" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>46</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>feat_Konoka</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>1114743</t>
+        </is>
+      </c>
+      <c r="D47" t="n">
+        <v>7</v>
+      </c>
+      <c r="E47" t="n">
+        <v>2272</v>
+      </c>
+      <c r="F47" t="n">
+        <v>97.06</v>
+      </c>
+      <c r="G47" t="n">
+        <v>642</v>
+      </c>
+      <c r="H47" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>47</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>Kurenia</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>90290</t>
+        </is>
+      </c>
+      <c r="D48" t="n">
+        <v>6</v>
+      </c>
+      <c r="E48" t="n">
+        <v>2152</v>
+      </c>
+      <c r="F48" t="n">
+        <v>94.42</v>
+      </c>
+      <c r="G48" t="n">
+        <v>379</v>
+      </c>
+      <c r="H48" t="n">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>48</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>vr_xuni</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>567091</t>
+        </is>
+      </c>
+      <c r="D49" t="n">
+        <v>6</v>
+      </c>
+      <c r="E49" t="n">
+        <v>2151</v>
+      </c>
+      <c r="F49" t="n">
+        <v>96.87</v>
+      </c>
+      <c r="G49" t="n">
+        <v>550</v>
+      </c>
+      <c r="H49" t="n">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>49</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>JisusMP</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>699439</t>
+        </is>
+      </c>
+      <c r="D50" t="n">
+        <v>6</v>
+      </c>
+      <c r="E50" t="n">
+        <v>2146</v>
+      </c>
+      <c r="F50" t="n">
+        <v>96.61</v>
+      </c>
+      <c r="G50" t="n">
+        <v>908</v>
+      </c>
+      <c r="H50" t="n">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>50</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>Qningshow</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>449071</t>
+        </is>
+      </c>
+      <c r="D51" t="n">
+        <v>6</v>
+      </c>
+      <c r="E51" t="n">
+        <v>2115</v>
+      </c>
+      <c r="F51" t="n">
+        <v>93.73999999999999</v>
+      </c>
+      <c r="G51" t="n">
+        <v>534</v>
+      </c>
+      <c r="H51" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>

--- a/mode8.xlsx
+++ b/mode8.xlsx
@@ -26,6 +26,7 @@
     <sheet name="mode_8_2025-10-26_23-14" sheetId="17" state="visible" r:id="rId17"/>
     <sheet name="mode_8_2025-10-28_19-03" sheetId="18" state="visible" r:id="rId18"/>
     <sheet name="mode_8_2025-10-29_20-42" sheetId="19" state="visible" r:id="rId19"/>
+    <sheet name="mode_8_2025-10-30_18-30" sheetId="20" state="visible" r:id="rId20"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -17129,6 +17130,1567 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H51"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>rank</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>player_id</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>lv</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>exp</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>acc</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>combo</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>pc</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>YA_GAMMER</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>549520</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>35</v>
+      </c>
+      <c r="E2" t="n">
+        <v>158175</v>
+      </c>
+      <c r="F2" t="n">
+        <v>97.08</v>
+      </c>
+      <c r="G2" t="n">
+        <v>1123</v>
+      </c>
+      <c r="H2" t="n">
+        <v>868</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>KrisTheHumanFall</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>473602</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>33</v>
+      </c>
+      <c r="E3" t="n">
+        <v>128588</v>
+      </c>
+      <c r="F3" t="n">
+        <v>96.02</v>
+      </c>
+      <c r="G3" t="n">
+        <v>1141</v>
+      </c>
+      <c r="H3" t="n">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Excited_Naive</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>368505</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>32</v>
+      </c>
+      <c r="E4" t="n">
+        <v>108816</v>
+      </c>
+      <c r="F4" t="n">
+        <v>97.81</v>
+      </c>
+      <c r="G4" t="n">
+        <v>1374</v>
+      </c>
+      <c r="H4" t="n">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>-Koyuki-</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>499151</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>27</v>
+      </c>
+      <c r="E5" t="n">
+        <v>56822</v>
+      </c>
+      <c r="F5" t="n">
+        <v>96.73999999999999</v>
+      </c>
+      <c r="G5" t="n">
+        <v>1130</v>
+      </c>
+      <c r="H5" t="n">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>F0rge</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>1049018</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>21</v>
+      </c>
+      <c r="E6" t="n">
+        <v>25705</v>
+      </c>
+      <c r="F6" t="n">
+        <v>97.77</v>
+      </c>
+      <c r="G6" t="n">
+        <v>1100</v>
+      </c>
+      <c r="H6" t="n">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Merak</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>66313</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>18</v>
+      </c>
+      <c r="E7" t="n">
+        <v>16294</v>
+      </c>
+      <c r="F7" t="n">
+        <v>94.20999999999999</v>
+      </c>
+      <c r="G7" t="n">
+        <v>819</v>
+      </c>
+      <c r="H7" t="n">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Physic_est</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>193938</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>18</v>
+      </c>
+      <c r="E8" t="n">
+        <v>15982</v>
+      </c>
+      <c r="F8" t="n">
+        <v>96.97</v>
+      </c>
+      <c r="G8" t="n">
+        <v>586</v>
+      </c>
+      <c r="H8" t="n">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>8</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>RedCatz</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>587619</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>18</v>
+      </c>
+      <c r="E9" t="n">
+        <v>14867</v>
+      </c>
+      <c r="F9" t="n">
+        <v>97.40000000000001</v>
+      </c>
+      <c r="G9" t="n">
+        <v>1026</v>
+      </c>
+      <c r="H9" t="n">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>9</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>ReLWZJ_X</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>308775</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>16</v>
+      </c>
+      <c r="E10" t="n">
+        <v>11553</v>
+      </c>
+      <c r="F10" t="n">
+        <v>98.44</v>
+      </c>
+      <c r="G10" t="n">
+        <v>896</v>
+      </c>
+      <c r="H10" t="n">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>10</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>NamelessBeing</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>438452</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>16</v>
+      </c>
+      <c r="E11" t="n">
+        <v>11349</v>
+      </c>
+      <c r="F11" t="n">
+        <v>93.84</v>
+      </c>
+      <c r="G11" t="n">
+        <v>908</v>
+      </c>
+      <c r="H11" t="n">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>11</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>GongErguang</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>602541</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>15</v>
+      </c>
+      <c r="E12" t="n">
+        <v>10191</v>
+      </c>
+      <c r="F12" t="n">
+        <v>95.92</v>
+      </c>
+      <c r="G12" t="n">
+        <v>1107</v>
+      </c>
+      <c r="H12" t="n">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>12</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>hazeiro</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>273807</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>14</v>
+      </c>
+      <c r="E13" t="n">
+        <v>8912</v>
+      </c>
+      <c r="F13" t="n">
+        <v>94.86</v>
+      </c>
+      <c r="G13" t="n">
+        <v>1304</v>
+      </c>
+      <c r="H13" t="n">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>13</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>fffjssgd</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>1286293</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>14</v>
+      </c>
+      <c r="E14" t="n">
+        <v>8009</v>
+      </c>
+      <c r="F14" t="n">
+        <v>89.84</v>
+      </c>
+      <c r="G14" t="n">
+        <v>294</v>
+      </c>
+      <c r="H14" t="n">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>14</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Hetatis</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>12369</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>13</v>
+      </c>
+      <c r="E15" t="n">
+        <v>7601</v>
+      </c>
+      <c r="F15" t="n">
+        <v>97.42</v>
+      </c>
+      <c r="G15" t="n">
+        <v>1132</v>
+      </c>
+      <c r="H15" t="n">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>15</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Alisabe</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>1027052</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>12</v>
+      </c>
+      <c r="E16" t="n">
+        <v>6641</v>
+      </c>
+      <c r="F16" t="n">
+        <v>90.68000000000001</v>
+      </c>
+      <c r="G16" t="n">
+        <v>909</v>
+      </c>
+      <c r="H16" t="n">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>16</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>4keyishard</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>1355966</t>
+        </is>
+      </c>
+      <c r="D17" t="n">
+        <v>12</v>
+      </c>
+      <c r="E17" t="n">
+        <v>6588</v>
+      </c>
+      <c r="F17" t="n">
+        <v>96.56</v>
+      </c>
+      <c r="G17" t="n">
+        <v>1396</v>
+      </c>
+      <c r="H17" t="n">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>17</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Laddie_Amoyensis</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>14851</t>
+        </is>
+      </c>
+      <c r="D18" t="n">
+        <v>12</v>
+      </c>
+      <c r="E18" t="n">
+        <v>6311</v>
+      </c>
+      <c r="F18" t="n">
+        <v>99.59999999999999</v>
+      </c>
+      <c r="G18" t="n">
+        <v>1361</v>
+      </c>
+      <c r="H18" t="n">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>18</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>reonalll</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>201861</t>
+        </is>
+      </c>
+      <c r="D19" t="n">
+        <v>12</v>
+      </c>
+      <c r="E19" t="n">
+        <v>5838</v>
+      </c>
+      <c r="F19" t="n">
+        <v>97.33</v>
+      </c>
+      <c r="G19" t="n">
+        <v>713</v>
+      </c>
+      <c r="H19" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>19</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>asarin</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>1299266</t>
+        </is>
+      </c>
+      <c r="D20" t="n">
+        <v>11</v>
+      </c>
+      <c r="E20" t="n">
+        <v>5487</v>
+      </c>
+      <c r="F20" t="n">
+        <v>83.7</v>
+      </c>
+      <c r="G20" t="n">
+        <v>542</v>
+      </c>
+      <c r="H20" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>20</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Lolimlive</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>545626</t>
+        </is>
+      </c>
+      <c r="D21" t="n">
+        <v>11</v>
+      </c>
+      <c r="E21" t="n">
+        <v>5389</v>
+      </c>
+      <c r="F21" t="n">
+        <v>90.81999999999999</v>
+      </c>
+      <c r="G21" t="n">
+        <v>555</v>
+      </c>
+      <c r="H21" t="n">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>21</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Koishi_Komeiji</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>891658</t>
+        </is>
+      </c>
+      <c r="D22" t="n">
+        <v>11</v>
+      </c>
+      <c r="E22" t="n">
+        <v>5153</v>
+      </c>
+      <c r="F22" t="n">
+        <v>96.56</v>
+      </c>
+      <c r="G22" t="n">
+        <v>1115</v>
+      </c>
+      <c r="H22" t="n">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>22</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>lal_33</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>1725074</t>
+        </is>
+      </c>
+      <c r="D23" t="n">
+        <v>11</v>
+      </c>
+      <c r="E23" t="n">
+        <v>5104</v>
+      </c>
+      <c r="F23" t="n">
+        <v>77.38</v>
+      </c>
+      <c r="G23" t="n">
+        <v>229</v>
+      </c>
+      <c r="H23" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>23</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Yasashima</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>458753</t>
+        </is>
+      </c>
+      <c r="D24" t="n">
+        <v>11</v>
+      </c>
+      <c r="E24" t="n">
+        <v>4823</v>
+      </c>
+      <c r="F24" t="n">
+        <v>93.98</v>
+      </c>
+      <c r="G24" t="n">
+        <v>1050</v>
+      </c>
+      <c r="H24" t="n">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>24</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Yama0113</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>1316662</t>
+        </is>
+      </c>
+      <c r="D25" t="n">
+        <v>10</v>
+      </c>
+      <c r="E25" t="n">
+        <v>4779</v>
+      </c>
+      <c r="F25" t="n">
+        <v>92.44</v>
+      </c>
+      <c r="G25" t="n">
+        <v>905</v>
+      </c>
+      <c r="H25" t="n">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>25</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>abbbs-asc</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>1324121</t>
+        </is>
+      </c>
+      <c r="D26" t="n">
+        <v>10</v>
+      </c>
+      <c r="E26" t="n">
+        <v>4664</v>
+      </c>
+      <c r="F26" t="n">
+        <v>90.95</v>
+      </c>
+      <c r="G26" t="n">
+        <v>615</v>
+      </c>
+      <c r="H26" t="n">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>26</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>333XD</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>400053</t>
+        </is>
+      </c>
+      <c r="D27" t="n">
+        <v>10</v>
+      </c>
+      <c r="E27" t="n">
+        <v>4262</v>
+      </c>
+      <c r="F27" t="n">
+        <v>88.31</v>
+      </c>
+      <c r="G27" t="n">
+        <v>693</v>
+      </c>
+      <c r="H27" t="n">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>27</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>0PoppinParty0</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>398494</t>
+        </is>
+      </c>
+      <c r="D28" t="n">
+        <v>10</v>
+      </c>
+      <c r="E28" t="n">
+        <v>4162</v>
+      </c>
+      <c r="F28" t="n">
+        <v>96.09999999999999</v>
+      </c>
+      <c r="G28" t="n">
+        <v>908</v>
+      </c>
+      <c r="H28" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>28</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>hussm</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>304690</t>
+        </is>
+      </c>
+      <c r="D29" t="n">
+        <v>10</v>
+      </c>
+      <c r="E29" t="n">
+        <v>4042</v>
+      </c>
+      <c r="F29" t="n">
+        <v>92.66</v>
+      </c>
+      <c r="G29" t="n">
+        <v>1121</v>
+      </c>
+      <c r="H29" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>29</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>RenAhah</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>324301</t>
+        </is>
+      </c>
+      <c r="D30" t="n">
+        <v>9</v>
+      </c>
+      <c r="E30" t="n">
+        <v>3959</v>
+      </c>
+      <c r="F30" t="n">
+        <v>88.7</v>
+      </c>
+      <c r="G30" t="n">
+        <v>849</v>
+      </c>
+      <c r="H30" t="n">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>30</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>Zyt1yt</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>841200</t>
+        </is>
+      </c>
+      <c r="D31" t="n">
+        <v>9</v>
+      </c>
+      <c r="E31" t="n">
+        <v>3908</v>
+      </c>
+      <c r="F31" t="n">
+        <v>92.3</v>
+      </c>
+      <c r="G31" t="n">
+        <v>905</v>
+      </c>
+      <c r="H31" t="n">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>31</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>Pop_Slime</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>270248</t>
+        </is>
+      </c>
+      <c r="D32" t="n">
+        <v>9</v>
+      </c>
+      <c r="E32" t="n">
+        <v>3904</v>
+      </c>
+      <c r="F32" t="n">
+        <v>94.84</v>
+      </c>
+      <c r="G32" t="n">
+        <v>736</v>
+      </c>
+      <c r="H32" t="n">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>32</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>aaaa123</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>340859</t>
+        </is>
+      </c>
+      <c r="D33" t="n">
+        <v>9</v>
+      </c>
+      <c r="E33" t="n">
+        <v>3876</v>
+      </c>
+      <c r="F33" t="n">
+        <v>96.17</v>
+      </c>
+      <c r="G33" t="n">
+        <v>1112</v>
+      </c>
+      <c r="H33" t="n">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>33</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>KangBasoTikus</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>486647</t>
+        </is>
+      </c>
+      <c r="D34" t="n">
+        <v>9</v>
+      </c>
+      <c r="E34" t="n">
+        <v>3867</v>
+      </c>
+      <c r="F34" t="n">
+        <v>93.45</v>
+      </c>
+      <c r="G34" t="n">
+        <v>651</v>
+      </c>
+      <c r="H34" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>34</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>Lixinyan</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>1468090</t>
+        </is>
+      </c>
+      <c r="D35" t="n">
+        <v>9</v>
+      </c>
+      <c r="E35" t="n">
+        <v>3543</v>
+      </c>
+      <c r="F35" t="n">
+        <v>79.59</v>
+      </c>
+      <c r="G35" t="n">
+        <v>246</v>
+      </c>
+      <c r="H35" t="n">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>35</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>jyx042223</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>709614</t>
+        </is>
+      </c>
+      <c r="D36" t="n">
+        <v>9</v>
+      </c>
+      <c r="E36" t="n">
+        <v>3446</v>
+      </c>
+      <c r="F36" t="n">
+        <v>91.58</v>
+      </c>
+      <c r="G36" t="n">
+        <v>780</v>
+      </c>
+      <c r="H36" t="n">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>36</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>forcal</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>882296</t>
+        </is>
+      </c>
+      <c r="D37" t="n">
+        <v>8</v>
+      </c>
+      <c r="E37" t="n">
+        <v>3161</v>
+      </c>
+      <c r="F37" t="n">
+        <v>96.90000000000001</v>
+      </c>
+      <c r="G37" t="n">
+        <v>591</v>
+      </c>
+      <c r="H37" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>37</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>nekomyudon</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>835096</t>
+        </is>
+      </c>
+      <c r="D38" t="n">
+        <v>8</v>
+      </c>
+      <c r="E38" t="n">
+        <v>2940</v>
+      </c>
+      <c r="F38" t="n">
+        <v>91.95</v>
+      </c>
+      <c r="G38" t="n">
+        <v>474</v>
+      </c>
+      <c r="H38" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>38</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>ruirongrong</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>1701116</t>
+        </is>
+      </c>
+      <c r="D39" t="n">
+        <v>8</v>
+      </c>
+      <c r="E39" t="n">
+        <v>2930</v>
+      </c>
+      <c r="F39" t="n">
+        <v>87.76000000000001</v>
+      </c>
+      <c r="G39" t="n">
+        <v>282</v>
+      </c>
+      <c r="H39" t="n">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>39</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>-Kori</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>555736</t>
+        </is>
+      </c>
+      <c r="D40" t="n">
+        <v>8</v>
+      </c>
+      <c r="E40" t="n">
+        <v>2848</v>
+      </c>
+      <c r="F40" t="n">
+        <v>93.65000000000001</v>
+      </c>
+      <c r="G40" t="n">
+        <v>1115</v>
+      </c>
+      <c r="H40" t="n">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>40</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>xiyan2002</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>1397671</t>
+        </is>
+      </c>
+      <c r="D41" t="n">
+        <v>8</v>
+      </c>
+      <c r="E41" t="n">
+        <v>2833</v>
+      </c>
+      <c r="F41" t="n">
+        <v>77.47</v>
+      </c>
+      <c r="G41" t="n">
+        <v>626</v>
+      </c>
+      <c r="H41" t="n">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>41</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>[Origami]</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>103320</t>
+        </is>
+      </c>
+      <c r="D42" t="n">
+        <v>8</v>
+      </c>
+      <c r="E42" t="n">
+        <v>2733</v>
+      </c>
+      <c r="F42" t="n">
+        <v>92.81</v>
+      </c>
+      <c r="G42" t="n">
+        <v>879</v>
+      </c>
+      <c r="H42" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>42</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>myhome</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>111787</t>
+        </is>
+      </c>
+      <c r="D43" t="n">
+        <v>7</v>
+      </c>
+      <c r="E43" t="n">
+        <v>2662</v>
+      </c>
+      <c r="F43" t="n">
+        <v>89.73999999999999</v>
+      </c>
+      <c r="G43" t="n">
+        <v>1131</v>
+      </c>
+      <c r="H43" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>43</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>niniin</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>1583128</t>
+        </is>
+      </c>
+      <c r="D44" t="n">
+        <v>7</v>
+      </c>
+      <c r="E44" t="n">
+        <v>2617</v>
+      </c>
+      <c r="F44" t="n">
+        <v>89.29000000000001</v>
+      </c>
+      <c r="G44" t="n">
+        <v>612</v>
+      </c>
+      <c r="H44" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>44</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>AloneHitoriV</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>573162</t>
+        </is>
+      </c>
+      <c r="D45" t="n">
+        <v>7</v>
+      </c>
+      <c r="E45" t="n">
+        <v>2431</v>
+      </c>
+      <c r="F45" t="n">
+        <v>91.25</v>
+      </c>
+      <c r="G45" t="n">
+        <v>595</v>
+      </c>
+      <c r="H45" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>45</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>fkruby</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>1243818</t>
+        </is>
+      </c>
+      <c r="D46" t="n">
+        <v>7</v>
+      </c>
+      <c r="E46" t="n">
+        <v>2280</v>
+      </c>
+      <c r="F46" t="n">
+        <v>93.04000000000001</v>
+      </c>
+      <c r="G46" t="n">
+        <v>705</v>
+      </c>
+      <c r="H46" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>46</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>feat_Konoka</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>1114743</t>
+        </is>
+      </c>
+      <c r="D47" t="n">
+        <v>7</v>
+      </c>
+      <c r="E47" t="n">
+        <v>2272</v>
+      </c>
+      <c r="F47" t="n">
+        <v>97.06</v>
+      </c>
+      <c r="G47" t="n">
+        <v>642</v>
+      </c>
+      <c r="H47" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>47</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>Kurenia</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>90290</t>
+        </is>
+      </c>
+      <c r="D48" t="n">
+        <v>6</v>
+      </c>
+      <c r="E48" t="n">
+        <v>2152</v>
+      </c>
+      <c r="F48" t="n">
+        <v>94.42</v>
+      </c>
+      <c r="G48" t="n">
+        <v>379</v>
+      </c>
+      <c r="H48" t="n">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>48</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>vr_xuni</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>567091</t>
+        </is>
+      </c>
+      <c r="D49" t="n">
+        <v>6</v>
+      </c>
+      <c r="E49" t="n">
+        <v>2151</v>
+      </c>
+      <c r="F49" t="n">
+        <v>96.87</v>
+      </c>
+      <c r="G49" t="n">
+        <v>550</v>
+      </c>
+      <c r="H49" t="n">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>49</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>JisusMP</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>699439</t>
+        </is>
+      </c>
+      <c r="D50" t="n">
+        <v>6</v>
+      </c>
+      <c r="E50" t="n">
+        <v>2146</v>
+      </c>
+      <c r="F50" t="n">
+        <v>96.61</v>
+      </c>
+      <c r="G50" t="n">
+        <v>908</v>
+      </c>
+      <c r="H50" t="n">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>50</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>Qningshow</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>449071</t>
+        </is>
+      </c>
+      <c r="D51" t="n">
+        <v>6</v>
+      </c>
+      <c r="E51" t="n">
+        <v>2115</v>
+      </c>
+      <c r="F51" t="n">
+        <v>93.73999999999999</v>
+      </c>
+      <c r="G51" t="n">
+        <v>534</v>
+      </c>
+      <c r="H51" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>

--- a/mode8.xlsx
+++ b/mode8.xlsx
@@ -1,32 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="mode_8_2025-06-05_00-14" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="mode_8_2025-06-18_18-34" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="mode_8_2025-06-22_20-46" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="mode_8_2025-07-09_00-36" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="mode_8" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="mode_8_2025-08-13_18-47" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet name="mode_8_2025-08-14_13-27" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet name="mode_8_2025-08-16_15-26" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet name="mode_8_2025-09-06_10-52" sheetId="9" state="visible" r:id="rId9"/>
-    <sheet name="mode_8_2025-09-14_00-00" sheetId="10" state="visible" r:id="rId10"/>
-    <sheet name="mode_8_2025-09-26_17-50" sheetId="11" state="visible" r:id="rId11"/>
-    <sheet name="mode_8_2025-10-06_14-54" sheetId="12" state="visible" r:id="rId12"/>
-    <sheet name="mode_8_2025-10-08_13-41" sheetId="13" state="visible" r:id="rId13"/>
-    <sheet name="mode_8_2025-10-10_22-16" sheetId="14" state="visible" r:id="rId14"/>
-    <sheet name="mode_8_2025-10-19_16-41" sheetId="15" state="visible" r:id="rId15"/>
-    <sheet name="mode_8_2025-10-25_13-16" sheetId="16" state="visible" r:id="rId16"/>
-    <sheet name="mode_8_2025-10-26_23-14" sheetId="17" state="visible" r:id="rId17"/>
-    <sheet name="mode_8_2025-10-28_19-03" sheetId="18" state="visible" r:id="rId18"/>
-    <sheet name="mode_8_2025-10-29_20-42" sheetId="19" state="visible" r:id="rId19"/>
-    <sheet name="mode_8_2025-10-30_18-30" sheetId="20" state="visible" r:id="rId20"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="mode_8_2025-06-05_00-14" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="mode_8_2025-06-18_18-34" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="mode_8_2025-06-22_20-46" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="mode_8_2025-07-09_00-36" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="mode_8" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="mode_8_2025-08-13_18-47" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="mode_8_2025-08-14_13-27" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="mode_8_2025-08-16_15-26" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="mode_8_2025-09-06_10-52" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="mode_8_2025-09-14_00-00" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="mode_8_2025-09-26_17-50" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="mode_8_2025-10-06_14-54" sheetId="12" state="visible" r:id="rId12"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="mode_8_2025-10-08_13-41" sheetId="13" state="visible" r:id="rId13"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="mode_8_2025-10-10_22-16" sheetId="14" state="visible" r:id="rId14"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="mode_8_2025-10-19_16-41" sheetId="15" state="visible" r:id="rId15"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="mode_8_2025-10-25_13-16" sheetId="16" state="visible" r:id="rId16"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="mode_8_2025-10-26_23-14" sheetId="17" state="visible" r:id="rId17"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="mode_8_2025-10-28_19-03" sheetId="18" state="visible" r:id="rId18"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="mode_8_2025-10-29_20-42" sheetId="19" state="visible" r:id="rId19"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="mode_8_2025-10-30_18-30" sheetId="20" state="visible" r:id="rId20"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="mode_8_2025-11-02_01-40" sheetId="21" state="visible" r:id="rId21"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -18691,6 +18692,1567 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H51"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>rank</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>player_id</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>lv</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>exp</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>acc</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>combo</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>pc</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>YA_GAMMER</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>549520</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>35</v>
+      </c>
+      <c r="E2" t="n">
+        <v>158175</v>
+      </c>
+      <c r="F2" t="n">
+        <v>97.08</v>
+      </c>
+      <c r="G2" t="n">
+        <v>1123</v>
+      </c>
+      <c r="H2" t="n">
+        <v>868</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>KrisTheHumanFall</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>473602</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>33</v>
+      </c>
+      <c r="E3" t="n">
+        <v>128588</v>
+      </c>
+      <c r="F3" t="n">
+        <v>96.02</v>
+      </c>
+      <c r="G3" t="n">
+        <v>1141</v>
+      </c>
+      <c r="H3" t="n">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Excited_Naive</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>368505</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>32</v>
+      </c>
+      <c r="E4" t="n">
+        <v>108816</v>
+      </c>
+      <c r="F4" t="n">
+        <v>97.81</v>
+      </c>
+      <c r="G4" t="n">
+        <v>1374</v>
+      </c>
+      <c r="H4" t="n">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>-Koyuki-</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>499151</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>27</v>
+      </c>
+      <c r="E5" t="n">
+        <v>56822</v>
+      </c>
+      <c r="F5" t="n">
+        <v>96.73999999999999</v>
+      </c>
+      <c r="G5" t="n">
+        <v>1130</v>
+      </c>
+      <c r="H5" t="n">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>F0rge</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>1049018</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>21</v>
+      </c>
+      <c r="E6" t="n">
+        <v>25705</v>
+      </c>
+      <c r="F6" t="n">
+        <v>97.77</v>
+      </c>
+      <c r="G6" t="n">
+        <v>1100</v>
+      </c>
+      <c r="H6" t="n">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Merak</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>66313</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>18</v>
+      </c>
+      <c r="E7" t="n">
+        <v>16294</v>
+      </c>
+      <c r="F7" t="n">
+        <v>94.20999999999999</v>
+      </c>
+      <c r="G7" t="n">
+        <v>819</v>
+      </c>
+      <c r="H7" t="n">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Physic_est</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>193938</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>18</v>
+      </c>
+      <c r="E8" t="n">
+        <v>15982</v>
+      </c>
+      <c r="F8" t="n">
+        <v>96.97</v>
+      </c>
+      <c r="G8" t="n">
+        <v>586</v>
+      </c>
+      <c r="H8" t="n">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>8</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>RedCatz</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>587619</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>18</v>
+      </c>
+      <c r="E9" t="n">
+        <v>14867</v>
+      </c>
+      <c r="F9" t="n">
+        <v>97.40000000000001</v>
+      </c>
+      <c r="G9" t="n">
+        <v>1026</v>
+      </c>
+      <c r="H9" t="n">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>9</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>ReLWZJ_X</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>308775</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>16</v>
+      </c>
+      <c r="E10" t="n">
+        <v>11553</v>
+      </c>
+      <c r="F10" t="n">
+        <v>98.44</v>
+      </c>
+      <c r="G10" t="n">
+        <v>896</v>
+      </c>
+      <c r="H10" t="n">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>10</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>NamelessBeing</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>438452</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>16</v>
+      </c>
+      <c r="E11" t="n">
+        <v>11349</v>
+      </c>
+      <c r="F11" t="n">
+        <v>93.84</v>
+      </c>
+      <c r="G11" t="n">
+        <v>908</v>
+      </c>
+      <c r="H11" t="n">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>11</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>GongErguang</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>602541</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>15</v>
+      </c>
+      <c r="E12" t="n">
+        <v>10191</v>
+      </c>
+      <c r="F12" t="n">
+        <v>95.92</v>
+      </c>
+      <c r="G12" t="n">
+        <v>1107</v>
+      </c>
+      <c r="H12" t="n">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>12</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>hazeiro</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>273807</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>14</v>
+      </c>
+      <c r="E13" t="n">
+        <v>8912</v>
+      </c>
+      <c r="F13" t="n">
+        <v>94.86</v>
+      </c>
+      <c r="G13" t="n">
+        <v>1304</v>
+      </c>
+      <c r="H13" t="n">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>13</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>fffjssgd</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>1286293</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>14</v>
+      </c>
+      <c r="E14" t="n">
+        <v>8009</v>
+      </c>
+      <c r="F14" t="n">
+        <v>89.84</v>
+      </c>
+      <c r="G14" t="n">
+        <v>294</v>
+      </c>
+      <c r="H14" t="n">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>14</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Hetatis</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>12369</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>13</v>
+      </c>
+      <c r="E15" t="n">
+        <v>7601</v>
+      </c>
+      <c r="F15" t="n">
+        <v>97.42</v>
+      </c>
+      <c r="G15" t="n">
+        <v>1132</v>
+      </c>
+      <c r="H15" t="n">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>15</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Alisabe</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>1027052</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>12</v>
+      </c>
+      <c r="E16" t="n">
+        <v>6641</v>
+      </c>
+      <c r="F16" t="n">
+        <v>90.68000000000001</v>
+      </c>
+      <c r="G16" t="n">
+        <v>909</v>
+      </c>
+      <c r="H16" t="n">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>16</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>4keyishard</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>1355966</t>
+        </is>
+      </c>
+      <c r="D17" t="n">
+        <v>12</v>
+      </c>
+      <c r="E17" t="n">
+        <v>6588</v>
+      </c>
+      <c r="F17" t="n">
+        <v>96.56</v>
+      </c>
+      <c r="G17" t="n">
+        <v>1396</v>
+      </c>
+      <c r="H17" t="n">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>17</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Laddie_Amoyensis</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>14851</t>
+        </is>
+      </c>
+      <c r="D18" t="n">
+        <v>12</v>
+      </c>
+      <c r="E18" t="n">
+        <v>6311</v>
+      </c>
+      <c r="F18" t="n">
+        <v>99.59999999999999</v>
+      </c>
+      <c r="G18" t="n">
+        <v>1361</v>
+      </c>
+      <c r="H18" t="n">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>18</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>reonalll</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>201861</t>
+        </is>
+      </c>
+      <c r="D19" t="n">
+        <v>12</v>
+      </c>
+      <c r="E19" t="n">
+        <v>5838</v>
+      </c>
+      <c r="F19" t="n">
+        <v>97.33</v>
+      </c>
+      <c r="G19" t="n">
+        <v>713</v>
+      </c>
+      <c r="H19" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>19</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>asarin</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>1299266</t>
+        </is>
+      </c>
+      <c r="D20" t="n">
+        <v>11</v>
+      </c>
+      <c r="E20" t="n">
+        <v>5487</v>
+      </c>
+      <c r="F20" t="n">
+        <v>83.7</v>
+      </c>
+      <c r="G20" t="n">
+        <v>542</v>
+      </c>
+      <c r="H20" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>20</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Lolimlive</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>545626</t>
+        </is>
+      </c>
+      <c r="D21" t="n">
+        <v>11</v>
+      </c>
+      <c r="E21" t="n">
+        <v>5389</v>
+      </c>
+      <c r="F21" t="n">
+        <v>90.81999999999999</v>
+      </c>
+      <c r="G21" t="n">
+        <v>555</v>
+      </c>
+      <c r="H21" t="n">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>21</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Koishi_Komeiji</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>891658</t>
+        </is>
+      </c>
+      <c r="D22" t="n">
+        <v>11</v>
+      </c>
+      <c r="E22" t="n">
+        <v>5153</v>
+      </c>
+      <c r="F22" t="n">
+        <v>96.56</v>
+      </c>
+      <c r="G22" t="n">
+        <v>1115</v>
+      </c>
+      <c r="H22" t="n">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>22</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>lal_33</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>1725074</t>
+        </is>
+      </c>
+      <c r="D23" t="n">
+        <v>11</v>
+      </c>
+      <c r="E23" t="n">
+        <v>5104</v>
+      </c>
+      <c r="F23" t="n">
+        <v>77.38</v>
+      </c>
+      <c r="G23" t="n">
+        <v>229</v>
+      </c>
+      <c r="H23" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>23</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Yasashima</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>458753</t>
+        </is>
+      </c>
+      <c r="D24" t="n">
+        <v>11</v>
+      </c>
+      <c r="E24" t="n">
+        <v>4823</v>
+      </c>
+      <c r="F24" t="n">
+        <v>93.98</v>
+      </c>
+      <c r="G24" t="n">
+        <v>1050</v>
+      </c>
+      <c r="H24" t="n">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>24</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Yama0113</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>1316662</t>
+        </is>
+      </c>
+      <c r="D25" t="n">
+        <v>10</v>
+      </c>
+      <c r="E25" t="n">
+        <v>4779</v>
+      </c>
+      <c r="F25" t="n">
+        <v>92.44</v>
+      </c>
+      <c r="G25" t="n">
+        <v>905</v>
+      </c>
+      <c r="H25" t="n">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>25</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>abbbs-asc</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>1324121</t>
+        </is>
+      </c>
+      <c r="D26" t="n">
+        <v>10</v>
+      </c>
+      <c r="E26" t="n">
+        <v>4664</v>
+      </c>
+      <c r="F26" t="n">
+        <v>90.95</v>
+      </c>
+      <c r="G26" t="n">
+        <v>615</v>
+      </c>
+      <c r="H26" t="n">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>26</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>333XD</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>400053</t>
+        </is>
+      </c>
+      <c r="D27" t="n">
+        <v>10</v>
+      </c>
+      <c r="E27" t="n">
+        <v>4262</v>
+      </c>
+      <c r="F27" t="n">
+        <v>88.31</v>
+      </c>
+      <c r="G27" t="n">
+        <v>693</v>
+      </c>
+      <c r="H27" t="n">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>27</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>0PoppinParty0</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>398494</t>
+        </is>
+      </c>
+      <c r="D28" t="n">
+        <v>10</v>
+      </c>
+      <c r="E28" t="n">
+        <v>4162</v>
+      </c>
+      <c r="F28" t="n">
+        <v>96.09999999999999</v>
+      </c>
+      <c r="G28" t="n">
+        <v>908</v>
+      </c>
+      <c r="H28" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>28</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>hussm</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>304690</t>
+        </is>
+      </c>
+      <c r="D29" t="n">
+        <v>10</v>
+      </c>
+      <c r="E29" t="n">
+        <v>4042</v>
+      </c>
+      <c r="F29" t="n">
+        <v>92.66</v>
+      </c>
+      <c r="G29" t="n">
+        <v>1121</v>
+      </c>
+      <c r="H29" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>29</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>RenAhah</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>324301</t>
+        </is>
+      </c>
+      <c r="D30" t="n">
+        <v>9</v>
+      </c>
+      <c r="E30" t="n">
+        <v>3959</v>
+      </c>
+      <c r="F30" t="n">
+        <v>88.7</v>
+      </c>
+      <c r="G30" t="n">
+        <v>849</v>
+      </c>
+      <c r="H30" t="n">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>30</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>Zyt1yt</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>841200</t>
+        </is>
+      </c>
+      <c r="D31" t="n">
+        <v>9</v>
+      </c>
+      <c r="E31" t="n">
+        <v>3908</v>
+      </c>
+      <c r="F31" t="n">
+        <v>92.3</v>
+      </c>
+      <c r="G31" t="n">
+        <v>905</v>
+      </c>
+      <c r="H31" t="n">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>31</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>Pop_Slime</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>270248</t>
+        </is>
+      </c>
+      <c r="D32" t="n">
+        <v>9</v>
+      </c>
+      <c r="E32" t="n">
+        <v>3904</v>
+      </c>
+      <c r="F32" t="n">
+        <v>94.84</v>
+      </c>
+      <c r="G32" t="n">
+        <v>736</v>
+      </c>
+      <c r="H32" t="n">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>32</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>aaaa123</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>340859</t>
+        </is>
+      </c>
+      <c r="D33" t="n">
+        <v>9</v>
+      </c>
+      <c r="E33" t="n">
+        <v>3876</v>
+      </c>
+      <c r="F33" t="n">
+        <v>96.17</v>
+      </c>
+      <c r="G33" t="n">
+        <v>1112</v>
+      </c>
+      <c r="H33" t="n">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>33</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>KangBasoTikus</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>486647</t>
+        </is>
+      </c>
+      <c r="D34" t="n">
+        <v>9</v>
+      </c>
+      <c r="E34" t="n">
+        <v>3867</v>
+      </c>
+      <c r="F34" t="n">
+        <v>93.45</v>
+      </c>
+      <c r="G34" t="n">
+        <v>651</v>
+      </c>
+      <c r="H34" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>34</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>Lixinyan</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>1468090</t>
+        </is>
+      </c>
+      <c r="D35" t="n">
+        <v>9</v>
+      </c>
+      <c r="E35" t="n">
+        <v>3543</v>
+      </c>
+      <c r="F35" t="n">
+        <v>79.59</v>
+      </c>
+      <c r="G35" t="n">
+        <v>246</v>
+      </c>
+      <c r="H35" t="n">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>35</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>jyx042223</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>709614</t>
+        </is>
+      </c>
+      <c r="D36" t="n">
+        <v>9</v>
+      </c>
+      <c r="E36" t="n">
+        <v>3446</v>
+      </c>
+      <c r="F36" t="n">
+        <v>91.58</v>
+      </c>
+      <c r="G36" t="n">
+        <v>780</v>
+      </c>
+      <c r="H36" t="n">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>36</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>forcal</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>882296</t>
+        </is>
+      </c>
+      <c r="D37" t="n">
+        <v>8</v>
+      </c>
+      <c r="E37" t="n">
+        <v>3161</v>
+      </c>
+      <c r="F37" t="n">
+        <v>96.90000000000001</v>
+      </c>
+      <c r="G37" t="n">
+        <v>591</v>
+      </c>
+      <c r="H37" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>37</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>nekomyudon</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>835096</t>
+        </is>
+      </c>
+      <c r="D38" t="n">
+        <v>8</v>
+      </c>
+      <c r="E38" t="n">
+        <v>2940</v>
+      </c>
+      <c r="F38" t="n">
+        <v>91.95</v>
+      </c>
+      <c r="G38" t="n">
+        <v>474</v>
+      </c>
+      <c r="H38" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>38</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>ruirongrong</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>1701116</t>
+        </is>
+      </c>
+      <c r="D39" t="n">
+        <v>8</v>
+      </c>
+      <c r="E39" t="n">
+        <v>2930</v>
+      </c>
+      <c r="F39" t="n">
+        <v>87.76000000000001</v>
+      </c>
+      <c r="G39" t="n">
+        <v>282</v>
+      </c>
+      <c r="H39" t="n">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>39</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>-Kori</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>555736</t>
+        </is>
+      </c>
+      <c r="D40" t="n">
+        <v>8</v>
+      </c>
+      <c r="E40" t="n">
+        <v>2848</v>
+      </c>
+      <c r="F40" t="n">
+        <v>93.65000000000001</v>
+      </c>
+      <c r="G40" t="n">
+        <v>1115</v>
+      </c>
+      <c r="H40" t="n">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>40</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>xiyan2002</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>1397671</t>
+        </is>
+      </c>
+      <c r="D41" t="n">
+        <v>8</v>
+      </c>
+      <c r="E41" t="n">
+        <v>2833</v>
+      </c>
+      <c r="F41" t="n">
+        <v>77.47</v>
+      </c>
+      <c r="G41" t="n">
+        <v>626</v>
+      </c>
+      <c r="H41" t="n">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>41</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>[Origami]</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>103320</t>
+        </is>
+      </c>
+      <c r="D42" t="n">
+        <v>8</v>
+      </c>
+      <c r="E42" t="n">
+        <v>2733</v>
+      </c>
+      <c r="F42" t="n">
+        <v>92.81</v>
+      </c>
+      <c r="G42" t="n">
+        <v>879</v>
+      </c>
+      <c r="H42" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>42</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>myhome</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>111787</t>
+        </is>
+      </c>
+      <c r="D43" t="n">
+        <v>7</v>
+      </c>
+      <c r="E43" t="n">
+        <v>2662</v>
+      </c>
+      <c r="F43" t="n">
+        <v>89.73999999999999</v>
+      </c>
+      <c r="G43" t="n">
+        <v>1131</v>
+      </c>
+      <c r="H43" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>43</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>niniin</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>1583128</t>
+        </is>
+      </c>
+      <c r="D44" t="n">
+        <v>7</v>
+      </c>
+      <c r="E44" t="n">
+        <v>2617</v>
+      </c>
+      <c r="F44" t="n">
+        <v>89.29000000000001</v>
+      </c>
+      <c r="G44" t="n">
+        <v>612</v>
+      </c>
+      <c r="H44" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>44</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>AloneHitoriV</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>573162</t>
+        </is>
+      </c>
+      <c r="D45" t="n">
+        <v>7</v>
+      </c>
+      <c r="E45" t="n">
+        <v>2431</v>
+      </c>
+      <c r="F45" t="n">
+        <v>91.25</v>
+      </c>
+      <c r="G45" t="n">
+        <v>595</v>
+      </c>
+      <c r="H45" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>45</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>fkruby</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>1243818</t>
+        </is>
+      </c>
+      <c r="D46" t="n">
+        <v>7</v>
+      </c>
+      <c r="E46" t="n">
+        <v>2280</v>
+      </c>
+      <c r="F46" t="n">
+        <v>93.04000000000001</v>
+      </c>
+      <c r="G46" t="n">
+        <v>705</v>
+      </c>
+      <c r="H46" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>46</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>feat_Konoka</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>1114743</t>
+        </is>
+      </c>
+      <c r="D47" t="n">
+        <v>7</v>
+      </c>
+      <c r="E47" t="n">
+        <v>2272</v>
+      </c>
+      <c r="F47" t="n">
+        <v>97.06</v>
+      </c>
+      <c r="G47" t="n">
+        <v>642</v>
+      </c>
+      <c r="H47" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>47</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>Kurenia</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>90290</t>
+        </is>
+      </c>
+      <c r="D48" t="n">
+        <v>6</v>
+      </c>
+      <c r="E48" t="n">
+        <v>2152</v>
+      </c>
+      <c r="F48" t="n">
+        <v>94.42</v>
+      </c>
+      <c r="G48" t="n">
+        <v>379</v>
+      </c>
+      <c r="H48" t="n">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>48</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>vr_xuni</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>567091</t>
+        </is>
+      </c>
+      <c r="D49" t="n">
+        <v>6</v>
+      </c>
+      <c r="E49" t="n">
+        <v>2151</v>
+      </c>
+      <c r="F49" t="n">
+        <v>96.87</v>
+      </c>
+      <c r="G49" t="n">
+        <v>550</v>
+      </c>
+      <c r="H49" t="n">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>49</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>JisusMP</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>699439</t>
+        </is>
+      </c>
+      <c r="D50" t="n">
+        <v>6</v>
+      </c>
+      <c r="E50" t="n">
+        <v>2146</v>
+      </c>
+      <c r="F50" t="n">
+        <v>96.61</v>
+      </c>
+      <c r="G50" t="n">
+        <v>908</v>
+      </c>
+      <c r="H50" t="n">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>50</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>Qningshow</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>449071</t>
+        </is>
+      </c>
+      <c r="D51" t="n">
+        <v>6</v>
+      </c>
+      <c r="E51" t="n">
+        <v>2115</v>
+      </c>
+      <c r="F51" t="n">
+        <v>93.73999999999999</v>
+      </c>
+      <c r="G51" t="n">
+        <v>534</v>
+      </c>
+      <c r="H51" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>

--- a/mode8.xlsx
+++ b/mode8.xlsx
@@ -28,6 +28,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="mode_8_2025-10-29_20-42" sheetId="19" state="visible" r:id="rId19"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="mode_8_2025-10-30_18-30" sheetId="20" state="visible" r:id="rId20"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="mode_8_2025-11-02_01-40" sheetId="21" state="visible" r:id="rId21"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="mode_8_2025-11-02_18-25" sheetId="22" state="visible" r:id="rId22"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -20253,6 +20254,1567 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H51"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>rank</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>player_id</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>lv</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>exp</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>acc</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>combo</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>pc</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>YA_GAMMER</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>549520</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>35</v>
+      </c>
+      <c r="E2" t="n">
+        <v>158175</v>
+      </c>
+      <c r="F2" t="n">
+        <v>97.08</v>
+      </c>
+      <c r="G2" t="n">
+        <v>1123</v>
+      </c>
+      <c r="H2" t="n">
+        <v>868</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>KrisTheHumanFall</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>473602</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>33</v>
+      </c>
+      <c r="E3" t="n">
+        <v>128588</v>
+      </c>
+      <c r="F3" t="n">
+        <v>96.02</v>
+      </c>
+      <c r="G3" t="n">
+        <v>1141</v>
+      </c>
+      <c r="H3" t="n">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Excited_Naive</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>368505</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>32</v>
+      </c>
+      <c r="E4" t="n">
+        <v>108816</v>
+      </c>
+      <c r="F4" t="n">
+        <v>97.81</v>
+      </c>
+      <c r="G4" t="n">
+        <v>1374</v>
+      </c>
+      <c r="H4" t="n">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>-Koyuki-</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>499151</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>27</v>
+      </c>
+      <c r="E5" t="n">
+        <v>56822</v>
+      </c>
+      <c r="F5" t="n">
+        <v>96.73999999999999</v>
+      </c>
+      <c r="G5" t="n">
+        <v>1130</v>
+      </c>
+      <c r="H5" t="n">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>F0rge</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>1049018</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>21</v>
+      </c>
+      <c r="E6" t="n">
+        <v>25705</v>
+      </c>
+      <c r="F6" t="n">
+        <v>97.77</v>
+      </c>
+      <c r="G6" t="n">
+        <v>1100</v>
+      </c>
+      <c r="H6" t="n">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Merak</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>66313</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>18</v>
+      </c>
+      <c r="E7" t="n">
+        <v>16294</v>
+      </c>
+      <c r="F7" t="n">
+        <v>94.20999999999999</v>
+      </c>
+      <c r="G7" t="n">
+        <v>819</v>
+      </c>
+      <c r="H7" t="n">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Physic_est</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>193938</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>18</v>
+      </c>
+      <c r="E8" t="n">
+        <v>15982</v>
+      </c>
+      <c r="F8" t="n">
+        <v>96.97</v>
+      </c>
+      <c r="G8" t="n">
+        <v>586</v>
+      </c>
+      <c r="H8" t="n">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>8</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>RedCatz</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>587619</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>18</v>
+      </c>
+      <c r="E9" t="n">
+        <v>14867</v>
+      </c>
+      <c r="F9" t="n">
+        <v>97.40000000000001</v>
+      </c>
+      <c r="G9" t="n">
+        <v>1026</v>
+      </c>
+      <c r="H9" t="n">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>9</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>ReLWZJ_X</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>308775</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>16</v>
+      </c>
+      <c r="E10" t="n">
+        <v>11553</v>
+      </c>
+      <c r="F10" t="n">
+        <v>98.44</v>
+      </c>
+      <c r="G10" t="n">
+        <v>896</v>
+      </c>
+      <c r="H10" t="n">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>10</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>NamelessBeing</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>438452</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>16</v>
+      </c>
+      <c r="E11" t="n">
+        <v>11349</v>
+      </c>
+      <c r="F11" t="n">
+        <v>93.84</v>
+      </c>
+      <c r="G11" t="n">
+        <v>908</v>
+      </c>
+      <c r="H11" t="n">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>11</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>GongErguang</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>602541</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>15</v>
+      </c>
+      <c r="E12" t="n">
+        <v>10191</v>
+      </c>
+      <c r="F12" t="n">
+        <v>95.92</v>
+      </c>
+      <c r="G12" t="n">
+        <v>1107</v>
+      </c>
+      <c r="H12" t="n">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>12</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>hazeiro</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>273807</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>14</v>
+      </c>
+      <c r="E13" t="n">
+        <v>8912</v>
+      </c>
+      <c r="F13" t="n">
+        <v>94.86</v>
+      </c>
+      <c r="G13" t="n">
+        <v>1304</v>
+      </c>
+      <c r="H13" t="n">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>13</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>fffjssgd</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>1286293</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>14</v>
+      </c>
+      <c r="E14" t="n">
+        <v>8009</v>
+      </c>
+      <c r="F14" t="n">
+        <v>89.84</v>
+      </c>
+      <c r="G14" t="n">
+        <v>294</v>
+      </c>
+      <c r="H14" t="n">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>14</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Hetatis</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>12369</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>13</v>
+      </c>
+      <c r="E15" t="n">
+        <v>7601</v>
+      </c>
+      <c r="F15" t="n">
+        <v>97.42</v>
+      </c>
+      <c r="G15" t="n">
+        <v>1132</v>
+      </c>
+      <c r="H15" t="n">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>15</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Alisabe</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>1027052</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>12</v>
+      </c>
+      <c r="E16" t="n">
+        <v>6641</v>
+      </c>
+      <c r="F16" t="n">
+        <v>90.68000000000001</v>
+      </c>
+      <c r="G16" t="n">
+        <v>909</v>
+      </c>
+      <c r="H16" t="n">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>16</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>4keyishard</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>1355966</t>
+        </is>
+      </c>
+      <c r="D17" t="n">
+        <v>12</v>
+      </c>
+      <c r="E17" t="n">
+        <v>6588</v>
+      </c>
+      <c r="F17" t="n">
+        <v>96.56</v>
+      </c>
+      <c r="G17" t="n">
+        <v>1396</v>
+      </c>
+      <c r="H17" t="n">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>17</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Laddie_Amoyensis</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>14851</t>
+        </is>
+      </c>
+      <c r="D18" t="n">
+        <v>12</v>
+      </c>
+      <c r="E18" t="n">
+        <v>6311</v>
+      </c>
+      <c r="F18" t="n">
+        <v>99.59999999999999</v>
+      </c>
+      <c r="G18" t="n">
+        <v>1361</v>
+      </c>
+      <c r="H18" t="n">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>18</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>reonalll</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>201861</t>
+        </is>
+      </c>
+      <c r="D19" t="n">
+        <v>12</v>
+      </c>
+      <c r="E19" t="n">
+        <v>5838</v>
+      </c>
+      <c r="F19" t="n">
+        <v>97.33</v>
+      </c>
+      <c r="G19" t="n">
+        <v>713</v>
+      </c>
+      <c r="H19" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>19</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>asarin</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>1299266</t>
+        </is>
+      </c>
+      <c r="D20" t="n">
+        <v>11</v>
+      </c>
+      <c r="E20" t="n">
+        <v>5487</v>
+      </c>
+      <c r="F20" t="n">
+        <v>83.7</v>
+      </c>
+      <c r="G20" t="n">
+        <v>542</v>
+      </c>
+      <c r="H20" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>20</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Lolimlive</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>545626</t>
+        </is>
+      </c>
+      <c r="D21" t="n">
+        <v>11</v>
+      </c>
+      <c r="E21" t="n">
+        <v>5389</v>
+      </c>
+      <c r="F21" t="n">
+        <v>90.81999999999999</v>
+      </c>
+      <c r="G21" t="n">
+        <v>555</v>
+      </c>
+      <c r="H21" t="n">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>21</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Koishi_Komeiji</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>891658</t>
+        </is>
+      </c>
+      <c r="D22" t="n">
+        <v>11</v>
+      </c>
+      <c r="E22" t="n">
+        <v>5153</v>
+      </c>
+      <c r="F22" t="n">
+        <v>96.56</v>
+      </c>
+      <c r="G22" t="n">
+        <v>1115</v>
+      </c>
+      <c r="H22" t="n">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>22</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>lal_33</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>1725074</t>
+        </is>
+      </c>
+      <c r="D23" t="n">
+        <v>11</v>
+      </c>
+      <c r="E23" t="n">
+        <v>5104</v>
+      </c>
+      <c r="F23" t="n">
+        <v>77.38</v>
+      </c>
+      <c r="G23" t="n">
+        <v>229</v>
+      </c>
+      <c r="H23" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>23</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Yasashima</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>458753</t>
+        </is>
+      </c>
+      <c r="D24" t="n">
+        <v>11</v>
+      </c>
+      <c r="E24" t="n">
+        <v>4823</v>
+      </c>
+      <c r="F24" t="n">
+        <v>93.98</v>
+      </c>
+      <c r="G24" t="n">
+        <v>1050</v>
+      </c>
+      <c r="H24" t="n">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>24</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Yama0113</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>1316662</t>
+        </is>
+      </c>
+      <c r="D25" t="n">
+        <v>10</v>
+      </c>
+      <c r="E25" t="n">
+        <v>4779</v>
+      </c>
+      <c r="F25" t="n">
+        <v>92.44</v>
+      </c>
+      <c r="G25" t="n">
+        <v>905</v>
+      </c>
+      <c r="H25" t="n">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>25</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>abbbs-asc</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>1324121</t>
+        </is>
+      </c>
+      <c r="D26" t="n">
+        <v>10</v>
+      </c>
+      <c r="E26" t="n">
+        <v>4664</v>
+      </c>
+      <c r="F26" t="n">
+        <v>90.95</v>
+      </c>
+      <c r="G26" t="n">
+        <v>615</v>
+      </c>
+      <c r="H26" t="n">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>26</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>333XD</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>400053</t>
+        </is>
+      </c>
+      <c r="D27" t="n">
+        <v>10</v>
+      </c>
+      <c r="E27" t="n">
+        <v>4262</v>
+      </c>
+      <c r="F27" t="n">
+        <v>88.31</v>
+      </c>
+      <c r="G27" t="n">
+        <v>693</v>
+      </c>
+      <c r="H27" t="n">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>27</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>0PoppinParty0</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>398494</t>
+        </is>
+      </c>
+      <c r="D28" t="n">
+        <v>10</v>
+      </c>
+      <c r="E28" t="n">
+        <v>4162</v>
+      </c>
+      <c r="F28" t="n">
+        <v>96.09999999999999</v>
+      </c>
+      <c r="G28" t="n">
+        <v>908</v>
+      </c>
+      <c r="H28" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>28</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>hussm</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>304690</t>
+        </is>
+      </c>
+      <c r="D29" t="n">
+        <v>10</v>
+      </c>
+      <c r="E29" t="n">
+        <v>4042</v>
+      </c>
+      <c r="F29" t="n">
+        <v>92.66</v>
+      </c>
+      <c r="G29" t="n">
+        <v>1121</v>
+      </c>
+      <c r="H29" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>29</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>RenAhah</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>324301</t>
+        </is>
+      </c>
+      <c r="D30" t="n">
+        <v>9</v>
+      </c>
+      <c r="E30" t="n">
+        <v>3959</v>
+      </c>
+      <c r="F30" t="n">
+        <v>88.7</v>
+      </c>
+      <c r="G30" t="n">
+        <v>849</v>
+      </c>
+      <c r="H30" t="n">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>30</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>Zyt1yt</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>841200</t>
+        </is>
+      </c>
+      <c r="D31" t="n">
+        <v>9</v>
+      </c>
+      <c r="E31" t="n">
+        <v>3908</v>
+      </c>
+      <c r="F31" t="n">
+        <v>92.3</v>
+      </c>
+      <c r="G31" t="n">
+        <v>905</v>
+      </c>
+      <c r="H31" t="n">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>31</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>Pop_Slime</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>270248</t>
+        </is>
+      </c>
+      <c r="D32" t="n">
+        <v>9</v>
+      </c>
+      <c r="E32" t="n">
+        <v>3904</v>
+      </c>
+      <c r="F32" t="n">
+        <v>94.84</v>
+      </c>
+      <c r="G32" t="n">
+        <v>736</v>
+      </c>
+      <c r="H32" t="n">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>32</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>aaaa123</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>340859</t>
+        </is>
+      </c>
+      <c r="D33" t="n">
+        <v>9</v>
+      </c>
+      <c r="E33" t="n">
+        <v>3876</v>
+      </c>
+      <c r="F33" t="n">
+        <v>96.17</v>
+      </c>
+      <c r="G33" t="n">
+        <v>1112</v>
+      </c>
+      <c r="H33" t="n">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>33</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>KangBasoTikus</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>486647</t>
+        </is>
+      </c>
+      <c r="D34" t="n">
+        <v>9</v>
+      </c>
+      <c r="E34" t="n">
+        <v>3867</v>
+      </c>
+      <c r="F34" t="n">
+        <v>93.45</v>
+      </c>
+      <c r="G34" t="n">
+        <v>651</v>
+      </c>
+      <c r="H34" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>34</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>Lixinyan</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>1468090</t>
+        </is>
+      </c>
+      <c r="D35" t="n">
+        <v>9</v>
+      </c>
+      <c r="E35" t="n">
+        <v>3543</v>
+      </c>
+      <c r="F35" t="n">
+        <v>79.59</v>
+      </c>
+      <c r="G35" t="n">
+        <v>246</v>
+      </c>
+      <c r="H35" t="n">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>35</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>jyx042223</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>709614</t>
+        </is>
+      </c>
+      <c r="D36" t="n">
+        <v>9</v>
+      </c>
+      <c r="E36" t="n">
+        <v>3446</v>
+      </c>
+      <c r="F36" t="n">
+        <v>91.58</v>
+      </c>
+      <c r="G36" t="n">
+        <v>780</v>
+      </c>
+      <c r="H36" t="n">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>36</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>forcal</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>882296</t>
+        </is>
+      </c>
+      <c r="D37" t="n">
+        <v>8</v>
+      </c>
+      <c r="E37" t="n">
+        <v>3161</v>
+      </c>
+      <c r="F37" t="n">
+        <v>96.90000000000001</v>
+      </c>
+      <c r="G37" t="n">
+        <v>591</v>
+      </c>
+      <c r="H37" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>37</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>nekomyudon</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>835096</t>
+        </is>
+      </c>
+      <c r="D38" t="n">
+        <v>8</v>
+      </c>
+      <c r="E38" t="n">
+        <v>2940</v>
+      </c>
+      <c r="F38" t="n">
+        <v>91.95</v>
+      </c>
+      <c r="G38" t="n">
+        <v>474</v>
+      </c>
+      <c r="H38" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>38</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>ruirongrong</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>1701116</t>
+        </is>
+      </c>
+      <c r="D39" t="n">
+        <v>8</v>
+      </c>
+      <c r="E39" t="n">
+        <v>2930</v>
+      </c>
+      <c r="F39" t="n">
+        <v>87.76000000000001</v>
+      </c>
+      <c r="G39" t="n">
+        <v>282</v>
+      </c>
+      <c r="H39" t="n">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>39</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>-Kori</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>555736</t>
+        </is>
+      </c>
+      <c r="D40" t="n">
+        <v>8</v>
+      </c>
+      <c r="E40" t="n">
+        <v>2848</v>
+      </c>
+      <c r="F40" t="n">
+        <v>93.65000000000001</v>
+      </c>
+      <c r="G40" t="n">
+        <v>1115</v>
+      </c>
+      <c r="H40" t="n">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>40</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>xiyan2002</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>1397671</t>
+        </is>
+      </c>
+      <c r="D41" t="n">
+        <v>8</v>
+      </c>
+      <c r="E41" t="n">
+        <v>2833</v>
+      </c>
+      <c r="F41" t="n">
+        <v>77.47</v>
+      </c>
+      <c r="G41" t="n">
+        <v>626</v>
+      </c>
+      <c r="H41" t="n">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>41</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>[Origami]</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>103320</t>
+        </is>
+      </c>
+      <c r="D42" t="n">
+        <v>8</v>
+      </c>
+      <c r="E42" t="n">
+        <v>2733</v>
+      </c>
+      <c r="F42" t="n">
+        <v>92.81</v>
+      </c>
+      <c r="G42" t="n">
+        <v>879</v>
+      </c>
+      <c r="H42" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>42</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>myhome</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>111787</t>
+        </is>
+      </c>
+      <c r="D43" t="n">
+        <v>7</v>
+      </c>
+      <c r="E43" t="n">
+        <v>2662</v>
+      </c>
+      <c r="F43" t="n">
+        <v>89.73999999999999</v>
+      </c>
+      <c r="G43" t="n">
+        <v>1131</v>
+      </c>
+      <c r="H43" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>43</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>niniin</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>1583128</t>
+        </is>
+      </c>
+      <c r="D44" t="n">
+        <v>7</v>
+      </c>
+      <c r="E44" t="n">
+        <v>2617</v>
+      </c>
+      <c r="F44" t="n">
+        <v>89.29000000000001</v>
+      </c>
+      <c r="G44" t="n">
+        <v>612</v>
+      </c>
+      <c r="H44" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>44</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>AloneHitoriV</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>573162</t>
+        </is>
+      </c>
+      <c r="D45" t="n">
+        <v>7</v>
+      </c>
+      <c r="E45" t="n">
+        <v>2431</v>
+      </c>
+      <c r="F45" t="n">
+        <v>91.25</v>
+      </c>
+      <c r="G45" t="n">
+        <v>595</v>
+      </c>
+      <c r="H45" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>45</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>fkruby</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>1243818</t>
+        </is>
+      </c>
+      <c r="D46" t="n">
+        <v>7</v>
+      </c>
+      <c r="E46" t="n">
+        <v>2280</v>
+      </c>
+      <c r="F46" t="n">
+        <v>93.04000000000001</v>
+      </c>
+      <c r="G46" t="n">
+        <v>705</v>
+      </c>
+      <c r="H46" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>46</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>feat_Konoka</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>1114743</t>
+        </is>
+      </c>
+      <c r="D47" t="n">
+        <v>7</v>
+      </c>
+      <c r="E47" t="n">
+        <v>2272</v>
+      </c>
+      <c r="F47" t="n">
+        <v>97.06</v>
+      </c>
+      <c r="G47" t="n">
+        <v>642</v>
+      </c>
+      <c r="H47" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>47</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>Kurenia</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>90290</t>
+        </is>
+      </c>
+      <c r="D48" t="n">
+        <v>6</v>
+      </c>
+      <c r="E48" t="n">
+        <v>2152</v>
+      </c>
+      <c r="F48" t="n">
+        <v>94.42</v>
+      </c>
+      <c r="G48" t="n">
+        <v>379</v>
+      </c>
+      <c r="H48" t="n">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>48</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>vr_xuni</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>567091</t>
+        </is>
+      </c>
+      <c r="D49" t="n">
+        <v>6</v>
+      </c>
+      <c r="E49" t="n">
+        <v>2151</v>
+      </c>
+      <c r="F49" t="n">
+        <v>96.87</v>
+      </c>
+      <c r="G49" t="n">
+        <v>550</v>
+      </c>
+      <c r="H49" t="n">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>49</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>JisusMP</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>699439</t>
+        </is>
+      </c>
+      <c r="D50" t="n">
+        <v>6</v>
+      </c>
+      <c r="E50" t="n">
+        <v>2146</v>
+      </c>
+      <c r="F50" t="n">
+        <v>96.61</v>
+      </c>
+      <c r="G50" t="n">
+        <v>908</v>
+      </c>
+      <c r="H50" t="n">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>50</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>Qningshow</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>449071</t>
+        </is>
+      </c>
+      <c r="D51" t="n">
+        <v>6</v>
+      </c>
+      <c r="E51" t="n">
+        <v>2115</v>
+      </c>
+      <c r="F51" t="n">
+        <v>93.73999999999999</v>
+      </c>
+      <c r="G51" t="n">
+        <v>534</v>
+      </c>
+      <c r="H51" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>

--- a/mode8.xlsx
+++ b/mode8.xlsx
@@ -29,6 +29,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="mode_8_2025-10-30_18-30" sheetId="20" state="visible" r:id="rId20"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="mode_8_2025-11-02_01-40" sheetId="21" state="visible" r:id="rId21"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="mode_8_2025-11-02_18-25" sheetId="22" state="visible" r:id="rId22"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="mode_8_2025-11-02_18-58" sheetId="23" state="visible" r:id="rId23"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -21815,6 +21816,1567 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H51"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>rank</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>player_id</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>lv</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>exp</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>acc</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>combo</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>pc</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>YA_GAMMER</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>549520</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>35</v>
+      </c>
+      <c r="E2" t="n">
+        <v>158175</v>
+      </c>
+      <c r="F2" t="n">
+        <v>97.08</v>
+      </c>
+      <c r="G2" t="n">
+        <v>1123</v>
+      </c>
+      <c r="H2" t="n">
+        <v>868</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>KrisTheHumanFall</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>473602</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>33</v>
+      </c>
+      <c r="E3" t="n">
+        <v>128588</v>
+      </c>
+      <c r="F3" t="n">
+        <v>96.02</v>
+      </c>
+      <c r="G3" t="n">
+        <v>1141</v>
+      </c>
+      <c r="H3" t="n">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Excited_Naive</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>368505</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>32</v>
+      </c>
+      <c r="E4" t="n">
+        <v>108816</v>
+      </c>
+      <c r="F4" t="n">
+        <v>97.81</v>
+      </c>
+      <c r="G4" t="n">
+        <v>1374</v>
+      </c>
+      <c r="H4" t="n">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>-Koyuki-</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>499151</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>27</v>
+      </c>
+      <c r="E5" t="n">
+        <v>56822</v>
+      </c>
+      <c r="F5" t="n">
+        <v>96.73999999999999</v>
+      </c>
+      <c r="G5" t="n">
+        <v>1130</v>
+      </c>
+      <c r="H5" t="n">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>F0rge</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>1049018</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>21</v>
+      </c>
+      <c r="E6" t="n">
+        <v>25705</v>
+      </c>
+      <c r="F6" t="n">
+        <v>97.77</v>
+      </c>
+      <c r="G6" t="n">
+        <v>1100</v>
+      </c>
+      <c r="H6" t="n">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Merak</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>66313</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>18</v>
+      </c>
+      <c r="E7" t="n">
+        <v>16294</v>
+      </c>
+      <c r="F7" t="n">
+        <v>94.20999999999999</v>
+      </c>
+      <c r="G7" t="n">
+        <v>819</v>
+      </c>
+      <c r="H7" t="n">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Physic_est</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>193938</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>18</v>
+      </c>
+      <c r="E8" t="n">
+        <v>15982</v>
+      </c>
+      <c r="F8" t="n">
+        <v>96.97</v>
+      </c>
+      <c r="G8" t="n">
+        <v>586</v>
+      </c>
+      <c r="H8" t="n">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>8</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>RedCatz</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>587619</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>18</v>
+      </c>
+      <c r="E9" t="n">
+        <v>14867</v>
+      </c>
+      <c r="F9" t="n">
+        <v>97.40000000000001</v>
+      </c>
+      <c r="G9" t="n">
+        <v>1026</v>
+      </c>
+      <c r="H9" t="n">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>9</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>ReLWZJ_X</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>308775</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>16</v>
+      </c>
+      <c r="E10" t="n">
+        <v>11553</v>
+      </c>
+      <c r="F10" t="n">
+        <v>98.44</v>
+      </c>
+      <c r="G10" t="n">
+        <v>896</v>
+      </c>
+      <c r="H10" t="n">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>10</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>NamelessBeing</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>438452</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>16</v>
+      </c>
+      <c r="E11" t="n">
+        <v>11349</v>
+      </c>
+      <c r="F11" t="n">
+        <v>93.84</v>
+      </c>
+      <c r="G11" t="n">
+        <v>908</v>
+      </c>
+      <c r="H11" t="n">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>11</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>GongErguang</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>602541</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>15</v>
+      </c>
+      <c r="E12" t="n">
+        <v>10191</v>
+      </c>
+      <c r="F12" t="n">
+        <v>95.92</v>
+      </c>
+      <c r="G12" t="n">
+        <v>1107</v>
+      </c>
+      <c r="H12" t="n">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>12</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>hazeiro</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>273807</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>14</v>
+      </c>
+      <c r="E13" t="n">
+        <v>8912</v>
+      </c>
+      <c r="F13" t="n">
+        <v>94.86</v>
+      </c>
+      <c r="G13" t="n">
+        <v>1304</v>
+      </c>
+      <c r="H13" t="n">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>13</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>fffjssgd</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>1286293</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>14</v>
+      </c>
+      <c r="E14" t="n">
+        <v>8009</v>
+      </c>
+      <c r="F14" t="n">
+        <v>89.84</v>
+      </c>
+      <c r="G14" t="n">
+        <v>294</v>
+      </c>
+      <c r="H14" t="n">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>14</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Hetatis</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>12369</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>13</v>
+      </c>
+      <c r="E15" t="n">
+        <v>7601</v>
+      </c>
+      <c r="F15" t="n">
+        <v>97.42</v>
+      </c>
+      <c r="G15" t="n">
+        <v>1132</v>
+      </c>
+      <c r="H15" t="n">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>15</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Alisabe</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>1027052</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>12</v>
+      </c>
+      <c r="E16" t="n">
+        <v>6641</v>
+      </c>
+      <c r="F16" t="n">
+        <v>90.68000000000001</v>
+      </c>
+      <c r="G16" t="n">
+        <v>909</v>
+      </c>
+      <c r="H16" t="n">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>16</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>4keyishard</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>1355966</t>
+        </is>
+      </c>
+      <c r="D17" t="n">
+        <v>12</v>
+      </c>
+      <c r="E17" t="n">
+        <v>6588</v>
+      </c>
+      <c r="F17" t="n">
+        <v>96.56</v>
+      </c>
+      <c r="G17" t="n">
+        <v>1396</v>
+      </c>
+      <c r="H17" t="n">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>17</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Laddie_Amoyensis</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>14851</t>
+        </is>
+      </c>
+      <c r="D18" t="n">
+        <v>12</v>
+      </c>
+      <c r="E18" t="n">
+        <v>6311</v>
+      </c>
+      <c r="F18" t="n">
+        <v>99.59999999999999</v>
+      </c>
+      <c r="G18" t="n">
+        <v>1361</v>
+      </c>
+      <c r="H18" t="n">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>18</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>reonalll</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>201861</t>
+        </is>
+      </c>
+      <c r="D19" t="n">
+        <v>12</v>
+      </c>
+      <c r="E19" t="n">
+        <v>5838</v>
+      </c>
+      <c r="F19" t="n">
+        <v>97.33</v>
+      </c>
+      <c r="G19" t="n">
+        <v>713</v>
+      </c>
+      <c r="H19" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>19</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>asarin</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>1299266</t>
+        </is>
+      </c>
+      <c r="D20" t="n">
+        <v>11</v>
+      </c>
+      <c r="E20" t="n">
+        <v>5487</v>
+      </c>
+      <c r="F20" t="n">
+        <v>83.7</v>
+      </c>
+      <c r="G20" t="n">
+        <v>542</v>
+      </c>
+      <c r="H20" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>20</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Lolimlive</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>545626</t>
+        </is>
+      </c>
+      <c r="D21" t="n">
+        <v>11</v>
+      </c>
+      <c r="E21" t="n">
+        <v>5389</v>
+      </c>
+      <c r="F21" t="n">
+        <v>90.81999999999999</v>
+      </c>
+      <c r="G21" t="n">
+        <v>555</v>
+      </c>
+      <c r="H21" t="n">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>21</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Koishi_Komeiji</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>891658</t>
+        </is>
+      </c>
+      <c r="D22" t="n">
+        <v>11</v>
+      </c>
+      <c r="E22" t="n">
+        <v>5153</v>
+      </c>
+      <c r="F22" t="n">
+        <v>96.56</v>
+      </c>
+      <c r="G22" t="n">
+        <v>1115</v>
+      </c>
+      <c r="H22" t="n">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>22</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>lal_33</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>1725074</t>
+        </is>
+      </c>
+      <c r="D23" t="n">
+        <v>11</v>
+      </c>
+      <c r="E23" t="n">
+        <v>5104</v>
+      </c>
+      <c r="F23" t="n">
+        <v>77.38</v>
+      </c>
+      <c r="G23" t="n">
+        <v>229</v>
+      </c>
+      <c r="H23" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>23</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Yasashima</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>458753</t>
+        </is>
+      </c>
+      <c r="D24" t="n">
+        <v>11</v>
+      </c>
+      <c r="E24" t="n">
+        <v>4823</v>
+      </c>
+      <c r="F24" t="n">
+        <v>93.98</v>
+      </c>
+      <c r="G24" t="n">
+        <v>1050</v>
+      </c>
+      <c r="H24" t="n">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>24</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Yama0113</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>1316662</t>
+        </is>
+      </c>
+      <c r="D25" t="n">
+        <v>10</v>
+      </c>
+      <c r="E25" t="n">
+        <v>4779</v>
+      </c>
+      <c r="F25" t="n">
+        <v>92.44</v>
+      </c>
+      <c r="G25" t="n">
+        <v>905</v>
+      </c>
+      <c r="H25" t="n">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>25</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>abbbs-asc</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>1324121</t>
+        </is>
+      </c>
+      <c r="D26" t="n">
+        <v>10</v>
+      </c>
+      <c r="E26" t="n">
+        <v>4664</v>
+      </c>
+      <c r="F26" t="n">
+        <v>90.95</v>
+      </c>
+      <c r="G26" t="n">
+        <v>615</v>
+      </c>
+      <c r="H26" t="n">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>26</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>333XD</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>400053</t>
+        </is>
+      </c>
+      <c r="D27" t="n">
+        <v>10</v>
+      </c>
+      <c r="E27" t="n">
+        <v>4262</v>
+      </c>
+      <c r="F27" t="n">
+        <v>88.31</v>
+      </c>
+      <c r="G27" t="n">
+        <v>693</v>
+      </c>
+      <c r="H27" t="n">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>27</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>0PoppinParty0</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>398494</t>
+        </is>
+      </c>
+      <c r="D28" t="n">
+        <v>10</v>
+      </c>
+      <c r="E28" t="n">
+        <v>4162</v>
+      </c>
+      <c r="F28" t="n">
+        <v>96.09999999999999</v>
+      </c>
+      <c r="G28" t="n">
+        <v>908</v>
+      </c>
+      <c r="H28" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>28</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>hussm</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>304690</t>
+        </is>
+      </c>
+      <c r="D29" t="n">
+        <v>10</v>
+      </c>
+      <c r="E29" t="n">
+        <v>4042</v>
+      </c>
+      <c r="F29" t="n">
+        <v>92.66</v>
+      </c>
+      <c r="G29" t="n">
+        <v>1121</v>
+      </c>
+      <c r="H29" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>29</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>RenAhah</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>324301</t>
+        </is>
+      </c>
+      <c r="D30" t="n">
+        <v>9</v>
+      </c>
+      <c r="E30" t="n">
+        <v>3959</v>
+      </c>
+      <c r="F30" t="n">
+        <v>88.7</v>
+      </c>
+      <c r="G30" t="n">
+        <v>849</v>
+      </c>
+      <c r="H30" t="n">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>30</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>Zyt1yt</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>841200</t>
+        </is>
+      </c>
+      <c r="D31" t="n">
+        <v>9</v>
+      </c>
+      <c r="E31" t="n">
+        <v>3908</v>
+      </c>
+      <c r="F31" t="n">
+        <v>92.3</v>
+      </c>
+      <c r="G31" t="n">
+        <v>905</v>
+      </c>
+      <c r="H31" t="n">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>31</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>Pop_Slime</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>270248</t>
+        </is>
+      </c>
+      <c r="D32" t="n">
+        <v>9</v>
+      </c>
+      <c r="E32" t="n">
+        <v>3904</v>
+      </c>
+      <c r="F32" t="n">
+        <v>94.84</v>
+      </c>
+      <c r="G32" t="n">
+        <v>736</v>
+      </c>
+      <c r="H32" t="n">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>32</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>aaaa123</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>340859</t>
+        </is>
+      </c>
+      <c r="D33" t="n">
+        <v>9</v>
+      </c>
+      <c r="E33" t="n">
+        <v>3876</v>
+      </c>
+      <c r="F33" t="n">
+        <v>96.17</v>
+      </c>
+      <c r="G33" t="n">
+        <v>1112</v>
+      </c>
+      <c r="H33" t="n">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>33</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>KangBasoTikus</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>486647</t>
+        </is>
+      </c>
+      <c r="D34" t="n">
+        <v>9</v>
+      </c>
+      <c r="E34" t="n">
+        <v>3867</v>
+      </c>
+      <c r="F34" t="n">
+        <v>93.45</v>
+      </c>
+      <c r="G34" t="n">
+        <v>651</v>
+      </c>
+      <c r="H34" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>34</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>Lixinyan</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>1468090</t>
+        </is>
+      </c>
+      <c r="D35" t="n">
+        <v>9</v>
+      </c>
+      <c r="E35" t="n">
+        <v>3543</v>
+      </c>
+      <c r="F35" t="n">
+        <v>79.59</v>
+      </c>
+      <c r="G35" t="n">
+        <v>246</v>
+      </c>
+      <c r="H35" t="n">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>35</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>jyx042223</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>709614</t>
+        </is>
+      </c>
+      <c r="D36" t="n">
+        <v>9</v>
+      </c>
+      <c r="E36" t="n">
+        <v>3446</v>
+      </c>
+      <c r="F36" t="n">
+        <v>91.58</v>
+      </c>
+      <c r="G36" t="n">
+        <v>780</v>
+      </c>
+      <c r="H36" t="n">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>36</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>forcal</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>882296</t>
+        </is>
+      </c>
+      <c r="D37" t="n">
+        <v>8</v>
+      </c>
+      <c r="E37" t="n">
+        <v>3161</v>
+      </c>
+      <c r="F37" t="n">
+        <v>96.90000000000001</v>
+      </c>
+      <c r="G37" t="n">
+        <v>591</v>
+      </c>
+      <c r="H37" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>37</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>nekomyudon</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>835096</t>
+        </is>
+      </c>
+      <c r="D38" t="n">
+        <v>8</v>
+      </c>
+      <c r="E38" t="n">
+        <v>2940</v>
+      </c>
+      <c r="F38" t="n">
+        <v>91.95</v>
+      </c>
+      <c r="G38" t="n">
+        <v>474</v>
+      </c>
+      <c r="H38" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>38</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>ruirongrong</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>1701116</t>
+        </is>
+      </c>
+      <c r="D39" t="n">
+        <v>8</v>
+      </c>
+      <c r="E39" t="n">
+        <v>2930</v>
+      </c>
+      <c r="F39" t="n">
+        <v>87.76000000000001</v>
+      </c>
+      <c r="G39" t="n">
+        <v>282</v>
+      </c>
+      <c r="H39" t="n">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>39</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>-Kori</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>555736</t>
+        </is>
+      </c>
+      <c r="D40" t="n">
+        <v>8</v>
+      </c>
+      <c r="E40" t="n">
+        <v>2848</v>
+      </c>
+      <c r="F40" t="n">
+        <v>93.65000000000001</v>
+      </c>
+      <c r="G40" t="n">
+        <v>1115</v>
+      </c>
+      <c r="H40" t="n">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>40</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>xiyan2002</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>1397671</t>
+        </is>
+      </c>
+      <c r="D41" t="n">
+        <v>8</v>
+      </c>
+      <c r="E41" t="n">
+        <v>2833</v>
+      </c>
+      <c r="F41" t="n">
+        <v>77.47</v>
+      </c>
+      <c r="G41" t="n">
+        <v>626</v>
+      </c>
+      <c r="H41" t="n">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>41</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>[Origami]</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>103320</t>
+        </is>
+      </c>
+      <c r="D42" t="n">
+        <v>8</v>
+      </c>
+      <c r="E42" t="n">
+        <v>2733</v>
+      </c>
+      <c r="F42" t="n">
+        <v>92.81</v>
+      </c>
+      <c r="G42" t="n">
+        <v>879</v>
+      </c>
+      <c r="H42" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>42</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>myhome</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>111787</t>
+        </is>
+      </c>
+      <c r="D43" t="n">
+        <v>7</v>
+      </c>
+      <c r="E43" t="n">
+        <v>2662</v>
+      </c>
+      <c r="F43" t="n">
+        <v>89.73999999999999</v>
+      </c>
+      <c r="G43" t="n">
+        <v>1131</v>
+      </c>
+      <c r="H43" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>43</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>niniin</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>1583128</t>
+        </is>
+      </c>
+      <c r="D44" t="n">
+        <v>7</v>
+      </c>
+      <c r="E44" t="n">
+        <v>2617</v>
+      </c>
+      <c r="F44" t="n">
+        <v>89.29000000000001</v>
+      </c>
+      <c r="G44" t="n">
+        <v>612</v>
+      </c>
+      <c r="H44" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>44</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>AloneHitoriV</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>573162</t>
+        </is>
+      </c>
+      <c r="D45" t="n">
+        <v>7</v>
+      </c>
+      <c r="E45" t="n">
+        <v>2431</v>
+      </c>
+      <c r="F45" t="n">
+        <v>91.25</v>
+      </c>
+      <c r="G45" t="n">
+        <v>595</v>
+      </c>
+      <c r="H45" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>45</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>fkruby</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>1243818</t>
+        </is>
+      </c>
+      <c r="D46" t="n">
+        <v>7</v>
+      </c>
+      <c r="E46" t="n">
+        <v>2280</v>
+      </c>
+      <c r="F46" t="n">
+        <v>93.04000000000001</v>
+      </c>
+      <c r="G46" t="n">
+        <v>705</v>
+      </c>
+      <c r="H46" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>46</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>feat_Konoka</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>1114743</t>
+        </is>
+      </c>
+      <c r="D47" t="n">
+        <v>7</v>
+      </c>
+      <c r="E47" t="n">
+        <v>2272</v>
+      </c>
+      <c r="F47" t="n">
+        <v>97.06</v>
+      </c>
+      <c r="G47" t="n">
+        <v>642</v>
+      </c>
+      <c r="H47" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>47</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>Kurenia</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>90290</t>
+        </is>
+      </c>
+      <c r="D48" t="n">
+        <v>6</v>
+      </c>
+      <c r="E48" t="n">
+        <v>2152</v>
+      </c>
+      <c r="F48" t="n">
+        <v>94.42</v>
+      </c>
+      <c r="G48" t="n">
+        <v>379</v>
+      </c>
+      <c r="H48" t="n">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>48</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>vr_xuni</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>567091</t>
+        </is>
+      </c>
+      <c r="D49" t="n">
+        <v>6</v>
+      </c>
+      <c r="E49" t="n">
+        <v>2151</v>
+      </c>
+      <c r="F49" t="n">
+        <v>96.87</v>
+      </c>
+      <c r="G49" t="n">
+        <v>550</v>
+      </c>
+      <c r="H49" t="n">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>49</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>JisusMP</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>699439</t>
+        </is>
+      </c>
+      <c r="D50" t="n">
+        <v>6</v>
+      </c>
+      <c r="E50" t="n">
+        <v>2146</v>
+      </c>
+      <c r="F50" t="n">
+        <v>96.61</v>
+      </c>
+      <c r="G50" t="n">
+        <v>908</v>
+      </c>
+      <c r="H50" t="n">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>50</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>Qningshow</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>449071</t>
+        </is>
+      </c>
+      <c r="D51" t="n">
+        <v>6</v>
+      </c>
+      <c r="E51" t="n">
+        <v>2115</v>
+      </c>
+      <c r="F51" t="n">
+        <v>93.73999999999999</v>
+      </c>
+      <c r="G51" t="n">
+        <v>534</v>
+      </c>
+      <c r="H51" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>

--- a/mode8.xlsx
+++ b/mode8.xlsx
@@ -30,6 +30,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="mode_8_2025-11-02_01-40" sheetId="21" state="visible" r:id="rId21"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="mode_8_2025-11-02_18-25" sheetId="22" state="visible" r:id="rId22"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="mode_8_2025-11-02_18-58" sheetId="23" state="visible" r:id="rId23"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="mode_8_2025-11-03_21-37" sheetId="24" state="visible" r:id="rId24"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -23377,6 +23378,1567 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H51"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>rank</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>player_id</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>lv</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>exp</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>acc</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>combo</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>pc</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>YA_GAMMER</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>549520</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>35</v>
+      </c>
+      <c r="E2" t="n">
+        <v>158175</v>
+      </c>
+      <c r="F2" t="n">
+        <v>97.08</v>
+      </c>
+      <c r="G2" t="n">
+        <v>1123</v>
+      </c>
+      <c r="H2" t="n">
+        <v>868</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>KrisTheHumanFall</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>473602</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>33</v>
+      </c>
+      <c r="E3" t="n">
+        <v>128588</v>
+      </c>
+      <c r="F3" t="n">
+        <v>96.02</v>
+      </c>
+      <c r="G3" t="n">
+        <v>1141</v>
+      </c>
+      <c r="H3" t="n">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Excited_Naive</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>368505</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>32</v>
+      </c>
+      <c r="E4" t="n">
+        <v>108816</v>
+      </c>
+      <c r="F4" t="n">
+        <v>97.81</v>
+      </c>
+      <c r="G4" t="n">
+        <v>1374</v>
+      </c>
+      <c r="H4" t="n">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>-Koyuki-</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>499151</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>27</v>
+      </c>
+      <c r="E5" t="n">
+        <v>56822</v>
+      </c>
+      <c r="F5" t="n">
+        <v>96.73999999999999</v>
+      </c>
+      <c r="G5" t="n">
+        <v>1130</v>
+      </c>
+      <c r="H5" t="n">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>F0rge</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>1049018</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>21</v>
+      </c>
+      <c r="E6" t="n">
+        <v>25705</v>
+      </c>
+      <c r="F6" t="n">
+        <v>97.77</v>
+      </c>
+      <c r="G6" t="n">
+        <v>1100</v>
+      </c>
+      <c r="H6" t="n">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Merak</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>66313</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>18</v>
+      </c>
+      <c r="E7" t="n">
+        <v>16294</v>
+      </c>
+      <c r="F7" t="n">
+        <v>94.20999999999999</v>
+      </c>
+      <c r="G7" t="n">
+        <v>819</v>
+      </c>
+      <c r="H7" t="n">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Physic_est</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>193938</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>18</v>
+      </c>
+      <c r="E8" t="n">
+        <v>15982</v>
+      </c>
+      <c r="F8" t="n">
+        <v>96.97</v>
+      </c>
+      <c r="G8" t="n">
+        <v>586</v>
+      </c>
+      <c r="H8" t="n">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>8</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>RedCatz</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>587619</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>18</v>
+      </c>
+      <c r="E9" t="n">
+        <v>14867</v>
+      </c>
+      <c r="F9" t="n">
+        <v>97.40000000000001</v>
+      </c>
+      <c r="G9" t="n">
+        <v>1026</v>
+      </c>
+      <c r="H9" t="n">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>9</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>ReLWZJ_X</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>308775</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>16</v>
+      </c>
+      <c r="E10" t="n">
+        <v>11553</v>
+      </c>
+      <c r="F10" t="n">
+        <v>98.44</v>
+      </c>
+      <c r="G10" t="n">
+        <v>896</v>
+      </c>
+      <c r="H10" t="n">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>10</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>NamelessBeing</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>438452</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>16</v>
+      </c>
+      <c r="E11" t="n">
+        <v>11349</v>
+      </c>
+      <c r="F11" t="n">
+        <v>93.84</v>
+      </c>
+      <c r="G11" t="n">
+        <v>908</v>
+      </c>
+      <c r="H11" t="n">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>11</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>GongErguang</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>602541</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>15</v>
+      </c>
+      <c r="E12" t="n">
+        <v>10191</v>
+      </c>
+      <c r="F12" t="n">
+        <v>95.92</v>
+      </c>
+      <c r="G12" t="n">
+        <v>1107</v>
+      </c>
+      <c r="H12" t="n">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>12</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>hazeiro</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>273807</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>14</v>
+      </c>
+      <c r="E13" t="n">
+        <v>8912</v>
+      </c>
+      <c r="F13" t="n">
+        <v>94.86</v>
+      </c>
+      <c r="G13" t="n">
+        <v>1304</v>
+      </c>
+      <c r="H13" t="n">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>13</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>fffjssgd</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>1286293</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>14</v>
+      </c>
+      <c r="E14" t="n">
+        <v>8009</v>
+      </c>
+      <c r="F14" t="n">
+        <v>89.84</v>
+      </c>
+      <c r="G14" t="n">
+        <v>294</v>
+      </c>
+      <c r="H14" t="n">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>14</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Hetatis</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>12369</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>13</v>
+      </c>
+      <c r="E15" t="n">
+        <v>7601</v>
+      </c>
+      <c r="F15" t="n">
+        <v>97.42</v>
+      </c>
+      <c r="G15" t="n">
+        <v>1132</v>
+      </c>
+      <c r="H15" t="n">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>15</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Alisabe</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>1027052</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>12</v>
+      </c>
+      <c r="E16" t="n">
+        <v>6641</v>
+      </c>
+      <c r="F16" t="n">
+        <v>90.68000000000001</v>
+      </c>
+      <c r="G16" t="n">
+        <v>909</v>
+      </c>
+      <c r="H16" t="n">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>16</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>4keyishard</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>1355966</t>
+        </is>
+      </c>
+      <c r="D17" t="n">
+        <v>12</v>
+      </c>
+      <c r="E17" t="n">
+        <v>6588</v>
+      </c>
+      <c r="F17" t="n">
+        <v>96.56</v>
+      </c>
+      <c r="G17" t="n">
+        <v>1396</v>
+      </c>
+      <c r="H17" t="n">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>17</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Laddie_Amoyensis</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>14851</t>
+        </is>
+      </c>
+      <c r="D18" t="n">
+        <v>12</v>
+      </c>
+      <c r="E18" t="n">
+        <v>6311</v>
+      </c>
+      <c r="F18" t="n">
+        <v>99.59999999999999</v>
+      </c>
+      <c r="G18" t="n">
+        <v>1361</v>
+      </c>
+      <c r="H18" t="n">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>18</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>reonalll</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>201861</t>
+        </is>
+      </c>
+      <c r="D19" t="n">
+        <v>12</v>
+      </c>
+      <c r="E19" t="n">
+        <v>5838</v>
+      </c>
+      <c r="F19" t="n">
+        <v>97.33</v>
+      </c>
+      <c r="G19" t="n">
+        <v>713</v>
+      </c>
+      <c r="H19" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>19</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>asarin</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>1299266</t>
+        </is>
+      </c>
+      <c r="D20" t="n">
+        <v>11</v>
+      </c>
+      <c r="E20" t="n">
+        <v>5487</v>
+      </c>
+      <c r="F20" t="n">
+        <v>83.7</v>
+      </c>
+      <c r="G20" t="n">
+        <v>542</v>
+      </c>
+      <c r="H20" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>20</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Lolimlive</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>545626</t>
+        </is>
+      </c>
+      <c r="D21" t="n">
+        <v>11</v>
+      </c>
+      <c r="E21" t="n">
+        <v>5389</v>
+      </c>
+      <c r="F21" t="n">
+        <v>90.81999999999999</v>
+      </c>
+      <c r="G21" t="n">
+        <v>555</v>
+      </c>
+      <c r="H21" t="n">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>21</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Koishi_Komeiji</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>891658</t>
+        </is>
+      </c>
+      <c r="D22" t="n">
+        <v>11</v>
+      </c>
+      <c r="E22" t="n">
+        <v>5153</v>
+      </c>
+      <c r="F22" t="n">
+        <v>96.56</v>
+      </c>
+      <c r="G22" t="n">
+        <v>1115</v>
+      </c>
+      <c r="H22" t="n">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>22</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>lal_33</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>1725074</t>
+        </is>
+      </c>
+      <c r="D23" t="n">
+        <v>11</v>
+      </c>
+      <c r="E23" t="n">
+        <v>5104</v>
+      </c>
+      <c r="F23" t="n">
+        <v>77.38</v>
+      </c>
+      <c r="G23" t="n">
+        <v>229</v>
+      </c>
+      <c r="H23" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>23</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Yasashima</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>458753</t>
+        </is>
+      </c>
+      <c r="D24" t="n">
+        <v>11</v>
+      </c>
+      <c r="E24" t="n">
+        <v>4823</v>
+      </c>
+      <c r="F24" t="n">
+        <v>93.98</v>
+      </c>
+      <c r="G24" t="n">
+        <v>1050</v>
+      </c>
+      <c r="H24" t="n">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>24</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Yama0113</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>1316662</t>
+        </is>
+      </c>
+      <c r="D25" t="n">
+        <v>10</v>
+      </c>
+      <c r="E25" t="n">
+        <v>4779</v>
+      </c>
+      <c r="F25" t="n">
+        <v>92.44</v>
+      </c>
+      <c r="G25" t="n">
+        <v>905</v>
+      </c>
+      <c r="H25" t="n">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>25</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>abbbs-asc</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>1324121</t>
+        </is>
+      </c>
+      <c r="D26" t="n">
+        <v>10</v>
+      </c>
+      <c r="E26" t="n">
+        <v>4664</v>
+      </c>
+      <c r="F26" t="n">
+        <v>90.95</v>
+      </c>
+      <c r="G26" t="n">
+        <v>615</v>
+      </c>
+      <c r="H26" t="n">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>26</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>333XD</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>400053</t>
+        </is>
+      </c>
+      <c r="D27" t="n">
+        <v>10</v>
+      </c>
+      <c r="E27" t="n">
+        <v>4262</v>
+      </c>
+      <c r="F27" t="n">
+        <v>88.31</v>
+      </c>
+      <c r="G27" t="n">
+        <v>693</v>
+      </c>
+      <c r="H27" t="n">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>27</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>0PoppinParty0</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>398494</t>
+        </is>
+      </c>
+      <c r="D28" t="n">
+        <v>10</v>
+      </c>
+      <c r="E28" t="n">
+        <v>4162</v>
+      </c>
+      <c r="F28" t="n">
+        <v>96.09999999999999</v>
+      </c>
+      <c r="G28" t="n">
+        <v>908</v>
+      </c>
+      <c r="H28" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>28</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>hussm</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>304690</t>
+        </is>
+      </c>
+      <c r="D29" t="n">
+        <v>10</v>
+      </c>
+      <c r="E29" t="n">
+        <v>4042</v>
+      </c>
+      <c r="F29" t="n">
+        <v>92.66</v>
+      </c>
+      <c r="G29" t="n">
+        <v>1121</v>
+      </c>
+      <c r="H29" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>29</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>RenAhah</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>324301</t>
+        </is>
+      </c>
+      <c r="D30" t="n">
+        <v>9</v>
+      </c>
+      <c r="E30" t="n">
+        <v>3959</v>
+      </c>
+      <c r="F30" t="n">
+        <v>88.7</v>
+      </c>
+      <c r="G30" t="n">
+        <v>849</v>
+      </c>
+      <c r="H30" t="n">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>30</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>Zyt1yt</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>841200</t>
+        </is>
+      </c>
+      <c r="D31" t="n">
+        <v>9</v>
+      </c>
+      <c r="E31" t="n">
+        <v>3908</v>
+      </c>
+      <c r="F31" t="n">
+        <v>92.3</v>
+      </c>
+      <c r="G31" t="n">
+        <v>905</v>
+      </c>
+      <c r="H31" t="n">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>31</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>Pop_Slime</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>270248</t>
+        </is>
+      </c>
+      <c r="D32" t="n">
+        <v>9</v>
+      </c>
+      <c r="E32" t="n">
+        <v>3904</v>
+      </c>
+      <c r="F32" t="n">
+        <v>94.84</v>
+      </c>
+      <c r="G32" t="n">
+        <v>736</v>
+      </c>
+      <c r="H32" t="n">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>32</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>aaaa123</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>340859</t>
+        </is>
+      </c>
+      <c r="D33" t="n">
+        <v>9</v>
+      </c>
+      <c r="E33" t="n">
+        <v>3876</v>
+      </c>
+      <c r="F33" t="n">
+        <v>96.17</v>
+      </c>
+      <c r="G33" t="n">
+        <v>1112</v>
+      </c>
+      <c r="H33" t="n">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>33</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>KangBasoTikus</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>486647</t>
+        </is>
+      </c>
+      <c r="D34" t="n">
+        <v>9</v>
+      </c>
+      <c r="E34" t="n">
+        <v>3867</v>
+      </c>
+      <c r="F34" t="n">
+        <v>93.45</v>
+      </c>
+      <c r="G34" t="n">
+        <v>651</v>
+      </c>
+      <c r="H34" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>34</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>Lixinyan</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>1468090</t>
+        </is>
+      </c>
+      <c r="D35" t="n">
+        <v>9</v>
+      </c>
+      <c r="E35" t="n">
+        <v>3543</v>
+      </c>
+      <c r="F35" t="n">
+        <v>79.59</v>
+      </c>
+      <c r="G35" t="n">
+        <v>246</v>
+      </c>
+      <c r="H35" t="n">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>35</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>jyx042223</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>709614</t>
+        </is>
+      </c>
+      <c r="D36" t="n">
+        <v>9</v>
+      </c>
+      <c r="E36" t="n">
+        <v>3446</v>
+      </c>
+      <c r="F36" t="n">
+        <v>91.58</v>
+      </c>
+      <c r="G36" t="n">
+        <v>780</v>
+      </c>
+      <c r="H36" t="n">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>36</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>forcal</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>882296</t>
+        </is>
+      </c>
+      <c r="D37" t="n">
+        <v>8</v>
+      </c>
+      <c r="E37" t="n">
+        <v>3161</v>
+      </c>
+      <c r="F37" t="n">
+        <v>96.90000000000001</v>
+      </c>
+      <c r="G37" t="n">
+        <v>591</v>
+      </c>
+      <c r="H37" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>37</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>nekomyudon</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>835096</t>
+        </is>
+      </c>
+      <c r="D38" t="n">
+        <v>8</v>
+      </c>
+      <c r="E38" t="n">
+        <v>2940</v>
+      </c>
+      <c r="F38" t="n">
+        <v>91.95</v>
+      </c>
+      <c r="G38" t="n">
+        <v>474</v>
+      </c>
+      <c r="H38" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>38</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>ruirongrong</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>1701116</t>
+        </is>
+      </c>
+      <c r="D39" t="n">
+        <v>8</v>
+      </c>
+      <c r="E39" t="n">
+        <v>2930</v>
+      </c>
+      <c r="F39" t="n">
+        <v>87.76000000000001</v>
+      </c>
+      <c r="G39" t="n">
+        <v>282</v>
+      </c>
+      <c r="H39" t="n">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>39</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>-Kori</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>555736</t>
+        </is>
+      </c>
+      <c r="D40" t="n">
+        <v>8</v>
+      </c>
+      <c r="E40" t="n">
+        <v>2848</v>
+      </c>
+      <c r="F40" t="n">
+        <v>93.65000000000001</v>
+      </c>
+      <c r="G40" t="n">
+        <v>1115</v>
+      </c>
+      <c r="H40" t="n">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>40</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>xiyan2002</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>1397671</t>
+        </is>
+      </c>
+      <c r="D41" t="n">
+        <v>8</v>
+      </c>
+      <c r="E41" t="n">
+        <v>2833</v>
+      </c>
+      <c r="F41" t="n">
+        <v>77.47</v>
+      </c>
+      <c r="G41" t="n">
+        <v>626</v>
+      </c>
+      <c r="H41" t="n">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>41</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>[Origami]</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>103320</t>
+        </is>
+      </c>
+      <c r="D42" t="n">
+        <v>8</v>
+      </c>
+      <c r="E42" t="n">
+        <v>2733</v>
+      </c>
+      <c r="F42" t="n">
+        <v>92.81</v>
+      </c>
+      <c r="G42" t="n">
+        <v>879</v>
+      </c>
+      <c r="H42" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>42</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>myhome</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>111787</t>
+        </is>
+      </c>
+      <c r="D43" t="n">
+        <v>7</v>
+      </c>
+      <c r="E43" t="n">
+        <v>2662</v>
+      </c>
+      <c r="F43" t="n">
+        <v>89.73999999999999</v>
+      </c>
+      <c r="G43" t="n">
+        <v>1131</v>
+      </c>
+      <c r="H43" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>43</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>niniin</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>1583128</t>
+        </is>
+      </c>
+      <c r="D44" t="n">
+        <v>7</v>
+      </c>
+      <c r="E44" t="n">
+        <v>2617</v>
+      </c>
+      <c r="F44" t="n">
+        <v>89.29000000000001</v>
+      </c>
+      <c r="G44" t="n">
+        <v>612</v>
+      </c>
+      <c r="H44" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>44</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>AloneHitoriV</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>573162</t>
+        </is>
+      </c>
+      <c r="D45" t="n">
+        <v>7</v>
+      </c>
+      <c r="E45" t="n">
+        <v>2431</v>
+      </c>
+      <c r="F45" t="n">
+        <v>91.25</v>
+      </c>
+      <c r="G45" t="n">
+        <v>595</v>
+      </c>
+      <c r="H45" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>45</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>fkruby</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>1243818</t>
+        </is>
+      </c>
+      <c r="D46" t="n">
+        <v>7</v>
+      </c>
+      <c r="E46" t="n">
+        <v>2280</v>
+      </c>
+      <c r="F46" t="n">
+        <v>93.04000000000001</v>
+      </c>
+      <c r="G46" t="n">
+        <v>705</v>
+      </c>
+      <c r="H46" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>46</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>feat_Konoka</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>1114743</t>
+        </is>
+      </c>
+      <c r="D47" t="n">
+        <v>7</v>
+      </c>
+      <c r="E47" t="n">
+        <v>2272</v>
+      </c>
+      <c r="F47" t="n">
+        <v>97.06</v>
+      </c>
+      <c r="G47" t="n">
+        <v>642</v>
+      </c>
+      <c r="H47" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>47</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>Kurenia</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>90290</t>
+        </is>
+      </c>
+      <c r="D48" t="n">
+        <v>6</v>
+      </c>
+      <c r="E48" t="n">
+        <v>2152</v>
+      </c>
+      <c r="F48" t="n">
+        <v>94.42</v>
+      </c>
+      <c r="G48" t="n">
+        <v>379</v>
+      </c>
+      <c r="H48" t="n">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>48</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>vr_xuni</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>567091</t>
+        </is>
+      </c>
+      <c r="D49" t="n">
+        <v>6</v>
+      </c>
+      <c r="E49" t="n">
+        <v>2151</v>
+      </c>
+      <c r="F49" t="n">
+        <v>96.87</v>
+      </c>
+      <c r="G49" t="n">
+        <v>550</v>
+      </c>
+      <c r="H49" t="n">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>49</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>JisusMP</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>699439</t>
+        </is>
+      </c>
+      <c r="D50" t="n">
+        <v>6</v>
+      </c>
+      <c r="E50" t="n">
+        <v>2146</v>
+      </c>
+      <c r="F50" t="n">
+        <v>96.61</v>
+      </c>
+      <c r="G50" t="n">
+        <v>908</v>
+      </c>
+      <c r="H50" t="n">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>50</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>Qningshow</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>449071</t>
+        </is>
+      </c>
+      <c r="D51" t="n">
+        <v>6</v>
+      </c>
+      <c r="E51" t="n">
+        <v>2115</v>
+      </c>
+      <c r="F51" t="n">
+        <v>93.73999999999999</v>
+      </c>
+      <c r="G51" t="n">
+        <v>534</v>
+      </c>
+      <c r="H51" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>

--- a/mode8.xlsx
+++ b/mode8.xlsx
@@ -1,36 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="mode_8_2025-06-05_00-14" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="mode_8_2025-06-18_18-34" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="mode_8_2025-06-22_20-46" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="mode_8_2025-07-09_00-36" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="mode_8" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="mode_8_2025-08-13_18-47" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="mode_8_2025-08-14_13-27" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="mode_8_2025-08-16_15-26" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="mode_8_2025-09-06_10-52" sheetId="9" state="visible" r:id="rId9"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="mode_8_2025-09-14_00-00" sheetId="10" state="visible" r:id="rId10"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="mode_8_2025-09-26_17-50" sheetId="11" state="visible" r:id="rId11"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="mode_8_2025-10-06_14-54" sheetId="12" state="visible" r:id="rId12"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="mode_8_2025-10-08_13-41" sheetId="13" state="visible" r:id="rId13"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="mode_8_2025-10-10_22-16" sheetId="14" state="visible" r:id="rId14"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="mode_8_2025-10-19_16-41" sheetId="15" state="visible" r:id="rId15"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="mode_8_2025-10-25_13-16" sheetId="16" state="visible" r:id="rId16"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="mode_8_2025-10-26_23-14" sheetId="17" state="visible" r:id="rId17"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="mode_8_2025-10-28_19-03" sheetId="18" state="visible" r:id="rId18"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="mode_8_2025-10-29_20-42" sheetId="19" state="visible" r:id="rId19"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="mode_8_2025-10-30_18-30" sheetId="20" state="visible" r:id="rId20"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="mode_8_2025-11-02_01-40" sheetId="21" state="visible" r:id="rId21"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="mode_8_2025-11-02_18-25" sheetId="22" state="visible" r:id="rId22"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="mode_8_2025-11-02_18-58" sheetId="23" state="visible" r:id="rId23"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="mode_8_2025-11-03_21-37" sheetId="24" state="visible" r:id="rId24"/>
+    <sheet name="mode_8_2025-06-05_00-14" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="mode_8_2025-06-18_18-34" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="mode_8_2025-06-22_20-46" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="mode_8_2025-07-09_00-36" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="mode_8" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="mode_8_2025-08-13_18-47" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="mode_8_2025-08-14_13-27" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="mode_8_2025-08-16_15-26" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="mode_8_2025-09-06_10-52" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet name="mode_8_2025-09-14_00-00" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet name="mode_8_2025-09-26_17-50" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet name="mode_8_2025-10-06_14-54" sheetId="12" state="visible" r:id="rId12"/>
+    <sheet name="mode_8_2025-10-08_13-41" sheetId="13" state="visible" r:id="rId13"/>
+    <sheet name="mode_8_2025-10-10_22-16" sheetId="14" state="visible" r:id="rId14"/>
+    <sheet name="mode_8_2025-10-19_16-41" sheetId="15" state="visible" r:id="rId15"/>
+    <sheet name="mode_8_2025-10-25_13-16" sheetId="16" state="visible" r:id="rId16"/>
+    <sheet name="mode_8_2025-10-26_23-14" sheetId="17" state="visible" r:id="rId17"/>
+    <sheet name="mode_8_2025-10-28_19-03" sheetId="18" state="visible" r:id="rId18"/>
+    <sheet name="mode_8_2025-10-29_20-42" sheetId="19" state="visible" r:id="rId19"/>
+    <sheet name="mode_8_2025-10-30_18-30" sheetId="20" state="visible" r:id="rId20"/>
+    <sheet name="mode_8_2025-11-02_01-40" sheetId="21" state="visible" r:id="rId21"/>
+    <sheet name="mode_8_2025-11-02_18-25" sheetId="22" state="visible" r:id="rId22"/>
+    <sheet name="mode_8_2025-11-02_18-58" sheetId="23" state="visible" r:id="rId23"/>
+    <sheet name="mode_8_2025-11-03_21-37" sheetId="24" state="visible" r:id="rId24"/>
+    <sheet name="mode_8_2025-11-04_18-21" sheetId="25" state="visible" r:id="rId25"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -24939,6 +24940,1567 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H51"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>rank</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>player_id</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>lv</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>exp</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>acc</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>combo</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>pc</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>YA_GAMMER</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>549520</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>35</v>
+      </c>
+      <c r="E2" t="n">
+        <v>158175</v>
+      </c>
+      <c r="F2" t="n">
+        <v>97.08</v>
+      </c>
+      <c r="G2" t="n">
+        <v>1123</v>
+      </c>
+      <c r="H2" t="n">
+        <v>868</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>KrisTheHumanFall</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>473602</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>33</v>
+      </c>
+      <c r="E3" t="n">
+        <v>128588</v>
+      </c>
+      <c r="F3" t="n">
+        <v>96.02</v>
+      </c>
+      <c r="G3" t="n">
+        <v>1141</v>
+      </c>
+      <c r="H3" t="n">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Excited_Naive</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>368505</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>32</v>
+      </c>
+      <c r="E4" t="n">
+        <v>108816</v>
+      </c>
+      <c r="F4" t="n">
+        <v>97.81</v>
+      </c>
+      <c r="G4" t="n">
+        <v>1374</v>
+      </c>
+      <c r="H4" t="n">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>-Koyuki-</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>499151</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>27</v>
+      </c>
+      <c r="E5" t="n">
+        <v>56822</v>
+      </c>
+      <c r="F5" t="n">
+        <v>96.73999999999999</v>
+      </c>
+      <c r="G5" t="n">
+        <v>1130</v>
+      </c>
+      <c r="H5" t="n">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>F0rge</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>1049018</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>21</v>
+      </c>
+      <c r="E6" t="n">
+        <v>25705</v>
+      </c>
+      <c r="F6" t="n">
+        <v>97.77</v>
+      </c>
+      <c r="G6" t="n">
+        <v>1100</v>
+      </c>
+      <c r="H6" t="n">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Merak</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>66313</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>18</v>
+      </c>
+      <c r="E7" t="n">
+        <v>16294</v>
+      </c>
+      <c r="F7" t="n">
+        <v>94.20999999999999</v>
+      </c>
+      <c r="G7" t="n">
+        <v>819</v>
+      </c>
+      <c r="H7" t="n">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Physic_est</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>193938</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>18</v>
+      </c>
+      <c r="E8" t="n">
+        <v>15982</v>
+      </c>
+      <c r="F8" t="n">
+        <v>96.97</v>
+      </c>
+      <c r="G8" t="n">
+        <v>586</v>
+      </c>
+      <c r="H8" t="n">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>8</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>RedCatz</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>587619</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>18</v>
+      </c>
+      <c r="E9" t="n">
+        <v>14867</v>
+      </c>
+      <c r="F9" t="n">
+        <v>97.40000000000001</v>
+      </c>
+      <c r="G9" t="n">
+        <v>1026</v>
+      </c>
+      <c r="H9" t="n">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>9</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>ReLWZJ_X</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>308775</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>16</v>
+      </c>
+      <c r="E10" t="n">
+        <v>11553</v>
+      </c>
+      <c r="F10" t="n">
+        <v>98.44</v>
+      </c>
+      <c r="G10" t="n">
+        <v>896</v>
+      </c>
+      <c r="H10" t="n">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>10</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>NamelessBeing</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>438452</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>16</v>
+      </c>
+      <c r="E11" t="n">
+        <v>11349</v>
+      </c>
+      <c r="F11" t="n">
+        <v>93.84</v>
+      </c>
+      <c r="G11" t="n">
+        <v>908</v>
+      </c>
+      <c r="H11" t="n">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>11</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>GongErguang</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>602541</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>15</v>
+      </c>
+      <c r="E12" t="n">
+        <v>10191</v>
+      </c>
+      <c r="F12" t="n">
+        <v>95.92</v>
+      </c>
+      <c r="G12" t="n">
+        <v>1107</v>
+      </c>
+      <c r="H12" t="n">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>12</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>hazeiro</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>273807</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>14</v>
+      </c>
+      <c r="E13" t="n">
+        <v>8912</v>
+      </c>
+      <c r="F13" t="n">
+        <v>94.86</v>
+      </c>
+      <c r="G13" t="n">
+        <v>1304</v>
+      </c>
+      <c r="H13" t="n">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>13</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>fffjssgd</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>1286293</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>14</v>
+      </c>
+      <c r="E14" t="n">
+        <v>8009</v>
+      </c>
+      <c r="F14" t="n">
+        <v>89.84</v>
+      </c>
+      <c r="G14" t="n">
+        <v>294</v>
+      </c>
+      <c r="H14" t="n">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>14</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Hetatis</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>12369</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>13</v>
+      </c>
+      <c r="E15" t="n">
+        <v>7601</v>
+      </c>
+      <c r="F15" t="n">
+        <v>97.42</v>
+      </c>
+      <c r="G15" t="n">
+        <v>1132</v>
+      </c>
+      <c r="H15" t="n">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>15</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Alisabe</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>1027052</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>12</v>
+      </c>
+      <c r="E16" t="n">
+        <v>6641</v>
+      </c>
+      <c r="F16" t="n">
+        <v>90.68000000000001</v>
+      </c>
+      <c r="G16" t="n">
+        <v>909</v>
+      </c>
+      <c r="H16" t="n">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>16</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>4keyishard</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>1355966</t>
+        </is>
+      </c>
+      <c r="D17" t="n">
+        <v>12</v>
+      </c>
+      <c r="E17" t="n">
+        <v>6588</v>
+      </c>
+      <c r="F17" t="n">
+        <v>96.56</v>
+      </c>
+      <c r="G17" t="n">
+        <v>1396</v>
+      </c>
+      <c r="H17" t="n">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>17</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Laddie_Amoyensis</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>14851</t>
+        </is>
+      </c>
+      <c r="D18" t="n">
+        <v>12</v>
+      </c>
+      <c r="E18" t="n">
+        <v>6311</v>
+      </c>
+      <c r="F18" t="n">
+        <v>99.59999999999999</v>
+      </c>
+      <c r="G18" t="n">
+        <v>1361</v>
+      </c>
+      <c r="H18" t="n">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>18</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>reonalll</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>201861</t>
+        </is>
+      </c>
+      <c r="D19" t="n">
+        <v>12</v>
+      </c>
+      <c r="E19" t="n">
+        <v>5838</v>
+      </c>
+      <c r="F19" t="n">
+        <v>97.33</v>
+      </c>
+      <c r="G19" t="n">
+        <v>713</v>
+      </c>
+      <c r="H19" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>19</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>asarin</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>1299266</t>
+        </is>
+      </c>
+      <c r="D20" t="n">
+        <v>11</v>
+      </c>
+      <c r="E20" t="n">
+        <v>5487</v>
+      </c>
+      <c r="F20" t="n">
+        <v>83.7</v>
+      </c>
+      <c r="G20" t="n">
+        <v>542</v>
+      </c>
+      <c r="H20" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>20</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Lolimlive</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>545626</t>
+        </is>
+      </c>
+      <c r="D21" t="n">
+        <v>11</v>
+      </c>
+      <c r="E21" t="n">
+        <v>5389</v>
+      </c>
+      <c r="F21" t="n">
+        <v>90.81999999999999</v>
+      </c>
+      <c r="G21" t="n">
+        <v>555</v>
+      </c>
+      <c r="H21" t="n">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>21</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Koishi_Komeiji</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>891658</t>
+        </is>
+      </c>
+      <c r="D22" t="n">
+        <v>11</v>
+      </c>
+      <c r="E22" t="n">
+        <v>5153</v>
+      </c>
+      <c r="F22" t="n">
+        <v>96.56</v>
+      </c>
+      <c r="G22" t="n">
+        <v>1115</v>
+      </c>
+      <c r="H22" t="n">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>22</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>lal_33</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>1725074</t>
+        </is>
+      </c>
+      <c r="D23" t="n">
+        <v>11</v>
+      </c>
+      <c r="E23" t="n">
+        <v>5104</v>
+      </c>
+      <c r="F23" t="n">
+        <v>77.38</v>
+      </c>
+      <c r="G23" t="n">
+        <v>229</v>
+      </c>
+      <c r="H23" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>23</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Yasashima</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>458753</t>
+        </is>
+      </c>
+      <c r="D24" t="n">
+        <v>11</v>
+      </c>
+      <c r="E24" t="n">
+        <v>4823</v>
+      </c>
+      <c r="F24" t="n">
+        <v>93.98</v>
+      </c>
+      <c r="G24" t="n">
+        <v>1050</v>
+      </c>
+      <c r="H24" t="n">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>24</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Yama0113</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>1316662</t>
+        </is>
+      </c>
+      <c r="D25" t="n">
+        <v>10</v>
+      </c>
+      <c r="E25" t="n">
+        <v>4779</v>
+      </c>
+      <c r="F25" t="n">
+        <v>92.44</v>
+      </c>
+      <c r="G25" t="n">
+        <v>905</v>
+      </c>
+      <c r="H25" t="n">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>25</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>abbbs-asc</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>1324121</t>
+        </is>
+      </c>
+      <c r="D26" t="n">
+        <v>10</v>
+      </c>
+      <c r="E26" t="n">
+        <v>4664</v>
+      </c>
+      <c r="F26" t="n">
+        <v>90.95</v>
+      </c>
+      <c r="G26" t="n">
+        <v>615</v>
+      </c>
+      <c r="H26" t="n">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>26</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>333XD</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>400053</t>
+        </is>
+      </c>
+      <c r="D27" t="n">
+        <v>10</v>
+      </c>
+      <c r="E27" t="n">
+        <v>4262</v>
+      </c>
+      <c r="F27" t="n">
+        <v>88.31</v>
+      </c>
+      <c r="G27" t="n">
+        <v>693</v>
+      </c>
+      <c r="H27" t="n">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>27</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>0PoppinParty0</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>398494</t>
+        </is>
+      </c>
+      <c r="D28" t="n">
+        <v>10</v>
+      </c>
+      <c r="E28" t="n">
+        <v>4162</v>
+      </c>
+      <c r="F28" t="n">
+        <v>96.09999999999999</v>
+      </c>
+      <c r="G28" t="n">
+        <v>908</v>
+      </c>
+      <c r="H28" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>28</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>hussm</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>304690</t>
+        </is>
+      </c>
+      <c r="D29" t="n">
+        <v>10</v>
+      </c>
+      <c r="E29" t="n">
+        <v>4042</v>
+      </c>
+      <c r="F29" t="n">
+        <v>92.66</v>
+      </c>
+      <c r="G29" t="n">
+        <v>1121</v>
+      </c>
+      <c r="H29" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>29</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>RenAhah</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>324301</t>
+        </is>
+      </c>
+      <c r="D30" t="n">
+        <v>9</v>
+      </c>
+      <c r="E30" t="n">
+        <v>3959</v>
+      </c>
+      <c r="F30" t="n">
+        <v>88.7</v>
+      </c>
+      <c r="G30" t="n">
+        <v>849</v>
+      </c>
+      <c r="H30" t="n">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>30</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>Zyt1yt</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>841200</t>
+        </is>
+      </c>
+      <c r="D31" t="n">
+        <v>9</v>
+      </c>
+      <c r="E31" t="n">
+        <v>3908</v>
+      </c>
+      <c r="F31" t="n">
+        <v>92.3</v>
+      </c>
+      <c r="G31" t="n">
+        <v>905</v>
+      </c>
+      <c r="H31" t="n">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>31</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>Pop_Slime</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>270248</t>
+        </is>
+      </c>
+      <c r="D32" t="n">
+        <v>9</v>
+      </c>
+      <c r="E32" t="n">
+        <v>3904</v>
+      </c>
+      <c r="F32" t="n">
+        <v>94.84</v>
+      </c>
+      <c r="G32" t="n">
+        <v>736</v>
+      </c>
+      <c r="H32" t="n">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>32</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>aaaa123</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>340859</t>
+        </is>
+      </c>
+      <c r="D33" t="n">
+        <v>9</v>
+      </c>
+      <c r="E33" t="n">
+        <v>3876</v>
+      </c>
+      <c r="F33" t="n">
+        <v>96.17</v>
+      </c>
+      <c r="G33" t="n">
+        <v>1112</v>
+      </c>
+      <c r="H33" t="n">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>33</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>KangBasoTikus</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>486647</t>
+        </is>
+      </c>
+      <c r="D34" t="n">
+        <v>9</v>
+      </c>
+      <c r="E34" t="n">
+        <v>3867</v>
+      </c>
+      <c r="F34" t="n">
+        <v>93.45</v>
+      </c>
+      <c r="G34" t="n">
+        <v>651</v>
+      </c>
+      <c r="H34" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>34</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>Lixinyan</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>1468090</t>
+        </is>
+      </c>
+      <c r="D35" t="n">
+        <v>9</v>
+      </c>
+      <c r="E35" t="n">
+        <v>3543</v>
+      </c>
+      <c r="F35" t="n">
+        <v>79.59</v>
+      </c>
+      <c r="G35" t="n">
+        <v>246</v>
+      </c>
+      <c r="H35" t="n">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>35</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>jyx042223</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>709614</t>
+        </is>
+      </c>
+      <c r="D36" t="n">
+        <v>9</v>
+      </c>
+      <c r="E36" t="n">
+        <v>3446</v>
+      </c>
+      <c r="F36" t="n">
+        <v>91.58</v>
+      </c>
+      <c r="G36" t="n">
+        <v>780</v>
+      </c>
+      <c r="H36" t="n">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>36</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>forcal</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>882296</t>
+        </is>
+      </c>
+      <c r="D37" t="n">
+        <v>8</v>
+      </c>
+      <c r="E37" t="n">
+        <v>3161</v>
+      </c>
+      <c r="F37" t="n">
+        <v>96.90000000000001</v>
+      </c>
+      <c r="G37" t="n">
+        <v>591</v>
+      </c>
+      <c r="H37" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>37</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>nekomyudon</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>835096</t>
+        </is>
+      </c>
+      <c r="D38" t="n">
+        <v>8</v>
+      </c>
+      <c r="E38" t="n">
+        <v>2940</v>
+      </c>
+      <c r="F38" t="n">
+        <v>91.95</v>
+      </c>
+      <c r="G38" t="n">
+        <v>474</v>
+      </c>
+      <c r="H38" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>38</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>ruirongrong</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>1701116</t>
+        </is>
+      </c>
+      <c r="D39" t="n">
+        <v>8</v>
+      </c>
+      <c r="E39" t="n">
+        <v>2930</v>
+      </c>
+      <c r="F39" t="n">
+        <v>87.76000000000001</v>
+      </c>
+      <c r="G39" t="n">
+        <v>282</v>
+      </c>
+      <c r="H39" t="n">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>39</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>-Kori</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>555736</t>
+        </is>
+      </c>
+      <c r="D40" t="n">
+        <v>8</v>
+      </c>
+      <c r="E40" t="n">
+        <v>2848</v>
+      </c>
+      <c r="F40" t="n">
+        <v>93.65000000000001</v>
+      </c>
+      <c r="G40" t="n">
+        <v>1115</v>
+      </c>
+      <c r="H40" t="n">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>40</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>xiyan2002</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>1397671</t>
+        </is>
+      </c>
+      <c r="D41" t="n">
+        <v>8</v>
+      </c>
+      <c r="E41" t="n">
+        <v>2833</v>
+      </c>
+      <c r="F41" t="n">
+        <v>77.47</v>
+      </c>
+      <c r="G41" t="n">
+        <v>626</v>
+      </c>
+      <c r="H41" t="n">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>41</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>[Origami]</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>103320</t>
+        </is>
+      </c>
+      <c r="D42" t="n">
+        <v>8</v>
+      </c>
+      <c r="E42" t="n">
+        <v>2733</v>
+      </c>
+      <c r="F42" t="n">
+        <v>92.81</v>
+      </c>
+      <c r="G42" t="n">
+        <v>879</v>
+      </c>
+      <c r="H42" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>42</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>myhome</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>111787</t>
+        </is>
+      </c>
+      <c r="D43" t="n">
+        <v>7</v>
+      </c>
+      <c r="E43" t="n">
+        <v>2662</v>
+      </c>
+      <c r="F43" t="n">
+        <v>89.73999999999999</v>
+      </c>
+      <c r="G43" t="n">
+        <v>1131</v>
+      </c>
+      <c r="H43" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>43</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>niniin</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>1583128</t>
+        </is>
+      </c>
+      <c r="D44" t="n">
+        <v>7</v>
+      </c>
+      <c r="E44" t="n">
+        <v>2617</v>
+      </c>
+      <c r="F44" t="n">
+        <v>89.29000000000001</v>
+      </c>
+      <c r="G44" t="n">
+        <v>612</v>
+      </c>
+      <c r="H44" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>44</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>AloneHitoriV</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>573162</t>
+        </is>
+      </c>
+      <c r="D45" t="n">
+        <v>7</v>
+      </c>
+      <c r="E45" t="n">
+        <v>2431</v>
+      </c>
+      <c r="F45" t="n">
+        <v>91.25</v>
+      </c>
+      <c r="G45" t="n">
+        <v>595</v>
+      </c>
+      <c r="H45" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>45</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>fkruby</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>1243818</t>
+        </is>
+      </c>
+      <c r="D46" t="n">
+        <v>7</v>
+      </c>
+      <c r="E46" t="n">
+        <v>2280</v>
+      </c>
+      <c r="F46" t="n">
+        <v>93.04000000000001</v>
+      </c>
+      <c r="G46" t="n">
+        <v>705</v>
+      </c>
+      <c r="H46" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>46</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>feat_Konoka</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>1114743</t>
+        </is>
+      </c>
+      <c r="D47" t="n">
+        <v>7</v>
+      </c>
+      <c r="E47" t="n">
+        <v>2272</v>
+      </c>
+      <c r="F47" t="n">
+        <v>97.06</v>
+      </c>
+      <c r="G47" t="n">
+        <v>642</v>
+      </c>
+      <c r="H47" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>47</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>Kurenia</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>90290</t>
+        </is>
+      </c>
+      <c r="D48" t="n">
+        <v>6</v>
+      </c>
+      <c r="E48" t="n">
+        <v>2152</v>
+      </c>
+      <c r="F48" t="n">
+        <v>94.42</v>
+      </c>
+      <c r="G48" t="n">
+        <v>379</v>
+      </c>
+      <c r="H48" t="n">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>48</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>vr_xuni</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>567091</t>
+        </is>
+      </c>
+      <c r="D49" t="n">
+        <v>6</v>
+      </c>
+      <c r="E49" t="n">
+        <v>2151</v>
+      </c>
+      <c r="F49" t="n">
+        <v>96.87</v>
+      </c>
+      <c r="G49" t="n">
+        <v>550</v>
+      </c>
+      <c r="H49" t="n">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>49</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>JisusMP</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>699439</t>
+        </is>
+      </c>
+      <c r="D50" t="n">
+        <v>6</v>
+      </c>
+      <c r="E50" t="n">
+        <v>2146</v>
+      </c>
+      <c r="F50" t="n">
+        <v>96.61</v>
+      </c>
+      <c r="G50" t="n">
+        <v>908</v>
+      </c>
+      <c r="H50" t="n">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>50</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>Qningshow</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>449071</t>
+        </is>
+      </c>
+      <c r="D51" t="n">
+        <v>6</v>
+      </c>
+      <c r="E51" t="n">
+        <v>2115</v>
+      </c>
+      <c r="F51" t="n">
+        <v>93.73999999999999</v>
+      </c>
+      <c r="G51" t="n">
+        <v>534</v>
+      </c>
+      <c r="H51" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>

--- a/mode8.xlsx
+++ b/mode8.xlsx
@@ -32,6 +32,7 @@
     <sheet name="mode_8_2025-11-02_18-58" sheetId="23" state="visible" r:id="rId23"/>
     <sheet name="mode_8_2025-11-03_21-37" sheetId="24" state="visible" r:id="rId24"/>
     <sheet name="mode_8_2025-11-04_18-21" sheetId="25" state="visible" r:id="rId25"/>
+    <sheet name="mode_8_2025-11-05_18-09" sheetId="26" state="visible" r:id="rId26"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -26501,6 +26502,1567 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H51"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>rank</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>player_id</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>lv</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>exp</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>acc</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>combo</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>pc</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>YA_GAMMER</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>549520</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>35</v>
+      </c>
+      <c r="E2" t="n">
+        <v>158175</v>
+      </c>
+      <c r="F2" t="n">
+        <v>97.08</v>
+      </c>
+      <c r="G2" t="n">
+        <v>1123</v>
+      </c>
+      <c r="H2" t="n">
+        <v>868</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>KrisTheHumanFall</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>473602</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>33</v>
+      </c>
+      <c r="E3" t="n">
+        <v>128588</v>
+      </c>
+      <c r="F3" t="n">
+        <v>96.02</v>
+      </c>
+      <c r="G3" t="n">
+        <v>1141</v>
+      </c>
+      <c r="H3" t="n">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Excited_Naive</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>368505</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>32</v>
+      </c>
+      <c r="E4" t="n">
+        <v>108816</v>
+      </c>
+      <c r="F4" t="n">
+        <v>97.81</v>
+      </c>
+      <c r="G4" t="n">
+        <v>1374</v>
+      </c>
+      <c r="H4" t="n">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>-Koyuki-</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>499151</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>27</v>
+      </c>
+      <c r="E5" t="n">
+        <v>56822</v>
+      </c>
+      <c r="F5" t="n">
+        <v>96.73999999999999</v>
+      </c>
+      <c r="G5" t="n">
+        <v>1130</v>
+      </c>
+      <c r="H5" t="n">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>F0rge</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>1049018</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>21</v>
+      </c>
+      <c r="E6" t="n">
+        <v>25705</v>
+      </c>
+      <c r="F6" t="n">
+        <v>97.77</v>
+      </c>
+      <c r="G6" t="n">
+        <v>1100</v>
+      </c>
+      <c r="H6" t="n">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Merak</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>66313</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>18</v>
+      </c>
+      <c r="E7" t="n">
+        <v>16294</v>
+      </c>
+      <c r="F7" t="n">
+        <v>94.20999999999999</v>
+      </c>
+      <c r="G7" t="n">
+        <v>819</v>
+      </c>
+      <c r="H7" t="n">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Physic_est</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>193938</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>18</v>
+      </c>
+      <c r="E8" t="n">
+        <v>15982</v>
+      </c>
+      <c r="F8" t="n">
+        <v>96.97</v>
+      </c>
+      <c r="G8" t="n">
+        <v>586</v>
+      </c>
+      <c r="H8" t="n">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>8</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>RedCatz</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>587619</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>18</v>
+      </c>
+      <c r="E9" t="n">
+        <v>14867</v>
+      </c>
+      <c r="F9" t="n">
+        <v>97.40000000000001</v>
+      </c>
+      <c r="G9" t="n">
+        <v>1026</v>
+      </c>
+      <c r="H9" t="n">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>9</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>ReLWZJ_X</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>308775</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>16</v>
+      </c>
+      <c r="E10" t="n">
+        <v>11553</v>
+      </c>
+      <c r="F10" t="n">
+        <v>98.44</v>
+      </c>
+      <c r="G10" t="n">
+        <v>896</v>
+      </c>
+      <c r="H10" t="n">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>10</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>NamelessBeing</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>438452</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>16</v>
+      </c>
+      <c r="E11" t="n">
+        <v>11349</v>
+      </c>
+      <c r="F11" t="n">
+        <v>93.84</v>
+      </c>
+      <c r="G11" t="n">
+        <v>908</v>
+      </c>
+      <c r="H11" t="n">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>11</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>GongErguang</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>602541</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>15</v>
+      </c>
+      <c r="E12" t="n">
+        <v>10191</v>
+      </c>
+      <c r="F12" t="n">
+        <v>95.92</v>
+      </c>
+      <c r="G12" t="n">
+        <v>1107</v>
+      </c>
+      <c r="H12" t="n">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>12</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>hazeiro</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>273807</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>14</v>
+      </c>
+      <c r="E13" t="n">
+        <v>8912</v>
+      </c>
+      <c r="F13" t="n">
+        <v>94.86</v>
+      </c>
+      <c r="G13" t="n">
+        <v>1304</v>
+      </c>
+      <c r="H13" t="n">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>13</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>fffjssgd</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>1286293</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>14</v>
+      </c>
+      <c r="E14" t="n">
+        <v>8009</v>
+      </c>
+      <c r="F14" t="n">
+        <v>89.84</v>
+      </c>
+      <c r="G14" t="n">
+        <v>294</v>
+      </c>
+      <c r="H14" t="n">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>14</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Hetatis</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>12369</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>13</v>
+      </c>
+      <c r="E15" t="n">
+        <v>7601</v>
+      </c>
+      <c r="F15" t="n">
+        <v>97.42</v>
+      </c>
+      <c r="G15" t="n">
+        <v>1132</v>
+      </c>
+      <c r="H15" t="n">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>15</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Alisabe</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>1027052</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>12</v>
+      </c>
+      <c r="E16" t="n">
+        <v>6641</v>
+      </c>
+      <c r="F16" t="n">
+        <v>90.68000000000001</v>
+      </c>
+      <c r="G16" t="n">
+        <v>909</v>
+      </c>
+      <c r="H16" t="n">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>16</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>4keyishard</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>1355966</t>
+        </is>
+      </c>
+      <c r="D17" t="n">
+        <v>12</v>
+      </c>
+      <c r="E17" t="n">
+        <v>6588</v>
+      </c>
+      <c r="F17" t="n">
+        <v>96.56</v>
+      </c>
+      <c r="G17" t="n">
+        <v>1396</v>
+      </c>
+      <c r="H17" t="n">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>17</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Laddie_Amoyensis</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>14851</t>
+        </is>
+      </c>
+      <c r="D18" t="n">
+        <v>12</v>
+      </c>
+      <c r="E18" t="n">
+        <v>6311</v>
+      </c>
+      <c r="F18" t="n">
+        <v>99.59999999999999</v>
+      </c>
+      <c r="G18" t="n">
+        <v>1361</v>
+      </c>
+      <c r="H18" t="n">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>18</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>reonalll</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>201861</t>
+        </is>
+      </c>
+      <c r="D19" t="n">
+        <v>12</v>
+      </c>
+      <c r="E19" t="n">
+        <v>5838</v>
+      </c>
+      <c r="F19" t="n">
+        <v>97.33</v>
+      </c>
+      <c r="G19" t="n">
+        <v>713</v>
+      </c>
+      <c r="H19" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>19</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>asarin</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>1299266</t>
+        </is>
+      </c>
+      <c r="D20" t="n">
+        <v>11</v>
+      </c>
+      <c r="E20" t="n">
+        <v>5487</v>
+      </c>
+      <c r="F20" t="n">
+        <v>83.7</v>
+      </c>
+      <c r="G20" t="n">
+        <v>542</v>
+      </c>
+      <c r="H20" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>20</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Lolimlive</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>545626</t>
+        </is>
+      </c>
+      <c r="D21" t="n">
+        <v>11</v>
+      </c>
+      <c r="E21" t="n">
+        <v>5389</v>
+      </c>
+      <c r="F21" t="n">
+        <v>90.81999999999999</v>
+      </c>
+      <c r="G21" t="n">
+        <v>555</v>
+      </c>
+      <c r="H21" t="n">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>21</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Koishi_Komeiji</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>891658</t>
+        </is>
+      </c>
+      <c r="D22" t="n">
+        <v>11</v>
+      </c>
+      <c r="E22" t="n">
+        <v>5153</v>
+      </c>
+      <c r="F22" t="n">
+        <v>96.56</v>
+      </c>
+      <c r="G22" t="n">
+        <v>1115</v>
+      </c>
+      <c r="H22" t="n">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>22</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>lal_33</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>1725074</t>
+        </is>
+      </c>
+      <c r="D23" t="n">
+        <v>11</v>
+      </c>
+      <c r="E23" t="n">
+        <v>5104</v>
+      </c>
+      <c r="F23" t="n">
+        <v>77.38</v>
+      </c>
+      <c r="G23" t="n">
+        <v>229</v>
+      </c>
+      <c r="H23" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>23</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Yasashima</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>458753</t>
+        </is>
+      </c>
+      <c r="D24" t="n">
+        <v>11</v>
+      </c>
+      <c r="E24" t="n">
+        <v>4823</v>
+      </c>
+      <c r="F24" t="n">
+        <v>93.98</v>
+      </c>
+      <c r="G24" t="n">
+        <v>1050</v>
+      </c>
+      <c r="H24" t="n">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>24</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Yama0113</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>1316662</t>
+        </is>
+      </c>
+      <c r="D25" t="n">
+        <v>10</v>
+      </c>
+      <c r="E25" t="n">
+        <v>4779</v>
+      </c>
+      <c r="F25" t="n">
+        <v>92.44</v>
+      </c>
+      <c r="G25" t="n">
+        <v>905</v>
+      </c>
+      <c r="H25" t="n">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>25</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>abbbs-asc</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>1324121</t>
+        </is>
+      </c>
+      <c r="D26" t="n">
+        <v>10</v>
+      </c>
+      <c r="E26" t="n">
+        <v>4664</v>
+      </c>
+      <c r="F26" t="n">
+        <v>90.95</v>
+      </c>
+      <c r="G26" t="n">
+        <v>615</v>
+      </c>
+      <c r="H26" t="n">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>26</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>333XD</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>400053</t>
+        </is>
+      </c>
+      <c r="D27" t="n">
+        <v>10</v>
+      </c>
+      <c r="E27" t="n">
+        <v>4262</v>
+      </c>
+      <c r="F27" t="n">
+        <v>88.31</v>
+      </c>
+      <c r="G27" t="n">
+        <v>693</v>
+      </c>
+      <c r="H27" t="n">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>27</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>0PoppinParty0</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>398494</t>
+        </is>
+      </c>
+      <c r="D28" t="n">
+        <v>10</v>
+      </c>
+      <c r="E28" t="n">
+        <v>4162</v>
+      </c>
+      <c r="F28" t="n">
+        <v>96.09999999999999</v>
+      </c>
+      <c r="G28" t="n">
+        <v>908</v>
+      </c>
+      <c r="H28" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>28</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>hussm</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>304690</t>
+        </is>
+      </c>
+      <c r="D29" t="n">
+        <v>10</v>
+      </c>
+      <c r="E29" t="n">
+        <v>4042</v>
+      </c>
+      <c r="F29" t="n">
+        <v>92.66</v>
+      </c>
+      <c r="G29" t="n">
+        <v>1121</v>
+      </c>
+      <c r="H29" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>29</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>RenAhah</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>324301</t>
+        </is>
+      </c>
+      <c r="D30" t="n">
+        <v>9</v>
+      </c>
+      <c r="E30" t="n">
+        <v>3959</v>
+      </c>
+      <c r="F30" t="n">
+        <v>88.7</v>
+      </c>
+      <c r="G30" t="n">
+        <v>849</v>
+      </c>
+      <c r="H30" t="n">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>30</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>Zyt1yt</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>841200</t>
+        </is>
+      </c>
+      <c r="D31" t="n">
+        <v>9</v>
+      </c>
+      <c r="E31" t="n">
+        <v>3908</v>
+      </c>
+      <c r="F31" t="n">
+        <v>92.3</v>
+      </c>
+      <c r="G31" t="n">
+        <v>905</v>
+      </c>
+      <c r="H31" t="n">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>31</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>Pop_Slime</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>270248</t>
+        </is>
+      </c>
+      <c r="D32" t="n">
+        <v>9</v>
+      </c>
+      <c r="E32" t="n">
+        <v>3904</v>
+      </c>
+      <c r="F32" t="n">
+        <v>94.84</v>
+      </c>
+      <c r="G32" t="n">
+        <v>736</v>
+      </c>
+      <c r="H32" t="n">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>32</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>aaaa123</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>340859</t>
+        </is>
+      </c>
+      <c r="D33" t="n">
+        <v>9</v>
+      </c>
+      <c r="E33" t="n">
+        <v>3876</v>
+      </c>
+      <c r="F33" t="n">
+        <v>96.17</v>
+      </c>
+      <c r="G33" t="n">
+        <v>1112</v>
+      </c>
+      <c r="H33" t="n">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>33</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>KangBasoTikus</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>486647</t>
+        </is>
+      </c>
+      <c r="D34" t="n">
+        <v>9</v>
+      </c>
+      <c r="E34" t="n">
+        <v>3867</v>
+      </c>
+      <c r="F34" t="n">
+        <v>93.45</v>
+      </c>
+      <c r="G34" t="n">
+        <v>651</v>
+      </c>
+      <c r="H34" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>34</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>Lixinyan</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>1468090</t>
+        </is>
+      </c>
+      <c r="D35" t="n">
+        <v>9</v>
+      </c>
+      <c r="E35" t="n">
+        <v>3543</v>
+      </c>
+      <c r="F35" t="n">
+        <v>79.59</v>
+      </c>
+      <c r="G35" t="n">
+        <v>246</v>
+      </c>
+      <c r="H35" t="n">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>35</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>jyx042223</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>709614</t>
+        </is>
+      </c>
+      <c r="D36" t="n">
+        <v>9</v>
+      </c>
+      <c r="E36" t="n">
+        <v>3446</v>
+      </c>
+      <c r="F36" t="n">
+        <v>91.58</v>
+      </c>
+      <c r="G36" t="n">
+        <v>780</v>
+      </c>
+      <c r="H36" t="n">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>36</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>forcal</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>882296</t>
+        </is>
+      </c>
+      <c r="D37" t="n">
+        <v>8</v>
+      </c>
+      <c r="E37" t="n">
+        <v>3161</v>
+      </c>
+      <c r="F37" t="n">
+        <v>96.90000000000001</v>
+      </c>
+      <c r="G37" t="n">
+        <v>591</v>
+      </c>
+      <c r="H37" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>37</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>nekomyudon</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>835096</t>
+        </is>
+      </c>
+      <c r="D38" t="n">
+        <v>8</v>
+      </c>
+      <c r="E38" t="n">
+        <v>2940</v>
+      </c>
+      <c r="F38" t="n">
+        <v>91.95</v>
+      </c>
+      <c r="G38" t="n">
+        <v>474</v>
+      </c>
+      <c r="H38" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>38</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>ruirongrong</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>1701116</t>
+        </is>
+      </c>
+      <c r="D39" t="n">
+        <v>8</v>
+      </c>
+      <c r="E39" t="n">
+        <v>2930</v>
+      </c>
+      <c r="F39" t="n">
+        <v>87.76000000000001</v>
+      </c>
+      <c r="G39" t="n">
+        <v>282</v>
+      </c>
+      <c r="H39" t="n">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>39</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>-Kori</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>555736</t>
+        </is>
+      </c>
+      <c r="D40" t="n">
+        <v>8</v>
+      </c>
+      <c r="E40" t="n">
+        <v>2848</v>
+      </c>
+      <c r="F40" t="n">
+        <v>93.65000000000001</v>
+      </c>
+      <c r="G40" t="n">
+        <v>1115</v>
+      </c>
+      <c r="H40" t="n">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>40</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>xiyan2002</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>1397671</t>
+        </is>
+      </c>
+      <c r="D41" t="n">
+        <v>8</v>
+      </c>
+      <c r="E41" t="n">
+        <v>2833</v>
+      </c>
+      <c r="F41" t="n">
+        <v>77.47</v>
+      </c>
+      <c r="G41" t="n">
+        <v>626</v>
+      </c>
+      <c r="H41" t="n">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>41</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>[Origami]</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>103320</t>
+        </is>
+      </c>
+      <c r="D42" t="n">
+        <v>8</v>
+      </c>
+      <c r="E42" t="n">
+        <v>2733</v>
+      </c>
+      <c r="F42" t="n">
+        <v>92.81</v>
+      </c>
+      <c r="G42" t="n">
+        <v>879</v>
+      </c>
+      <c r="H42" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>42</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>myhome</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>111787</t>
+        </is>
+      </c>
+      <c r="D43" t="n">
+        <v>7</v>
+      </c>
+      <c r="E43" t="n">
+        <v>2662</v>
+      </c>
+      <c r="F43" t="n">
+        <v>89.73999999999999</v>
+      </c>
+      <c r="G43" t="n">
+        <v>1131</v>
+      </c>
+      <c r="H43" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>43</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>niniin</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>1583128</t>
+        </is>
+      </c>
+      <c r="D44" t="n">
+        <v>7</v>
+      </c>
+      <c r="E44" t="n">
+        <v>2617</v>
+      </c>
+      <c r="F44" t="n">
+        <v>89.29000000000001</v>
+      </c>
+      <c r="G44" t="n">
+        <v>612</v>
+      </c>
+      <c r="H44" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>44</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>AloneHitoriV</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>573162</t>
+        </is>
+      </c>
+      <c r="D45" t="n">
+        <v>7</v>
+      </c>
+      <c r="E45" t="n">
+        <v>2431</v>
+      </c>
+      <c r="F45" t="n">
+        <v>91.25</v>
+      </c>
+      <c r="G45" t="n">
+        <v>595</v>
+      </c>
+      <c r="H45" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>45</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>fkruby</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>1243818</t>
+        </is>
+      </c>
+      <c r="D46" t="n">
+        <v>7</v>
+      </c>
+      <c r="E46" t="n">
+        <v>2280</v>
+      </c>
+      <c r="F46" t="n">
+        <v>93.04000000000001</v>
+      </c>
+      <c r="G46" t="n">
+        <v>705</v>
+      </c>
+      <c r="H46" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>46</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>feat_Konoka</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>1114743</t>
+        </is>
+      </c>
+      <c r="D47" t="n">
+        <v>7</v>
+      </c>
+      <c r="E47" t="n">
+        <v>2272</v>
+      </c>
+      <c r="F47" t="n">
+        <v>97.06</v>
+      </c>
+      <c r="G47" t="n">
+        <v>642</v>
+      </c>
+      <c r="H47" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>47</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>Kurenia</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>90290</t>
+        </is>
+      </c>
+      <c r="D48" t="n">
+        <v>6</v>
+      </c>
+      <c r="E48" t="n">
+        <v>2152</v>
+      </c>
+      <c r="F48" t="n">
+        <v>94.42</v>
+      </c>
+      <c r="G48" t="n">
+        <v>379</v>
+      </c>
+      <c r="H48" t="n">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>48</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>vr_xuni</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>567091</t>
+        </is>
+      </c>
+      <c r="D49" t="n">
+        <v>6</v>
+      </c>
+      <c r="E49" t="n">
+        <v>2151</v>
+      </c>
+      <c r="F49" t="n">
+        <v>96.87</v>
+      </c>
+      <c r="G49" t="n">
+        <v>550</v>
+      </c>
+      <c r="H49" t="n">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>49</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>JisusMP</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>699439</t>
+        </is>
+      </c>
+      <c r="D50" t="n">
+        <v>6</v>
+      </c>
+      <c r="E50" t="n">
+        <v>2146</v>
+      </c>
+      <c r="F50" t="n">
+        <v>96.61</v>
+      </c>
+      <c r="G50" t="n">
+        <v>908</v>
+      </c>
+      <c r="H50" t="n">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>50</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>Qningshow</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>449071</t>
+        </is>
+      </c>
+      <c r="D51" t="n">
+        <v>6</v>
+      </c>
+      <c r="E51" t="n">
+        <v>2115</v>
+      </c>
+      <c r="F51" t="n">
+        <v>93.73999999999999</v>
+      </c>
+      <c r="G51" t="n">
+        <v>534</v>
+      </c>
+      <c r="H51" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>

--- a/mode8.xlsx
+++ b/mode8.xlsx
@@ -33,6 +33,7 @@
     <sheet name="mode_8_2025-11-03_21-37" sheetId="24" state="visible" r:id="rId24"/>
     <sheet name="mode_8_2025-11-04_18-21" sheetId="25" state="visible" r:id="rId25"/>
     <sheet name="mode_8_2025-11-05_18-09" sheetId="26" state="visible" r:id="rId26"/>
+    <sheet name="mode_8_2025-11-06_18-14" sheetId="27" state="visible" r:id="rId27"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -28063,6 +28064,1567 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H51"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>rank</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>player_id</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>lv</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>exp</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>acc</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>combo</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>pc</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>YA_GAMMER</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>549520</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>35</v>
+      </c>
+      <c r="E2" t="n">
+        <v>158175</v>
+      </c>
+      <c r="F2" t="n">
+        <v>97.08</v>
+      </c>
+      <c r="G2" t="n">
+        <v>1123</v>
+      </c>
+      <c r="H2" t="n">
+        <v>868</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>KrisTheHumanFall</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>473602</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>33</v>
+      </c>
+      <c r="E3" t="n">
+        <v>128588</v>
+      </c>
+      <c r="F3" t="n">
+        <v>96.02</v>
+      </c>
+      <c r="G3" t="n">
+        <v>1141</v>
+      </c>
+      <c r="H3" t="n">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Excited_Naive</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>368505</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>32</v>
+      </c>
+      <c r="E4" t="n">
+        <v>108816</v>
+      </c>
+      <c r="F4" t="n">
+        <v>97.81</v>
+      </c>
+      <c r="G4" t="n">
+        <v>1374</v>
+      </c>
+      <c r="H4" t="n">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>-Koyuki-</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>499151</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>27</v>
+      </c>
+      <c r="E5" t="n">
+        <v>56822</v>
+      </c>
+      <c r="F5" t="n">
+        <v>96.73999999999999</v>
+      </c>
+      <c r="G5" t="n">
+        <v>1130</v>
+      </c>
+      <c r="H5" t="n">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>F0rge</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>1049018</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>21</v>
+      </c>
+      <c r="E6" t="n">
+        <v>25705</v>
+      </c>
+      <c r="F6" t="n">
+        <v>97.77</v>
+      </c>
+      <c r="G6" t="n">
+        <v>1100</v>
+      </c>
+      <c r="H6" t="n">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Merak</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>66313</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>18</v>
+      </c>
+      <c r="E7" t="n">
+        <v>16294</v>
+      </c>
+      <c r="F7" t="n">
+        <v>94.20999999999999</v>
+      </c>
+      <c r="G7" t="n">
+        <v>819</v>
+      </c>
+      <c r="H7" t="n">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Physic_est</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>193938</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>18</v>
+      </c>
+      <c r="E8" t="n">
+        <v>15982</v>
+      </c>
+      <c r="F8" t="n">
+        <v>96.97</v>
+      </c>
+      <c r="G8" t="n">
+        <v>586</v>
+      </c>
+      <c r="H8" t="n">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>8</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>RedCatz</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>587619</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>18</v>
+      </c>
+      <c r="E9" t="n">
+        <v>14867</v>
+      </c>
+      <c r="F9" t="n">
+        <v>97.40000000000001</v>
+      </c>
+      <c r="G9" t="n">
+        <v>1026</v>
+      </c>
+      <c r="H9" t="n">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>9</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>ReLWZJ_X</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>308775</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>16</v>
+      </c>
+      <c r="E10" t="n">
+        <v>11553</v>
+      </c>
+      <c r="F10" t="n">
+        <v>98.44</v>
+      </c>
+      <c r="G10" t="n">
+        <v>896</v>
+      </c>
+      <c r="H10" t="n">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>10</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>NamelessBeing</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>438452</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>16</v>
+      </c>
+      <c r="E11" t="n">
+        <v>11349</v>
+      </c>
+      <c r="F11" t="n">
+        <v>93.84</v>
+      </c>
+      <c r="G11" t="n">
+        <v>908</v>
+      </c>
+      <c r="H11" t="n">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>11</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>GongErguang</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>602541</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>15</v>
+      </c>
+      <c r="E12" t="n">
+        <v>10191</v>
+      </c>
+      <c r="F12" t="n">
+        <v>95.92</v>
+      </c>
+      <c r="G12" t="n">
+        <v>1107</v>
+      </c>
+      <c r="H12" t="n">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>12</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>hazeiro</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>273807</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>14</v>
+      </c>
+      <c r="E13" t="n">
+        <v>8912</v>
+      </c>
+      <c r="F13" t="n">
+        <v>94.86</v>
+      </c>
+      <c r="G13" t="n">
+        <v>1304</v>
+      </c>
+      <c r="H13" t="n">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>13</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>fffjssgd</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>1286293</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>14</v>
+      </c>
+      <c r="E14" t="n">
+        <v>8009</v>
+      </c>
+      <c r="F14" t="n">
+        <v>89.84</v>
+      </c>
+      <c r="G14" t="n">
+        <v>294</v>
+      </c>
+      <c r="H14" t="n">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>14</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Hetatis</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>12369</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>13</v>
+      </c>
+      <c r="E15" t="n">
+        <v>7601</v>
+      </c>
+      <c r="F15" t="n">
+        <v>97.42</v>
+      </c>
+      <c r="G15" t="n">
+        <v>1132</v>
+      </c>
+      <c r="H15" t="n">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>15</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Alisabe</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>1027052</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>12</v>
+      </c>
+      <c r="E16" t="n">
+        <v>6641</v>
+      </c>
+      <c r="F16" t="n">
+        <v>90.68000000000001</v>
+      </c>
+      <c r="G16" t="n">
+        <v>909</v>
+      </c>
+      <c r="H16" t="n">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>16</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>4keyishard</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>1355966</t>
+        </is>
+      </c>
+      <c r="D17" t="n">
+        <v>12</v>
+      </c>
+      <c r="E17" t="n">
+        <v>6588</v>
+      </c>
+      <c r="F17" t="n">
+        <v>96.56</v>
+      </c>
+      <c r="G17" t="n">
+        <v>1396</v>
+      </c>
+      <c r="H17" t="n">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>17</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Laddie_Amoyensis</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>14851</t>
+        </is>
+      </c>
+      <c r="D18" t="n">
+        <v>12</v>
+      </c>
+      <c r="E18" t="n">
+        <v>6311</v>
+      </c>
+      <c r="F18" t="n">
+        <v>99.59999999999999</v>
+      </c>
+      <c r="G18" t="n">
+        <v>1361</v>
+      </c>
+      <c r="H18" t="n">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>18</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>reonalll</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>201861</t>
+        </is>
+      </c>
+      <c r="D19" t="n">
+        <v>12</v>
+      </c>
+      <c r="E19" t="n">
+        <v>5838</v>
+      </c>
+      <c r="F19" t="n">
+        <v>97.33</v>
+      </c>
+      <c r="G19" t="n">
+        <v>713</v>
+      </c>
+      <c r="H19" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>19</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>asarin</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>1299266</t>
+        </is>
+      </c>
+      <c r="D20" t="n">
+        <v>11</v>
+      </c>
+      <c r="E20" t="n">
+        <v>5487</v>
+      </c>
+      <c r="F20" t="n">
+        <v>83.7</v>
+      </c>
+      <c r="G20" t="n">
+        <v>542</v>
+      </c>
+      <c r="H20" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>20</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Lolimlive</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>545626</t>
+        </is>
+      </c>
+      <c r="D21" t="n">
+        <v>11</v>
+      </c>
+      <c r="E21" t="n">
+        <v>5389</v>
+      </c>
+      <c r="F21" t="n">
+        <v>90.81999999999999</v>
+      </c>
+      <c r="G21" t="n">
+        <v>555</v>
+      </c>
+      <c r="H21" t="n">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>21</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Koishi_Komeiji</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>891658</t>
+        </is>
+      </c>
+      <c r="D22" t="n">
+        <v>11</v>
+      </c>
+      <c r="E22" t="n">
+        <v>5153</v>
+      </c>
+      <c r="F22" t="n">
+        <v>96.56</v>
+      </c>
+      <c r="G22" t="n">
+        <v>1115</v>
+      </c>
+      <c r="H22" t="n">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>22</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>lal_33</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>1725074</t>
+        </is>
+      </c>
+      <c r="D23" t="n">
+        <v>11</v>
+      </c>
+      <c r="E23" t="n">
+        <v>5104</v>
+      </c>
+      <c r="F23" t="n">
+        <v>77.38</v>
+      </c>
+      <c r="G23" t="n">
+        <v>229</v>
+      </c>
+      <c r="H23" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>23</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Yasashima</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>458753</t>
+        </is>
+      </c>
+      <c r="D24" t="n">
+        <v>11</v>
+      </c>
+      <c r="E24" t="n">
+        <v>4823</v>
+      </c>
+      <c r="F24" t="n">
+        <v>93.98</v>
+      </c>
+      <c r="G24" t="n">
+        <v>1050</v>
+      </c>
+      <c r="H24" t="n">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>24</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Yama0113</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>1316662</t>
+        </is>
+      </c>
+      <c r="D25" t="n">
+        <v>10</v>
+      </c>
+      <c r="E25" t="n">
+        <v>4779</v>
+      </c>
+      <c r="F25" t="n">
+        <v>92.44</v>
+      </c>
+      <c r="G25" t="n">
+        <v>905</v>
+      </c>
+      <c r="H25" t="n">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>25</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>abbbs-asc</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>1324121</t>
+        </is>
+      </c>
+      <c r="D26" t="n">
+        <v>10</v>
+      </c>
+      <c r="E26" t="n">
+        <v>4664</v>
+      </c>
+      <c r="F26" t="n">
+        <v>90.95</v>
+      </c>
+      <c r="G26" t="n">
+        <v>615</v>
+      </c>
+      <c r="H26" t="n">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>26</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>333XD</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>400053</t>
+        </is>
+      </c>
+      <c r="D27" t="n">
+        <v>10</v>
+      </c>
+      <c r="E27" t="n">
+        <v>4262</v>
+      </c>
+      <c r="F27" t="n">
+        <v>88.31</v>
+      </c>
+      <c r="G27" t="n">
+        <v>693</v>
+      </c>
+      <c r="H27" t="n">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>27</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>0PoppinParty0</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>398494</t>
+        </is>
+      </c>
+      <c r="D28" t="n">
+        <v>10</v>
+      </c>
+      <c r="E28" t="n">
+        <v>4162</v>
+      </c>
+      <c r="F28" t="n">
+        <v>96.09999999999999</v>
+      </c>
+      <c r="G28" t="n">
+        <v>908</v>
+      </c>
+      <c r="H28" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>28</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>hussm</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>304690</t>
+        </is>
+      </c>
+      <c r="D29" t="n">
+        <v>10</v>
+      </c>
+      <c r="E29" t="n">
+        <v>4042</v>
+      </c>
+      <c r="F29" t="n">
+        <v>92.66</v>
+      </c>
+      <c r="G29" t="n">
+        <v>1121</v>
+      </c>
+      <c r="H29" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>29</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>RenAhah</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>324301</t>
+        </is>
+      </c>
+      <c r="D30" t="n">
+        <v>9</v>
+      </c>
+      <c r="E30" t="n">
+        <v>3959</v>
+      </c>
+      <c r="F30" t="n">
+        <v>88.7</v>
+      </c>
+      <c r="G30" t="n">
+        <v>849</v>
+      </c>
+      <c r="H30" t="n">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>30</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>Zyt1yt</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>841200</t>
+        </is>
+      </c>
+      <c r="D31" t="n">
+        <v>9</v>
+      </c>
+      <c r="E31" t="n">
+        <v>3908</v>
+      </c>
+      <c r="F31" t="n">
+        <v>92.3</v>
+      </c>
+      <c r="G31" t="n">
+        <v>905</v>
+      </c>
+      <c r="H31" t="n">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>31</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>Pop_Slime</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>270248</t>
+        </is>
+      </c>
+      <c r="D32" t="n">
+        <v>9</v>
+      </c>
+      <c r="E32" t="n">
+        <v>3904</v>
+      </c>
+      <c r="F32" t="n">
+        <v>94.84</v>
+      </c>
+      <c r="G32" t="n">
+        <v>736</v>
+      </c>
+      <c r="H32" t="n">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>32</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>aaaa123</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>340859</t>
+        </is>
+      </c>
+      <c r="D33" t="n">
+        <v>9</v>
+      </c>
+      <c r="E33" t="n">
+        <v>3876</v>
+      </c>
+      <c r="F33" t="n">
+        <v>96.17</v>
+      </c>
+      <c r="G33" t="n">
+        <v>1112</v>
+      </c>
+      <c r="H33" t="n">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>33</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>KangBasoTikus</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>486647</t>
+        </is>
+      </c>
+      <c r="D34" t="n">
+        <v>9</v>
+      </c>
+      <c r="E34" t="n">
+        <v>3867</v>
+      </c>
+      <c r="F34" t="n">
+        <v>93.45</v>
+      </c>
+      <c r="G34" t="n">
+        <v>651</v>
+      </c>
+      <c r="H34" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>34</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>Lixinyan</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>1468090</t>
+        </is>
+      </c>
+      <c r="D35" t="n">
+        <v>9</v>
+      </c>
+      <c r="E35" t="n">
+        <v>3543</v>
+      </c>
+      <c r="F35" t="n">
+        <v>79.59</v>
+      </c>
+      <c r="G35" t="n">
+        <v>246</v>
+      </c>
+      <c r="H35" t="n">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>35</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>jyx042223</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>709614</t>
+        </is>
+      </c>
+      <c r="D36" t="n">
+        <v>9</v>
+      </c>
+      <c r="E36" t="n">
+        <v>3446</v>
+      </c>
+      <c r="F36" t="n">
+        <v>91.58</v>
+      </c>
+      <c r="G36" t="n">
+        <v>780</v>
+      </c>
+      <c r="H36" t="n">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>36</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>forcal</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>882296</t>
+        </is>
+      </c>
+      <c r="D37" t="n">
+        <v>8</v>
+      </c>
+      <c r="E37" t="n">
+        <v>3161</v>
+      </c>
+      <c r="F37" t="n">
+        <v>96.90000000000001</v>
+      </c>
+      <c r="G37" t="n">
+        <v>591</v>
+      </c>
+      <c r="H37" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>37</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>nekomyudon</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>835096</t>
+        </is>
+      </c>
+      <c r="D38" t="n">
+        <v>8</v>
+      </c>
+      <c r="E38" t="n">
+        <v>2940</v>
+      </c>
+      <c r="F38" t="n">
+        <v>91.95</v>
+      </c>
+      <c r="G38" t="n">
+        <v>474</v>
+      </c>
+      <c r="H38" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>38</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>ruirongrong</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>1701116</t>
+        </is>
+      </c>
+      <c r="D39" t="n">
+        <v>8</v>
+      </c>
+      <c r="E39" t="n">
+        <v>2930</v>
+      </c>
+      <c r="F39" t="n">
+        <v>87.76000000000001</v>
+      </c>
+      <c r="G39" t="n">
+        <v>282</v>
+      </c>
+      <c r="H39" t="n">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>39</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>-Kori</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>555736</t>
+        </is>
+      </c>
+      <c r="D40" t="n">
+        <v>8</v>
+      </c>
+      <c r="E40" t="n">
+        <v>2848</v>
+      </c>
+      <c r="F40" t="n">
+        <v>93.65000000000001</v>
+      </c>
+      <c r="G40" t="n">
+        <v>1115</v>
+      </c>
+      <c r="H40" t="n">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>40</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>xiyan2002</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>1397671</t>
+        </is>
+      </c>
+      <c r="D41" t="n">
+        <v>8</v>
+      </c>
+      <c r="E41" t="n">
+        <v>2833</v>
+      </c>
+      <c r="F41" t="n">
+        <v>77.47</v>
+      </c>
+      <c r="G41" t="n">
+        <v>626</v>
+      </c>
+      <c r="H41" t="n">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>41</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>[Origami]</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>103320</t>
+        </is>
+      </c>
+      <c r="D42" t="n">
+        <v>8</v>
+      </c>
+      <c r="E42" t="n">
+        <v>2733</v>
+      </c>
+      <c r="F42" t="n">
+        <v>92.81</v>
+      </c>
+      <c r="G42" t="n">
+        <v>879</v>
+      </c>
+      <c r="H42" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>42</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>myhome</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>111787</t>
+        </is>
+      </c>
+      <c r="D43" t="n">
+        <v>7</v>
+      </c>
+      <c r="E43" t="n">
+        <v>2662</v>
+      </c>
+      <c r="F43" t="n">
+        <v>89.73999999999999</v>
+      </c>
+      <c r="G43" t="n">
+        <v>1131</v>
+      </c>
+      <c r="H43" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>43</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>niniin</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>1583128</t>
+        </is>
+      </c>
+      <c r="D44" t="n">
+        <v>7</v>
+      </c>
+      <c r="E44" t="n">
+        <v>2617</v>
+      </c>
+      <c r="F44" t="n">
+        <v>89.29000000000001</v>
+      </c>
+      <c r="G44" t="n">
+        <v>612</v>
+      </c>
+      <c r="H44" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>44</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>AloneHitoriV</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>573162</t>
+        </is>
+      </c>
+      <c r="D45" t="n">
+        <v>7</v>
+      </c>
+      <c r="E45" t="n">
+        <v>2431</v>
+      </c>
+      <c r="F45" t="n">
+        <v>91.25</v>
+      </c>
+      <c r="G45" t="n">
+        <v>595</v>
+      </c>
+      <c r="H45" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>45</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>fkruby</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>1243818</t>
+        </is>
+      </c>
+      <c r="D46" t="n">
+        <v>7</v>
+      </c>
+      <c r="E46" t="n">
+        <v>2280</v>
+      </c>
+      <c r="F46" t="n">
+        <v>93.04000000000001</v>
+      </c>
+      <c r="G46" t="n">
+        <v>705</v>
+      </c>
+      <c r="H46" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>46</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>feat_Konoka</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>1114743</t>
+        </is>
+      </c>
+      <c r="D47" t="n">
+        <v>7</v>
+      </c>
+      <c r="E47" t="n">
+        <v>2272</v>
+      </c>
+      <c r="F47" t="n">
+        <v>97.06</v>
+      </c>
+      <c r="G47" t="n">
+        <v>642</v>
+      </c>
+      <c r="H47" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>47</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>Kurenia</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>90290</t>
+        </is>
+      </c>
+      <c r="D48" t="n">
+        <v>6</v>
+      </c>
+      <c r="E48" t="n">
+        <v>2152</v>
+      </c>
+      <c r="F48" t="n">
+        <v>94.42</v>
+      </c>
+      <c r="G48" t="n">
+        <v>379</v>
+      </c>
+      <c r="H48" t="n">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>48</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>vr_xuni</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>567091</t>
+        </is>
+      </c>
+      <c r="D49" t="n">
+        <v>6</v>
+      </c>
+      <c r="E49" t="n">
+        <v>2151</v>
+      </c>
+      <c r="F49" t="n">
+        <v>96.87</v>
+      </c>
+      <c r="G49" t="n">
+        <v>550</v>
+      </c>
+      <c r="H49" t="n">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>49</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>JisusMP</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>699439</t>
+        </is>
+      </c>
+      <c r="D50" t="n">
+        <v>6</v>
+      </c>
+      <c r="E50" t="n">
+        <v>2146</v>
+      </c>
+      <c r="F50" t="n">
+        <v>96.61</v>
+      </c>
+      <c r="G50" t="n">
+        <v>908</v>
+      </c>
+      <c r="H50" t="n">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>50</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>Qningshow</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>449071</t>
+        </is>
+      </c>
+      <c r="D51" t="n">
+        <v>6</v>
+      </c>
+      <c r="E51" t="n">
+        <v>2115</v>
+      </c>
+      <c r="F51" t="n">
+        <v>93.73999999999999</v>
+      </c>
+      <c r="G51" t="n">
+        <v>534</v>
+      </c>
+      <c r="H51" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>

--- a/mode8.xlsx
+++ b/mode8.xlsx
@@ -34,6 +34,7 @@
     <sheet name="mode_8_2025-11-04_18-21" sheetId="25" state="visible" r:id="rId25"/>
     <sheet name="mode_8_2025-11-05_18-09" sheetId="26" state="visible" r:id="rId26"/>
     <sheet name="mode_8_2025-11-06_18-14" sheetId="27" state="visible" r:id="rId27"/>
+    <sheet name="mode_8_2025-11-08_03-40" sheetId="28" state="visible" r:id="rId28"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -29625,6 +29626,1567 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H51"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>rank</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>player_id</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>lv</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>exp</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>acc</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>combo</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>pc</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>YA_GAMMER</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>549520</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>35</v>
+      </c>
+      <c r="E2" t="n">
+        <v>158175</v>
+      </c>
+      <c r="F2" t="n">
+        <v>97.08</v>
+      </c>
+      <c r="G2" t="n">
+        <v>1123</v>
+      </c>
+      <c r="H2" t="n">
+        <v>868</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>KrisTheHumanFall</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>473602</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>33</v>
+      </c>
+      <c r="E3" t="n">
+        <v>128588</v>
+      </c>
+      <c r="F3" t="n">
+        <v>96.02</v>
+      </c>
+      <c r="G3" t="n">
+        <v>1141</v>
+      </c>
+      <c r="H3" t="n">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Excited_Naive</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>368505</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>32</v>
+      </c>
+      <c r="E4" t="n">
+        <v>108816</v>
+      </c>
+      <c r="F4" t="n">
+        <v>97.81</v>
+      </c>
+      <c r="G4" t="n">
+        <v>1374</v>
+      </c>
+      <c r="H4" t="n">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>-Koyuki-</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>499151</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>27</v>
+      </c>
+      <c r="E5" t="n">
+        <v>56822</v>
+      </c>
+      <c r="F5" t="n">
+        <v>96.73999999999999</v>
+      </c>
+      <c r="G5" t="n">
+        <v>1130</v>
+      </c>
+      <c r="H5" t="n">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>F0rge</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>1049018</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>21</v>
+      </c>
+      <c r="E6" t="n">
+        <v>25705</v>
+      </c>
+      <c r="F6" t="n">
+        <v>97.77</v>
+      </c>
+      <c r="G6" t="n">
+        <v>1100</v>
+      </c>
+      <c r="H6" t="n">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Merak</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>66313</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>18</v>
+      </c>
+      <c r="E7" t="n">
+        <v>16294</v>
+      </c>
+      <c r="F7" t="n">
+        <v>94.20999999999999</v>
+      </c>
+      <c r="G7" t="n">
+        <v>819</v>
+      </c>
+      <c r="H7" t="n">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Physic_est</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>193938</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>18</v>
+      </c>
+      <c r="E8" t="n">
+        <v>15982</v>
+      </c>
+      <c r="F8" t="n">
+        <v>96.97</v>
+      </c>
+      <c r="G8" t="n">
+        <v>586</v>
+      </c>
+      <c r="H8" t="n">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>8</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>RedCatz</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>587619</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>18</v>
+      </c>
+      <c r="E9" t="n">
+        <v>14867</v>
+      </c>
+      <c r="F9" t="n">
+        <v>97.40000000000001</v>
+      </c>
+      <c r="G9" t="n">
+        <v>1026</v>
+      </c>
+      <c r="H9" t="n">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>9</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>ReLWZJ_X</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>308775</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>16</v>
+      </c>
+      <c r="E10" t="n">
+        <v>11553</v>
+      </c>
+      <c r="F10" t="n">
+        <v>98.44</v>
+      </c>
+      <c r="G10" t="n">
+        <v>896</v>
+      </c>
+      <c r="H10" t="n">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>10</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>NamelessBeing</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>438452</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>16</v>
+      </c>
+      <c r="E11" t="n">
+        <v>11349</v>
+      </c>
+      <c r="F11" t="n">
+        <v>93.84</v>
+      </c>
+      <c r="G11" t="n">
+        <v>908</v>
+      </c>
+      <c r="H11" t="n">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>11</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>GongErguang</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>602541</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>15</v>
+      </c>
+      <c r="E12" t="n">
+        <v>10191</v>
+      </c>
+      <c r="F12" t="n">
+        <v>95.92</v>
+      </c>
+      <c r="G12" t="n">
+        <v>1107</v>
+      </c>
+      <c r="H12" t="n">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>12</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>hazeiro</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>273807</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>14</v>
+      </c>
+      <c r="E13" t="n">
+        <v>8912</v>
+      </c>
+      <c r="F13" t="n">
+        <v>94.86</v>
+      </c>
+      <c r="G13" t="n">
+        <v>1304</v>
+      </c>
+      <c r="H13" t="n">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>13</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>fffjssgd</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>1286293</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>14</v>
+      </c>
+      <c r="E14" t="n">
+        <v>8009</v>
+      </c>
+      <c r="F14" t="n">
+        <v>89.84</v>
+      </c>
+      <c r="G14" t="n">
+        <v>294</v>
+      </c>
+      <c r="H14" t="n">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>14</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Hetatis</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>12369</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>13</v>
+      </c>
+      <c r="E15" t="n">
+        <v>7601</v>
+      </c>
+      <c r="F15" t="n">
+        <v>97.42</v>
+      </c>
+      <c r="G15" t="n">
+        <v>1132</v>
+      </c>
+      <c r="H15" t="n">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>15</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Alisabe</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>1027052</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>12</v>
+      </c>
+      <c r="E16" t="n">
+        <v>6641</v>
+      </c>
+      <c r="F16" t="n">
+        <v>90.68000000000001</v>
+      </c>
+      <c r="G16" t="n">
+        <v>909</v>
+      </c>
+      <c r="H16" t="n">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>16</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>4keyishard</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>1355966</t>
+        </is>
+      </c>
+      <c r="D17" t="n">
+        <v>12</v>
+      </c>
+      <c r="E17" t="n">
+        <v>6588</v>
+      </c>
+      <c r="F17" t="n">
+        <v>96.56</v>
+      </c>
+      <c r="G17" t="n">
+        <v>1396</v>
+      </c>
+      <c r="H17" t="n">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>17</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Laddie_Amoyensis</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>14851</t>
+        </is>
+      </c>
+      <c r="D18" t="n">
+        <v>12</v>
+      </c>
+      <c r="E18" t="n">
+        <v>6311</v>
+      </c>
+      <c r="F18" t="n">
+        <v>99.59999999999999</v>
+      </c>
+      <c r="G18" t="n">
+        <v>1361</v>
+      </c>
+      <c r="H18" t="n">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>18</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>reonalll</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>201861</t>
+        </is>
+      </c>
+      <c r="D19" t="n">
+        <v>12</v>
+      </c>
+      <c r="E19" t="n">
+        <v>5838</v>
+      </c>
+      <c r="F19" t="n">
+        <v>97.33</v>
+      </c>
+      <c r="G19" t="n">
+        <v>713</v>
+      </c>
+      <c r="H19" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>19</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>asarin</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>1299266</t>
+        </is>
+      </c>
+      <c r="D20" t="n">
+        <v>11</v>
+      </c>
+      <c r="E20" t="n">
+        <v>5487</v>
+      </c>
+      <c r="F20" t="n">
+        <v>83.7</v>
+      </c>
+      <c r="G20" t="n">
+        <v>542</v>
+      </c>
+      <c r="H20" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>20</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Lolimlive</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>545626</t>
+        </is>
+      </c>
+      <c r="D21" t="n">
+        <v>11</v>
+      </c>
+      <c r="E21" t="n">
+        <v>5389</v>
+      </c>
+      <c r="F21" t="n">
+        <v>90.81999999999999</v>
+      </c>
+      <c r="G21" t="n">
+        <v>555</v>
+      </c>
+      <c r="H21" t="n">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>21</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Koishi_Komeiji</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>891658</t>
+        </is>
+      </c>
+      <c r="D22" t="n">
+        <v>11</v>
+      </c>
+      <c r="E22" t="n">
+        <v>5153</v>
+      </c>
+      <c r="F22" t="n">
+        <v>96.56</v>
+      </c>
+      <c r="G22" t="n">
+        <v>1115</v>
+      </c>
+      <c r="H22" t="n">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>22</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>lal_33</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>1725074</t>
+        </is>
+      </c>
+      <c r="D23" t="n">
+        <v>11</v>
+      </c>
+      <c r="E23" t="n">
+        <v>5104</v>
+      </c>
+      <c r="F23" t="n">
+        <v>77.38</v>
+      </c>
+      <c r="G23" t="n">
+        <v>229</v>
+      </c>
+      <c r="H23" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>23</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Yasashima</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>458753</t>
+        </is>
+      </c>
+      <c r="D24" t="n">
+        <v>11</v>
+      </c>
+      <c r="E24" t="n">
+        <v>4823</v>
+      </c>
+      <c r="F24" t="n">
+        <v>93.98</v>
+      </c>
+      <c r="G24" t="n">
+        <v>1050</v>
+      </c>
+      <c r="H24" t="n">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>24</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Yama0113</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>1316662</t>
+        </is>
+      </c>
+      <c r="D25" t="n">
+        <v>10</v>
+      </c>
+      <c r="E25" t="n">
+        <v>4779</v>
+      </c>
+      <c r="F25" t="n">
+        <v>92.44</v>
+      </c>
+      <c r="G25" t="n">
+        <v>905</v>
+      </c>
+      <c r="H25" t="n">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>25</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>abbbs-asc</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>1324121</t>
+        </is>
+      </c>
+      <c r="D26" t="n">
+        <v>10</v>
+      </c>
+      <c r="E26" t="n">
+        <v>4664</v>
+      </c>
+      <c r="F26" t="n">
+        <v>90.95</v>
+      </c>
+      <c r="G26" t="n">
+        <v>615</v>
+      </c>
+      <c r="H26" t="n">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>26</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>333XD</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>400053</t>
+        </is>
+      </c>
+      <c r="D27" t="n">
+        <v>10</v>
+      </c>
+      <c r="E27" t="n">
+        <v>4262</v>
+      </c>
+      <c r="F27" t="n">
+        <v>88.31</v>
+      </c>
+      <c r="G27" t="n">
+        <v>693</v>
+      </c>
+      <c r="H27" t="n">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>27</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>0PoppinParty0</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>398494</t>
+        </is>
+      </c>
+      <c r="D28" t="n">
+        <v>10</v>
+      </c>
+      <c r="E28" t="n">
+        <v>4162</v>
+      </c>
+      <c r="F28" t="n">
+        <v>96.09999999999999</v>
+      </c>
+      <c r="G28" t="n">
+        <v>908</v>
+      </c>
+      <c r="H28" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>28</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>hussm</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>304690</t>
+        </is>
+      </c>
+      <c r="D29" t="n">
+        <v>10</v>
+      </c>
+      <c r="E29" t="n">
+        <v>4042</v>
+      </c>
+      <c r="F29" t="n">
+        <v>92.66</v>
+      </c>
+      <c r="G29" t="n">
+        <v>1121</v>
+      </c>
+      <c r="H29" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>29</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>RenAhah</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>324301</t>
+        </is>
+      </c>
+      <c r="D30" t="n">
+        <v>9</v>
+      </c>
+      <c r="E30" t="n">
+        <v>3959</v>
+      </c>
+      <c r="F30" t="n">
+        <v>88.7</v>
+      </c>
+      <c r="G30" t="n">
+        <v>849</v>
+      </c>
+      <c r="H30" t="n">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>30</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>Zyt1yt</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>841200</t>
+        </is>
+      </c>
+      <c r="D31" t="n">
+        <v>9</v>
+      </c>
+      <c r="E31" t="n">
+        <v>3908</v>
+      </c>
+      <c r="F31" t="n">
+        <v>92.3</v>
+      </c>
+      <c r="G31" t="n">
+        <v>905</v>
+      </c>
+      <c r="H31" t="n">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>31</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>Pop_Slime</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>270248</t>
+        </is>
+      </c>
+      <c r="D32" t="n">
+        <v>9</v>
+      </c>
+      <c r="E32" t="n">
+        <v>3904</v>
+      </c>
+      <c r="F32" t="n">
+        <v>94.84</v>
+      </c>
+      <c r="G32" t="n">
+        <v>736</v>
+      </c>
+      <c r="H32" t="n">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>32</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>aaaa123</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>340859</t>
+        </is>
+      </c>
+      <c r="D33" t="n">
+        <v>9</v>
+      </c>
+      <c r="E33" t="n">
+        <v>3876</v>
+      </c>
+      <c r="F33" t="n">
+        <v>96.17</v>
+      </c>
+      <c r="G33" t="n">
+        <v>1112</v>
+      </c>
+      <c r="H33" t="n">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>33</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>KangBasoTikus</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>486647</t>
+        </is>
+      </c>
+      <c r="D34" t="n">
+        <v>9</v>
+      </c>
+      <c r="E34" t="n">
+        <v>3867</v>
+      </c>
+      <c r="F34" t="n">
+        <v>93.45</v>
+      </c>
+      <c r="G34" t="n">
+        <v>651</v>
+      </c>
+      <c r="H34" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>34</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>Lixinyan</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>1468090</t>
+        </is>
+      </c>
+      <c r="D35" t="n">
+        <v>9</v>
+      </c>
+      <c r="E35" t="n">
+        <v>3543</v>
+      </c>
+      <c r="F35" t="n">
+        <v>79.59</v>
+      </c>
+      <c r="G35" t="n">
+        <v>246</v>
+      </c>
+      <c r="H35" t="n">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>35</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>jyx042223</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>709614</t>
+        </is>
+      </c>
+      <c r="D36" t="n">
+        <v>9</v>
+      </c>
+      <c r="E36" t="n">
+        <v>3446</v>
+      </c>
+      <c r="F36" t="n">
+        <v>91.58</v>
+      </c>
+      <c r="G36" t="n">
+        <v>780</v>
+      </c>
+      <c r="H36" t="n">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>36</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>forcal</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>882296</t>
+        </is>
+      </c>
+      <c r="D37" t="n">
+        <v>8</v>
+      </c>
+      <c r="E37" t="n">
+        <v>3161</v>
+      </c>
+      <c r="F37" t="n">
+        <v>96.90000000000001</v>
+      </c>
+      <c r="G37" t="n">
+        <v>591</v>
+      </c>
+      <c r="H37" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>37</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>nekomyudon</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>835096</t>
+        </is>
+      </c>
+      <c r="D38" t="n">
+        <v>8</v>
+      </c>
+      <c r="E38" t="n">
+        <v>2940</v>
+      </c>
+      <c r="F38" t="n">
+        <v>91.95</v>
+      </c>
+      <c r="G38" t="n">
+        <v>474</v>
+      </c>
+      <c r="H38" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>38</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>ruirongrong</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>1701116</t>
+        </is>
+      </c>
+      <c r="D39" t="n">
+        <v>8</v>
+      </c>
+      <c r="E39" t="n">
+        <v>2930</v>
+      </c>
+      <c r="F39" t="n">
+        <v>87.76000000000001</v>
+      </c>
+      <c r="G39" t="n">
+        <v>282</v>
+      </c>
+      <c r="H39" t="n">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>39</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>-Kori</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>555736</t>
+        </is>
+      </c>
+      <c r="D40" t="n">
+        <v>8</v>
+      </c>
+      <c r="E40" t="n">
+        <v>2848</v>
+      </c>
+      <c r="F40" t="n">
+        <v>93.65000000000001</v>
+      </c>
+      <c r="G40" t="n">
+        <v>1115</v>
+      </c>
+      <c r="H40" t="n">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>40</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>xiyan2002</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>1397671</t>
+        </is>
+      </c>
+      <c r="D41" t="n">
+        <v>8</v>
+      </c>
+      <c r="E41" t="n">
+        <v>2833</v>
+      </c>
+      <c r="F41" t="n">
+        <v>77.47</v>
+      </c>
+      <c r="G41" t="n">
+        <v>626</v>
+      </c>
+      <c r="H41" t="n">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>41</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>[Origami]</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>103320</t>
+        </is>
+      </c>
+      <c r="D42" t="n">
+        <v>8</v>
+      </c>
+      <c r="E42" t="n">
+        <v>2733</v>
+      </c>
+      <c r="F42" t="n">
+        <v>92.81</v>
+      </c>
+      <c r="G42" t="n">
+        <v>879</v>
+      </c>
+      <c r="H42" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>42</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>myhome</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>111787</t>
+        </is>
+      </c>
+      <c r="D43" t="n">
+        <v>7</v>
+      </c>
+      <c r="E43" t="n">
+        <v>2662</v>
+      </c>
+      <c r="F43" t="n">
+        <v>89.73999999999999</v>
+      </c>
+      <c r="G43" t="n">
+        <v>1131</v>
+      </c>
+      <c r="H43" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>43</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>niniin</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>1583128</t>
+        </is>
+      </c>
+      <c r="D44" t="n">
+        <v>7</v>
+      </c>
+      <c r="E44" t="n">
+        <v>2617</v>
+      </c>
+      <c r="F44" t="n">
+        <v>89.29000000000001</v>
+      </c>
+      <c r="G44" t="n">
+        <v>612</v>
+      </c>
+      <c r="H44" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>44</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>AloneHitoriV</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>573162</t>
+        </is>
+      </c>
+      <c r="D45" t="n">
+        <v>7</v>
+      </c>
+      <c r="E45" t="n">
+        <v>2431</v>
+      </c>
+      <c r="F45" t="n">
+        <v>91.25</v>
+      </c>
+      <c r="G45" t="n">
+        <v>595</v>
+      </c>
+      <c r="H45" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>45</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>fkruby</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>1243818</t>
+        </is>
+      </c>
+      <c r="D46" t="n">
+        <v>7</v>
+      </c>
+      <c r="E46" t="n">
+        <v>2280</v>
+      </c>
+      <c r="F46" t="n">
+        <v>93.04000000000001</v>
+      </c>
+      <c r="G46" t="n">
+        <v>705</v>
+      </c>
+      <c r="H46" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>46</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>feat_Konoka</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>1114743</t>
+        </is>
+      </c>
+      <c r="D47" t="n">
+        <v>7</v>
+      </c>
+      <c r="E47" t="n">
+        <v>2272</v>
+      </c>
+      <c r="F47" t="n">
+        <v>97.06</v>
+      </c>
+      <c r="G47" t="n">
+        <v>642</v>
+      </c>
+      <c r="H47" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>47</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>Kurenia</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>90290</t>
+        </is>
+      </c>
+      <c r="D48" t="n">
+        <v>6</v>
+      </c>
+      <c r="E48" t="n">
+        <v>2152</v>
+      </c>
+      <c r="F48" t="n">
+        <v>94.42</v>
+      </c>
+      <c r="G48" t="n">
+        <v>379</v>
+      </c>
+      <c r="H48" t="n">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>48</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>vr_xuni</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>567091</t>
+        </is>
+      </c>
+      <c r="D49" t="n">
+        <v>6</v>
+      </c>
+      <c r="E49" t="n">
+        <v>2151</v>
+      </c>
+      <c r="F49" t="n">
+        <v>96.87</v>
+      </c>
+      <c r="G49" t="n">
+        <v>550</v>
+      </c>
+      <c r="H49" t="n">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>49</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>JisusMP</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>699439</t>
+        </is>
+      </c>
+      <c r="D50" t="n">
+        <v>6</v>
+      </c>
+      <c r="E50" t="n">
+        <v>2146</v>
+      </c>
+      <c r="F50" t="n">
+        <v>96.61</v>
+      </c>
+      <c r="G50" t="n">
+        <v>908</v>
+      </c>
+      <c r="H50" t="n">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>50</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>Qningshow</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>449071</t>
+        </is>
+      </c>
+      <c r="D51" t="n">
+        <v>6</v>
+      </c>
+      <c r="E51" t="n">
+        <v>2115</v>
+      </c>
+      <c r="F51" t="n">
+        <v>93.73999999999999</v>
+      </c>
+      <c r="G51" t="n">
+        <v>534</v>
+      </c>
+      <c r="H51" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
